--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85435706-CF6F-416C-8C1A-23A9FF5AA50A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFCBF6C-CF7A-422D-AB94-52279D2CC284}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1327,6 +1327,105 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1351,15 +1450,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1369,101 +1459,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1499,10 +1499,10 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="194" name="群組 193">
+        <xdr:cNvPr id="2" name="群組 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F97A111B-AC20-4E04-AAC1-82C633E2EED5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3D5A561-98CA-4989-BFC7-681878446D29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1512,8 +1512,8 @@
         <a:xfrm>
           <a:off x="10087506" y="4307774"/>
           <a:ext cx="10013870" cy="14306797"/>
-          <a:chOff x="10931236" y="5910942"/>
-          <a:chExt cx="10044547" cy="14358258"/>
+          <a:chOff x="10087506" y="4307774"/>
+          <a:chExt cx="10013870" cy="14306797"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1529,8 +1529,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12995563" y="9157855"/>
-            <a:ext cx="1676400" cy="3255818"/>
+            <a:off x="12145528" y="7543050"/>
+            <a:ext cx="1671280" cy="3244149"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartPunchedCard">
             <a:avLst/>
@@ -1582,8 +1582,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14676854" y="9157854"/>
-            <a:ext cx="1662546" cy="3255819"/>
+            <a:off x="13821685" y="7543049"/>
+            <a:ext cx="1657468" cy="3244150"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1637,8 +1637,8 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="13653657" y="10083373"/>
-            <a:ext cx="911839" cy="1282594"/>
+            <a:off x="12801612" y="8465251"/>
+            <a:ext cx="909054" cy="1277997"/>
             <a:chOff x="13628915" y="10192229"/>
             <a:chExt cx="911839" cy="1282594"/>
           </a:xfrm>
@@ -1749,8 +1749,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12799155" y="11991515"/>
-            <a:ext cx="1855695" cy="484094"/>
+            <a:off x="11949720" y="10366554"/>
+            <a:ext cx="1850028" cy="482359"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1803,8 +1803,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="15369871" y="11976208"/>
-            <a:ext cx="1326777" cy="487295"/>
+            <a:off x="14512585" y="10351302"/>
+            <a:ext cx="1322725" cy="485549"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1857,8 +1857,8 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="15139232" y="9608474"/>
-            <a:ext cx="797859" cy="2178833"/>
+            <a:off x="14282650" y="7992054"/>
+            <a:ext cx="795422" cy="2171024"/>
             <a:chOff x="15096564" y="9879106"/>
             <a:chExt cx="797859" cy="2169460"/>
           </a:xfrm>
@@ -2110,8 +2110,8 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="13261770" y="10493828"/>
-            <a:ext cx="566058" cy="566058"/>
+            <a:off x="12410922" y="8874235"/>
+            <a:ext cx="564329" cy="564029"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2131,8 +2131,8 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="16078666" y="5910942"/>
-            <a:ext cx="1855695" cy="1360075"/>
+            <a:off x="15219215" y="4307774"/>
+            <a:ext cx="1850028" cy="1355200"/>
             <a:chOff x="14327056" y="5569999"/>
             <a:chExt cx="1855695" cy="1354170"/>
           </a:xfrm>
@@ -2243,8 +2243,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="16115805" y="7775370"/>
-            <a:ext cx="1837707" cy="1115291"/>
+            <a:off x="15256241" y="6165520"/>
+            <a:ext cx="1832094" cy="1111294"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartDecision">
             <a:avLst/>
@@ -2340,8 +2340,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="17609127" y="9171709"/>
-            <a:ext cx="1676400" cy="3255818"/>
+            <a:off x="16745002" y="7556854"/>
+            <a:ext cx="1671280" cy="3244149"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartPunchedCard">
             <a:avLst/>
@@ -2402,8 +2402,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="18090372" y="9532452"/>
-            <a:ext cx="779929" cy="484094"/>
+            <a:off x="17224777" y="7916304"/>
+            <a:ext cx="777547" cy="482359"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2473,8 +2473,8 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="18023951" y="9706332"/>
-            <a:ext cx="924179" cy="916845"/>
+            <a:off x="17158559" y="8089561"/>
+            <a:ext cx="921356" cy="913559"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2494,8 +2494,8 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="16810230" y="8999285"/>
-            <a:ext cx="2067809" cy="2195712"/>
+            <a:off x="15948545" y="7385048"/>
+            <a:ext cx="2061494" cy="2187842"/>
             <a:chOff x="12432658" y="8480611"/>
             <a:chExt cx="2061350" cy="2195712"/>
           </a:xfrm>
@@ -2622,8 +2622,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="17221491" y="12012067"/>
-            <a:ext cx="1329221" cy="487295"/>
+            <a:off x="16358550" y="10387032"/>
+            <a:ext cx="1325161" cy="485549"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2676,8 +2676,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="16043563" y="12579926"/>
-            <a:ext cx="1939636" cy="1001791"/>
+            <a:off x="15184219" y="10952856"/>
+            <a:ext cx="1933712" cy="998201"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartAlternateProcess">
             <a:avLst/>
@@ -2733,8 +2733,8 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="13257288" y="14865927"/>
-            <a:ext cx="1855695" cy="2438400"/>
+            <a:off x="12406454" y="13230664"/>
+            <a:ext cx="1850028" cy="2429661"/>
             <a:chOff x="13686780" y="14893636"/>
             <a:chExt cx="1855695" cy="2438400"/>
           </a:xfrm>
@@ -2861,8 +2861,8 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="13271179" y="12169453"/>
-            <a:ext cx="2437550" cy="1645508"/>
+            <a:off x="12420303" y="10543854"/>
+            <a:ext cx="2430105" cy="1639610"/>
             <a:chOff x="13492852" y="12183307"/>
             <a:chExt cx="2437550" cy="1645508"/>
           </a:xfrm>
@@ -2989,8 +2989,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="18772909" y="14962908"/>
-            <a:ext cx="2202874" cy="1496291"/>
+            <a:off x="17905230" y="13327297"/>
+            <a:ext cx="2196146" cy="1490928"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartDecision">
             <a:avLst/>
@@ -3068,8 +3068,8 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="16231934" y="14810505"/>
-            <a:ext cx="2097628" cy="2272150"/>
+            <a:off x="15372015" y="13175440"/>
+            <a:ext cx="2091222" cy="2264006"/>
             <a:chOff x="16231934" y="15406250"/>
             <a:chExt cx="2097628" cy="2272150"/>
           </a:xfrm>
@@ -3292,8 +3292,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12178145" y="17816946"/>
-            <a:ext cx="1607128" cy="1964254"/>
+            <a:off x="11330607" y="16171106"/>
+            <a:ext cx="1602220" cy="1957214"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartPunchedCard">
             <a:avLst/>
@@ -3354,8 +3354,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14602691" y="17830801"/>
-            <a:ext cx="1537854" cy="1964254"/>
+            <a:off x="13747748" y="16184911"/>
+            <a:ext cx="1533157" cy="1957214"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartPunchedCard">
             <a:avLst/>
@@ -3414,8 +3414,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11995591" y="19320570"/>
-            <a:ext cx="1855695" cy="484094"/>
+            <a:off x="11148610" y="17669341"/>
+            <a:ext cx="1850028" cy="482359"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3468,8 +3468,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14627955" y="19334425"/>
-            <a:ext cx="1855695" cy="484094"/>
+            <a:off x="13772935" y="17683146"/>
+            <a:ext cx="1850028" cy="482359"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3522,8 +3522,8 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="14865928" y="17983200"/>
-            <a:ext cx="1381371" cy="1385451"/>
+            <a:off x="14010181" y="16336764"/>
+            <a:ext cx="1377152" cy="1380485"/>
             <a:chOff x="14921346" y="18094036"/>
             <a:chExt cx="1381371" cy="1385451"/>
           </a:xfrm>
@@ -3650,8 +3650,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14020800" y="13702146"/>
-            <a:ext cx="13855" cy="1302327"/>
+            <a:off x="13167634" y="12071054"/>
+            <a:ext cx="13813" cy="1297659"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -3690,8 +3690,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12920697" y="13854541"/>
-            <a:ext cx="1165292" cy="706582"/>
+            <a:off x="12070891" y="12222903"/>
+            <a:ext cx="1161733" cy="704050"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3744,8 +3744,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14117782" y="13619018"/>
-            <a:ext cx="2258291" cy="1440873"/>
+            <a:off x="13264320" y="11988224"/>
+            <a:ext cx="2251394" cy="1435709"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -3787,8 +3787,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="15414516" y="13868397"/>
-            <a:ext cx="1723558" cy="698962"/>
+            <a:off x="14557094" y="12236709"/>
+            <a:ext cx="1718294" cy="696457"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3841,8 +3841,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="17733818" y="15697200"/>
-            <a:ext cx="900545" cy="13855"/>
+            <a:off x="16869312" y="14058957"/>
+            <a:ext cx="897795" cy="13805"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -3884,8 +3884,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1" flipV="1">
-            <a:off x="15336983" y="13078691"/>
-            <a:ext cx="637308" cy="13854"/>
+            <a:off x="14479797" y="11449833"/>
+            <a:ext cx="635362" cy="13804"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -3927,8 +3927,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="15442225" y="12510652"/>
-            <a:ext cx="615193" cy="698962"/>
+            <a:off x="14584718" y="10883830"/>
+            <a:ext cx="613314" cy="696457"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3981,8 +3981,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="15794182" y="11513128"/>
-            <a:ext cx="2521527" cy="0"/>
+            <a:off x="14935600" y="9889881"/>
+            <a:ext cx="2513826" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -4029,8 +4029,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="16730698" y="10982696"/>
-            <a:ext cx="587484" cy="601978"/>
+            <a:off x="15869256" y="9361350"/>
+            <a:ext cx="585690" cy="599820"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4083,8 +4083,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1">
-            <a:off x="17010938" y="11617971"/>
-            <a:ext cx="4538" cy="887793"/>
+            <a:off x="16148640" y="9994349"/>
+            <a:ext cx="4524" cy="884611"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4132,8 +4132,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="15438912" y="8154389"/>
-            <a:ext cx="631372" cy="1465614"/>
+            <a:off x="14581415" y="6543180"/>
+            <a:ext cx="629444" cy="1460361"/>
           </a:xfrm>
           <a:prstGeom prst="bentArrow">
             <a:avLst/>
@@ -4181,8 +4181,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1">
-            <a:off x="17986170" y="8187046"/>
-            <a:ext cx="572984" cy="1494313"/>
+            <a:off x="17120894" y="6575720"/>
+            <a:ext cx="571234" cy="1488957"/>
           </a:xfrm>
           <a:prstGeom prst="bentArrow">
             <a:avLst/>
@@ -4230,8 +4230,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="16875828" y="7196446"/>
-            <a:ext cx="293913" cy="522514"/>
+            <a:off x="16013943" y="5588671"/>
+            <a:ext cx="293015" cy="520641"/>
           </a:xfrm>
           <a:prstGeom prst="upArrow">
             <a:avLst/>
@@ -4275,8 +4275,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="13064836" y="16514619"/>
-            <a:ext cx="471055" cy="1108363"/>
+            <a:off x="12214590" y="14873447"/>
+            <a:ext cx="469616" cy="1104391"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4318,8 +4318,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1" flipV="1">
-            <a:off x="14852074" y="16528472"/>
-            <a:ext cx="595744" cy="1149928"/>
+            <a:off x="13996369" y="14887250"/>
+            <a:ext cx="593925" cy="1145807"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4361,8 +4361,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="15711054" y="16777855"/>
-            <a:ext cx="955964" cy="1399310"/>
+            <a:off x="14852726" y="15135739"/>
+            <a:ext cx="953044" cy="1394295"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4403,8 +4403,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="16301207" y="17110360"/>
-            <a:ext cx="1723558" cy="698962"/>
+            <a:off x="15441077" y="15467053"/>
+            <a:ext cx="1718294" cy="696457"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4457,8 +4457,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm rot="5400000" flipH="1" flipV="1">
-            <a:off x="9515523" y="12308196"/>
-            <a:ext cx="13768617" cy="2014848"/>
+            <a:off x="8679765" y="10681566"/>
+            <a:ext cx="13719269" cy="2008694"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector4">
             <a:avLst>
@@ -4498,8 +4498,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14569389" y="19881271"/>
-            <a:ext cx="1695847" cy="387929"/>
+            <a:off x="13714548" y="18228032"/>
+            <a:ext cx="1690668" cy="386539"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4556,8 +4556,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="18795026" y="8063345"/>
-            <a:ext cx="1848248" cy="962197"/>
+            <a:off x="17927279" y="6452463"/>
+            <a:ext cx="1842603" cy="958748"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4614,8 +4614,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10931236" y="8340436"/>
-            <a:ext cx="1607128" cy="387928"/>
+            <a:off x="10087506" y="6728561"/>
+            <a:ext cx="1602220" cy="386538"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4671,8 +4671,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10931236" y="8936182"/>
-            <a:ext cx="1607128" cy="387928"/>
+            <a:off x="10087506" y="7322171"/>
+            <a:ext cx="1602220" cy="386538"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4741,8 +4741,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10931236" y="9504218"/>
-            <a:ext cx="1607128" cy="387928"/>
+            <a:off x="10087506" y="7888171"/>
+            <a:ext cx="1602220" cy="386538"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4800,8 +4800,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10931236" y="10058400"/>
-            <a:ext cx="1607128" cy="387928"/>
+            <a:off x="10087506" y="8440367"/>
+            <a:ext cx="1602220" cy="386538"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4844,6 +4844,44 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="76" name="圖形 75" descr="男人">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A30BEFC-EE7B-4E04-9D70-57B9D93029D7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="17304736" y="9565574"/>
+            <a:ext cx="624036" cy="625456"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -5177,248 +5215,248 @@
   <dimension ref="B1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R24" sqref="R24"/>
+      <pane ySplit="7" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="21" customWidth="1"/>
-    <col min="2" max="2" width="9" style="21"/>
-    <col min="3" max="3" width="14.875" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="127.875" style="21" customWidth="1"/>
-    <col min="5" max="6" width="9" style="21"/>
-    <col min="7" max="7" width="10.625" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.25" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="91.375" style="21" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="21"/>
+    <col min="1" max="1" width="2.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="9" style="10"/>
+    <col min="3" max="3" width="14.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="127.875" style="10" customWidth="1"/>
+    <col min="5" max="6" width="9" style="10"/>
+    <col min="7" max="7" width="10.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="91.375" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="41"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="F4" s="22"/>
+      <c r="D4" s="43"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="F5" s="23"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="2:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="F6" s="24"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="25"/>
+    <row r="7" spans="2:9" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="14"/>
     </row>
     <row r="8" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="G9" s="31" t="s">
+      <c r="D9" s="52"/>
+      <c r="G9" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="46"/>
-      <c r="I9" s="47"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="49" t="s">
+      <c r="I10" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="45" t="s">
+      <c r="H11" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="20" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="45" t="s">
+      <c r="H12" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="20" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="45" t="s">
+      <c r="H13" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="37" t="s">
+      <c r="I13" s="20" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="15"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="45" t="s">
+      <c r="H14" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="I14" s="20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="15"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="45" t="s">
+      <c r="H15" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="15"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="50" t="s">
+      <c r="G16" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="51" t="s">
+      <c r="H16" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="52" t="s">
+      <c r="I16" s="29" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="C17" s="15"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="C18" s="15"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="C19" s="15"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="3:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="C20" s="15"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="C21" s="16"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="90" x14ac:dyDescent="0.3">
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="3:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="3:4" ht="126.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="3:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="32"/>
+      <c r="D27" s="33"/>
     </row>
     <row r="28" spans="3:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5426,81 +5464,81 @@
       <c r="C29" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="19" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="3:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="C30" s="36"/>
-      <c r="D30" s="37" t="s">
+      <c r="C30" s="35"/>
+      <c r="D30" s="20" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="3:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="C31" s="36"/>
-      <c r="D31" s="37" t="s">
+      <c r="C31" s="35"/>
+      <c r="D31" s="20" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" spans="3:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="C32" s="36"/>
-      <c r="D32" s="37" t="s">
+      <c r="C32" s="35"/>
+      <c r="D32" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="33" spans="3:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="C33" s="38"/>
-      <c r="D33" s="37" t="s">
+      <c r="C33" s="36"/>
+      <c r="D33" s="20" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="34" spans="3:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="20" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="35" spans="3:4" ht="162" x14ac:dyDescent="0.3">
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="20" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="36" spans="3:4" ht="162" x14ac:dyDescent="0.3">
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="37" spans="3:4" ht="126" x14ac:dyDescent="0.3">
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="21" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="38" spans="3:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="C38" s="41"/>
-      <c r="D38" s="39" t="s">
+      <c r="C38" s="38"/>
+      <c r="D38" s="21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="39" spans="3:4" ht="162" x14ac:dyDescent="0.3">
-      <c r="C39" s="41"/>
-      <c r="D39" s="39" t="s">
+      <c r="C39" s="38"/>
+      <c r="D39" s="21" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="40" spans="3:4" ht="90.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="42"/>
-      <c r="D40" s="43" t="s">
+      <c r="C40" s="39"/>
+      <c r="D40" s="22" t="s">
         <v>45</v>
       </c>
     </row>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFCBF6C-CF7A-422D-AB94-52279D2CC284}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1638EE82-80C9-4818-BC3F-2059EBC4F408}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4614,7 +4614,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10087506" y="6728561"/>
+            <a:off x="10087506" y="8328761"/>
             <a:ext cx="1602220" cy="386538"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4671,7 +4671,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10087506" y="7322171"/>
+            <a:off x="10087506" y="8922371"/>
             <a:ext cx="1602220" cy="386538"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4741,7 +4741,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10087506" y="7888171"/>
+            <a:off x="10087506" y="9488371"/>
             <a:ext cx="1602220" cy="386538"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4800,7 +4800,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10087506" y="8440367"/>
+            <a:off x="10087506" y="10040567"/>
             <a:ext cx="1602220" cy="386538"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -5215,8 +5215,8 @@
   <dimension ref="B1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O29" sqref="O29"/>
+      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1638EE82-80C9-4818-BC3F-2059EBC4F408}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA09934-221F-42C1-8E6B-B0409CC54FA2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4892,59 +4892,133 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>375846</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>83709</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>151730</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>119569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>535978</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>121809</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>311862</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>157669</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.jpg" title="圖片">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="群組 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA4E0B51-05DF-4727-954C-DBAC1432C2E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8586115C-141B-499A-BE4A-5BC26C0BC3C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7099375" y="585733"/>
+          <a:off x="313095" y="245075"/>
           <a:ext cx="8909685" cy="7380194"/>
+          <a:chOff x="474458" y="325757"/>
+          <a:chExt cx="8909685" cy="7380194"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100" cap="sq">
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="image1.jpg" title="圖片">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA4E0B51-05DF-4727-954C-DBAC1432C2E5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="474458" y="325757"/>
+            <a:ext cx="8909685" cy="7380194"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100" cap="sq">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="43000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="矩形: 圓角 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39BD160C-BAFC-4F1E-ACB2-4C09B7054FCF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="475130" y="690283"/>
+            <a:ext cx="1120588" cy="340659"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:srgbClr val="C00000"/>
           </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="43000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              </a:rPr>
+              <a:t>魔素黑潮範圍</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
@@ -5565,7 +5639,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA09934-221F-42C1-8E6B-B0409CC54FA2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEB64FA-5C70-4286-BA9A-52E92C7C835B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="65">
   <si>
     <t xml:space="preserve">原始要素
 </t>
@@ -2250,10 +2250,7 @@
             <a:avLst/>
           </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-            </a:schemeClr>
+            <a:srgbClr val="C00000"/>
           </a:solidFill>
           <a:ln>
             <a:solidFill>
@@ -2299,9 +2296,9 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1400">
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1400" b="1">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:effectLst/>
                 <a:latin typeface="+mn-lt"/>
@@ -2310,18 +2307,18 @@
               </a:rPr>
               <a:t>神族延續計畫</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="zh-TW" sz="1400">
+            <a:endParaRPr lang="zh-TW" altLang="zh-TW" sz="1400" b="1">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400">
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:endParaRPr>
           </a:p>
@@ -5289,8 +5286,8 @@
   <dimension ref="B1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R30" sqref="R30"/>
+      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M22" sqref="M22:N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEB64FA-5C70-4286-BA9A-52E92C7C835B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B1E515-4674-475B-8BBF-8FDAE90CF8EE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t xml:space="preserve">原始要素
 </t>
@@ -1342,9 +1342,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1365,9 +1362,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1465,6 +1459,12 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1510,8 +1510,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10087506" y="4307774"/>
-          <a:ext cx="10013870" cy="14306797"/>
+          <a:off x="9848021" y="4307774"/>
+          <a:ext cx="10013869" cy="14306797"/>
           <a:chOff x="10087506" y="4307774"/>
           <a:chExt cx="10013870" cy="14306797"/>
         </a:xfrm>
@@ -5286,83 +5286,83 @@
   <dimension ref="B1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M22" sqref="M22:N22"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="9" style="10"/>
-    <col min="3" max="3" width="14.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="127.875" style="10" customWidth="1"/>
-    <col min="5" max="6" width="9" style="10"/>
-    <col min="7" max="7" width="10.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="91.375" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="2.375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9" style="9"/>
+    <col min="3" max="3" width="14.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="124" style="9" customWidth="1"/>
+    <col min="5" max="6" width="9" style="9"/>
+    <col min="7" max="7" width="10.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="91.375" style="9" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="41"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="F4" s="11"/>
+      <c r="D4" s="41"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
-      <c r="F5" s="12"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="2:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
-      <c r="F6" s="13"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="14"/>
+    <row r="7" spans="2:9" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="13"/>
     </row>
     <row r="8" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="G9" s="30" t="s">
+      <c r="D9" s="50"/>
+      <c r="G9" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="32"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
     </row>
     <row r="10" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="24" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5376,10 +5376,10 @@
       <c r="G11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="18" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5393,101 +5393,101 @@
       <c r="G12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="18" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="52" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="18" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="49"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="49"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="49"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="H16" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="29" t="s">
+      <c r="I16" s="27" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="C17" s="49"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="C18" s="49"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="C19" s="49"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="3:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="C20" s="49"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="C21" s="50"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="2" t="s">
         <v>23</v>
       </c>
@@ -5512,54 +5512,54 @@
       <c r="C24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="3:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="33"/>
+      <c r="D27" s="31"/>
     </row>
     <row r="28" spans="3:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="3:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="51" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="3:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="C30" s="35"/>
-      <c r="D30" s="20" t="s">
+      <c r="C30" s="33"/>
+      <c r="D30" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="3:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="C31" s="35"/>
-      <c r="D31" s="20" t="s">
+      <c r="C31" s="33"/>
+      <c r="D31" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" spans="3:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="C32" s="35"/>
-      <c r="D32" s="20" t="s">
+      <c r="C32" s="33"/>
+      <c r="D32" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="33" spans="3:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="C33" s="36"/>
-      <c r="D33" s="20" t="s">
+      <c r="C33" s="34"/>
+      <c r="D33" s="18" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5567,7 +5567,7 @@
       <c r="C34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="18" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5575,7 +5575,7 @@
       <c r="C35" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="18" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5583,33 +5583,33 @@
       <c r="C36" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="19" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="37" spans="3:4" ht="126" x14ac:dyDescent="0.3">
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="38" spans="3:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="C38" s="38"/>
-      <c r="D38" s="21" t="s">
+      <c r="C38" s="36"/>
+      <c r="D38" s="19" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="39" spans="3:4" ht="162" x14ac:dyDescent="0.3">
-      <c r="C39" s="38"/>
-      <c r="D39" s="21" t="s">
+      <c r="C39" s="36"/>
+      <c r="D39" s="19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="40" spans="3:4" ht="90.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="39"/>
-      <c r="D40" s="22" t="s">
+      <c r="C40" s="37"/>
+      <c r="D40" s="20" t="s">
         <v>45</v>
       </c>
     </row>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B1E515-4674-475B-8BBF-8FDAE90CF8EE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607D710F-19FC-4242-89EE-19992D06635F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="65">
   <si>
     <t xml:space="preserve">原始要素
 </t>
@@ -1394,6 +1394,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1458,12 +1464,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1637,10 +1637,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="12801612" y="8465251"/>
-            <a:ext cx="909054" cy="1277997"/>
-            <a:chOff x="13628915" y="10192229"/>
-            <a:chExt cx="911839" cy="1282594"/>
+            <a:off x="12801612" y="8360227"/>
+            <a:ext cx="909054" cy="1383019"/>
+            <a:chOff x="13628915" y="10086829"/>
+            <a:chExt cx="911839" cy="1387994"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:pic>
@@ -1694,8 +1694,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13714079" y="10192229"/>
-              <a:ext cx="779929" cy="484094"/>
+              <a:off x="13714079" y="10086829"/>
+              <a:ext cx="779929" cy="589494"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1729,6 +1729,8 @@
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
+                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
                 </a:rPr>
                 <a:t>眾神之主奧丁</a:t>
               </a:r>
@@ -1784,6 +1786,8 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               </a:rPr>
               <a:t>阿薩神族戰線</a:t>
             </a:r>
@@ -1838,6 +1842,8 @@
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
+                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               </a:rPr>
               <a:t>反叛</a:t>
             </a:r>
@@ -1914,8 +1920,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="15114494" y="11116234"/>
-              <a:ext cx="779929" cy="484094"/>
+              <a:off x="15114494" y="11062858"/>
+              <a:ext cx="779929" cy="570106"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1949,6 +1955,8 @@
                   <a:solidFill>
                     <a:schemeClr val="bg1"/>
                   </a:solidFill>
+                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
                 </a:rPr>
                 <a:t>密探</a:t>
               </a:r>
@@ -1956,6 +1964,8 @@
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
+                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               </a:endParaRPr>
             </a:p>
             <a:p>
@@ -1965,6 +1975,8 @@
                   <a:solidFill>
                     <a:schemeClr val="bg1"/>
                   </a:solidFill>
+                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
                 </a:rPr>
                 <a:t>福金</a:t>
               </a:r>
@@ -2001,7 +2013,7 @@
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="15141389" y="10273554"/>
+              <a:off x="15141389" y="10327944"/>
               <a:ext cx="708212" cy="708212"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2023,7 +2035,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="15096564" y="9879106"/>
-              <a:ext cx="779929" cy="484094"/>
+              <a:ext cx="779929" cy="552833"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2057,6 +2069,8 @@
                   <a:solidFill>
                     <a:schemeClr val="bg1"/>
                   </a:solidFill>
+                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
                 </a:rPr>
                 <a:t>未來女神</a:t>
               </a:r>
@@ -2064,6 +2078,8 @@
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
+                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               </a:endParaRPr>
             </a:p>
             <a:p>
@@ -2073,6 +2089,8 @@
                   <a:solidFill>
                     <a:schemeClr val="bg1"/>
                   </a:solidFill>
+                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
                 </a:rPr>
                 <a:t>詩寇蒂</a:t>
               </a:r>
@@ -2223,6 +2241,8 @@
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
+                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
                 </a:rPr>
                 <a:t>新世界</a:t>
               </a:r>
@@ -2243,8 +2263,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="15256241" y="6165520"/>
-            <a:ext cx="1832094" cy="1111294"/>
+            <a:off x="15245356" y="6008914"/>
+            <a:ext cx="1832094" cy="1426029"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartDecision">
             <a:avLst/>
@@ -2301,8 +2321,8 @@
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:t>神族延續計畫</a:t>
@@ -2312,6 +2332,8 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:effectLst/>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             </a:endParaRPr>
           </a:p>
           <a:p>
@@ -2320,6 +2342,8 @@
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -2399,7 +2423,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="17224777" y="7916304"/>
+            <a:off x="17224777" y="7970734"/>
             <a:ext cx="777547" cy="482359"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2434,6 +2458,8 @@
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
+                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               </a:rPr>
               <a:t>倖存者</a:t>
             </a:r>
@@ -2470,7 +2496,7 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="17158559" y="8089561"/>
+            <a:off x="17158558" y="8154875"/>
             <a:ext cx="921356" cy="913559"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2491,10 +2517,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="15948545" y="7385048"/>
-            <a:ext cx="2061494" cy="2187842"/>
+            <a:off x="15948545" y="7385052"/>
+            <a:ext cx="2061494" cy="2231387"/>
             <a:chOff x="12432658" y="8480611"/>
-            <a:chExt cx="2061350" cy="2195712"/>
+            <a:chExt cx="2061350" cy="2239413"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:pic>
@@ -2548,8 +2574,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13714079" y="10192229"/>
-              <a:ext cx="779929" cy="484094"/>
+              <a:off x="13714079" y="10147568"/>
+              <a:ext cx="779929" cy="572456"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2583,6 +2609,8 @@
                   <a:solidFill>
                     <a:schemeClr val="bg1"/>
                   </a:solidFill>
+                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
                 </a:rPr>
                 <a:t>逆神者</a:t>
               </a:r>
@@ -2590,6 +2618,8 @@
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
+                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               </a:endParaRPr>
             </a:p>
             <a:p>
@@ -2599,6 +2629,8 @@
                   <a:solidFill>
                     <a:schemeClr val="bg1"/>
                   </a:solidFill>
+                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
                 </a:rPr>
                 <a:t>無名</a:t>
               </a:r>
@@ -2654,6 +2686,8 @@
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
+                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               </a:rPr>
               <a:t>人類</a:t>
             </a:r>
@@ -2731,9 +2765,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="12406454" y="13230664"/>
-            <a:ext cx="1850028" cy="2429661"/>
+            <a:ext cx="1850028" cy="2706021"/>
             <a:chOff x="13686780" y="14893636"/>
-            <a:chExt cx="1855695" cy="2438400"/>
+            <a:chExt cx="1855695" cy="2715754"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:pic>
@@ -2787,8 +2821,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13686780" y="16360239"/>
-              <a:ext cx="1855695" cy="971797"/>
+              <a:off x="13686780" y="16360238"/>
+              <a:ext cx="1855695" cy="1249152"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2822,6 +2856,8 @@
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
+                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
                 </a:rPr>
                 <a:t>中庭行星</a:t>
               </a:r>
@@ -2829,6 +2865,8 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               </a:endParaRPr>
             </a:p>
             <a:p>
@@ -2838,6 +2876,8 @@
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
+                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
                 </a:rPr>
                 <a:t>末日戰場</a:t>
               </a:r>
@@ -2950,6 +2990,8 @@
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
+                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
                 </a:rPr>
                 <a:t>永恆之槍</a:t>
               </a:r>
@@ -2957,6 +2999,8 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               </a:endParaRPr>
             </a:p>
             <a:p>
@@ -2966,6 +3010,8 @@
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
+                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
                 </a:rPr>
                 <a:t>發射裝置</a:t>
               </a:r>
@@ -2986,7 +3032,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="17905230" y="13327297"/>
+            <a:off x="17905230" y="13359954"/>
             <a:ext cx="2196146" cy="1490928"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartDecision">
@@ -3065,10 +3111,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="15372015" y="13175440"/>
-            <a:ext cx="2091222" cy="2264006"/>
+            <a:off x="15372015" y="13175441"/>
+            <a:ext cx="2091222" cy="2314931"/>
             <a:chOff x="16231934" y="15406250"/>
-            <a:chExt cx="2097628" cy="2272150"/>
+            <a:chExt cx="2097628" cy="2323258"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -3084,8 +3130,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="17164270" y="16971818"/>
-              <a:ext cx="1165292" cy="706582"/>
+              <a:off x="17164270" y="16833668"/>
+              <a:ext cx="1165292" cy="895840"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3119,6 +3165,8 @@
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
+                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
                 </a:rPr>
                 <a:t>恆星</a:t>
               </a:r>
@@ -3126,6 +3174,8 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               </a:endParaRPr>
             </a:p>
             <a:p>
@@ -3135,6 +3185,8 @@
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
+                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
                 </a:rPr>
                 <a:t>世界樹</a:t>
               </a:r>
@@ -3446,6 +3498,8 @@
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
+                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               </a:rPr>
               <a:t>華納神族戰線</a:t>
             </a:r>
@@ -3465,7 +3519,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="13772935" y="17683146"/>
+            <a:off x="13751163" y="17683146"/>
             <a:ext cx="1850028" cy="482359"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3500,6 +3554,8 @@
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
+                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               </a:rPr>
               <a:t>龍族</a:t>
             </a:r>
@@ -3607,26 +3663,32 @@
             <a:p>
               <a:pPr algn="ctr"/>
               <a:r>
-                <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1050" b="1">
                   <a:solidFill>
                     <a:schemeClr val="bg1"/>
                   </a:solidFill>
+                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
                 </a:rPr>
                 <a:t>末日邪龍</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+              <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1050" b="1">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
+                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               </a:endParaRPr>
             </a:p>
             <a:p>
               <a:pPr algn="ctr"/>
               <a:r>
-                <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1050" b="1">
                   <a:solidFill>
                     <a:schemeClr val="bg1"/>
                   </a:solidFill>
+                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
                 </a:rPr>
                 <a:t>尼德霍格</a:t>
               </a:r>
@@ -3722,6 +3784,8 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               </a:rPr>
               <a:t>原定目標</a:t>
             </a:r>
@@ -3784,8 +3848,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14557094" y="12236709"/>
-            <a:ext cx="1718294" cy="696457"/>
+            <a:off x="14557094" y="12104915"/>
+            <a:ext cx="1718294" cy="828252"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3819,6 +3883,8 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               </a:rPr>
               <a:t>意外因素導致改變發射目標</a:t>
             </a:r>
@@ -4129,8 +4195,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14581415" y="6543180"/>
-            <a:ext cx="629444" cy="1460361"/>
+            <a:off x="14581415" y="6564086"/>
+            <a:ext cx="629444" cy="1439455"/>
           </a:xfrm>
           <a:prstGeom prst="bentArrow">
             <a:avLst/>
@@ -4227,8 +4293,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="16013943" y="5588671"/>
-            <a:ext cx="293015" cy="520641"/>
+            <a:off x="16035714" y="5566903"/>
+            <a:ext cx="249315" cy="387586"/>
           </a:xfrm>
           <a:prstGeom prst="upArrow">
             <a:avLst/>
@@ -4435,6 +4501,8 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               </a:rPr>
               <a:t>蠶食鯨吞魔素能源</a:t>
             </a:r>
@@ -4454,7 +4522,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm rot="5400000" flipH="1" flipV="1">
-            <a:off x="8679765" y="10681566"/>
+            <a:off x="8679766" y="10692452"/>
             <a:ext cx="13719269" cy="2008694"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector4">
@@ -4534,6 +4602,8 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               </a:rPr>
               <a:t>遭受恆星爆炸風壓</a:t>
             </a:r>
@@ -4553,8 +4623,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="17927279" y="6452463"/>
-            <a:ext cx="1842603" cy="958748"/>
+            <a:off x="17927279" y="6302829"/>
+            <a:ext cx="1842603" cy="1108382"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4592,6 +4662,8 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               </a:rPr>
               <a:t>福金看見人類無限的潛力，請詩寇蒂保護他們至新世界。</a:t>
             </a:r>
@@ -5286,8 +5358,8 @@
   <dimension ref="B1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5306,29 +5378,29 @@
     <row r="1" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="39"/>
+      <c r="D3" s="41"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="43"/>
       <c r="F4" s="10"/>
       <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="2:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
       <c r="F6" s="12"/>
       <c r="G6" s="1" t="s">
         <v>1</v>
@@ -5339,15 +5411,15 @@
     </row>
     <row r="8" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="G9" s="28" t="s">
+      <c r="D9" s="52"/>
+      <c r="G9" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" spans="2:9" ht="18" x14ac:dyDescent="0.3">
       <c r="C10" s="15" t="s">
@@ -5401,10 +5473,10 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="5" t="s">
@@ -5418,7 +5490,7 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="47"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="2" t="s">
         <v>15</v>
       </c>
@@ -5433,7 +5505,7 @@
       </c>
     </row>
     <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="47"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="2" t="s">
         <v>16</v>
       </c>
@@ -5448,7 +5520,7 @@
       </c>
     </row>
     <row r="16" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="47"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="2" t="s">
         <v>18</v>
       </c>
@@ -5463,31 +5535,31 @@
       </c>
     </row>
     <row r="17" spans="3:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="C17" s="47"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="C18" s="47"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="C19" s="47"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="3:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="C20" s="47"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="C21" s="48"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="2" t="s">
         <v>23</v>
       </c>
@@ -5518,10 +5590,10 @@
     </row>
     <row r="26" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="3:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="31"/>
+      <c r="D27" s="33"/>
     </row>
     <row r="28" spans="3:4" ht="18" x14ac:dyDescent="0.3">
       <c r="C28" s="17" t="s">
@@ -5532,33 +5604,33 @@
       </c>
     </row>
     <row r="29" spans="3:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="28" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="3:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="C30" s="33"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="3:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="C31" s="33"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" spans="3:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="C32" s="33"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="33" spans="3:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="C33" s="34"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="18" t="s">
         <v>40</v>
       </c>
@@ -5588,7 +5660,7 @@
       </c>
     </row>
     <row r="37" spans="3:4" ht="126" x14ac:dyDescent="0.3">
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="37" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="19" t="s">
@@ -5596,19 +5668,19 @@
       </c>
     </row>
     <row r="38" spans="3:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="C38" s="36"/>
+      <c r="C38" s="38"/>
       <c r="D38" s="19" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="39" spans="3:4" ht="162" x14ac:dyDescent="0.3">
-      <c r="C39" s="36"/>
+      <c r="C39" s="38"/>
       <c r="D39" s="19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="40" spans="3:4" ht="90.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="37"/>
+      <c r="C40" s="39"/>
       <c r="D40" s="20" t="s">
         <v>45</v>
       </c>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607D710F-19FC-4242-89EE-19992D06635F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E640596-BC51-4ECD-AFF2-0F2BD4182DB6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t xml:space="preserve">原始要素
 </t>
@@ -1499,10 +1499,10 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="群組 1">
+        <xdr:cNvPr id="3" name="群組 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3D5A561-98CA-4989-BFC7-681878446D29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41119B93-B317-40AF-89CA-A5B45D5B9EE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1512,8 +1512,8 @@
         <a:xfrm>
           <a:off x="9848021" y="4307774"/>
           <a:ext cx="10013869" cy="14306797"/>
-          <a:chOff x="10087506" y="4307774"/>
-          <a:chExt cx="10013870" cy="14306797"/>
+          <a:chOff x="9848021" y="4307774"/>
+          <a:chExt cx="10013869" cy="14306797"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1529,7 +1529,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12145528" y="7543050"/>
+            <a:off x="11906043" y="7543050"/>
             <a:ext cx="1671280" cy="3244149"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartPunchedCard">
@@ -1582,7 +1582,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="13821685" y="7543049"/>
+            <a:off x="13582200" y="7543049"/>
             <a:ext cx="1657468" cy="3244150"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1637,7 +1637,7 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="12801612" y="8360227"/>
+            <a:off x="12562127" y="8360227"/>
             <a:ext cx="909054" cy="1383019"/>
             <a:chOff x="13628915" y="10086829"/>
             <a:chExt cx="911839" cy="1387994"/>
@@ -1751,7 +1751,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11949720" y="10366554"/>
+            <a:off x="11710235" y="10366554"/>
             <a:ext cx="1850028" cy="482359"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1807,7 +1807,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14512585" y="10351302"/>
+            <a:off x="14273100" y="10351302"/>
             <a:ext cx="1322725" cy="485549"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1863,7 +1863,7 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="14282650" y="7992054"/>
+            <a:off x="14043165" y="7992054"/>
             <a:ext cx="795422" cy="2171024"/>
             <a:chOff x="15096564" y="9879106"/>
             <a:chExt cx="797859" cy="2169460"/>
@@ -2128,7 +2128,7 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12410922" y="8874235"/>
+            <a:off x="12171437" y="8874235"/>
             <a:ext cx="564329" cy="564029"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2149,7 +2149,7 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="15219215" y="4307774"/>
+            <a:off x="14979729" y="4307774"/>
             <a:ext cx="1850028" cy="1355200"/>
             <a:chOff x="14327056" y="5569999"/>
             <a:chExt cx="1855695" cy="1354170"/>
@@ -2263,7 +2263,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="15245356" y="6008914"/>
+            <a:off x="15005870" y="6008914"/>
             <a:ext cx="1832094" cy="1426029"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartDecision">
@@ -2361,7 +2361,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="16745002" y="7556854"/>
+            <a:off x="16505516" y="7556854"/>
             <a:ext cx="1671280" cy="3244149"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartPunchedCard">
@@ -2423,7 +2423,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="17224777" y="7970734"/>
+            <a:off x="16985291" y="7970734"/>
             <a:ext cx="777547" cy="482359"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2496,7 +2496,7 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="17158558" y="8154875"/>
+            <a:off x="16919072" y="8154875"/>
             <a:ext cx="921356" cy="913559"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2517,7 +2517,7 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="15948545" y="7385052"/>
+            <a:off x="15709059" y="7385052"/>
             <a:ext cx="2061494" cy="2231387"/>
             <a:chOff x="12432658" y="8480611"/>
             <a:chExt cx="2061350" cy="2239413"/>
@@ -2651,7 +2651,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="16358550" y="10387032"/>
+            <a:off x="16119064" y="10387032"/>
             <a:ext cx="1325161" cy="485549"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2707,7 +2707,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="15184219" y="10952856"/>
+            <a:off x="14944733" y="10952856"/>
             <a:ext cx="1933712" cy="998201"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartAlternateProcess">
@@ -2764,7 +2764,7 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="12406454" y="13230664"/>
+            <a:off x="12166969" y="13230664"/>
             <a:ext cx="1850028" cy="2706021"/>
             <a:chOff x="13686780" y="14893636"/>
             <a:chExt cx="1855695" cy="2715754"/>
@@ -2898,7 +2898,7 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="12420303" y="10543854"/>
+            <a:off x="12180818" y="10543854"/>
             <a:ext cx="2430105" cy="1639610"/>
             <a:chOff x="13492852" y="12183307"/>
             <a:chExt cx="2437550" cy="1645508"/>
@@ -3032,7 +3032,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="17905230" y="13359954"/>
+            <a:off x="17665744" y="13359954"/>
             <a:ext cx="2196146" cy="1490928"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartDecision">
@@ -3111,7 +3111,7 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="15372015" y="13175441"/>
+            <a:off x="15132529" y="13175441"/>
             <a:ext cx="2091222" cy="2314931"/>
             <a:chOff x="16231934" y="15406250"/>
             <a:chExt cx="2097628" cy="2323258"/>
@@ -3341,7 +3341,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11330607" y="16171106"/>
+            <a:off x="11091122" y="16171106"/>
             <a:ext cx="1602220" cy="1957214"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartPunchedCard">
@@ -3403,7 +3403,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="13747748" y="16184911"/>
+            <a:off x="13508263" y="16184911"/>
             <a:ext cx="1533157" cy="1957214"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartPunchedCard">
@@ -3463,7 +3463,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11148610" y="17669341"/>
+            <a:off x="10909125" y="17669341"/>
             <a:ext cx="1850028" cy="482359"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3519,7 +3519,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="13751163" y="17683146"/>
+            <a:off x="13511678" y="17683146"/>
             <a:ext cx="1850028" cy="482359"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3575,7 +3575,7 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="14010181" y="16336764"/>
+            <a:off x="13770696" y="16336764"/>
             <a:ext cx="1377152" cy="1380485"/>
             <a:chOff x="14921346" y="18094036"/>
             <a:chExt cx="1381371" cy="1385451"/>
@@ -3709,7 +3709,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="13167634" y="12071054"/>
+            <a:off x="12928149" y="12071054"/>
             <a:ext cx="13813" cy="1297659"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -3749,7 +3749,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12070891" y="12222903"/>
+            <a:off x="11831406" y="12222903"/>
             <a:ext cx="1161733" cy="704050"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3805,7 +3805,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="13264320" y="11988224"/>
+            <a:off x="13024835" y="11988224"/>
             <a:ext cx="2251394" cy="1435709"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -3848,7 +3848,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14557094" y="12104915"/>
+            <a:off x="14317609" y="12104915"/>
             <a:ext cx="1718294" cy="828252"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3904,7 +3904,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="16869312" y="14058957"/>
+            <a:off x="16629826" y="14058957"/>
             <a:ext cx="897795" cy="13805"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -3947,7 +3947,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1" flipV="1">
-            <a:off x="14479797" y="11449833"/>
+            <a:off x="14240312" y="11449833"/>
             <a:ext cx="635362" cy="13804"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -3990,7 +3990,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14584718" y="10883830"/>
+            <a:off x="14345233" y="10883830"/>
             <a:ext cx="613314" cy="696457"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4044,7 +4044,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14935600" y="9889881"/>
+            <a:off x="14696115" y="9889881"/>
             <a:ext cx="2513826" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="line">
@@ -4092,7 +4092,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="15869256" y="9361350"/>
+            <a:off x="15629770" y="9361350"/>
             <a:ext cx="585690" cy="599820"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4146,7 +4146,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1">
-            <a:off x="16148640" y="9994349"/>
+            <a:off x="15909154" y="9994349"/>
             <a:ext cx="4524" cy="884611"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -4195,7 +4195,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14581415" y="6564086"/>
+            <a:off x="14341930" y="6564086"/>
             <a:ext cx="629444" cy="1439455"/>
           </a:xfrm>
           <a:prstGeom prst="bentArrow">
@@ -4244,7 +4244,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1">
-            <a:off x="17120894" y="6575720"/>
+            <a:off x="16881408" y="6575720"/>
             <a:ext cx="571234" cy="1488957"/>
           </a:xfrm>
           <a:prstGeom prst="bentArrow">
@@ -4293,7 +4293,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="16035714" y="5566903"/>
+            <a:off x="15796228" y="5566903"/>
             <a:ext cx="249315" cy="387586"/>
           </a:xfrm>
           <a:prstGeom prst="upArrow">
@@ -4338,7 +4338,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="12214590" y="14873447"/>
+            <a:off x="11975105" y="14873447"/>
             <a:ext cx="469616" cy="1104391"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -4381,7 +4381,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1" flipV="1">
-            <a:off x="13996369" y="14887250"/>
+            <a:off x="13756884" y="14887250"/>
             <a:ext cx="593925" cy="1145807"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -4424,7 +4424,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="14852726" y="15135739"/>
+            <a:off x="14613241" y="15135739"/>
             <a:ext cx="953044" cy="1394295"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -4466,7 +4466,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="15441077" y="15467053"/>
+            <a:off x="15201591" y="15467053"/>
             <a:ext cx="1718294" cy="696457"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4522,7 +4522,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm rot="5400000" flipH="1" flipV="1">
-            <a:off x="8679766" y="10692452"/>
+            <a:off x="8440280" y="10692452"/>
             <a:ext cx="13719269" cy="2008694"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector4">
@@ -4563,7 +4563,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="13714548" y="18228032"/>
+            <a:off x="13475063" y="18228032"/>
             <a:ext cx="1690668" cy="386539"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4623,7 +4623,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="17927279" y="6302829"/>
+            <a:off x="17687793" y="6302829"/>
             <a:ext cx="1842603" cy="1108382"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4683,7 +4683,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10087506" y="8328761"/>
+            <a:off x="9848021" y="8328761"/>
             <a:ext cx="1602220" cy="386538"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4740,7 +4740,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10087506" y="8922371"/>
+            <a:off x="9848021" y="8922371"/>
             <a:ext cx="1602220" cy="386538"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4810,7 +4810,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10087506" y="9488371"/>
+            <a:off x="9848021" y="9488371"/>
             <a:ext cx="1602220" cy="386538"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4869,7 +4869,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10087506" y="10040567"/>
+            <a:off x="9848021" y="10040567"/>
             <a:ext cx="1602220" cy="386538"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4943,7 +4943,7 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="17304736" y="9565574"/>
+            <a:off x="17065250" y="9565574"/>
             <a:ext cx="624036" cy="625456"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4951,6 +4951,105 @@
           </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="13" name="群組 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63574AD9-8967-455A-906E-71E6E4DC8EF0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="11386457" y="16459199"/>
+            <a:ext cx="914400" cy="1088571"/>
+            <a:chOff x="11332029" y="16437428"/>
+            <a:chExt cx="914400" cy="1088571"/>
+          </a:xfrm>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="圖形 3" descr="魚">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B7C101-AFA6-445B-864A-D8BD45B488DD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId28"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="678595">
+              <a:off x="11538857" y="16437428"/>
+              <a:ext cx="631372" cy="631372"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="12" name="圖形 11" descr="步行">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BD3E4DB-3C69-4EFD-8A46-B0EFE26E7D13}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId30"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11332029" y="16611599"/>
+              <a:ext cx="914400" cy="914400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -5358,8 +5457,8 @@
   <dimension ref="B1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P36" sqref="P36"/>
+      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E640596-BC51-4ECD-AFF2-0F2BD4182DB6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C0CBCA-B7DF-49AC-91E8-90C53702C39A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1486,23 +1486,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>159735</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>105888</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97973</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>104319</xdr:colOff>
+      <xdr:colOff>293916</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:rowOff>827315</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="群組 2">
+        <xdr:cNvPr id="5" name="群組 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41119B93-B317-40AF-89CA-A5B45D5B9EE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A016C91-4E37-48AF-AB03-21D40D052C55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1510,12 +1510,65 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9848021" y="4307774"/>
-          <a:ext cx="10013869" cy="14306797"/>
-          <a:chOff x="9848021" y="4307774"/>
-          <a:chExt cx="10013869" cy="14306797"/>
+          <a:off x="9241973" y="4049486"/>
+          <a:ext cx="10809514" cy="15087600"/>
+          <a:chOff x="9427029" y="4158343"/>
+          <a:chExt cx="10809514" cy="15087600"/>
         </a:xfrm>
       </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="矩形 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0A8CACB-3076-4DC3-8D52-526D47BE8DC6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9427029" y="4158343"/>
+            <a:ext cx="10809514" cy="15087600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="10" name="流程圖: 卡片 9">
@@ -5457,8 +5510,8 @@
   <dimension ref="B1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T30" sqref="T30"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C0CBCA-B7DF-49AC-91E8-90C53702C39A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA800B9C-36EC-4C0D-9B26-499131556461}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -639,9 +639,6 @@
   </si>
   <si>
     <t>人類</t>
-  </si>
-  <si>
-    <t>中立(阿薩神族)</t>
   </si>
   <si>
     <t>矮人</t>
@@ -775,6 +772,10 @@
   </si>
   <si>
     <t>種族解釋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中立 or 阿薩神族</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5511,7 +5512,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R22" sqref="R22"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5568,7 +5569,7 @@
       </c>
       <c r="D9" s="52"/>
       <c r="G9" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" s="31"/>
       <c r="I9" s="32"/>
@@ -5604,7 +5605,7 @@
         <v>48</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
@@ -5618,10 +5619,10 @@
         <v>49</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5632,13 +5633,13 @@
         <v>14</v>
       </c>
       <c r="G13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="I13" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5647,13 +5648,13 @@
         <v>15</v>
       </c>
       <c r="G14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="I14" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5662,13 +5663,13 @@
         <v>16</v>
       </c>
       <c r="G15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="18" t="s">
         <v>57</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5677,13 +5678,13 @@
         <v>18</v>
       </c>
       <c r="G16" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="27" t="s">
         <v>59</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="18" x14ac:dyDescent="0.3">
@@ -5851,7 +5852,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA800B9C-36EC-4C0D-9B26-499131556461}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E98D96D-70FE-4EB4-8DB1-C1A0441735F5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1488,13 +1488,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>97973</xdr:colOff>
+      <xdr:colOff>97972</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>293916</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>87086</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>827315</xdr:rowOff>
     </xdr:to>
@@ -1511,10 +1511,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9241973" y="4049486"/>
-          <a:ext cx="10809514" cy="15087600"/>
-          <a:chOff x="9427029" y="4158343"/>
-          <a:chExt cx="10809514" cy="15087600"/>
+          <a:off x="9241972" y="4049486"/>
+          <a:ext cx="11146971" cy="15087600"/>
+          <a:chOff x="9427028" y="4158343"/>
+          <a:chExt cx="11146971" cy="15087600"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1530,8 +1530,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9427029" y="4158343"/>
-            <a:ext cx="10809514" cy="15087600"/>
+            <a:off x="9427028" y="4158343"/>
+            <a:ext cx="11146971" cy="15087600"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5511,8 +5511,8 @@
   <dimension ref="B1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E98D96D-70FE-4EB4-8DB1-C1A0441735F5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C14F4F7-EF82-4584-98AC-77600EE35697}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1500,10 +1500,10 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="群組 4">
+        <xdr:cNvPr id="47" name="群組 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A016C91-4E37-48AF-AB03-21D40D052C55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE24C357-22FB-4A45-A599-7E65D9090FAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1511,10 +1511,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9241972" y="4049486"/>
-          <a:ext cx="11146971" cy="15087600"/>
-          <a:chOff x="9427028" y="4158343"/>
-          <a:chExt cx="11146971" cy="15087600"/>
+          <a:off x="9255827" y="4066309"/>
+          <a:ext cx="11197441" cy="15145988"/>
+          <a:chOff x="9257212" y="4046220"/>
+          <a:chExt cx="11160034" cy="15076715"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1530,8 +1530,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9427028" y="4158343"/>
-            <a:ext cx="11146971" cy="15087600"/>
+            <a:off x="9257212" y="4046220"/>
+            <a:ext cx="11160034" cy="15076715"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1583,8 +1583,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11906043" y="7543050"/>
-            <a:ext cx="1671280" cy="3244149"/>
+            <a:off x="11739493" y="7430927"/>
+            <a:ext cx="1666925" cy="3233264"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartPunchedCard">
             <a:avLst/>
@@ -1636,8 +1636,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="13582200" y="7543049"/>
-            <a:ext cx="1657468" cy="3244150"/>
+            <a:off x="13411295" y="7430926"/>
+            <a:ext cx="1657468" cy="3233265"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1691,10 +1691,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="12562127" y="8360227"/>
-            <a:ext cx="909054" cy="1383019"/>
-            <a:chOff x="13628915" y="10086829"/>
-            <a:chExt cx="911839" cy="1387994"/>
+            <a:off x="12428273" y="8661462"/>
+            <a:ext cx="904699" cy="1372135"/>
+            <a:chOff x="13661869" y="10504965"/>
+            <a:chExt cx="911839" cy="1387995"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:pic>
@@ -1727,7 +1727,7 @@
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13628915" y="10560423"/>
+              <a:off x="13661869" y="10978560"/>
               <a:ext cx="911839" cy="914400"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1748,7 +1748,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13714079" y="10086829"/>
+              <a:off x="13747034" y="10504965"/>
               <a:ext cx="779929" cy="589494"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1805,8 +1805,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11710235" y="10366554"/>
-            <a:ext cx="1850028" cy="482359"/>
+            <a:off x="11598177" y="10232668"/>
+            <a:ext cx="1845673" cy="482359"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1861,7 +1861,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14273100" y="10351302"/>
+            <a:off x="14058601" y="10228294"/>
             <a:ext cx="1322725" cy="485549"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1917,8 +1917,8 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="14043165" y="7992054"/>
-            <a:ext cx="795422" cy="2171024"/>
+            <a:off x="13872260" y="7879931"/>
+            <a:ext cx="795422" cy="2160139"/>
             <a:chOff x="15096564" y="9879106"/>
             <a:chExt cx="797859" cy="2169460"/>
           </a:xfrm>
@@ -2182,8 +2182,8 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12171437" y="8874235"/>
-            <a:ext cx="564329" cy="564029"/>
+            <a:off x="11830511" y="9466639"/>
+            <a:ext cx="556709" cy="442747"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2203,7 +2203,7 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="14979729" y="4307774"/>
+            <a:off x="14808824" y="4195651"/>
             <a:ext cx="1850028" cy="1355200"/>
             <a:chOff x="14327056" y="5569999"/>
             <a:chExt cx="1855695" cy="1354170"/>
@@ -2317,7 +2317,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="15005870" y="6008914"/>
+            <a:off x="14834965" y="5896791"/>
             <a:ext cx="1832094" cy="1426029"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartDecision">
@@ -2415,8 +2415,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="16505516" y="7556854"/>
-            <a:ext cx="1671280" cy="3244149"/>
+            <a:off x="16334611" y="7444731"/>
+            <a:ext cx="1671280" cy="3233264"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartPunchedCard">
             <a:avLst/>
@@ -2477,7 +2477,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="16985291" y="7970734"/>
+            <a:off x="16814386" y="7858611"/>
             <a:ext cx="777547" cy="482359"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2550,8 +2550,8 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="16919072" y="8154875"/>
-            <a:ext cx="921356" cy="913559"/>
+            <a:off x="16748167" y="8042752"/>
+            <a:ext cx="921356" cy="910294"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2571,8 +2571,8 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="15709059" y="7385052"/>
-            <a:ext cx="2061494" cy="2231387"/>
+            <a:off x="15538154" y="7272929"/>
+            <a:ext cx="2061494" cy="2220502"/>
             <a:chOff x="12432658" y="8480611"/>
             <a:chExt cx="2061350" cy="2239413"/>
           </a:xfrm>
@@ -2705,7 +2705,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="16119064" y="10387032"/>
+            <a:off x="15980854" y="10242269"/>
             <a:ext cx="1325161" cy="485549"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2761,7 +2761,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14944733" y="10952856"/>
+            <a:off x="14773828" y="10829848"/>
             <a:ext cx="1933712" cy="998201"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartAlternateProcess">
@@ -2818,8 +2818,8 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="12166969" y="13230664"/>
-            <a:ext cx="1850028" cy="2706021"/>
+            <a:off x="12000419" y="13107656"/>
+            <a:ext cx="1845673" cy="2706021"/>
             <a:chOff x="13686780" y="14893636"/>
             <a:chExt cx="1855695" cy="2715754"/>
           </a:xfrm>
@@ -2939,140 +2939,6 @@
           </xdr:txBody>
         </xdr:sp>
       </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="54" name="群組 53">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84FA1714-B9C1-4929-BFB7-381E9E877B91}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="12180818" y="10543854"/>
-            <a:ext cx="2430105" cy="1639610"/>
-            <a:chOff x="13492852" y="12183307"/>
-            <a:chExt cx="2437550" cy="1645508"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="52" name="圖形 51" descr="衛星">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0527E0-E7D9-4D9F-904B-F4BB27F1A935}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm rot="2437035" flipH="1">
-              <a:off x="13492852" y="12183307"/>
-              <a:ext cx="1405368" cy="1384390"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="53" name="文字方塊 52">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41AEE39C-AEE1-4A07-8CB4-B28095A8B873}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="14074707" y="12857018"/>
-              <a:ext cx="1855695" cy="971797"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="zh-TW" altLang="en-US" sz="1600" b="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-                </a:rPr>
-                <a:t>永恆之槍</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1600" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="zh-TW" altLang="en-US" sz="1600" b="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-                </a:rPr>
-                <a:t>發射裝置</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="63" name="流程圖: 決策 62">
@@ -3086,8 +2952,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="17665744" y="13359954"/>
-            <a:ext cx="2196146" cy="1490928"/>
+            <a:off x="17494839" y="13236946"/>
+            <a:ext cx="2201589" cy="1490928"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartDecision">
             <a:avLst/>
@@ -3165,7 +3031,7 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="15132529" y="13175441"/>
+            <a:off x="14961624" y="13052433"/>
             <a:ext cx="2091222" cy="2314931"/>
             <a:chOff x="16231934" y="15406250"/>
             <a:chExt cx="2097628" cy="2323258"/>
@@ -3280,13 +3146,13 @@
               </xdr:cNvPicPr>
             </xdr:nvPicPr>
             <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
                 <a:extLst>
                   <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                     <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
                   </a:ext>
                   <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                    <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId20"/>
+                    <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
                   </a:ext>
                 </a:extLst>
               </a:blip>
@@ -3318,13 +3184,13 @@
               </xdr:cNvPicPr>
             </xdr:nvPicPr>
             <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
                 <a:extLst>
                   <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                     <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
                   </a:ext>
                   <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                    <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
+                    <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId20"/>
                   </a:ext>
                 </a:extLst>
               </a:blip>
@@ -3356,13 +3222,13 @@
               </xdr:cNvPicPr>
             </xdr:nvPicPr>
             <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
                 <a:extLst>
                   <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                     <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
                   </a:ext>
                   <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                    <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
+                    <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
                   </a:ext>
                 </a:extLst>
               </a:blip>
@@ -3395,7 +3261,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11091122" y="16171106"/>
+            <a:off x="10924572" y="16048098"/>
             <a:ext cx="1602220" cy="1957214"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartPunchedCard">
@@ -3457,7 +3323,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="13508263" y="16184911"/>
+            <a:off x="13337358" y="16061903"/>
             <a:ext cx="1533157" cy="1957214"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartPunchedCard">
@@ -3517,8 +3383,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10909125" y="17669341"/>
-            <a:ext cx="1850028" cy="482359"/>
+            <a:off x="10748018" y="17546333"/>
+            <a:ext cx="1840230" cy="482359"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3573,7 +3439,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="13511678" y="17683146"/>
+            <a:off x="13340773" y="17560138"/>
             <a:ext cx="1850028" cy="482359"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3629,7 +3495,7 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="13770696" y="16336764"/>
+            <a:off x="13599791" y="16213756"/>
             <a:ext cx="1377152" cy="1380485"/>
             <a:chOff x="14921346" y="18094036"/>
             <a:chExt cx="1381371" cy="1385451"/>
@@ -3649,13 +3515,13 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
               <a:extLst>
                 <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
                 </a:ext>
                 <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId26"/>
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
                 </a:ext>
               </a:extLst>
             </a:blip>
@@ -3763,7 +3629,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12928149" y="12071054"/>
+            <a:off x="12757244" y="11948046"/>
             <a:ext cx="13813" cy="1297659"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -3803,7 +3669,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11831406" y="12222903"/>
+            <a:off x="12618444" y="12186981"/>
             <a:ext cx="1161733" cy="704050"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3859,7 +3725,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="13024835" y="11988224"/>
+            <a:off x="12853930" y="11865216"/>
             <a:ext cx="2251394" cy="1435709"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -3902,7 +3768,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14317609" y="12104915"/>
+            <a:off x="14146704" y="11981907"/>
             <a:ext cx="1718294" cy="828252"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3958,7 +3824,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="16629826" y="14058957"/>
+            <a:off x="16458921" y="13935949"/>
             <a:ext cx="897795" cy="13805"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -4001,7 +3867,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1" flipV="1">
-            <a:off x="14240312" y="11449833"/>
+            <a:off x="14069407" y="11326825"/>
             <a:ext cx="635362" cy="13804"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -4044,7 +3910,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14345233" y="10883830"/>
+            <a:off x="14174328" y="10760822"/>
             <a:ext cx="613314" cy="696457"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4098,7 +3964,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14696115" y="9889881"/>
+            <a:off x="14525210" y="9766873"/>
             <a:ext cx="2513826" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="line">
@@ -4146,7 +4012,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="15629770" y="9361350"/>
+            <a:off x="15458865" y="9238342"/>
             <a:ext cx="585690" cy="599820"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4200,7 +4066,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1">
-            <a:off x="15909154" y="9994349"/>
+            <a:off x="15738249" y="9871341"/>
             <a:ext cx="4524" cy="884611"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -4249,7 +4115,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14341930" y="6564086"/>
+            <a:off x="14171025" y="6451963"/>
             <a:ext cx="629444" cy="1439455"/>
           </a:xfrm>
           <a:prstGeom prst="bentArrow">
@@ -4298,7 +4164,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1">
-            <a:off x="16881408" y="6575720"/>
+            <a:off x="16710503" y="6463597"/>
             <a:ext cx="571234" cy="1488957"/>
           </a:xfrm>
           <a:prstGeom prst="bentArrow">
@@ -4347,7 +4213,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="15796228" y="5566903"/>
+            <a:off x="15625323" y="5454780"/>
             <a:ext cx="249315" cy="387586"/>
           </a:xfrm>
           <a:prstGeom prst="upArrow">
@@ -4392,7 +4258,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="11975105" y="14873447"/>
+            <a:off x="11808555" y="14750439"/>
             <a:ext cx="469616" cy="1104391"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -4435,7 +4301,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1" flipV="1">
-            <a:off x="13756884" y="14887250"/>
+            <a:off x="13585979" y="14764242"/>
             <a:ext cx="593925" cy="1145807"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -4478,7 +4344,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="14613241" y="15135739"/>
+            <a:off x="14442336" y="15012731"/>
             <a:ext cx="953044" cy="1394295"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -4520,7 +4386,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="15201591" y="15467053"/>
+            <a:off x="15030686" y="15344045"/>
             <a:ext cx="1718294" cy="696457"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4576,8 +4442,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm rot="5400000" flipH="1" flipV="1">
-            <a:off x="8440280" y="10692452"/>
-            <a:ext cx="13719269" cy="2008694"/>
+            <a:off x="8274818" y="10574886"/>
+            <a:ext cx="13708384" cy="2008694"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector4">
             <a:avLst>
@@ -4617,7 +4483,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="13475063" y="18228032"/>
+            <a:off x="13304158" y="18105024"/>
             <a:ext cx="1690668" cy="386539"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4677,8 +4543,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="17687793" y="6302829"/>
-            <a:ext cx="1842603" cy="1108382"/>
+            <a:off x="17516888" y="6190706"/>
+            <a:ext cx="1848046" cy="1108382"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4737,8 +4603,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9848021" y="8328761"/>
-            <a:ext cx="1602220" cy="386538"/>
+            <a:off x="9678205" y="8216638"/>
+            <a:ext cx="1605486" cy="386538"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4794,8 +4660,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9848021" y="8922371"/>
-            <a:ext cx="1602220" cy="386538"/>
+            <a:off x="9678205" y="8806983"/>
+            <a:ext cx="1605486" cy="378918"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4864,8 +4730,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9848021" y="9488371"/>
-            <a:ext cx="1602220" cy="386538"/>
+            <a:off x="9678205" y="9365363"/>
+            <a:ext cx="1605486" cy="386538"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4923,8 +4789,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9848021" y="10040567"/>
-            <a:ext cx="1602220" cy="386538"/>
+            <a:off x="9678205" y="9917559"/>
+            <a:ext cx="1605486" cy="386538"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4997,7 +4863,7 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="17065250" y="9565574"/>
+            <a:off x="16894345" y="9442566"/>
             <a:ext cx="624036" cy="625456"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -5018,8 +4884,8 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="11386457" y="16459199"/>
-            <a:ext cx="914400" cy="1088571"/>
+            <a:off x="10953207" y="16635126"/>
+            <a:ext cx="583473" cy="694610"/>
             <a:chOff x="11332029" y="16437428"/>
             <a:chExt cx="914400" cy="1088571"/>
           </a:xfrm>
@@ -5041,13 +4907,13 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
               <a:extLst>
                 <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
                 </a:ext>
                 <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId28"/>
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId26"/>
                 </a:ext>
               </a:extLst>
             </a:blip>
@@ -5079,13 +4945,13 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
               <a:extLst>
                 <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
                 </a:ext>
                 <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId30"/>
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId28"/>
                 </a:ext>
               </a:extLst>
             </a:blip>
@@ -5104,6 +4970,510 @@
           </xdr:spPr>
         </xdr:pic>
       </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="82" name="直線單箭頭接點 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{929B9060-2465-43F7-BECF-6F379933237E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11970930" y="10899272"/>
+            <a:ext cx="489946" cy="2290948"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="76200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="stealth" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="54" name="群組 53">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84FA1714-B9C1-4929-BFB7-381E9E877B91}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="12090733" y="10472432"/>
+            <a:ext cx="2349285" cy="1588028"/>
+            <a:chOff x="13569689" y="12235075"/>
+            <a:chExt cx="2360713" cy="1593740"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="53" name="文字方塊 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41AEE39C-AEE1-4A07-8CB4-B28095A8B873}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14074707" y="12857018"/>
+              <a:ext cx="1855695" cy="971797"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1600" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                </a:rPr>
+                <a:t>永恆之槍</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1600" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                </a:rPr>
+                <a:t>發射裝置</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="52" name="圖形 51" descr="衛星">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0527E0-E7D9-4D9F-904B-F4BB27F1A935}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId30"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm rot="2490811" flipH="1">
+              <a:off x="13569689" y="12235075"/>
+              <a:ext cx="1306896" cy="1287387"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="89" name="文字方塊 88">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1FD3886-3C28-4ED9-BE3F-A0C8B7D1749C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11728143" y="9225529"/>
+            <a:ext cx="774211" cy="291676"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              </a:rPr>
+              <a:t>矮人</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="91" name="文字方塊 90">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EF1733B-FB9F-4722-9DB0-F93244918BED}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10902928" y="16416354"/>
+            <a:ext cx="771521" cy="284952"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>華納神</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="32" name="圖形 31" descr="男人">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DD02ECD-AC5B-4C16-836B-4B0EC5C23E25}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11806867" y="16494127"/>
+            <a:ext cx="916641" cy="914400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="94" name="文字方塊 93">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC60512A-869C-4123-8BAB-E034F1528C4C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11873806" y="16186858"/>
+            <a:ext cx="771521" cy="284952"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>巨人</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="40" name="圖形 39" descr="女人">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A8B330F-42B2-4702-9351-FE3E4E899E9E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11544300" y="16855440"/>
+            <a:ext cx="502920" cy="502920"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="98" name="文字方塊 97">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E6DE54-0AEE-4B75-978C-59E6B0F32B12}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11408986" y="16537378"/>
+            <a:ext cx="771521" cy="284952"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>精靈</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -5510,9 +5880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y35" sqref="Y35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C14F4F7-EF82-4584-98AC-77600EE35697}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE1E4DD-478E-4227-8ABD-B6C5B9A69A56}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1511,8 +1511,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9255827" y="4066309"/>
-          <a:ext cx="11197441" cy="15145988"/>
+          <a:off x="9250937" y="4056529"/>
+          <a:ext cx="11141208" cy="15112574"/>
           <a:chOff x="9257212" y="4046220"/>
           <a:chExt cx="11160034" cy="15076715"/>
         </a:xfrm>
@@ -5880,9 +5880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y35" sqref="Y35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="A41:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE1E4DD-478E-4227-8ABD-B6C5B9A69A56}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0CA45A-CA5B-4EB7-B3DC-DFD44BDE5AEF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="世界概述" sheetId="1" r:id="rId1"/>
-    <sheet name="世界基底-北歐星系示意圖" sheetId="2" r:id="rId2"/>
+    <sheet name="舊世界概述" sheetId="1" r:id="rId1"/>
+    <sheet name="舊世界基底-北歐星系示意圖" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -5881,7 +5881,7 @@
   <dimension ref="B1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B41" sqref="A41:B41"/>
     </sheetView>
   </sheetViews>
@@ -6232,7 +6232,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0CA45A-CA5B-4EB7-B3DC-DFD44BDE5AEF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F8AB5B-DCCB-4DEA-BBFD-995029D990CA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="舊世界概述" sheetId="1" r:id="rId1"/>
-    <sheet name="舊世界基底-北歐星系示意圖" sheetId="2" r:id="rId2"/>
+    <sheet name="舊世界末日編年史" sheetId="1" r:id="rId1"/>
+    <sheet name="舊世界基底-特拉希爾示意圖" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t xml:space="preserve">原始要素
 </t>
@@ -65,15 +65,6 @@
   </si>
   <si>
     <t>世界樹</t>
-  </si>
-  <si>
-    <t>北歐神話中支撐九大世界的一棵大樹， 意旨是維持九大世界不可或缺的存在。
-北歐星系中的巨大恆星，如同太陽系中太陽的存在，不斷散發著稱為魔素的能量使得周圍纏繞著相當濃密的星雲，並受到恆星重力的影響，呈現如同大樹般的外型。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北歐星系中的九顆行星，每個行星上都有各自的特色及文明。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -453,59 +444,6 @@
   </si>
   <si>
     <r>
-      <t>戰爭許久後阿薩神族在中庭的勢力日漸敗退，華納神族也在此投入主力部隊，但這點也在奧丁的計畫之內，以中庭為戰場目的是為透過戰爭取得大量的靈魂燃料來製造魔素，並故意放水讓華納神族的主力都集結於此，再使用所有熔爐能量強化的永恆之槍毀滅中庭，一次殲滅所有生靈物。
-然而一個</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>意外的因素</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>使得原本應該射向中庭的永恆之槍，卻偏離了目標射向了世界樹恆星，受到劇烈能量衝擊的恆星呈現塌縮現象，最終引發了大爆炸，烈火柱貫穿整個北歐星系，周圍行星、生物無一倖免，整個星系逐漸地塌陷……
-焦黑龜裂的大地，散落沉入於不在寧靜的海底，觸目所及的只剩滔天巨浪及生靈塗炭的光景，所有行星剩下一片死寂逐漸沉入永劫的黑暗，世界樹核心也轉變為一顆超新星散發著異樣的光芒，並逐漸吞噬周遭的行星殘骸。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【現實宇宙】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>的元素來對應整個北歐神話的世界，意旨整個神話世界都是發生在宇宙中的一個星系。【以下統稱北歐星系（特拉希爾）】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="14"/>
@@ -523,54 +461,6 @@
         <charset val="136"/>
       </rPr>
       <t xml:space="preserve"> - 有著末日象徵的邪龍穿過了星雲海來到了世界樹上層，盤旋在宇宙間伺機等待著大戰的開端。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>第十行星位於北歐星系（特拉希爾）的邊緣，因為沒有任何特色或生物存在長期處於冰封狀態，顯得十分不起眼，而在世界樹橫爆炸時產生的熱能融化了行星上的冰，使底下的陸地展露出來，溶化後的冰也形成了海洋，漸漸孕育出新的生命，新世界也就此誕生。
-第十行星也具有魔素能源，在世界樹恆星毀滅前也是不斷受到魔素之流的影響，雖然因距離較遠受到的量也較小，但因長期的冰封使得所有魔素都儲存在大地之中。
-在諸神黃昏前，奧丁透過諾恩三女神知道了世界毀滅的結局，即使再有自信的奧丁認為是無稽之談但也為此保留了一個後路『就算世界毀滅了，也要延續阿薩神族的生存』因此選出了奧丁血親的一對男女透過彩虹橋送往只有阿薩神族知道的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>第十行星 - 新世界</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>。(但因為</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>諸神黃昏中的意外因素</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，真正到達新世界是殘存的人類)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -662,15 +552,7 @@
     <t>巨人</t>
   </si>
   <si>
-    <t>居住於人類行星的另一側，也是在魔素之流外的行星，巨人族體型龐大到可以如同一座山，以大地為身、河流為血、石頭為心，不依靠魔素也擁有強大的力量，但數量十分稀少。</t>
-  </si>
-  <si>
     <t>龍</t>
-  </si>
-  <si>
-    <t>體型十分巨大但數量稀少的種族，能在宇宙中飛行，擁有智慧能夠用與人交談但不常出現在人面前。
-龍本身就是一個巨大的魔素載體，跟神族不同的是神族是依靠世界樹的輻射來取得魔素，龍則可以自己生產魔素。
-龍的誕生和死亡一直是個謎，據說是由世界樹誕生，死亡時也會回歸世界樹。</t>
   </si>
   <si>
     <r>
@@ -745,6 +627,110 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>種族解釋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中立 or 阿薩神族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>體型十分巨大但數量稀少的種族，能在宇宙中飛行，擁有智慧能夠用與人交談但不常出現在人面前。
+龍本身就是一個巨大的魔素載體，跟神族不同的是神族是依靠世界樹的輻射來取得魔素，龍則可以自己生產魔素。
+龍的誕生和死亡一直是個謎，據說是由世界樹誕生，死亡時也會回歸世界樹。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惡意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北歐神話中支撐九大世界的一棵大樹， 意旨是維持九大世界不可或缺的存在。
+特拉希爾中的巨大恆星，如同太陽系中太陽的存在，不斷散發著稱為魔素的能量使得周圍纏繞著相當濃密的星雲，並受到恆星重力的影響，呈現如同大樹般的外型。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【現實宇宙】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的元素來對應整個北歐神話的世界，意旨整個神話世界都是發生在宇宙中的一個星系。【以下統稱特拉希爾】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特拉希爾中的九顆行星，每個行星上都有各自的特色及文明。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>第十行星位於特拉希爾的邊緣，因為沒有任何特色或生物存在長期處於冰封狀態，顯得十分不起眼，而在世界樹橫爆炸時產生的熱能融化了行星上的冰，使底下的陸地展露出來，溶化後的冰也形成了海洋，漸漸孕育出新的生命，新世界也就此誕生。
+第十行星也具有魔素能源，在世界樹恆星毀滅前也是不斷受到魔素之流的影響，雖然因距離較遠受到的量也較小，但因長期的冰封使得所有魔素都儲存在大地之中。
+在諸神黃昏前，奧丁透過諾恩三女神知道了世界毀滅的結局，即使再有自信的奧丁認為是無稽之談但也為此保留了一個後路『就算世界毀滅了，也要延續阿薩神族的生存』因此選出了奧丁血親的一對男女透過彩虹橋送往只有阿薩神族知道的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>第十行星 - 新世界</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。(但因為</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>諸神黃昏中的意外因素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，真正到達新世界是殘存的人類)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>居住於</t>
     </r>
@@ -765,17 +751,45 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>外圍的行星，就如同現實人類般普通，文明程度相當於中世紀前期，並不知道北歐星系的其他種族，僅會用【神】來稱之。
+      <t>外圍的行星，就如同現實人類般普通，文明程度相當於中世紀前期，並不知道特拉希爾的其他種族，僅會用【神】來稱之。
 曾將阿薩神族奉為神，但被認為是弱小的種族因而被阿薩神族拋棄。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>種族解釋</t>
+    <r>
+      <t>戰爭許久後阿薩神族在中庭的勢力日漸敗退，華納神族也在此投入主力部隊，但這點也在奧丁的計畫之內，以中庭為戰場目的是為透過戰爭取得大量的靈魂燃料來製造魔素，並故意放水讓華納神族的主力都集結於此，再使用所有熔爐能量強化的永恆之槍毀滅中庭，一次殲滅所有生靈物。
+然而一個</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>意外的因素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>使得原本應該射向中庭的永恆之槍，卻偏離了目標射向了世界樹恆星，受到劇烈能量衝擊的恆星呈現塌縮現象，最終引發了大爆炸，烈火柱貫穿整個特拉希爾，周圍行星、生物無一倖免，整個星系逐漸地塌陷……
+焦黑龜裂的大地，散落沉入於不在寧靜的海底，觸目所及的只剩滔天巨浪及生靈塗炭的光景，所有行星剩下一片死寂逐漸沉入永劫的黑暗，世界樹核心也轉變為一顆超新星散發著異樣的光芒，並逐漸吞噬周遭的行星殘骸。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中立 or 阿薩神族</t>
+    <t>居住於人類行星的另一側，也是在魔素之流外的行星，巨人族體型龐大到可以如同一座山，以大地為身、河流為血、石頭為心，不依靠魔素也擁有強大的力量，但數量十分稀少。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因阿薩神族過度採集世界樹魔素，世界樹所產生的靈魂瘟疫精神意識體，特拉希爾內所產生的負面能量（恐懼、傲慢、忌妒、邪淫、憤怒、忌妒、貪婪等）都將是催化惡意的要素，穿梭在世界上任何一處，寄宿於強大的客體內，末日之時技宿於邪龍尼德霍格的靈魂內，蠶食鯨吞世界術的魔素……</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -915,7 +929,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1081,8 +1095,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -1100,21 +1114,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -1270,59 +1269,112 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1334,13 +1386,13 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1362,51 +1414,31 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1415,16 +1447,13 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1451,13 +1480,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1466,6 +1495,40 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1487,23 +1550,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>97972</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>109179</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>244289</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>87086</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>827315</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>98293</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>132551</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="47" name="群組 46">
+        <xdr:cNvPr id="57" name="群組 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE24C357-22FB-4A45-A599-7E65D9090FAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41CA0689-ED0F-41C4-ACA7-EC4096C6D228}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1511,10 +1574,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9250937" y="4056529"/>
-          <a:ext cx="11141208" cy="15112574"/>
-          <a:chOff x="9257212" y="4046220"/>
-          <a:chExt cx="11160034" cy="15076715"/>
+          <a:off x="11331361" y="6963744"/>
+          <a:ext cx="12475523" cy="16046125"/>
+          <a:chOff x="11335072" y="7183932"/>
+          <a:chExt cx="12439650" cy="16026333"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1530,8 +1593,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9257212" y="4046220"/>
-            <a:ext cx="11160034" cy="15076715"/>
+            <a:off x="11335072" y="7183932"/>
+            <a:ext cx="12439650" cy="16026333"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1583,8 +1646,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11739493" y="7430927"/>
-            <a:ext cx="1666925" cy="3233264"/>
+            <a:off x="14112426" y="10777612"/>
+            <a:ext cx="1863414" cy="3415181"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartPunchedCard">
             <a:avLst/>
@@ -1636,8 +1699,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="13411295" y="7430926"/>
-            <a:ext cx="1657468" cy="3233265"/>
+            <a:off x="15981292" y="10777611"/>
+            <a:ext cx="1852842" cy="3415182"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1691,8 +1754,8 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="12428273" y="8661462"/>
-            <a:ext cx="904699" cy="1372135"/>
+            <a:off x="14882396" y="12061291"/>
+            <a:ext cx="1011340" cy="1460361"/>
             <a:chOff x="13661869" y="10504965"/>
             <a:chExt cx="911839" cy="1387995"/>
           </a:xfrm>
@@ -1805,8 +1868,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11598177" y="10232668"/>
-            <a:ext cx="1845673" cy="482359"/>
+            <a:off x="13954452" y="13733524"/>
+            <a:ext cx="2063232" cy="513374"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1861,8 +1924,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14058601" y="10228294"/>
-            <a:ext cx="1322725" cy="485549"/>
+            <a:off x="16704899" y="13728868"/>
+            <a:ext cx="1478641" cy="516769"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1917,8 +1980,8 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="13872260" y="7879931"/>
-            <a:ext cx="795422" cy="2160139"/>
+            <a:off x="16496593" y="11246827"/>
+            <a:ext cx="889182" cy="2281715"/>
             <a:chOff x="15096564" y="9879106"/>
             <a:chExt cx="797859" cy="2169460"/>
           </a:xfrm>
@@ -2182,8 +2245,8 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11830511" y="9466639"/>
-            <a:ext cx="556709" cy="442747"/>
+            <a:off x="14214173" y="12918240"/>
+            <a:ext cx="622331" cy="471215"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2203,8 +2266,8 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="14808824" y="4195651"/>
-            <a:ext cx="1850028" cy="1355200"/>
+            <a:off x="17543554" y="7342971"/>
+            <a:ext cx="2068100" cy="1433678"/>
             <a:chOff x="14327056" y="5569999"/>
             <a:chExt cx="1855695" cy="1354170"/>
           </a:xfrm>
@@ -2317,8 +2380,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14834965" y="5896791"/>
-            <a:ext cx="1832094" cy="1426029"/>
+            <a:off x="17572777" y="9149781"/>
+            <a:ext cx="2048052" cy="1512773"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartDecision">
             <a:avLst/>
@@ -2415,8 +2478,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="16334611" y="7444731"/>
-            <a:ext cx="1671280" cy="3233264"/>
+            <a:off x="19249193" y="10792303"/>
+            <a:ext cx="1867045" cy="3415181"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartPunchedCard">
             <a:avLst/>
@@ -2477,8 +2540,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="16814386" y="7858611"/>
-            <a:ext cx="777547" cy="482359"/>
+            <a:off x="19785522" y="11224136"/>
+            <a:ext cx="875385" cy="504715"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2550,8 +2613,8 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="16748167" y="8042752"/>
-            <a:ext cx="921356" cy="910294"/>
+            <a:off x="19711497" y="11420117"/>
+            <a:ext cx="1028724" cy="951507"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2571,8 +2634,8 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="15538154" y="7272929"/>
-            <a:ext cx="2061494" cy="2220502"/>
+            <a:off x="18358854" y="10609455"/>
+            <a:ext cx="2310678" cy="2337300"/>
             <a:chOff x="12432658" y="8480611"/>
             <a:chExt cx="2061350" cy="2239413"/>
           </a:xfrm>
@@ -2705,8 +2768,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="15980854" y="10242269"/>
-            <a:ext cx="1325161" cy="485549"/>
+            <a:off x="18853737" y="13743742"/>
+            <a:ext cx="1487549" cy="516769"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2761,8 +2824,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14773828" y="10829848"/>
-            <a:ext cx="1933712" cy="998201"/>
+            <a:off x="17504433" y="14369101"/>
+            <a:ext cx="2161648" cy="1064857"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartAlternateProcess">
             <a:avLst/>
@@ -2818,8 +2881,8 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="12000419" y="13107656"/>
-            <a:ext cx="1845673" cy="2706021"/>
+            <a:off x="14404109" y="16795842"/>
+            <a:ext cx="2063232" cy="2893622"/>
             <a:chOff x="13686780" y="14893636"/>
             <a:chExt cx="1855695" cy="2715754"/>
           </a:xfrm>
@@ -2952,8 +3015,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="17494839" y="13236946"/>
-            <a:ext cx="2201589" cy="1490928"/>
+            <a:off x="20552368" y="16933445"/>
+            <a:ext cx="2431413" cy="1589268"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartDecision">
             <a:avLst/>
@@ -3031,8 +3094,8 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="14961624" y="13052433"/>
-            <a:ext cx="2091222" cy="2314931"/>
+            <a:off x="17714366" y="16737068"/>
+            <a:ext cx="2337725" cy="2477386"/>
             <a:chOff x="16231934" y="15406250"/>
             <a:chExt cx="2097628" cy="2323258"/>
           </a:xfrm>
@@ -3261,8 +3324,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10924572" y="16048098"/>
-            <a:ext cx="1602220" cy="1957214"/>
+            <a:off x="13196498" y="19938958"/>
+            <a:ext cx="1796030" cy="2085534"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartPunchedCard">
             <a:avLst/>
@@ -3323,8 +3386,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="13337358" y="16061903"/>
-            <a:ext cx="1533157" cy="1957214"/>
+            <a:off x="15898639" y="19953651"/>
+            <a:ext cx="1713878" cy="2085534"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartPunchedCard">
             <a:avLst/>
@@ -3383,8 +3446,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10748018" y="17546333"/>
-            <a:ext cx="1840230" cy="482359"/>
+            <a:off x="12999133" y="21533528"/>
+            <a:ext cx="2062095" cy="515848"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3439,8 +3502,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="13340773" y="17560138"/>
-            <a:ext cx="1850028" cy="482359"/>
+            <a:off x="15902457" y="21548220"/>
+            <a:ext cx="2068100" cy="515848"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3495,8 +3558,8 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="13599791" y="16213756"/>
-            <a:ext cx="1377152" cy="1380485"/>
+            <a:off x="16192006" y="20115268"/>
+            <a:ext cx="1539484" cy="1469248"/>
             <a:chOff x="14921346" y="18094036"/>
             <a:chExt cx="1381371" cy="1385451"/>
           </a:xfrm>
@@ -3629,8 +3692,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12757244" y="11948046"/>
-            <a:ext cx="13813" cy="1297659"/>
+            <a:off x="15250144" y="15561671"/>
+            <a:ext cx="15441" cy="1381097"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -3669,8 +3732,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12618444" y="12186981"/>
-            <a:ext cx="1161733" cy="704050"/>
+            <a:off x="15094983" y="15815969"/>
+            <a:ext cx="1298672" cy="749319"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3725,8 +3788,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12853930" y="11865216"/>
-            <a:ext cx="2251394" cy="1435709"/>
+            <a:off x="15358227" y="15473515"/>
+            <a:ext cx="2516777" cy="1528023"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -3768,8 +3831,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14146704" y="11981907"/>
-            <a:ext cx="1718294" cy="828252"/>
+            <a:off x="16803387" y="15597709"/>
+            <a:ext cx="1920838" cy="881507"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3824,8 +3887,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="16458921" y="13935949"/>
-            <a:ext cx="897795" cy="13805"/>
+            <a:off x="19388156" y="17679868"/>
+            <a:ext cx="1009808" cy="14693"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -3867,8 +3930,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1" flipV="1">
-            <a:off x="14069407" y="11326825"/>
-            <a:ext cx="635362" cy="13804"/>
+            <a:off x="16716978" y="14898033"/>
+            <a:ext cx="710255" cy="14692"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -3910,8 +3973,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14174328" y="10760822"/>
-            <a:ext cx="613314" cy="696457"/>
+            <a:off x="16834267" y="14295637"/>
+            <a:ext cx="685608" cy="743711"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3964,8 +4027,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14525210" y="9766873"/>
-            <a:ext cx="2513826" cy="0"/>
+            <a:off x="17226509" y="13237779"/>
+            <a:ext cx="2810143" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -4012,8 +4075,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="15458865" y="9238342"/>
-            <a:ext cx="585690" cy="599820"/>
+            <a:off x="18270219" y="12675264"/>
+            <a:ext cx="654728" cy="638388"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4066,8 +4129,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1">
-            <a:off x="15738249" y="9871341"/>
-            <a:ext cx="4524" cy="884611"/>
+            <a:off x="18582535" y="13348964"/>
+            <a:ext cx="5057" cy="941490"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4115,8 +4178,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14171025" y="6451963"/>
-            <a:ext cx="629444" cy="1439455"/>
+            <a:off x="16830575" y="9739413"/>
+            <a:ext cx="703640" cy="1519640"/>
           </a:xfrm>
           <a:prstGeom prst="bentArrow">
             <a:avLst/>
@@ -4164,8 +4227,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1">
-            <a:off x="16710503" y="6463597"/>
-            <a:ext cx="571234" cy="1488957"/>
+            <a:off x="19669394" y="9754269"/>
+            <a:ext cx="644753" cy="1569851"/>
           </a:xfrm>
           <a:prstGeom prst="bentArrow">
             <a:avLst/>
@@ -4213,8 +4276,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="15625323" y="5454780"/>
-            <a:ext cx="249315" cy="387586"/>
+            <a:off x="18456298" y="8674401"/>
+            <a:ext cx="278703" cy="417455"/>
           </a:xfrm>
           <a:prstGeom prst="upArrow">
             <a:avLst/>
@@ -4258,8 +4321,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="11808555" y="14750439"/>
-            <a:ext cx="469616" cy="1104391"/>
+            <a:off x="14189629" y="18546729"/>
+            <a:ext cx="524972" cy="1186535"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4301,8 +4364,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1" flipV="1">
-            <a:off x="13585979" y="14764242"/>
-            <a:ext cx="593925" cy="1145807"/>
+            <a:off x="16176566" y="18561419"/>
+            <a:ext cx="663934" cy="1230614"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4344,8 +4407,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="14442336" y="15012731"/>
-            <a:ext cx="953044" cy="1394295"/>
+            <a:off x="17133866" y="18837019"/>
+            <a:ext cx="1065384" cy="1483946"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4354,7 +4417,7 @@
             <a:solidFill>
               <a:srgbClr val="FFC000"/>
             </a:solidFill>
-            <a:headEnd type="triangle"/>
+            <a:headEnd type="none"/>
             <a:tailEnd type="triangle"/>
           </a:ln>
         </xdr:spPr>
@@ -4385,9 +4448,9 @@
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="15030686" y="15344045"/>
-            <a:ext cx="1718294" cy="696457"/>
+          <a:xfrm rot="18408739">
+            <a:off x="16458067" y="18931102"/>
+            <a:ext cx="1920838" cy="741238"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4415,7 +4478,7 @@
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="l"/>
+            <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="0">
                 <a:solidFill>
@@ -4424,7 +4487,27 @@
                 <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
                 <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               </a:rPr>
-              <a:t>蠶食鯨吞魔素能源</a:t>
+              <a:t>蠶食鯨吞</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              </a:rPr>
+              <a:t>魔素能源</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -4442,8 +4525,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm rot="5400000" flipH="1" flipV="1">
-            <a:off x="8274818" y="10574886"/>
-            <a:ext cx="13708384" cy="2008694"/>
+            <a:off x="10610287" y="14066202"/>
+            <a:ext cx="14582391" cy="2245469"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector4">
             <a:avLst>
@@ -4483,8 +4566,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="13304158" y="18105024"/>
-            <a:ext cx="1690668" cy="386539"/>
+            <a:off x="15861526" y="22130616"/>
+            <a:ext cx="1889955" cy="411393"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4543,8 +4626,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="17516888" y="6190706"/>
-            <a:ext cx="1848046" cy="1108382"/>
+            <a:off x="20577016" y="9458883"/>
+            <a:ext cx="2036196" cy="1178412"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4603,8 +4686,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9678205" y="8216638"/>
-            <a:ext cx="1605486" cy="386538"/>
+            <a:off x="11805690" y="11596525"/>
+            <a:ext cx="1792259" cy="402733"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4660,8 +4743,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9678205" y="8806983"/>
-            <a:ext cx="1605486" cy="378918"/>
+            <a:off x="11805690" y="12216169"/>
+            <a:ext cx="1792259" cy="403282"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4730,8 +4813,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9678205" y="9365363"/>
-            <a:ext cx="1605486" cy="386538"/>
+            <a:off x="11805690" y="12810452"/>
+            <a:ext cx="1792259" cy="411392"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4789,8 +4872,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9678205" y="9917559"/>
-            <a:ext cx="1605486" cy="386538"/>
+            <a:off x="11805690" y="13398154"/>
+            <a:ext cx="1792259" cy="411392"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4863,8 +4946,8 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="16894345" y="9442566"/>
-            <a:ext cx="624036" cy="625456"/>
+            <a:off x="19874906" y="12892619"/>
+            <a:ext cx="703779" cy="665672"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4884,8 +4967,8 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="10953207" y="16635126"/>
-            <a:ext cx="583473" cy="694610"/>
+            <a:off x="13228508" y="20563731"/>
+            <a:ext cx="657198" cy="739272"/>
             <a:chOff x="11332029" y="16437428"/>
             <a:chExt cx="914400" cy="1088571"/>
           </a:xfrm>
@@ -4983,8 +5066,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11970930" y="10899272"/>
-            <a:ext cx="489946" cy="2290948"/>
+            <a:off x="14371144" y="14442989"/>
+            <a:ext cx="547698" cy="2440726"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -5026,8 +5109,8 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="12090733" y="10472432"/>
-            <a:ext cx="2349285" cy="1588028"/>
+            <a:off x="14505068" y="13988704"/>
+            <a:ext cx="2626207" cy="1692609"/>
             <a:chOff x="13569689" y="12235075"/>
             <a:chExt cx="2360713" cy="1593740"/>
           </a:xfrm>
@@ -5160,8 +5243,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11728143" y="9225529"/>
-            <a:ext cx="774211" cy="291676"/>
+            <a:off x="14099738" y="12661627"/>
+            <a:ext cx="865471" cy="310430"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5216,8 +5299,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10902928" y="16416354"/>
-            <a:ext cx="771521" cy="284952"/>
+            <a:off x="13172303" y="20330893"/>
+            <a:ext cx="867412" cy="303274"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5298,8 +5381,8 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11806867" y="16494127"/>
-            <a:ext cx="916641" cy="914400"/>
+            <a:off x="14187742" y="20413666"/>
+            <a:ext cx="1024690" cy="973195"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5319,8 +5402,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11873806" y="16186858"/>
-            <a:ext cx="771521" cy="284952"/>
+            <a:off x="14262571" y="20086640"/>
+            <a:ext cx="862464" cy="303274"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5401,8 +5484,8 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11544300" y="16855440"/>
-            <a:ext cx="502920" cy="502920"/>
+            <a:off x="13894224" y="20798211"/>
+            <a:ext cx="562202" cy="535257"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5422,8 +5505,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11408986" y="16537378"/>
-            <a:ext cx="771521" cy="284952"/>
+            <a:off x="13738012" y="20459698"/>
+            <a:ext cx="867412" cy="303274"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5474,6 +5557,325 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="圖形 4" descr="無表情 (純色填滿)">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F078063D-3ADA-4247-A2C3-A7D5BE28CA85}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId32"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="17956482" y="20997057"/>
+            <a:ext cx="914400" cy="914400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="86" name="文字方塊 85">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2723613-10F4-4F2B-AB0B-85AFC50439FB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="17784042" y="21693695"/>
+            <a:ext cx="1298672" cy="749319"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1050" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              </a:rPr>
+              <a:t>靈魂瘟疫</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1050" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1050" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              </a:rPr>
+              <a:t>惡意</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="93" name="直線單箭頭接點 92">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2993B58-8A53-48F6-8A6E-64CCF877D091}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="17158608" y="20574001"/>
+            <a:ext cx="870856" cy="612320"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="76200">
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="95" name="文字方塊 94">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DA031BE-9A40-4600-BBDD-0A4D157FA714}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="2116693">
+            <a:off x="17576477" y="20540077"/>
+            <a:ext cx="685608" cy="743711"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              </a:rPr>
+              <a:t>寄宿</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="99" name="直線單箭頭接點 98">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F253843C-2763-4C85-828B-5BB071121513}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="5" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18396857" y="18873107"/>
+            <a:ext cx="16825" cy="2123950"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="76200">
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="103" name="文字方塊 102">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EC035A5-C20C-4640-82FB-CDC451A58B14}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18612817" y="19149798"/>
+            <a:ext cx="1920838" cy="1682738"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              </a:rPr>
+              <a:t>被過度採集魔素，所產生的靈魂瘟疫，又因末日大戰產生的負面能量而被催化出惡意這意識體。</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -5508,8 +5910,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="313095" y="245075"/>
-          <a:ext cx="8909685" cy="7380194"/>
+          <a:off x="319818" y="242834"/>
+          <a:ext cx="9842015" cy="7904629"/>
           <a:chOff x="474458" y="325757"/>
           <a:chExt cx="8909685" cy="7380194"/>
         </a:xfrm>
@@ -5880,337 +6282,375 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="A41:B41"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="9" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="14.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="124" style="9" customWidth="1"/>
     <col min="5" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="10.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="91.375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="94.85546875" style="9" customWidth="1"/>
     <col min="10" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="40" t="s">
+    <row r="1" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="41"/>
+      <c r="D3" s="32"/>
     </row>
-    <row r="4" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="43"/>
+    <row r="4" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="34"/>
       <c r="F4" s="10"/>
       <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
+    <row r="5" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="2:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
+    <row r="6" spans="2:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
       <c r="F6" s="12"/>
       <c r="G6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
     </row>
-    <row r="8" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="52"/>
-      <c r="G9" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="32"/>
+    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
     </row>
-    <row r="10" spans="2:9" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="43"/>
+      <c r="G9" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="48"/>
+      <c r="I9" s="49"/>
+    </row>
+    <row r="10" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C10" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="24" t="s">
+      <c r="H10" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="40"/>
+      <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>62</v>
+      <c r="I14" s="50" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="29" t="s">
+    <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="40"/>
+      <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="22" t="s">
+      <c r="G15" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="H15" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="40"/>
+      <c r="D16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="51"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="52"/>
+    </row>
+    <row r="17" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="40"/>
+      <c r="D17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="51"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="52"/>
+    </row>
+    <row r="18" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="40"/>
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="51" t="s">
         <v>52</v>
       </c>
+      <c r="H18" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="52" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="49"/>
-      <c r="D14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>55</v>
-      </c>
+    <row r="19" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="40"/>
+      <c r="D19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="51"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="52"/>
     </row>
-    <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="49"/>
-      <c r="D15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>57</v>
-      </c>
+    <row r="20" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="C20" s="40"/>
+      <c r="D20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="51"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="52"/>
     </row>
-    <row r="16" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="49"/>
-      <c r="D16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>59</v>
-      </c>
+    <row r="21" spans="3:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="41"/>
+      <c r="D21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="51"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="52"/>
     </row>
-    <row r="17" spans="3:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="C17" s="49"/>
-      <c r="D17" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="C18" s="49"/>
-      <c r="D18" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="C19" s="49"/>
-      <c r="D19" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="C20" s="49"/>
-      <c r="D20" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="C21" s="50"/>
-      <c r="D21" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" ht="90" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:9" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="G22" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="53" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="23" spans="3:4" ht="36" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="C23" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="24" spans="3:4" ht="126.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:9" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="26" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="3:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="C27" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="33"/>
+    <row r="25" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="24"/>
     </row>
-    <row r="28" spans="3:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C28" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="C30" s="26"/>
+      <c r="D30" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="C31" s="26"/>
+      <c r="D31" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="C32" s="26"/>
+      <c r="D32" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="C33" s="27"/>
+      <c r="D33" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="C34" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="D34" s="18" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="3:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="C29" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="C30" s="35"/>
-      <c r="D30" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="C31" s="35"/>
-      <c r="D31" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="C32" s="35"/>
-      <c r="D32" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="C33" s="36"/>
-      <c r="D33" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="C34" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" ht="162" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:4" ht="168.75" x14ac:dyDescent="0.25">
       <c r="C35" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="36" spans="3:4" ht="162" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:4" ht="168.75" x14ac:dyDescent="0.25">
       <c r="C36" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="37" spans="3:4" ht="126" x14ac:dyDescent="0.3">
-      <c r="C37" s="37" t="s">
+    <row r="37" spans="3:4" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="C37" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="38" spans="3:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="C38" s="38"/>
+    <row r="38" spans="3:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="C38" s="29"/>
       <c r="D38" s="19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="39" spans="3:4" ht="162" x14ac:dyDescent="0.3">
-      <c r="C39" s="38"/>
+    <row r="39" spans="3:4" ht="168.75" x14ac:dyDescent="0.25">
+      <c r="C39" s="29"/>
       <c r="D39" s="19" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="40" spans="3:4" ht="90.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="39"/>
+    <row r="40" spans="3:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="30"/>
       <c r="D40" s="20" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="43" spans="3:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="3:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="14">
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="G15:G17"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C29:C33"/>
@@ -6232,15 +6672,15 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F8AB5B-DCCB-4DEA-BBFD-995029D990CA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A4629E-A65A-41A4-A7E1-A5D277C9D1F2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1432,6 +1432,40 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1495,40 +1529,6 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -6283,8 +6283,8 @@
   <dimension ref="B1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6303,29 +6303,29 @@
     <row r="1" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="46"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="48"/>
       <c r="F4" s="10"/>
       <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="2:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="52"/>
       <c r="F6" s="12"/>
       <c r="G6" s="1" t="s">
         <v>1</v>
@@ -6333,25 +6333,25 @@
     </row>
     <row r="7" spans="2:9" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
     </row>
     <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="G9" s="47" t="s">
+      <c r="D9" s="57"/>
+      <c r="G9" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="48"/>
-      <c r="I9" s="49"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="36"/>
     </row>
     <row r="10" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C10" s="15" t="s">
@@ -6363,7 +6363,7 @@
       <c r="G10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="23" t="s">
         <v>41</v>
       </c>
       <c r="I10" s="16" t="s">
@@ -6380,10 +6380,10 @@
       <c r="G11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="45" t="s">
+      <c r="H11" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="50" t="s">
+      <c r="I11" s="25" t="s">
         <v>53</v>
       </c>
     </row>
@@ -6397,15 +6397,15 @@
       <c r="G12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="45" t="s">
+      <c r="H12" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="50" t="s">
+      <c r="I12" s="25" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="53" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="22" t="s">
@@ -6414,102 +6414,102 @@
       <c r="G13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="45" t="s">
+      <c r="H13" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="50" t="s">
+      <c r="I13" s="25" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="40"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="45" t="s">
+      <c r="H14" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="I14" s="50" t="s">
+      <c r="I14" s="25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="40"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="52" t="s">
+      <c r="I15" s="31" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="40"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="51"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="52"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="31"/>
     </row>
     <row r="17" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="40"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="51"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="52"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="40"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="46" t="s">
+      <c r="H18" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="52" t="s">
+      <c r="I18" s="31" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="40"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="51"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="52"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C20" s="40"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="51"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="52"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="31"/>
     </row>
     <row r="21" spans="3:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="41"/>
+      <c r="C21" s="55"/>
       <c r="D21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="52"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="31"/>
     </row>
     <row r="22" spans="3:9" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="6" t="s">
@@ -6518,13 +6518,13 @@
       <c r="D22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="55" t="s">
+      <c r="G22" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="54" t="s">
+      <c r="H22" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="53" t="s">
+      <c r="I22" s="26" t="s">
         <v>67</v>
       </c>
     </row>
@@ -6547,10 +6547,10 @@
     <row r="25" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="24"/>
+      <c r="D27" s="38"/>
     </row>
     <row r="28" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C28" s="17" t="s">
@@ -6561,7 +6561,7 @@
       </c>
     </row>
     <row r="29" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="39" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="21" t="s">
@@ -6569,25 +6569,25 @@
       </c>
     </row>
     <row r="30" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C30" s="26"/>
+      <c r="C30" s="40"/>
       <c r="D30" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="31" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C31" s="26"/>
+      <c r="C31" s="40"/>
       <c r="D31" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C32" s="26"/>
+      <c r="C32" s="40"/>
       <c r="D32" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="3:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C33" s="27"/>
+      <c r="C33" s="41"/>
       <c r="D33" s="18" t="s">
         <v>36</v>
       </c>
@@ -6617,7 +6617,7 @@
       </c>
     </row>
     <row r="37" spans="3:4" ht="131.25" x14ac:dyDescent="0.25">
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="42" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="19" t="s">
@@ -6625,19 +6625,19 @@
       </c>
     </row>
     <row r="38" spans="3:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="C38" s="29"/>
+      <c r="C38" s="43"/>
       <c r="D38" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="3:4" ht="168.75" x14ac:dyDescent="0.25">
-      <c r="C39" s="29"/>
+      <c r="C39" s="43"/>
       <c r="D39" s="19" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="40" spans="3:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="30"/>
+      <c r="C40" s="44"/>
       <c r="D40" s="20" t="s">
         <v>40</v>
       </c>
@@ -6645,12 +6645,6 @@
     <row r="43" spans="3:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="G15:G17"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C29:C33"/>
@@ -6659,6 +6653,12 @@
     <mergeCell ref="C4:D6"/>
     <mergeCell ref="C13:C21"/>
     <mergeCell ref="C9:D9"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="G15:G17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A4629E-A65A-41A4-A7E1-A5D277C9D1F2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BE350B-F5F2-43E1-BCCD-F9B0A7E99D76}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1452,15 +1452,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1528,6 +1519,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6284,7 +6284,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6303,29 +6303,29 @@
     <row r="1" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="46"/>
+      <c r="D3" s="43"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="45"/>
       <c r="F4" s="10"/>
       <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="47"/>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="2:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="51"/>
-      <c r="D6" s="52"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
       <c r="F6" s="12"/>
       <c r="G6" s="1" t="s">
         <v>1</v>
@@ -6343,15 +6343,15 @@
       <c r="I8" s="30"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="G9" s="34" t="s">
+      <c r="D9" s="54"/>
+      <c r="G9" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="36"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
     </row>
     <row r="10" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C10" s="15" t="s">
@@ -6405,7 +6405,7 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="50" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="22" t="s">
@@ -6422,7 +6422,7 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="54"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
@@ -6437,79 +6437,79 @@
       </c>
     </row>
     <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="54"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="55" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="54"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="31"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="55"/>
     </row>
     <row r="17" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="54"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="31"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="55"/>
     </row>
     <row r="18" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="54"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="31" t="s">
+      <c r="I18" s="55" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="54"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="31"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="55"/>
     </row>
     <row r="20" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C20" s="54"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="31"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="55"/>
     </row>
     <row r="21" spans="3:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="55"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="31"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="55"/>
     </row>
     <row r="22" spans="3:9" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="6" t="s">
@@ -6547,10 +6547,10 @@
     <row r="25" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="38"/>
+      <c r="D27" s="35"/>
     </row>
     <row r="28" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C28" s="17" t="s">
@@ -6561,7 +6561,7 @@
       </c>
     </row>
     <row r="29" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="36" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="21" t="s">
@@ -6569,25 +6569,25 @@
       </c>
     </row>
     <row r="30" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C30" s="40"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="31" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C31" s="40"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C32" s="40"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="3:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C33" s="41"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="18" t="s">
         <v>36</v>
       </c>
@@ -6617,7 +6617,7 @@
       </c>
     </row>
     <row r="37" spans="3:4" ht="131.25" x14ac:dyDescent="0.25">
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="39" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="19" t="s">
@@ -6625,19 +6625,19 @@
       </c>
     </row>
     <row r="38" spans="3:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="C38" s="43"/>
+      <c r="C38" s="40"/>
       <c r="D38" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="3:4" ht="168.75" x14ac:dyDescent="0.25">
-      <c r="C39" s="43"/>
+      <c r="C39" s="40"/>
       <c r="D39" s="19" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="40" spans="3:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="44"/>
+      <c r="C40" s="41"/>
       <c r="D40" s="20" t="s">
         <v>40</v>
       </c>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BE350B-F5F2-43E1-BCCD-F9B0A7E99D76}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09102F8E-C50F-4100-835A-8F4E2A777468}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舊世界末日編年史" sheetId="1" r:id="rId1"/>
     <sheet name="舊世界基底-特拉希爾示意圖" sheetId="2" r:id="rId2"/>
+    <sheet name="新世界編年史" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="104">
   <si>
     <t xml:space="preserve">原始要素
 </t>
@@ -792,12 +793,754 @@
     <t>因阿薩神族過度採集世界樹魔素，世界樹所產生的靈魂瘟疫精神意識體，特拉希爾內所產生的負面能量（恐懼、傲慢、忌妒、邪淫、憤怒、忌妒、貪婪等）都將是催化惡意的要素，穿梭在世界上任何一處，寄宿於強大的客體內，末日之時技宿於邪龍尼德霍格的靈魂內，蠶食鯨吞世界術的魔素……</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>本遊戲舞台為諸神黃昏後的新世界，人類用自己的雙手建立了新世界，寫下屬於他們的歷史，而本作故事的時間軸發生於諸神黃昏後的1332年，因為人們貪婪的慾望，惡意再次甦醒，漫步於曾經是救贖的大地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敘述</t>
+  </si>
+  <si>
+    <t>詩寇蒂</t>
+  </si>
+  <si>
+    <t>尼德霍格</t>
+  </si>
+  <si>
+    <t>重
+要
+人
+物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地
+理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>末日之戰中僥倖生存的人類，只能四處逃竄，無助地等待著戰爭的結束。
+諸神黃昏之際，受到福金和無名人類的幫助與詩寇蒂搭上了彩虹橋前往新世界。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>此時僅剩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倖存人類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿薩神族中掌管未來的女神，從福金那得知了情感的概念，在逆神計畫中被福金請託將倖存人類帶往新世界。對於人類能夠引發的無限可能性（奇蹟）這跳脫機率的存在，視為超越眾神帶來希望【Ur】的能力，同時也非常愧疚神族對於人類的所作所為。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舊世代象徵著末日的巨龍，諸神黃昏後被恆星爆炸衝擊到宇宙中，最後恰巧落於新世界，此時的巨龍早已奄奄一息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>位於特拉希爾的邊際，因距離世界樹較遠長年處於冰封狀態，沒有晝夜、氣候惡劣並不適合人類生存，但神族的觀測指出，這冰封的大地下蘊藏的相當充足的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>生機</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新世界年史(依時間)</t>
+  </si>
+  <si>
+    <t>事件</t>
+  </si>
+  <si>
+    <t>神族or舊時代產物</t>
+  </si>
+  <si>
+    <t>降臨新世界</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[無名逆神者] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>與神族</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>福金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>聯合反叛奧丁，最後再與奧丁的爭鬥中死亡，但也成功阻止了奧丁的計畫，引發諸神黃昏。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+[殘存人類]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 諸神黃昏前夕殘存的人類依照逆神計畫搭上了前往新世界的彩虹橋，但由於彩虹橋運行時產生的巨大能量，使得</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>人類陷入了長時間的沉睡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>[福金] - 與無名人類聯合反叛奧丁，為了阻止永恆之槍的發射，在與大量衛兵的衝突中重傷，最後僅能改變發射軌道，死於諸神黃昏中。
+[詩寇蒂] - 在諸神黃昏前夕，受到了福金的委託將殘存的人類帶往新世界，並將自己的神髓分給了人類，保護他們在通過彩虹橋時不會被強大的魔素流動所撕裂。</t>
+  </si>
+  <si>
+    <t>解凍大地</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>[詩寇蒂] - 沒有魔素且冰封的新世界完全對人類來說是致命的，因此決定釋放自己的魔素來解凍周圍的大地，確保沉睡中的人類得以生存。但詩寇蒂本身的魔素量不足以長時間維持，很快地就會消耗殆盡，此時巨大的身影劃過了天空，邪龍尼德霍格降落於新世界．．．</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新世界之光
+魔素迴廊
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[詩寇蒂] - 循著巨影的方向前進，詩寇蒂來到了奄奄一息的尼德霍格身前與其對談，希望能使用尼德霍格擁有的龐大魔素來維持這個世界的生機。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF38761D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>「我們的時代已經過去了，世界不再複雜，你願意為這個單純的世界帶來希望嗎?」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>「哼，無聊透頂...隨便妳吧，老夫現在只想安穩的睡一覺而已。」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF38761D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>「謝謝你了...」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFBF9000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>詩寇蒂使用了尼德霍格的龐大魔素向天空散去涵蓋了整個世界，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>魔素迴廊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">因而成形，如同絲綢般輕柔的包覆著新世界，並散發著溫暖的光且不斷為大地注入能量，屆時冰層融化成為了海洋，大地漸漸孕育出生機，天空不再只有黑暗而有了日夜。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF38761D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">「人類阿...你們已經自由了，不在受到他人的約束，沒有貴賤高低之分，這裡就是屬於你們的世界」
+「最後的神族，命運之女神詩寇蒂在此祝福，未來...就交給你們了」
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>此後詩寇蒂便與尼德霍格陷入如同永恆的沉睡中。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>備註</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 尼德霍格的魔素本身就含有惡意的因子，會促使宿主有破壞的慾望，但因為末日之戰的終結惡意也跟著失去活性變回普通的魔素，並非消失，也因此種下了後來人類戰爭時期產生瘟疫的種子。</t>
+    </r>
+  </si>
+  <si>
+    <t>人類甦醒</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[殘存人類]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 伴隨著詩寇蒂的祝福，新世界迎來第一道曙光，人類也從長時間的沉睡中甦醒，此時映入眼簾的不再是戰火蔓延的煉獄之地，而是一片綠意盎然充滿生機的大地 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>新世界</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">。
+此後人類這個種族開始漸漸發展了起來，並且流傳著一段故事 : 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>「曾經有一位貪婪的神拋棄了人類，為世界帶來戰爭及毀滅。」
+「曾經有一名人類為了保護家人、同伴向神挑戰，以最弱的身姿將神從王座上拉了下來，結束了永恆的戰爭。」
+「曾經有一位女神對人類伸出了溫暖的手，賜與人類救贖及重生的機會。」</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">備註 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 殘存人類在經過長時間沉睡後已經喪失了一些記憶，只依稀記得曾經有一場大戰，有一名人類向神挑戰並結束了戰爭，一名女神帶領人們來到新世界，其名稱已經不可考。</t>
+    </r>
+  </si>
+  <si>
+    <t>族群分裂</t>
+  </si>
+  <si>
+    <t>人類經過長時間的文明發展，人口漸漸變多，但也相對產生許多理念與衝突，因而演變成族群化，相同理念的人會聚再一起形成一個族群。</t>
+  </si>
+  <si>
+    <t>人類戰爭
+時期</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[2大帝國]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 族群間的理念不合，進而發展成衝突，最後擴大成戰爭局面，戰爭期間僅是簡單的弱肉強食，力量不足的族群會被戰爭吞噬，為了尋求自保都會去依靠實力較強的一方，最終從N個小族群演變成僅有2大帝國的爭鬥。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[教團]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 在戰爭中有一群人類不斷遊走在戰爭之地，幫助著因戰爭而無家可歸的人，他們不屬於2大帝國，僅是為了避戰而存在的團體，最終在領導者的帶領下遠離了戰爭之地，在深山內建立了自己的家園 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>城鎮大教團</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>因而成立。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[惡意]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 戰爭所帶來的負面情感又再度喚醒了惡意因子，漸漸開始活化起來，已經散於大地中的惡意使部分土地凋零並開始影響到人類，瘟疫就此開始蔓延。</t>
+    </r>
+  </si>
+  <si>
+    <t>戰爭末期
+瘟疫肆虐</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[2大帝國]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 瘟疫不斷肆虐的國民及軍隊，連仗都無法打，因此雙方決議先行停戰，並開始極力尋找瘟疫的解藥，但這也意味著誰先找到解藥誰就是贏家，表面上雖是停止戰爭但仍然存在著許多暗鬥。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[教團]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 即便遠離戰爭之地的教團也受到了瘟疫的侵襲，此時教團意外發現了位於城鎮地底深處的神秘洞窟及液體，能夠治癒瘟疫，便開始大量使用於居民身上。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[惡意]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 惡意從戰爭開始不斷活化著，但宿主-尼德霍格已經無法再行動，因此需要尋找下一個宿體，並呈現有實體的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>惡意核心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>存在於世界各地的地底中。
+教團地底正好有一個惡意核心，經由</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>教團大祭司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的接觸後寄宿再大祭司身上，惡意便此覺醒。</t>
+    </r>
+  </si>
+  <si>
+    <t>解藥傳言
+教團陷落</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[2大帝國]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 不知從何時，有一個傳聞在帝國間流傳「在南方的山脈間有一座無人知曉的城鎮，其中有著萬能的解藥，甚至連瘟疫都能醫治」即使是完全沒有依據的傳言，但為了獲得最後的勝利仍然派出了使者前往探究。其中一個帝國派出了一支探查隊前往，而主角 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>克弗思．慕尼(Corvus．Munin)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>就在其中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">。
+[教團] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 原以為瘟疫危機已經解決教團，卻沒想到解藥卻是最毒的毒藥，居民開始無故暴躁、破壞、甚至有些突變成怪物，城鎮在無預警的情況下一夕之間陷落，成為了怪物的巢穴。</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -890,8 +1633,118 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF38761D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0B5394"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFBF9000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0B5394"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -928,8 +1781,20 @@
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1370,11 +2235,221 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1452,6 +2527,48 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1528,6 +2645,93 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1574,8 +2778,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11331361" y="6963744"/>
-          <a:ext cx="12475523" cy="16046125"/>
+          <a:off x="11511965" y="6966218"/>
+          <a:ext cx="12439649" cy="15781404"/>
           <a:chOff x="11335072" y="7183932"/>
           <a:chExt cx="12439650" cy="16026333"/>
         </a:xfrm>
@@ -1849,7 +3053,27 @@
                   <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
                   <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
                 </a:rPr>
-                <a:t>眾神之主奧丁</a:t>
+                <a:t>眾神之主</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                </a:rPr>
+                <a:t>奧丁</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -6282,9 +7506,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6292,7 +7516,7 @@
     <col min="1" max="1" width="2.42578125" style="9" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
     <col min="3" max="3" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="124" style="9" customWidth="1"/>
+    <col min="4" max="4" width="126.7109375" style="9" customWidth="1"/>
     <col min="5" max="6" width="9" style="9"/>
     <col min="7" max="7" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.28515625" style="9" bestFit="1" customWidth="1"/>
@@ -6303,29 +7527,29 @@
     <row r="1" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="43"/>
+      <c r="D3" s="59"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="61"/>
       <c r="F4" s="10"/>
       <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="46"/>
-      <c r="D5" s="47"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="2:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="65"/>
       <c r="F6" s="12"/>
       <c r="G6" s="1" t="s">
         <v>1</v>
@@ -6343,15 +7567,15 @@
       <c r="I8" s="30"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="G9" s="31" t="s">
+      <c r="D9" s="70"/>
+      <c r="G9" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="49"/>
     </row>
     <row r="10" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C10" s="15" t="s">
@@ -6405,7 +7629,7 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="66" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="22" t="s">
@@ -6422,7 +7646,7 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="51"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
@@ -6437,79 +7661,79 @@
       </c>
     </row>
     <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="51"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="57" t="s">
+      <c r="H15" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="55" t="s">
+      <c r="I15" s="71" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="51"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="55"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="71"/>
     </row>
     <row r="17" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="51"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="55"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="71"/>
     </row>
     <row r="18" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="51"/>
+      <c r="C18" s="67"/>
       <c r="D18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="56" t="s">
+      <c r="G18" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="57" t="s">
+      <c r="H18" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="55" t="s">
+      <c r="I18" s="71" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="51"/>
+      <c r="C19" s="67"/>
       <c r="D19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="56"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="55"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="71"/>
     </row>
     <row r="20" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C20" s="51"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="56"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="55"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="71"/>
     </row>
     <row r="21" spans="3:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="52"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="55"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="71"/>
     </row>
     <row r="22" spans="3:9" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="6" t="s">
@@ -6547,10 +7771,10 @@
     <row r="25" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="35"/>
+      <c r="D27" s="51"/>
     </row>
     <row r="28" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C28" s="17" t="s">
@@ -6561,7 +7785,7 @@
       </c>
     </row>
     <row r="29" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="52" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="21" t="s">
@@ -6569,25 +7793,25 @@
       </c>
     </row>
     <row r="30" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C30" s="37"/>
+      <c r="C30" s="53"/>
       <c r="D30" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="31" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C31" s="37"/>
+      <c r="C31" s="53"/>
       <c r="D31" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C32" s="37"/>
+      <c r="C32" s="53"/>
       <c r="D32" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="3:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C33" s="38"/>
+      <c r="C33" s="54"/>
       <c r="D33" s="18" t="s">
         <v>36</v>
       </c>
@@ -6617,7 +7841,7 @@
       </c>
     </row>
     <row r="37" spans="3:4" ht="131.25" x14ac:dyDescent="0.25">
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="55" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="19" t="s">
@@ -6625,19 +7849,19 @@
       </c>
     </row>
     <row r="38" spans="3:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="C38" s="40"/>
+      <c r="C38" s="56"/>
       <c r="D38" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="3:4" ht="168.75" x14ac:dyDescent="0.25">
-      <c r="C39" s="40"/>
+    <row r="39" spans="3:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="C39" s="56"/>
       <c r="D39" s="19" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="40" spans="3:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="41"/>
+      <c r="C40" s="57"/>
       <c r="D40" s="20" t="s">
         <v>40</v>
       </c>
@@ -6686,4 +7910,266 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922C88DA-6A99-41E4-9AB6-0246F073DD34}">
+  <dimension ref="C1:F28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.140625" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="46" customWidth="1"/>
+    <col min="6" max="6" width="50.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="92"/>
+      <c r="F3" s="93"/>
+    </row>
+    <row r="4" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="95"/>
+      <c r="F4" s="96"/>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="97"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="99"/>
+    </row>
+    <row r="6" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="100"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="102"/>
+    </row>
+    <row r="8" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="3:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="82"/>
+      <c r="E9" s="85" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="86"/>
+    </row>
+    <row r="10" spans="3:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="84"/>
+    </row>
+    <row r="11" spans="3:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="79"/>
+      <c r="D11" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="88"/>
+    </row>
+    <row r="12" spans="3:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="80"/>
+      <c r="D12" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="89" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="90"/>
+    </row>
+    <row r="13" spans="3:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="77"/>
+    </row>
+    <row r="16" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+    </row>
+    <row r="17" spans="3:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="C17" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+    </row>
+    <row r="18" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="41"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="C19" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="34"/>
+      <c r="E20" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="34"/>
+      <c r="E21" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="46"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="34"/>
+      <c r="E23" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="46"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="46"/>
+    </row>
+    <row r="25" spans="3:6" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="34"/>
+      <c r="E25" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="34"/>
+      <c r="E26" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F6"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09102F8E-C50F-4100-835A-8F4E2A777468}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38EE73A-9F3B-45E6-9597-6B4602C039C6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舊世界末日編年史" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="126">
   <si>
     <t xml:space="preserve">原始要素
 </t>
@@ -790,14 +790,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>因阿薩神族過度採集世界樹魔素，世界樹所產生的靈魂瘟疫精神意識體，特拉希爾內所產生的負面能量（恐懼、傲慢、忌妒、邪淫、憤怒、忌妒、貪婪等）都將是催化惡意的要素，穿梭在世界上任何一處，寄宿於強大的客體內，末日之時技宿於邪龍尼德霍格的靈魂內，蠶食鯨吞世界術的魔素……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本遊戲舞台為諸神黃昏後的新世界，人類用自己的雙手建立了新世界，寫下屬於他們的歷史，而本作故事的時間軸發生於諸神黃昏後的1332年，因為人們貪婪的慾望，惡意再次甦醒，漫步於曾經是救贖的大地。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>敘述</t>
   </si>
   <si>
@@ -819,634 +811,531 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>倖存人類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿薩神族中掌管未來的女神，從福金那得知了情感的概念，在逆神計畫中被福金請託將倖存人類帶往新世界。對於人類能夠引發的無限可能性（奇蹟）這跳脫機率的存在，視為超越眾神帶來希望【Ur】的能力，同時也非常愧疚神族對於人類的所作所為。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舊世代象徵著末日的巨龍，諸神黃昏後被恆星爆炸衝擊到宇宙中，最後恰巧落於新世界，此時的巨龍早已奄奄一息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新世界年史(依時間)</t>
+  </si>
+  <si>
+    <t>事件</t>
+  </si>
+  <si>
+    <t>降臨新世界</t>
+  </si>
+  <si>
+    <t>解凍大地</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>人類甦醒</t>
+  </si>
+  <si>
+    <t>戰爭末期
+瘟疫肆虐</t>
+  </si>
+  <si>
+    <t>解藥傳言
+教團陷落</t>
+  </si>
+  <si>
+    <t>新曆元年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>末日之戰中僥倖生存的人類，只能四處逃竄，無助地等待著戰爭的結束。
+諸神黃昏之際，受到福金和無名人類的幫助與詩寇蒂搭上了彩虹橋前往新世界。(此時僅剩2人)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位於特拉希爾的邊際，因距離世界樹較遠長年處於冰封狀態，沒有晝夜、氣候惡劣並不適合人類生存，但神族的觀測指出，這冰封的大地下蘊藏的相當充足的"生機"。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[無名逆神者] </t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>末日之戰中僥倖生存的人類，只能四處逃竄，無助地等待著戰爭的結束。
-諸神黃昏之際，受到福金和無名人類的幫助與詩寇蒂搭上了彩虹橋前往新世界。</t>
-    </r>
-    <r>
-      <rPr>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>此時僅剩</t>
-    </r>
-    <r>
-      <rPr>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>與神族</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>福金</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>人</t>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>聯合反叛奧丁，最後再與奧丁的爭鬥中死亡，但也成功阻止了奧丁的計畫，引發諸神黃昏。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[倖存的人類]  -</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倖存人類</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿薩神族中掌管未來的女神，從福金那得知了情感的概念，在逆神計畫中被福金請託將倖存人類帶往新世界。對於人類能夠引發的無限可能性（奇蹟）這跳脫機率的存在，視為超越眾神帶來希望【Ur】的能力，同時也非常愧疚神族對於人類的所作所為。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舊世代象徵著末日的巨龍，諸神黃昏後被恆星爆炸衝擊到宇宙中，最後恰巧落於新世界，此時的巨龍早已奄奄一息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> 沉睡中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>位於特拉希爾的邊際，因距離世界樹較遠長年處於冰封狀態，沒有晝夜、氣候惡劣並不適合人類生存，但神族的觀測指出，這冰封的大地下蘊藏的相當充足的</t>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>[倖存的人類]</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>生機</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新世界年史(依時間)</t>
-  </si>
-  <si>
-    <t>事件</t>
-  </si>
-  <si>
-    <t>神族or舊時代產物</t>
-  </si>
-  <si>
-    <t>降臨新世界</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[無名逆神者] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>與神族</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>福金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>聯合反叛奧丁，最後再與奧丁的爭鬥中死亡，但也成功阻止了奧丁的計畫，引發諸神黃昏。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-[殘存人類]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 諸神黃昏前夕殘存的人類依照逆神計畫搭上了前往新世界的彩虹橋，但由於彩虹橋運行時產生的巨大能量，使得</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>人類陷入了長時間的沉睡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>[福金] - 與無名人類聯合反叛奧丁，為了阻止永恆之槍的發射，在與大量衛兵的衝突中重傷，最後僅能改變發射軌道，死於諸神黃昏中。
-[詩寇蒂] - 在諸神黃昏前夕，受到了福金的委託將殘存的人類帶往新世界，並將自己的神髓分給了人類，保護他們在通過彩虹橋時不會被強大的魔素流動所撕裂。</t>
-  </si>
-  <si>
-    <t>解凍大地</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>[詩寇蒂] - 沒有魔素且冰封的新世界完全對人類來說是致命的，因此決定釋放自己的魔素來解凍周圍的大地，確保沉睡中的人類得以生存。但詩寇蒂本身的魔素量不足以長時間維持，很快地就會消耗殆盡，此時巨大的身影劃過了天空，邪龍尼德霍格降落於新世界．．．</t>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> - 諸神黃昏前夕倖存的人類依照逆神計畫搭上了前往新世界的彩虹橋，但由於彩虹橋運行時產生的巨大能量，使得人類陷入了長時間的沉睡。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本遊戲舞台為諸神黃昏後的新世界，人類用自己的雙手建立了新世界，寫下屬於他們的歷史，而本作故事的時間軸發生於諸神黃昏後的1332年，因為人們貪婪的慾望，惡意再次甦醒，漫步於曾經是救贖的大地。以下是新世界的創世紀。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新曆30年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新曆50年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">新世界之光
 魔素迴廊
 </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[詩寇蒂] - 循著巨影的方向前進，詩寇蒂來到了奄奄一息的尼德霍格身前與其對談，希望能使用尼德霍格擁有的龐大魔素來維持這個世界的生機。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF38761D"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神族or舊時代產物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月月筆記</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>童話故事：與龍結婚的公主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[福金] - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>與無名人類聯合反叛奧丁，為了阻止永恆之槍的發射，在與大量衛兵的衝突中重傷，最後僅能改變發射軌道，死於諸神黃昏中。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>「我們的時代已經過去了，世界不再複雜，你願意為這個單純的世界帶來希望嗎?」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[詩寇蒂] - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在諸神黃昏前夕，受到了福金的委託將殘存的人類帶往新世界，並將自己的神髓分給了人類，保護他們在通過彩虹橋時不會被強大的魔素流動所撕裂。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[詩寇蒂] - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>沒有魔素且冰封的新世界對人類來說是完全致命的，因此決定釋放自己的魔素來解凍周圍的大地，確保沉睡中的人類得以生存。但詩寇蒂本身的魔素量並不足以長期生存使用了，此時巨大的身影劃過了天空……</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[詩寇蒂] - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>循著巨影的方向前進，詩寇蒂發現了奄奄一息的尼德霍格，便前去與其交談，她希望能使用尼德霍格剩下的龐大魔素來維持這個世界的生機。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>「悲傷的時代已經逝去了，世界不再複雜，你願意為這個單純的世界帶來希望嗎？」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>「哼，無聊透頂...隨便妳吧，老夫現在只想安穩的睡一覺而已。」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">「哼，無聊透頂…隨妳吧！老朽現在只想睡一覺而已。」
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">「謝謝你……」
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">「妳…可別忘了惡意的存在……」
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>「…………」</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[詩寇蒂＆尼德霍格]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>詩寇蒂隨後便吻了尼德霍格，將自己的生命與尼德霍格相連，隨後詩寇蒂將尼德霍格的龐大魔素能量向天空發散，魔素涵蓋了整個世界，魔素迴廊因而成形，如絲綢般輕柔地包覆著新世界，並散發著溫暖的光且不斷為大地注入能量，隨後冰層融化成了海洋，大地漸漸地生機盎然，天空也不再只是黑夜，伴隨著魔素迴廊的週期軌道，而有了晝夜。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[詩寇蒂的祝福]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>「被揀選的人啊…你們已經自由了，再也不會受我們奴役，這裡是屬於你們的世界。」
+「神族的末裔，命運女神詩寇蒂在此祝福，未來…就交給你們了……」</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此後詩寇蒂便與尼德霍格陷入永恆的沉睡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因阿薩神族過度採集世界樹魔素，世界樹所產生的靈魂瘟疫精神意識體，特拉希爾內所產生的負面能量（恐懼、傲慢、忌妒、邪淫、憤怒、忌妒、貪婪等）都將是催化惡意的要素，穿梭在世界上任何一處，寄宿於強大的客體內，末日之時寄宿於邪龍尼德霍格的靈魂內，蠶食鯨吞世界術的魔素……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>備註</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> : 尼德霍格的魔素本身就含有惡意的因子，會促使宿主有破壞的慾望，但因為末日之戰的終結，惡意也跟著失去活性變回普通的魔素，並非消失，也因此種下了後來人類戰爭時期產生瘟疫的種子。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">[倖存的人類] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> - 伴隨著詩寇蒂的祝福，新世界迎來第一道曙光，人類也從長時間的沉睡中甦醒，映入眼簾的不再是戰火蔓延的煉獄之地，而是一片綠意盎然充滿生機的大地 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新世界</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">此後人類開始漸漸發展了起來，並且流傳著一段故事 : 
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF38761D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>「謝謝你了...」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFBF9000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>「貪婪使神蒙蔽了雙眼，世界為此戰爭及毀滅。」
+「我們的祖先為了保護族人向神宣戰，弱小的我們讓神失去了王座，結束了永無止盡的戰爭。」
+「溫柔的女神對人類伸出了雙手，像母親一般帶給人類新生命。」</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">備註 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>詩寇蒂使用了尼德霍格的龐大魔素向天空散去涵蓋了整個世界，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>:倖存的人類在經過長時間沉睡後已經喪失了一些記憶，只依稀記得曾經有場大戰，祖先向神挑戰並終結了戰爭，女神帶領人們來到新世界，祂們的名已經失傳。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人類經過長時間的文明發展，人口漸漸變多，但也相對產生許多理念與衝突，因而演變成了部族，相同理念的部族會聚在一起形成國家。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>[惡意]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>魔素迴廊</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> - 戰爭所帶來的負面情感再度喚醒了惡意，也漸漸地開始活化起來，已經遊走於大地中的惡意使土地凋零及水源汙濁，並開始影響到人們，瘟疫就此開始蔓延。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>[惡意]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">因而成形，如同絲綢般輕柔的包覆著新世界，並散發著溫暖的光且不斷為大地注入能量，屆時冰層融化成為了海洋，大地漸漸孕育出生機，天空不再只有黑暗而有了日夜。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF38761D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">「人類阿...你們已經自由了，不在受到他人的約束，沒有貴賤高低之分，這裡就是屬於你們的世界」
-「最後的神族，命運之女神詩寇蒂在此祝福，未來...就交給你們了」
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> - 惡意從戰爭開始不斷活化著，但宿主-尼德霍格已經無法再行動，因此需要尋找下一個宿體，並呈現有實體的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>惡意核心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>此後詩寇蒂便與尼德霍格陷入如同永恆的沉睡中。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>備註</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 尼德霍格的魔素本身就含有惡意的因子，會促使宿主有破壞的慾望，但因為末日之戰的終結惡意也跟著失去活性變回普通的魔素，並非消失，也因此種下了後來人類戰爭時期產生瘟疫的種子。</t>
-    </r>
-  </si>
-  <si>
-    <t>人類甦醒</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[殘存人類]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 伴隨著詩寇蒂的祝福，新世界迎來第一道曙光，人類也從長時間的沉睡中甦醒，此時映入眼簾的不再是戰火蔓延的煉獄之地，而是一片綠意盎然充滿生機的大地 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>新世界</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">。
-此後人類這個種族開始漸漸發展了起來，並且流傳著一段故事 : 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>「曾經有一位貪婪的神拋棄了人類，為世界帶來戰爭及毀滅。」
-「曾經有一名人類為了保護家人、同伴向神挑戰，以最弱的身姿將神從王座上拉了下來，結束了永恆的戰爭。」
-「曾經有一位女神對人類伸出了溫暖的手，賜與人類救贖及重生的機會。」</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">備註 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 殘存人類在經過長時間沉睡後已經喪失了一些記憶，只依稀記得曾經有一場大戰，有一名人類向神挑戰並結束了戰爭，一名女神帶領人們來到新世界，其名稱已經不可考。</t>
-    </r>
-  </si>
-  <si>
-    <t>族群分裂</t>
-  </si>
-  <si>
-    <t>人類經過長時間的文明發展，人口漸漸變多，但也相對產生許多理念與衝突，因而演變成族群化，相同理念的人會聚再一起形成一個族群。</t>
-  </si>
-  <si>
-    <t>人類戰爭
-時期</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[2大帝國]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 族群間的理念不合，進而發展成衝突，最後擴大成戰爭局面，戰爭期間僅是簡單的弱肉強食，力量不足的族群會被戰爭吞噬，為了尋求自保都會去依靠實力較強的一方，最終從N個小族群演變成僅有2大帝國的爭鬥。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[教團]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 在戰爭中有一群人類不斷遊走在戰爭之地，幫助著因戰爭而無家可歸的人，他們不屬於2大帝國，僅是為了避戰而存在的團體，最終在領導者的帶領下遠離了戰爭之地，在深山內建立了自己的家園 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>城鎮大教團</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>因而成立。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[惡意]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 戰爭所帶來的負面情感又再度喚醒了惡意因子，漸漸開始活化起來，已經散於大地中的惡意使部分土地凋零並開始影響到人類，瘟疫就此開始蔓延。</t>
-    </r>
-  </si>
-  <si>
-    <t>戰爭末期
-瘟疫肆虐</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[2大帝國]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 瘟疫不斷肆虐的國民及軍隊，連仗都無法打，因此雙方決議先行停戰，並開始極力尋找瘟疫的解藥，但這也意味著誰先找到解藥誰就是贏家，表面上雖是停止戰爭但仍然存在著許多暗鬥。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[教團]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 即便遠離戰爭之地的教團也受到了瘟疫的侵襲，此時教團意外發現了位於城鎮地底深處的神秘洞窟及液體，能夠治癒瘟疫，便開始大量使用於居民身上。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[惡意]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 惡意從戰爭開始不斷活化著，但宿主-尼德霍格已經無法再行動，因此需要尋找下一個宿體，並呈現有實體的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>惡意核心</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
       </rPr>
       <t>存在於世界各地的地底中。
 教團地底正好有一個惡意核心，經由</t>
@@ -1454,93 +1343,214 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
       </rPr>
       <t>教團大祭司</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的接觸後寄宿再大祭司身上，惡意便此覺醒。</t>
-    </r>
-  </si>
-  <si>
-    <t>解藥傳言
-教團陷落</t>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的接觸後寄宿於大祭司身上，惡意便此覺醒。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新曆70年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新曆250年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[2大帝國]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>[兩大帝國]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 不知從何時，有一個傳聞在帝國間流傳「在南方的山脈間有一座無人知曉的城鎮，其中有著萬能的解藥，甚至連瘟疫都能醫治」即使是完全沒有依據的傳言，但為了獲得最後的勝利仍然派出了使者前往探究。其中一個帝國派出了一支探查隊前往，而主角 - </t>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> - 部族間的理念不合，進而發展成衝突，最後擴大成戰爭局面，戰爭期間僅是簡單的弱肉強食，力量不足的部族會被吞噬，為了尋求自保都會去依靠實力較強的一方，最終從很多個小部族演變成了有兩大帝國的爭鬥。</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>克弗思．慕尼(Corvus．Munin)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>[兩大帝國]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>就在其中</t>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> - 瘟疫不斷肆虐的國民及軍隊，連仗都無法打，因此雙方決議先行停戰，並開始極力尋找瘟疫的解藥，但這也意味著誰先找到解藥誰就是贏家，表面上雖是停止戰爭但仍然存在著許多暗鬥。</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">。
-[教團] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新曆1290年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新曆1312年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新曆1332年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">[教團] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
       </rPr>
       <t>- 原以為瘟疫危機已經解決教團，卻沒想到解藥卻是最毒的毒藥，居民開始無故暴躁、破壞、甚至有些突變成怪物，城鎮在無預警的情況下一夕之間陷落，成為了怪物的巢穴。</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>[教團]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> - 即便遠離戰爭之地的教團也受到了瘟疫的侵襲，此時教團意外發現了位於城鎮地底深處的神秘洞窟及液體，能夠治癒瘟疫，便開始大量使用於居民身上。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">[兩大帝國] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>- 不知從何時，有一個傳聞在帝國間流傳「在南方的山脈間有一座無人知曉的城鎮，其中有著萬能的解藥，甚至連瘟疫都能醫治」即使是完全沒有依據的傳言，但為了獲得最後的勝利仍然派出了使者前往探究。其中一個帝國派出了一支探查隊前往，而主角 - 克弗思．慕尼(Corvus．Munin)就在其中。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">[教團] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>- 在戰爭中有一群人不斷遊走在戰地，幫助著因戰爭而無家可歸的人，他們不隸屬兩大帝國，僅是為了避戰而存在的團體，最終在領導者的帶領下遠離了戰爭之地，在深山內建立了自己的家園 - 城鎮大教團因而成立。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人類戰爭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1635,82 +1645,11 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="0"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1719,32 +1658,70 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF38761D"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="12"/>
+      <name val="微軟正黑體"/>
       <family val="2"/>
+      <charset val="136"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF0B5394"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <name val="微軟正黑體"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFBF9000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF0B5394"/>
-      <name val="Arial"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
       <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1793,8 +1770,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="50">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -2236,220 +2225,239 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2527,48 +2535,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2646,92 +2615,204 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2778,8 +2859,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11511965" y="6966218"/>
-          <a:ext cx="12439649" cy="15781404"/>
+          <a:off x="10515922" y="6982546"/>
+          <a:ext cx="11506200" cy="15803176"/>
           <a:chOff x="11335072" y="7183932"/>
           <a:chExt cx="12439650" cy="16026333"/>
         </a:xfrm>
@@ -7134,8 +7215,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="319818" y="242834"/>
-          <a:ext cx="9842015" cy="7904629"/>
+          <a:off x="313095" y="245075"/>
+          <a:ext cx="8909685" cy="7380194"/>
           <a:chOff x="474458" y="325757"/>
           <a:chExt cx="8909685" cy="7380194"/>
         </a:xfrm>
@@ -7231,6 +7312,147 @@
                 <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               </a:rPr>
               <a:t>魔素黑潮範圍</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>242048</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>53789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>512783</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>486851</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="群組 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F46108D-C880-4EA7-89E9-BE4E571ED2E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9870142" y="1272989"/>
+          <a:ext cx="10113982" cy="6546991"/>
+          <a:chOff x="10121153" y="1398494"/>
+          <a:chExt cx="10113982" cy="6546991"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="圖片 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A69DBDDD-9257-4D5A-8153-F240D5836DA9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10210801" y="1956992"/>
+            <a:ext cx="10024334" cy="5988493"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100" cap="sq">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="43000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="文字方塊 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD415BA-D74C-4375-950E-2DD6E2C51608}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10121153" y="1398494"/>
+            <a:ext cx="2008094" cy="475130"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1800" b="1">
+                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              </a:rPr>
+              <a:t>魔素解釋</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -7508,76 +7730,76 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="2.375" style="9" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="126.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="126.75" style="9" customWidth="1"/>
     <col min="5" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="94.85546875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="97.375" style="9" customWidth="1"/>
     <col min="10" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="58" t="s">
+    <row r="1" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="59"/>
+      <c r="D3" s="44"/>
     </row>
-    <row r="4" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="60" t="s">
+    <row r="4" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="61"/>
+      <c r="D4" s="46"/>
       <c r="F4" s="10"/>
       <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
+    <row r="5" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="2:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="64"/>
-      <c r="D6" s="65"/>
+    <row r="6" spans="2:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="49"/>
+      <c r="D6" s="50"/>
       <c r="F6" s="12"/>
       <c r="G6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
     </row>
-    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
     </row>
-    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="69" t="s">
+    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="G9" s="47" t="s">
+      <c r="D9" s="55"/>
+      <c r="G9" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="48"/>
-      <c r="I9" s="49"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
     </row>
-    <row r="10" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="18" x14ac:dyDescent="0.3">
       <c r="C10" s="15" t="s">
         <v>3</v>
       </c>
@@ -7594,7 +7816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
@@ -7611,7 +7833,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
@@ -7628,8 +7850,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="66" t="s">
+    <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="51" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="22" t="s">
@@ -7645,8 +7867,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="67"/>
+    <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="52"/>
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
@@ -7660,82 +7882,82 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="67"/>
+    <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="52"/>
       <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="72" t="s">
+      <c r="G15" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="73" t="s">
+      <c r="H15" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="71" t="s">
+      <c r="I15" s="56" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="67"/>
+    <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="52"/>
       <c r="D16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="72"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="71"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="56"/>
     </row>
-    <row r="17" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="67"/>
+    <row r="17" spans="3:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="C17" s="52"/>
       <c r="D17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="72"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="71"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="56"/>
     </row>
-    <row r="18" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="67"/>
+    <row r="18" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="52"/>
       <c r="D18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="72" t="s">
+      <c r="G18" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="73" t="s">
+      <c r="H18" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="71" t="s">
+      <c r="I18" s="56" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="67"/>
+    <row r="19" spans="3:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="C19" s="52"/>
       <c r="D19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="72"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="71"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="56"/>
     </row>
-    <row r="20" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C20" s="67"/>
+    <row r="20" spans="3:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="C20" s="52"/>
       <c r="D20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="72"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="71"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="56"/>
     </row>
-    <row r="21" spans="3:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="68"/>
+    <row r="21" spans="3:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="C21" s="53"/>
       <c r="D21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="72"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="71"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="56"/>
     </row>
-    <row r="22" spans="3:9" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:9" ht="90.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" s="6" t="s">
         <v>10</v>
       </c>
@@ -7749,10 +7971,10 @@
         <v>59</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="23" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:9" ht="36" x14ac:dyDescent="0.3">
       <c r="C23" s="6" t="s">
         <v>22</v>
       </c>
@@ -7760,7 +7982,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="3:9" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:9" ht="126.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C24" s="7" t="s">
         <v>11</v>
       </c>
@@ -7768,15 +7990,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="50" t="s">
+    <row r="25" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="3:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="C27" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="51"/>
+      <c r="D27" s="36"/>
     </row>
-    <row r="28" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:9" ht="18" x14ac:dyDescent="0.3">
       <c r="C28" s="17" t="s">
         <v>3</v>
       </c>
@@ -7784,39 +8006,39 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="52" t="s">
+    <row r="29" spans="3:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="C29" s="37" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C30" s="53"/>
+    <row r="30" spans="3:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="C30" s="38"/>
       <c r="D30" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C31" s="53"/>
+    <row r="31" spans="3:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="C31" s="38"/>
       <c r="D31" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C32" s="53"/>
+    <row r="32" spans="3:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="C32" s="38"/>
       <c r="D32" s="18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="3:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C33" s="54"/>
+    <row r="33" spans="3:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="C33" s="39"/>
       <c r="D33" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="3:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" ht="72" x14ac:dyDescent="0.3">
       <c r="C34" s="5" t="s">
         <v>28</v>
       </c>
@@ -7824,7 +8046,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="3:4" ht="168.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" ht="162" x14ac:dyDescent="0.3">
       <c r="C35" s="5" t="s">
         <v>6</v>
       </c>
@@ -7832,7 +8054,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="3:4" ht="168.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4" ht="162" x14ac:dyDescent="0.3">
       <c r="C36" s="6" t="s">
         <v>7</v>
       </c>
@@ -7840,33 +8062,33 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="3:4" ht="131.25" x14ac:dyDescent="0.25">
-      <c r="C37" s="55" t="s">
+    <row r="37" spans="3:4" ht="126" x14ac:dyDescent="0.3">
+      <c r="C37" s="40" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="3:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="C38" s="56"/>
+    <row r="38" spans="3:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="C38" s="41"/>
       <c r="D38" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="3:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="C39" s="56"/>
+    <row r="39" spans="3:4" ht="162" x14ac:dyDescent="0.3">
+      <c r="C39" s="41"/>
       <c r="D39" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="3:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="57"/>
+    <row r="40" spans="3:4" ht="90.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="42"/>
       <c r="D40" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="3:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="3:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="G9:I9"/>
@@ -7896,15 +8118,15 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7914,262 +8136,426 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922C88DA-6A99-41E4-9AB6-0246F073DD34}">
-  <dimension ref="C1:F28"/>
+  <dimension ref="C1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28:F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="46" customWidth="1"/>
-    <col min="6" max="6" width="50.42578125" customWidth="1"/>
+    <col min="1" max="1" width="1.125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14" style="9" customWidth="1"/>
+    <col min="5" max="5" width="44.5" style="9" customWidth="1"/>
+    <col min="6" max="6" width="50.125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="9" style="9"/>
+    <col min="8" max="8" width="16.125" style="9" customWidth="1"/>
+    <col min="9" max="12" width="9" style="9" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+    <row r="1" spans="3:8" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="H2" s="109" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="91" t="s">
+    <row r="3" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="70"/>
+      <c r="H3" s="110"/>
     </row>
-    <row r="4" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="94" t="s">
+    <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="73"/>
+      <c r="H4" s="110"/>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C5" s="74"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="76"/>
+      <c r="H5" s="110"/>
+    </row>
+    <row r="6" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="79"/>
+      <c r="H6" s="111"/>
+    </row>
+    <row r="8" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="3:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="82"/>
+      <c r="H9" s="113"/>
+    </row>
+    <row r="10" spans="3:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="95"/>
-      <c r="F4" s="96"/>
+      <c r="E10" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="85"/>
+      <c r="H10" s="114"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D5" s="97"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="99"/>
+    <row r="11" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="60"/>
+      <c r="D11" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="88"/>
+      <c r="H11" s="114"/>
     </row>
-    <row r="6" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="100"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="102"/>
+    <row r="12" spans="3:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="61"/>
+      <c r="D12" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="91"/>
+      <c r="H12" s="114"/>
     </row>
-    <row r="8" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="3:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="82"/>
-      <c r="E9" s="85" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="86"/>
+    <row r="13" spans="3:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="94"/>
+      <c r="H13" s="114"/>
     </row>
-    <row r="10" spans="3:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="83" t="s">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="114"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="H15" s="114"/>
+    </row>
+    <row r="16" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="H16" s="114"/>
+    </row>
+    <row r="17" spans="3:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="C17" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="84"/>
+      <c r="D17" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="H17" s="114"/>
     </row>
-    <row r="11" spans="3:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="79"/>
-      <c r="D11" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="88"/>
+    <row r="18" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="98"/>
+      <c r="D18" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="101" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="114"/>
     </row>
-    <row r="12" spans="3:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="80"/>
-      <c r="D12" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="89" t="s">
+    <row r="19" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="C19" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="90"/>
+      <c r="D19" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="114"/>
     </row>
-    <row r="13" spans="3:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="76" t="s">
+    <row r="20" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="C20" s="100"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="114"/>
+    </row>
+    <row r="21" spans="3:8" ht="78" x14ac:dyDescent="0.3">
+      <c r="C21" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="77"/>
+      <c r="D21" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="114"/>
     </row>
-    <row r="16" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="75" t="s">
+    <row r="22" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="C22" s="99" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="104" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="114"/>
+    </row>
+    <row r="23" spans="3:8" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="C23" s="106"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="114"/>
+    </row>
+    <row r="24" spans="3:8" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="C24" s="106"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="116" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" ht="78" x14ac:dyDescent="0.3">
+      <c r="C25" s="106"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="114"/>
+    </row>
+    <row r="26" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C26" s="106"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="114"/>
+    </row>
+    <row r="27" spans="3:8" ht="78" x14ac:dyDescent="0.3">
+      <c r="C27" s="100"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="H27" s="114"/>
+    </row>
+    <row r="28" spans="3:8" ht="78" x14ac:dyDescent="0.3">
+      <c r="C28" s="99" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
+      <c r="H28" s="114"/>
     </row>
-    <row r="17" spans="3:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="C17" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
+    <row r="29" spans="3:8" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="C29" s="106"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="117"/>
+      <c r="H29" s="114"/>
     </row>
-    <row r="18" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="41"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="43" t="s">
+    <row r="30" spans="3:8" ht="78" x14ac:dyDescent="0.3">
+      <c r="C30" s="100"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="117"/>
+      <c r="H30" s="114"/>
+    </row>
+    <row r="31" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="C31" s="101" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="103"/>
+      <c r="H31" s="114"/>
+    </row>
+    <row r="32" spans="3:8" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="C32" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="F32" s="120" t="s">
+        <v>111</v>
+      </c>
+      <c r="H32" s="114"/>
+    </row>
+    <row r="33" spans="3:8" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="C33" s="100"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="121"/>
+      <c r="H33" s="114"/>
+    </row>
+    <row r="34" spans="3:8" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="99" t="s">
         <v>81</v>
       </c>
+      <c r="D34" s="122" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="H34" s="114"/>
     </row>
-    <row r="19" spans="3:6" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="C19" s="32" t="s">
+    <row r="35" spans="3:8" ht="78" x14ac:dyDescent="0.3">
+      <c r="C35" s="100"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="121"/>
+      <c r="H35" s="114"/>
+    </row>
+    <row r="36" spans="3:8" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="C36" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="44" t="s">
-        <v>84</v>
-      </c>
+      <c r="D36" s="122" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" s="118"/>
+      <c r="H36" s="114"/>
     </row>
-    <row r="20" spans="3:6" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="44" t="s">
-        <v>87</v>
-      </c>
+    <row r="37" spans="3:8" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="100"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="119"/>
+      <c r="H37" s="115"/>
     </row>
-    <row r="21" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="44" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="46"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="45" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="46"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="46"/>
-    </row>
-    <row r="25" spans="3:6" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="45" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" s="33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="45"/>
+    <row r="38" spans="3:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="C38" s="124"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="126"/>
+      <c r="F38" s="127"/>
+      <c r="H38" s="112"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F6"/>
+  <mergeCells count="28">
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="E22:E27"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C9:D9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C4:F6"/>
+    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38EE73A-9F3B-45E6-9597-6B4602C039C6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D54E91-0383-468A-B7E9-8FDD9F01113E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1059,72 +1059,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>「悲傷的時代已經逝去了，世界不再複雜，你願意為這個單純的世界帶來希望嗎？」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">「哼，無聊透頂…隨妳吧！老朽現在只想睡一覺而已。」
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">「謝謝你……」
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">「妳…可別忘了惡意的存在……」
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>「…………」</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>[詩寇蒂＆尼德霍格]</t>
     </r>
     <r>
@@ -1543,6 +1477,72 @@
   </si>
   <si>
     <t>人類戰爭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>「悲傷的時代已經逝去了，世界不再複雜，你願意為這個單純的世界帶來希望嗎？」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">「哼，無聊透頂…隨妳吧！老朽現在只想睡一覺而已。」
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">「謝謝你……」
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">「可別忘了惡意的存在。」
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>「…………」</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2538,241 +2538,41 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2781,38 +2581,238 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7749,29 +7749,29 @@
     <row r="1" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="44"/>
+      <c r="D3" s="65"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="46"/>
+      <c r="D4" s="67"/>
       <c r="F4" s="10"/>
       <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="47"/>
-      <c r="D5" s="48"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="2:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="71"/>
       <c r="F6" s="12"/>
       <c r="G6" s="1" t="s">
         <v>1</v>
@@ -7789,15 +7789,15 @@
       <c r="I8" s="30"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="G9" s="32" t="s">
+      <c r="D9" s="76"/>
+      <c r="G9" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
     </row>
     <row r="10" spans="2:9" ht="18" x14ac:dyDescent="0.3">
       <c r="C10" s="15" t="s">
@@ -7851,7 +7851,7 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="72" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="22" t="s">
@@ -7868,7 +7868,7 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="52"/>
+      <c r="C14" s="73"/>
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
@@ -7883,79 +7883,79 @@
       </c>
     </row>
     <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="52"/>
+      <c r="C15" s="73"/>
       <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="57" t="s">
+      <c r="G15" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="58" t="s">
+      <c r="H15" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="56" t="s">
+      <c r="I15" s="77" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="52"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="57"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="56"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="77"/>
     </row>
     <row r="17" spans="3:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="C17" s="52"/>
+      <c r="C17" s="73"/>
       <c r="D17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="57"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="56"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="77"/>
     </row>
     <row r="18" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="52"/>
+      <c r="C18" s="73"/>
       <c r="D18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="57" t="s">
+      <c r="G18" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="58" t="s">
+      <c r="H18" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="56" t="s">
+      <c r="I18" s="77" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="3:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="C19" s="52"/>
+      <c r="C19" s="73"/>
       <c r="D19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="57"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="56"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="77"/>
     </row>
     <row r="20" spans="3:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="C20" s="52"/>
+      <c r="C20" s="73"/>
       <c r="D20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="57"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="56"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="77"/>
     </row>
     <row r="21" spans="3:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="C21" s="53"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="57"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="56"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="77"/>
     </row>
     <row r="22" spans="3:9" ht="90.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" s="6" t="s">
@@ -7971,7 +7971,7 @@
         <v>59</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="3:9" ht="36" x14ac:dyDescent="0.3">
@@ -7993,10 +7993,10 @@
     <row r="25" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="3:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="36"/>
+      <c r="D27" s="57"/>
     </row>
     <row r="28" spans="3:9" ht="18" x14ac:dyDescent="0.3">
       <c r="C28" s="17" t="s">
@@ -8007,7 +8007,7 @@
       </c>
     </row>
     <row r="29" spans="3:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="58" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="21" t="s">
@@ -8015,25 +8015,25 @@
       </c>
     </row>
     <row r="30" spans="3:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="C30" s="38"/>
+      <c r="C30" s="59"/>
       <c r="D30" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="31" spans="3:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="C31" s="38"/>
+      <c r="C31" s="59"/>
       <c r="D31" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32" spans="3:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="C32" s="38"/>
+      <c r="C32" s="59"/>
       <c r="D32" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="3:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="C33" s="39"/>
+      <c r="C33" s="60"/>
       <c r="D33" s="18" t="s">
         <v>36</v>
       </c>
@@ -8063,7 +8063,7 @@
       </c>
     </row>
     <row r="37" spans="3:4" ht="126" x14ac:dyDescent="0.3">
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="61" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="19" t="s">
@@ -8071,19 +8071,19 @@
       </c>
     </row>
     <row r="38" spans="3:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="C38" s="41"/>
+      <c r="C38" s="62"/>
       <c r="D38" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="3:4" ht="162" x14ac:dyDescent="0.3">
-      <c r="C39" s="41"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="19" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="40" spans="3:4" ht="90.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="42"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="20" t="s">
         <v>40</v>
       </c>
@@ -8139,8 +8139,8 @@
   <dimension ref="C1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28:F31"/>
+      <pane ySplit="7" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8162,377 +8162,371 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-      <c r="H2" s="109" t="s">
+      <c r="H2" s="90" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="70"/>
-      <c r="H3" s="110"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="127"/>
+      <c r="H3" s="91"/>
     </row>
     <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="116" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="73"/>
-      <c r="H4" s="110"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
+      <c r="H4" s="91"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="76"/>
-      <c r="H5" s="110"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="121"/>
+      <c r="H5" s="91"/>
     </row>
     <row r="6" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="79"/>
-      <c r="H6" s="111"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="124"/>
+      <c r="H6" s="92"/>
     </row>
     <row r="8" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="3:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="82"/>
-      <c r="H9" s="113"/>
+      <c r="F9" s="111"/>
+      <c r="H9" s="45"/>
     </row>
     <row r="10" spans="3:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="84" t="s">
+      <c r="E10" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="85"/>
-      <c r="H10" s="114"/>
+      <c r="F10" s="109"/>
+      <c r="H10" s="46"/>
     </row>
     <row r="11" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="60"/>
-      <c r="D11" s="86" t="s">
+      <c r="C11" s="106"/>
+      <c r="D11" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="87" t="s">
+      <c r="E11" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="88"/>
-      <c r="H11" s="114"/>
+      <c r="F11" s="113"/>
+      <c r="H11" s="46"/>
     </row>
     <row r="12" spans="3:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="61"/>
-      <c r="D12" s="89" t="s">
+      <c r="C12" s="107"/>
+      <c r="D12" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="90" t="s">
+      <c r="E12" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="91"/>
-      <c r="H12" s="114"/>
+      <c r="F12" s="115"/>
+      <c r="H12" s="46"/>
     </row>
     <row r="13" spans="3:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="92" t="s">
+      <c r="D13" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="93" t="s">
+      <c r="E13" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="94"/>
-      <c r="H13" s="114"/>
+      <c r="F13" s="104"/>
+      <c r="H13" s="46"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="H14" s="114"/>
+      <c r="H14" s="46"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="H15" s="114"/>
+      <c r="H15" s="46"/>
     </row>
     <row r="16" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="95" t="s">
+      <c r="C16" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="H16" s="114"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="H16" s="46"/>
     </row>
     <row r="17" spans="3:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="C17" s="96" t="s">
+      <c r="C17" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="97" t="s">
+      <c r="D17" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="H17" s="114"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="H17" s="46"/>
     </row>
     <row r="18" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="98"/>
-      <c r="D18" s="101" t="s">
+      <c r="C18" s="42"/>
+      <c r="D18" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="101" t="s">
+      <c r="E18" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="101" t="s">
+      <c r="F18" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="H18" s="114"/>
+      <c r="H18" s="46"/>
     </row>
     <row r="19" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="C19" s="99" t="s">
+      <c r="C19" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="64" t="s">
+      <c r="E19" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="64" t="s">
+      <c r="F19" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="H19" s="114"/>
+      <c r="H19" s="46"/>
     </row>
     <row r="20" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="C20" s="100"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66" t="s">
+      <c r="C20" s="85"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="64" t="s">
+      <c r="F20" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="114"/>
+      <c r="H20" s="46"/>
     </row>
     <row r="21" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C21" s="101" t="s">
+      <c r="C21" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="62" t="s">
+      <c r="D21" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="67" t="s">
+      <c r="E21" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="64" t="s">
+      <c r="F21" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="H21" s="114"/>
+      <c r="H21" s="46"/>
     </row>
     <row r="22" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="C22" s="99" t="s">
+      <c r="C22" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="104" t="s">
+      <c r="E22" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="64" t="s">
+      <c r="F22" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="114"/>
+      <c r="H22" s="46"/>
     </row>
     <row r="23" spans="3:8" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="C23" s="106"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" s="114"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="46"/>
     </row>
     <row r="24" spans="3:8" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="C24" s="106"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="H24" s="116" t="s">
+      <c r="C24" s="96"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="48" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C25" s="106"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="H25" s="114"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="46"/>
     </row>
     <row r="26" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C26" s="106"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="H26" s="114"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="46"/>
     </row>
     <row r="27" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C27" s="100"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="H27" s="114"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="46"/>
     </row>
     <row r="28" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C28" s="99" t="s">
+      <c r="C28" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="E28" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="F28" s="102" t="s">
+      <c r="D28" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="H28" s="114"/>
+      <c r="H28" s="46"/>
     </row>
     <row r="29" spans="3:8" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="C29" s="106"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="F29" s="117"/>
-      <c r="H29" s="114"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="94"/>
+      <c r="H29" s="46"/>
     </row>
     <row r="30" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C30" s="100"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" s="117"/>
-      <c r="H30" s="114"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="94"/>
+      <c r="H30" s="46"/>
     </row>
     <row r="31" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="C31" s="101" t="s">
+      <c r="C31" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="E31" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="F31" s="103"/>
-      <c r="H31" s="114"/>
+      <c r="E31" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="95"/>
+      <c r="H31" s="46"/>
     </row>
     <row r="32" spans="3:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="C32" s="99" t="s">
-        <v>125</v>
-      </c>
-      <c r="D32" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="E32" s="66" t="s">
-        <v>116</v>
-      </c>
-      <c r="F32" s="120" t="s">
-        <v>111</v>
-      </c>
-      <c r="H32" s="114"/>
+      <c r="C32" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="H32" s="46"/>
     </row>
     <row r="33" spans="3:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="C33" s="100"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="66" t="s">
-        <v>124</v>
-      </c>
-      <c r="F33" s="121"/>
-      <c r="H33" s="114"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="89"/>
+      <c r="H33" s="46"/>
     </row>
-    <row r="34" spans="3:8" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="99" t="s">
+    <row r="34" spans="3:8" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="C34" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="122" t="s">
-        <v>119</v>
-      </c>
-      <c r="E34" s="66" t="s">
-        <v>117</v>
-      </c>
-      <c r="F34" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="H34" s="114"/>
+      <c r="D34" s="80" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="H34" s="46"/>
     </row>
     <row r="35" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C35" s="100"/>
-      <c r="D35" s="123"/>
-      <c r="E35" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="F35" s="121"/>
-      <c r="H35" s="114"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="89"/>
+      <c r="H35" s="46"/>
     </row>
     <row r="36" spans="3:8" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="C36" s="99" t="s">
+      <c r="C36" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="122" t="s">
-        <v>120</v>
-      </c>
-      <c r="E36" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="F36" s="118"/>
-      <c r="H36" s="114"/>
+      <c r="D36" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="82"/>
+      <c r="H36" s="46"/>
     </row>
     <row r="37" spans="3:8" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="100"/>
-      <c r="D37" s="123"/>
-      <c r="E37" s="66" t="s">
-        <v>121</v>
-      </c>
-      <c r="F37" s="119"/>
-      <c r="H37" s="115"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="83"/>
+      <c r="H37" s="47"/>
     </row>
     <row r="38" spans="3:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="C38" s="124"/>
-      <c r="D38" s="125"/>
-      <c r="E38" s="126"/>
-      <c r="F38" s="127"/>
-      <c r="H38" s="112"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="52"/>
+      <c r="H38" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C4:F6"/>
+    <mergeCell ref="C3:F3"/>
     <mergeCell ref="H2:H6"/>
     <mergeCell ref="F28:F31"/>
     <mergeCell ref="C28:C30"/>
@@ -8549,9 +8543,15 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C4:F6"/>
-    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C34:C35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D54E91-0383-468A-B7E9-8FDD9F01113E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1AC26C-E4A7-4D21-9450-145779939844}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="127">
   <si>
     <t xml:space="preserve">原始要素
 </t>
@@ -867,62 +867,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">[無名逆神者] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>與神族</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>福金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>聯合反叛奧丁，最後再與奧丁的爭鬥中死亡，但也成功阻止了奧丁的計畫，引發諸神黃昏。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>[倖存的人類]  -</t>
     </r>
     <r>
@@ -977,10 +921,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>神族or舊時代產物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>月月筆記</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -990,6 +930,659 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">[詩寇蒂] - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>沒有魔素且冰封的新世界對人類來說是完全致命的，因此決定釋放自己的魔素來解凍周圍的大地，確保沉睡中的人類得以生存。但詩寇蒂本身的魔素量並不足以長期生存使用了，此時巨大的身影劃過了天空……</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[詩寇蒂] - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>循著巨影的方向前進，詩寇蒂發現了奄奄一息的尼德霍格，便前去與其交談，她希望能使用尼德霍格剩下的龐大魔素來維持這個世界的生機。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[詩寇蒂的祝福]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>「被揀選的人啊…你們已經自由了，再也不會受我們奴役，這裡是屬於你們的世界。」
+「神族的末裔，命運女神詩寇蒂在此祝福，未來…就交給你們了……」</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此後詩寇蒂便與尼德霍格陷入永恆的沉睡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因阿薩神族過度採集世界樹魔素，世界樹所產生的靈魂瘟疫精神意識體，特拉希爾內所產生的負面能量（恐懼、傲慢、忌妒、邪淫、憤怒、忌妒、貪婪等）都將是催化惡意的要素，穿梭在世界上任何一處，寄宿於強大的客體內，末日之時寄宿於邪龍尼德霍格的靈魂內，蠶食鯨吞世界術的魔素……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>備註</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> : 尼德霍格的魔素本身就含有惡意的因子，會促使宿主有破壞的慾望，但因為末日之戰的終結，惡意也跟著失去活性變回普通的魔素，並非消失，也因此種下了後來人類戰爭時期產生瘟疫的種子。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">備註 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>:倖存的人類在經過長時間沉睡後已經喪失了一些記憶，只依稀記得曾經有場大戰，祖先向神挑戰並終結了戰爭，女神帶領人們來到新世界，祂們的名已經失傳。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人類經過長時間的文明發展，人口漸漸變多，但也相對產生許多理念與衝突，因而演變成了部族，相同理念的部族會聚在一起形成國家。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新曆70年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新曆250年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>[兩大帝國]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> - 部族間的理念不合，進而發展成衝突，最後擴大成戰爭局面，戰爭期間僅是簡單的弱肉強食，力量不足的部族會被吞噬，為了尋求自保都會去依靠實力較強的一方，最終從很多個小部族演變成了有兩大帝國的爭鬥。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>[兩大帝國]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> - 瘟疫不斷肆虐的國民及軍隊，連仗都無法打，因此雙方決議先行停戰，並開始極力尋找瘟疫的解藥，但這也意味著誰先找到解藥誰就是贏家，表面上雖是停止戰爭但仍然存在著許多暗鬥。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新曆1290年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新曆1312年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新曆1332年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">[教團] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>- 原以為瘟疫危機已經解決教團，卻沒想到解藥卻是最毒的毒藥，居民開始無故暴躁、破壞、甚至有些突變成怪物，城鎮在無預警的情況下一夕之間陷落，成為了怪物的巢穴。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>[教團]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> - 即便遠離戰爭之地的教團也受到了瘟疫的侵襲，此時教團意外發現了位於城鎮地底深處的神秘洞窟及液體，能夠治癒瘟疫，便開始大量使用於居民身上。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">[教團] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>- 在戰爭中有一群人不斷遊走在戰地，幫助著因戰爭而無家可歸的人，他們不隸屬兩大帝國，僅是為了避戰而存在的團體，最終在領導者的帶領下遠離了戰爭之地，在深山內建立了自己的家園 - 城鎮大教團因而成立。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人類戰爭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>「悲傷的時代已經逝去了，世界不再複雜，你願意為這個單純的世界帶來希望嗎？」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">「哼，無聊透頂…隨妳吧！老朽現在只想睡一覺而已。」
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">「謝謝你……」
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">「可別忘了惡意的存在。」
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>「…………」</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>[惡意]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> - 惡意從戰爭開始不斷活化著，但宿主-尼德霍格已經無法再行動，因此需要尋找下一個宿體，並呈現有實體的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>惡意核心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>存在於世界各地的地底中。
+教團地底正好有一個惡意核心，經由</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>教團大祭司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的接觸後寄宿於大祭司身上，惡意便此覺醒。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>[惡意]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> - 戰爭所帶來的負面情感再度喚醒了惡意，也漸漸地開始活化起來，已經遊走於大地中的惡意使土地凋零及水源汙濁，並開始影響到人們，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>瘟疫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>就此開始蔓延。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">此後人類開始漸漸發展了起來，並且流傳著一段故事 : 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>貪婪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>使神蒙蔽了雙眼，世界為此戰爭及毀滅。」
+「我們的祖先為了保護族人向神宣戰，弱小的我們讓神失去了王座，結束了永無止盡的戰爭。」
+「溫柔的女神對人類伸出了雙手，像母親般帶給人類新生命。」</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[詩寇蒂] - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在諸神黃昏前夕，受到了福金的委託將殘存的人類帶往新世界，並將自己的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>神髓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>分給了人類，保護他們在通過彩虹橋時不會被強大的魔素流動所撕裂。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[詩寇蒂＆尼德霍格]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>詩寇蒂隨後便吻了尼德霍格，將自己的生命與尼德霍格相連，隨後詩寇蒂將尼德霍格的龐大魔素能量向天空發散，魔素涵蓋了整個世界，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>魔素迴廊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>因而成形，如絲綢般輕柔地包覆著新世界，並散發著溫暖的光且不斷為大地注入能量，隨後冰層融化成了海洋，大地漸漸地生機盎然，天空也不再只是黑夜，伴隨著魔素迴廊的週期軌道，而有了晝夜。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">[倖存的人類] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> - 伴隨著詩寇蒂的祝福，新世界迎來第一道曙光，人類也從長時間的沉睡中甦醒，映入眼簾的不再是戰火蔓延的煉獄之地，而是一片綠意盎然充滿生機的大地 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新世界</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舊時代傳說角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[無名神者] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>與神族</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>福金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>聯合反叛奧丁，最後再與奧丁的爭鬥中死亡，但也成功阻止了奧丁的計畫，引發諸神黃昏。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">[福金] - </t>
     </r>
     <r>
@@ -999,7 +1592,57 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>與無名人類聯合反叛奧丁，為了阻止永恆之槍的發射，在與大量衛兵的衝突中重傷，最後僅能改變發射軌道，死於諸神黃昏中。</t>
+      <t>與</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>無名人類</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>聯合反叛奧丁，為了阻止永恆之槍的發射，在與看守者</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>海姆達爾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的戰鬥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中重傷，最後僅能改變發射軌道，死於諸神黃昏中。</t>
     </r>
     <r>
       <rPr>
@@ -1014,22 +1657,14 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">[詩寇蒂] - </t>
-    </r>
-    <r>
-      <rPr>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>在諸神黃昏前夕，受到了福金的委託將殘存的人類帶往新世界，並將自己的神髓分給了人類，保護他們在通過彩虹橋時不會被強大的魔素流動所撕裂。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[詩寇蒂] - </t>
+      <t xml:space="preserve">[兩大帝國] </t>
     </r>
     <r>
       <rPr>
@@ -1038,511 +1673,32 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>沒有魔素且冰封的新世界對人類來說是完全致命的，因此決定釋放自己的魔素來解凍周圍的大地，確保沉睡中的人類得以生存。但詩寇蒂本身的魔素量並不足以長期生存使用了，此時巨大的身影劃過了天空……</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[詩寇蒂] - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>循著巨影的方向前進，詩寇蒂發現了奄奄一息的尼德霍格，便前去與其交談，她希望能使用尼德霍格剩下的龐大魔素來維持這個世界的生機。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[詩寇蒂＆尼德霍格]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>詩寇蒂隨後便吻了尼德霍格，將自己的生命與尼德霍格相連，隨後詩寇蒂將尼德霍格的龐大魔素能量向天空發散，魔素涵蓋了整個世界，魔素迴廊因而成形，如絲綢般輕柔地包覆著新世界，並散發著溫暖的光且不斷為大地注入能量，隨後冰層融化成了海洋，大地漸漸地生機盎然，天空也不再只是黑夜，伴隨著魔素迴廊的週期軌道，而有了晝夜。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[詩寇蒂的祝福]</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">- 不知從何時，有一個傳聞在帝國間流傳「在南方山脈間有一座無人知曉的城鎮，其中有著萬能的解藥，甚至連瘟疫都能醫治」即使是完全沒有依據的傳言，但為了獲得最後的勝利仍然派出了使者前往探究。其中一個帝國派出了一支探查隊前往，而主角 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>「被揀選的人啊…你們已經自由了，再也不會受我們奴役，這裡是屬於你們的世界。」
-「神族的末裔，命運女神詩寇蒂在此祝福，未來…就交給你們了……」</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>此後詩寇蒂便與尼德霍格陷入永恆的沉睡。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因阿薩神族過度採集世界樹魔素，世界樹所產生的靈魂瘟疫精神意識體，特拉希爾內所產生的負面能量（恐懼、傲慢、忌妒、邪淫、憤怒、忌妒、貪婪等）都將是催化惡意的要素，穿梭在世界上任何一處，寄宿於強大的客體內，末日之時寄宿於邪龍尼德霍格的靈魂內，蠶食鯨吞世界術的魔素……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t>克弗思．慕尼(Corvus．Munin)</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>備註</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve"> : 尼德霍格的魔素本身就含有惡意的因子，會促使宿主有破壞的慾望，但因為末日之戰的終結，惡意也跟著失去活性變回普通的魔素，並非消失，也因此種下了後來人類戰爭時期產生瘟疫的種子。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">[倖存的人類] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve"> - 伴隨著詩寇蒂的祝福，新世界迎來第一道曙光，人類也從長時間的沉睡中甦醒，映入眼簾的不再是戰火蔓延的煉獄之地，而是一片綠意盎然充滿生機的大地 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>新世界</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">此後人類開始漸漸發展了起來，並且流傳著一段故事 : 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>「貪婪使神蒙蔽了雙眼，世界為此戰爭及毀滅。」
-「我們的祖先為了保護族人向神宣戰，弱小的我們讓神失去了王座，結束了永無止盡的戰爭。」
-「溫柔的女神對人類伸出了雙手，像母親一般帶給人類新生命。」</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">備註 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>:倖存的人類在經過長時間沉睡後已經喪失了一些記憶，只依稀記得曾經有場大戰，祖先向神挑戰並終結了戰爭，女神帶領人們來到新世界，祂們的名已經失傳。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人類經過長時間的文明發展，人口漸漸變多，但也相對產生許多理念與衝突，因而演變成了部族，相同理念的部族會聚在一起形成國家。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>[惡意]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve"> - 戰爭所帶來的負面情感再度喚醒了惡意，也漸漸地開始活化起來，已經遊走於大地中的惡意使土地凋零及水源汙濁，並開始影響到人們，瘟疫就此開始蔓延。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>[惡意]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve"> - 惡意從戰爭開始不斷活化著，但宿主-尼德霍格已經無法再行動，因此需要尋找下一個宿體，並呈現有實體的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>惡意核心</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>存在於世界各地的地底中。
-教團地底正好有一個惡意核心，經由</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>教團大祭司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>的接觸後寄宿於大祭司身上，惡意便此覺醒。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新曆70年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部族</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新曆250年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>[兩大帝國]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve"> - 部族間的理念不合，進而發展成衝突，最後擴大成戰爭局面，戰爭期間僅是簡單的弱肉強食，力量不足的部族會被吞噬，為了尋求自保都會去依靠實力較強的一方，最終從很多個小部族演變成了有兩大帝國的爭鬥。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>[兩大帝國]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve"> - 瘟疫不斷肆虐的國民及軍隊，連仗都無法打，因此雙方決議先行停戰，並開始極力尋找瘟疫的解藥，但這也意味著誰先找到解藥誰就是贏家，表面上雖是停止戰爭但仍然存在著許多暗鬥。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新曆1290年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新曆1312年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新曆1332年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">[教團] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>- 原以為瘟疫危機已經解決教團，卻沒想到解藥卻是最毒的毒藥，居民開始無故暴躁、破壞、甚至有些突變成怪物，城鎮在無預警的情況下一夕之間陷落，成為了怪物的巢穴。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>[教團]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve"> - 即便遠離戰爭之地的教團也受到了瘟疫的侵襲，此時教團意外發現了位於城鎮地底深處的神秘洞窟及液體，能夠治癒瘟疫，便開始大量使用於居民身上。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">[兩大帝國] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>- 不知從何時，有一個傳聞在帝國間流傳「在南方的山脈間有一座無人知曉的城鎮，其中有著萬能的解藥，甚至連瘟疫都能醫治」即使是完全沒有依據的傳言，但為了獲得最後的勝利仍然派出了使者前往探究。其中一個帝國派出了一支探查隊前往，而主角 - 克弗思．慕尼(Corvus．Munin)就在其中。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">[教團] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>- 在戰爭中有一群人不斷遊走在戰地，幫助著因戰爭而無家可歸的人，他們不隸屬兩大帝國，僅是為了避戰而存在的團體，最終在領導者的帶領下遠離了戰爭之地，在深山內建立了自己的家園 - 城鎮大教團因而成立。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人類戰爭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>「悲傷的時代已經逝去了，世界不再複雜，你願意為這個單純的世界帶來希望嗎？」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">「哼，無聊透頂…隨妳吧！老朽現在只想睡一覺而已。」
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">「謝謝你……」
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">「可別忘了惡意的存在。」
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>「…………」</t>
-    </r>
+      <t>就在其中。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>童話故事：失去翅膀的烏鴉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1550,7 +1706,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1720,6 +1876,14 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -2457,7 +2621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2544,9 +2708,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2563,9 +2724,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2593,6 +2751,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2670,6 +2834,132 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2682,137 +2972,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7971,7 +8138,7 @@
         <v>59</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="3:9" ht="36" x14ac:dyDescent="0.3">
@@ -8139,8 +8306,8 @@
   <dimension ref="C1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
+      <pane ySplit="7" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8162,368 +8329,382 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-      <c r="H2" s="90" t="s">
-        <v>95</v>
+      <c r="H2" s="94" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="127"/>
-      <c r="H3" s="91"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="93"/>
+      <c r="H3" s="95"/>
     </row>
     <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="116" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
-      <c r="H4" s="91"/>
+      <c r="C4" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="84"/>
+      <c r="H4" s="95"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="119"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="121"/>
-      <c r="H5" s="91"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="87"/>
+      <c r="H5" s="95"/>
     </row>
     <row r="6" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="122"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="124"/>
-      <c r="H6" s="92"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="90"/>
+      <c r="H6" s="96"/>
     </row>
     <row r="8" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="3:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="110" t="s">
+      <c r="E9" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="111"/>
-      <c r="H9" s="45"/>
+      <c r="F9" s="119"/>
+      <c r="H9" s="43"/>
     </row>
     <row r="10" spans="3:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="105" t="s">
+      <c r="C10" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="108" t="s">
+      <c r="E10" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="109"/>
-      <c r="H10" s="46"/>
+      <c r="F10" s="117"/>
+      <c r="H10" s="44"/>
     </row>
     <row r="11" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="106"/>
-      <c r="D11" s="38" t="s">
+      <c r="C11" s="114"/>
+      <c r="D11" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="112" t="s">
+      <c r="E11" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="113"/>
-      <c r="H11" s="46"/>
+      <c r="F11" s="121"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="3:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="107"/>
-      <c r="D12" s="39" t="s">
+      <c r="C12" s="115"/>
+      <c r="D12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="114" t="s">
+      <c r="E12" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="115"/>
-      <c r="H12" s="46"/>
+      <c r="F12" s="81"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="3:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="103" t="s">
+      <c r="E13" s="111" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="104"/>
-      <c r="H13" s="46"/>
+      <c r="F13" s="112"/>
+      <c r="H13" s="44"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="H14" s="46"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="H15" s="46"/>
+      <c r="H15" s="44"/>
     </row>
     <row r="16" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="H16" s="46"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="H16" s="44"/>
     </row>
     <row r="17" spans="3:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="101" t="s">
+      <c r="D17" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="H17" s="46"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="H17" s="44"/>
     </row>
     <row r="18" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="42"/>
-      <c r="D18" s="43" t="s">
+      <c r="C18" s="40"/>
+      <c r="D18" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="H18" s="46"/>
+      <c r="F18" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="44"/>
     </row>
     <row r="19" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="C19" s="84" t="s">
+      <c r="C19" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="86" t="s">
+      <c r="D19" s="103" t="s">
         <v>83</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="H19" s="46"/>
+        <v>124</v>
+      </c>
+      <c r="H19" s="128" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="20" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="C20" s="85"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="34" t="s">
-        <v>89</v>
+      <c r="C20" s="102"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="52" t="s">
+        <v>88</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="H20" s="46"/>
+        <v>119</v>
+      </c>
+      <c r="H20" s="44"/>
     </row>
     <row r="21" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="41" t="s">
         <v>78</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>87</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="H21" s="46"/>
+        <v>95</v>
+      </c>
+      <c r="H21" s="44"/>
     </row>
     <row r="22" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="C22" s="84" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="86" t="s">
+      <c r="C22" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="98" t="s">
-        <v>88</v>
+      <c r="D22" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="106" t="s">
+        <v>87</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="H22" s="46"/>
+        <v>96</v>
+      </c>
+      <c r="H22" s="44"/>
     </row>
     <row r="23" spans="3:8" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="C23" s="96"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="H23" s="46"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="H23" s="44"/>
     </row>
     <row r="24" spans="3:8" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="C24" s="96"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="99"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="107"/>
       <c r="F24" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="H24" s="48" t="s">
-        <v>96</v>
+        <v>120</v>
+      </c>
+      <c r="H24" s="46" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C25" s="96"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="99"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="107"/>
       <c r="F25" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="H25" s="46"/>
+        <v>97</v>
+      </c>
+      <c r="H25" s="44"/>
     </row>
     <row r="26" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C26" s="96"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="H26" s="46"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" s="44"/>
     </row>
     <row r="27" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C27" s="85"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="H27" s="46"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="44"/>
     </row>
     <row r="28" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C28" s="84" t="s">
+      <c r="C28" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="86" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="F28" s="93" t="s">
+      <c r="D28" s="103" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="H28" s="46"/>
+      <c r="H28" s="44"/>
     </row>
     <row r="29" spans="3:8" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="C29" s="96"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29" s="94"/>
-      <c r="H29" s="46"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="98"/>
+      <c r="H29" s="44"/>
     </row>
     <row r="30" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C30" s="85"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30" s="94"/>
-      <c r="H30" s="46"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="98"/>
+      <c r="H30" s="44"/>
     </row>
     <row r="31" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="C31" s="43" t="s">
-        <v>113</v>
+      <c r="C31" s="41" t="s">
+        <v>104</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31" s="95"/>
-      <c r="H31" s="46"/>
+        <v>105</v>
+      </c>
+      <c r="E31" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="99"/>
+      <c r="H31" s="44"/>
     </row>
     <row r="32" spans="3:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="C32" s="84" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32" s="86" t="s">
+      <c r="C32" s="100" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="103" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="126" t="s">
         <v>117</v>
       </c>
-      <c r="E32" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="F32" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="H32" s="46"/>
+      <c r="H32" s="44"/>
     </row>
     <row r="33" spans="3:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="C33" s="85"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="F33" s="89"/>
-      <c r="H33" s="46"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="127"/>
+      <c r="H33" s="44"/>
     </row>
     <row r="34" spans="3:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="C34" s="84" t="s">
+      <c r="C34" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="E34" s="34" t="s">
+      <c r="D34" s="122" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" s="126" t="s">
         <v>116</v>
       </c>
-      <c r="F34" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="H34" s="46"/>
+      <c r="H34" s="44"/>
     </row>
     <row r="35" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C35" s="85"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="89"/>
-      <c r="H35" s="46"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="127"/>
+      <c r="H35" s="44"/>
     </row>
-    <row r="36" spans="3:8" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="C36" s="84" t="s">
+    <row r="36" spans="3:8" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="C36" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="80" t="s">
-        <v>119</v>
-      </c>
-      <c r="E36" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="F36" s="82"/>
-      <c r="H36" s="46"/>
+      <c r="D36" s="122" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" s="124"/>
+      <c r="H36" s="44"/>
     </row>
     <row r="37" spans="3:8" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="85"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="F37" s="83"/>
-      <c r="H37" s="47"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" s="125"/>
+      <c r="H37" s="45"/>
     </row>
     <row r="38" spans="3:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="C38" s="49"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="52"/>
-      <c r="H38" s="44"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="50"/>
+      <c r="H38" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="F36:F37"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="C4:F6"/>
     <mergeCell ref="C3:F3"/>
@@ -8540,18 +8721,6 @@
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="C10:C12"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C34:C35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1AC26C-E4A7-4D21-9450-145779939844}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170C2734-6A08-4C4E-9FB7-DFC2A60B22FE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1371,45 +1371,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">此後人類開始漸漸發展了起來，並且流傳著一段故事 : 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>貪婪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>使神蒙蔽了雙眼，世界為此戰爭及毀滅。」
-「我們的祖先為了保護族人向神宣戰，弱小的我們讓神失去了王座，結束了永無止盡的戰爭。」
-「溫柔的女神對人類伸出了雙手，像母親般帶給人類新生命。」</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">[詩寇蒂] - </t>
     </r>
     <r>
@@ -1699,6 +1660,45 @@
   </si>
   <si>
     <t>童話故事：失去翅膀的烏鴉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">此後人類開始漸漸發展了起來，並且流傳著一段故事 : 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>貪婪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>使神蒙蔽了雙眼，世界為此戰爭及毀滅。」
+「我們的祖先為了保護族人向神宣戰，祖先拖著殘缺的身軀將神拉下了王座，結束了永無止盡的戰爭。」
+「溫柔的女神對人類伸出了雙手，像母親般帶給人類新生命。」</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2757,6 +2757,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2834,6 +2837,54 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2894,24 +2945,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2941,45 +2980,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7916,29 +7916,29 @@
     <row r="1" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="65"/>
+      <c r="D3" s="66"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="67"/>
+      <c r="D4" s="68"/>
       <c r="F4" s="10"/>
       <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="2:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="70"/>
-      <c r="D6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="72"/>
       <c r="F6" s="12"/>
       <c r="G6" s="1" t="s">
         <v>1</v>
@@ -7956,15 +7956,15 @@
       <c r="I8" s="30"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="76"/>
-      <c r="G9" s="53" t="s">
+      <c r="D9" s="77"/>
+      <c r="G9" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="56"/>
     </row>
     <row r="10" spans="2:9" ht="18" x14ac:dyDescent="0.3">
       <c r="C10" s="15" t="s">
@@ -8018,7 +8018,7 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="73" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="22" t="s">
@@ -8035,7 +8035,7 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="73"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
@@ -8050,79 +8050,79 @@
       </c>
     </row>
     <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="73"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="78" t="s">
+      <c r="G15" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="79" t="s">
+      <c r="H15" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="77" t="s">
+      <c r="I15" s="78" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="73"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="78"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="77"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="78"/>
     </row>
     <row r="17" spans="3:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="C17" s="73"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="78"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="77"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="78"/>
     </row>
     <row r="18" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="73"/>
+      <c r="C18" s="74"/>
       <c r="D18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="78" t="s">
+      <c r="G18" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="79" t="s">
+      <c r="H18" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="77" t="s">
+      <c r="I18" s="78" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="3:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="C19" s="73"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="78"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="77"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="78"/>
     </row>
     <row r="20" spans="3:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="C20" s="73"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="78"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="77"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="78"/>
     </row>
     <row r="21" spans="3:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="C21" s="74"/>
+      <c r="C21" s="75"/>
       <c r="D21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="78"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="77"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="78"/>
     </row>
     <row r="22" spans="3:9" ht="90.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" s="6" t="s">
@@ -8160,10 +8160,10 @@
     <row r="25" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="3:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="57"/>
+      <c r="D27" s="58"/>
     </row>
     <row r="28" spans="3:9" ht="18" x14ac:dyDescent="0.3">
       <c r="C28" s="17" t="s">
@@ -8174,7 +8174,7 @@
       </c>
     </row>
     <row r="29" spans="3:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="59" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="21" t="s">
@@ -8182,25 +8182,25 @@
       </c>
     </row>
     <row r="30" spans="3:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="C30" s="59"/>
+      <c r="C30" s="60"/>
       <c r="D30" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="31" spans="3:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="C31" s="59"/>
+      <c r="C31" s="60"/>
       <c r="D31" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32" spans="3:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="C32" s="59"/>
+      <c r="C32" s="60"/>
       <c r="D32" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="3:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="C33" s="60"/>
+      <c r="C33" s="61"/>
       <c r="D33" s="18" t="s">
         <v>36</v>
       </c>
@@ -8230,7 +8230,7 @@
       </c>
     </row>
     <row r="37" spans="3:4" ht="126" x14ac:dyDescent="0.3">
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="62" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="19" t="s">
@@ -8238,19 +8238,19 @@
       </c>
     </row>
     <row r="38" spans="3:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="C38" s="62"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="3:4" ht="162" x14ac:dyDescent="0.3">
-      <c r="C39" s="62"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="19" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="40" spans="3:4" ht="90.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="63"/>
+      <c r="C40" s="64"/>
       <c r="D40" s="20" t="s">
         <v>40</v>
       </c>
@@ -8307,7 +8307,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
+      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8329,86 +8329,86 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-      <c r="H2" s="94" t="s">
+      <c r="H2" s="111" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93"/>
-      <c r="H3" s="95"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="110"/>
+      <c r="H3" s="112"/>
     </row>
     <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84"/>
-      <c r="H4" s="95"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="101"/>
+      <c r="H4" s="112"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="85"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="87"/>
-      <c r="H5" s="95"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="104"/>
+      <c r="H5" s="112"/>
     </row>
     <row r="6" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="90"/>
-      <c r="H6" s="96"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="107"/>
+      <c r="H6" s="113"/>
     </row>
     <row r="8" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="3:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="118" t="s">
+      <c r="E9" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="119"/>
+      <c r="F9" s="92"/>
       <c r="H9" s="43"/>
     </row>
     <row r="10" spans="3:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="113" t="s">
+      <c r="C10" s="126" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="116" t="s">
+      <c r="E10" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="117"/>
+      <c r="F10" s="90"/>
       <c r="H10" s="44"/>
     </row>
     <row r="11" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="114"/>
+      <c r="C11" s="127"/>
       <c r="D11" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="120" t="s">
+      <c r="E11" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="121"/>
+      <c r="F11" s="94"/>
       <c r="H11" s="44"/>
     </row>
     <row r="12" spans="3:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="115"/>
+      <c r="C12" s="128"/>
       <c r="D12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="80" t="s">
+      <c r="E12" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="81"/>
+      <c r="F12" s="98"/>
       <c r="H12" s="44"/>
     </row>
     <row r="13" spans="3:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8418,10 +8418,10 @@
       <c r="D13" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="111" t="s">
+      <c r="E13" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="112"/>
+      <c r="F13" s="125"/>
       <c r="H13" s="44"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.3">
@@ -8431,23 +8431,23 @@
       <c r="H15" s="44"/>
     </row>
     <row r="16" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="110" t="s">
+      <c r="C16" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
       <c r="H16" s="44"/>
     </row>
     <row r="17" spans="3:8" ht="18" x14ac:dyDescent="0.3">
       <c r="C17" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="109" t="s">
+      <c r="D17" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
       <c r="H17" s="44"/>
     </row>
     <row r="18" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -8459,35 +8459,35 @@
         <v>44</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H18" s="44"/>
     </row>
     <row r="19" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="C19" s="100" t="s">
+      <c r="C19" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="103" t="s">
+      <c r="D19" s="83" t="s">
         <v>83</v>
       </c>
       <c r="E19" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="H19" s="128" t="s">
-        <v>126</v>
+      <c r="H19" s="53" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="C20" s="102"/>
-      <c r="D20" s="105"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="84"/>
       <c r="E20" s="52" t="s">
         <v>88</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H20" s="44"/>
     </row>
@@ -8507,13 +8507,13 @@
       <c r="H21" s="44"/>
     </row>
     <row r="22" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="C22" s="100" t="s">
+      <c r="C22" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="103" t="s">
+      <c r="D22" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="106" t="s">
+      <c r="E22" s="119" t="s">
         <v>87</v>
       </c>
       <c r="F22" s="33" t="s">
@@ -8522,83 +8522,83 @@
       <c r="H22" s="44"/>
     </row>
     <row r="23" spans="3:8" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="C23" s="101"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="107"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="120"/>
       <c r="F23" s="52" t="s">
         <v>115</v>
       </c>
       <c r="H23" s="44"/>
     </row>
     <row r="24" spans="3:8" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="C24" s="101"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="107"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="120"/>
       <c r="F24" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H24" s="46" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C25" s="101"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="107"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="120"/>
       <c r="F25" s="33" t="s">
         <v>97</v>
       </c>
       <c r="H25" s="44"/>
     </row>
     <row r="26" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C26" s="101"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="107"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="120"/>
       <c r="F26" s="52" t="s">
         <v>98</v>
       </c>
       <c r="H26" s="44"/>
     </row>
     <row r="27" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C27" s="102"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="108"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="121"/>
       <c r="F27" s="52" t="s">
         <v>100</v>
       </c>
       <c r="H27" s="44"/>
     </row>
     <row r="28" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C28" s="100" t="s">
+      <c r="C28" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="103" t="s">
+      <c r="D28" s="83" t="s">
         <v>103</v>
       </c>
       <c r="E28" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="F28" s="97" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="114" t="s">
         <v>79</v>
       </c>
       <c r="H28" s="44"/>
     </row>
     <row r="29" spans="3:8" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="C29" s="101"/>
-      <c r="D29" s="104"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="118"/>
       <c r="E29" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="F29" s="98"/>
+        <v>126</v>
+      </c>
+      <c r="F29" s="115"/>
       <c r="H29" s="44"/>
     </row>
     <row r="30" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C30" s="102"/>
-      <c r="D30" s="105"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="84"/>
       <c r="E30" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="F30" s="98"/>
+      <c r="F30" s="115"/>
       <c r="H30" s="44"/>
     </row>
     <row r="31" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
@@ -8611,77 +8611,77 @@
       <c r="E31" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="F31" s="99"/>
+      <c r="F31" s="116"/>
       <c r="H31" s="44"/>
     </row>
     <row r="32" spans="3:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="C32" s="100" t="s">
+      <c r="C32" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="D32" s="103" t="s">
+      <c r="D32" s="83" t="s">
         <v>108</v>
       </c>
       <c r="E32" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="F32" s="126" t="s">
+      <c r="F32" s="85" t="s">
         <v>117</v>
       </c>
       <c r="H32" s="44"/>
     </row>
     <row r="33" spans="3:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="C33" s="102"/>
-      <c r="D33" s="105"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="84"/>
       <c r="E33" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="F33" s="127"/>
+      <c r="F33" s="86"/>
       <c r="H33" s="44"/>
     </row>
     <row r="34" spans="3:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="C34" s="100" t="s">
+      <c r="C34" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="122" t="s">
+      <c r="D34" s="87" t="s">
         <v>109</v>
       </c>
       <c r="E34" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="F34" s="126" t="s">
+      <c r="F34" s="85" t="s">
         <v>116</v>
       </c>
       <c r="H34" s="44"/>
     </row>
     <row r="35" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C35" s="102"/>
-      <c r="D35" s="123"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="88"/>
       <c r="E35" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="F35" s="127"/>
+      <c r="F35" s="86"/>
       <c r="H35" s="44"/>
     </row>
     <row r="36" spans="3:8" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="C36" s="100" t="s">
+      <c r="C36" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="122" t="s">
+      <c r="D36" s="87" t="s">
         <v>110</v>
       </c>
       <c r="E36" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="F36" s="124"/>
+        <v>124</v>
+      </c>
+      <c r="F36" s="95"/>
       <c r="H36" s="44"/>
     </row>
     <row r="37" spans="3:8" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="102"/>
-      <c r="D37" s="123"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="88"/>
       <c r="E37" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="F37" s="125"/>
+      <c r="F37" s="96"/>
       <c r="H37" s="45"/>
     </row>
     <row r="38" spans="3:8" ht="18" x14ac:dyDescent="0.3">
@@ -8693,19 +8693,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="C4:F6"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="H2:H6"/>
@@ -8721,6 +8708,19 @@
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="C10:C12"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C34:C35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170C2734-6A08-4C4E-9FB7-DFC2A60B22FE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC29E47D-07CD-4EEA-B1B7-1DACE7FEF2BE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1696,7 +1696,7 @@
         <charset val="136"/>
       </rPr>
       <t>使神蒙蔽了雙眼，世界為此戰爭及毀滅。」
-「我們的祖先為了保護族人向神宣戰，祖先拖著殘缺的身軀將神拉下了王座，結束了永無止盡的戰爭。」
+「我們的祖先為了保護族人向神宣戰，拖著殘缺的身軀將神拉下了王座，結束了永無止盡的戰爭。」
 「溫柔的女神對人類伸出了雙手，像母親般帶給人類新生命。」</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2837,149 +2837,149 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8307,7 +8307,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
+      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8329,86 +8329,86 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-      <c r="H2" s="111" t="s">
+      <c r="H2" s="93" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110"/>
-      <c r="H3" s="112"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="92"/>
+      <c r="H3" s="94"/>
     </row>
     <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="101"/>
-      <c r="H4" s="112"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
+      <c r="H4" s="94"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="102"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="104"/>
-      <c r="H5" s="112"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="86"/>
+      <c r="H5" s="94"/>
     </row>
     <row r="6" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="105"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="107"/>
-      <c r="H6" s="113"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="89"/>
+      <c r="H6" s="95"/>
     </row>
     <row r="8" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="3:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="91" t="s">
+      <c r="E9" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="92"/>
+      <c r="F9" s="118"/>
       <c r="H9" s="43"/>
     </row>
     <row r="10" spans="3:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="112" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="89" t="s">
+      <c r="E10" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="90"/>
+      <c r="F10" s="116"/>
       <c r="H10" s="44"/>
     </row>
     <row r="11" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="127"/>
+      <c r="C11" s="113"/>
       <c r="D11" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="93" t="s">
+      <c r="E11" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="94"/>
+      <c r="F11" s="120"/>
       <c r="H11" s="44"/>
     </row>
     <row r="12" spans="3:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="128"/>
+      <c r="C12" s="114"/>
       <c r="D12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="97" t="s">
+      <c r="E12" s="125" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="98"/>
+      <c r="F12" s="126"/>
       <c r="H12" s="44"/>
     </row>
     <row r="13" spans="3:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8418,10 +8418,10 @@
       <c r="D13" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="124" t="s">
+      <c r="E13" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="125"/>
+      <c r="F13" s="111"/>
       <c r="H13" s="44"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.3">
@@ -8431,23 +8431,23 @@
       <c r="H15" s="44"/>
     </row>
     <row r="16" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
       <c r="H16" s="44"/>
     </row>
     <row r="17" spans="3:8" ht="18" x14ac:dyDescent="0.3">
       <c r="C17" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="122" t="s">
+      <c r="D17" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
       <c r="H17" s="44"/>
     </row>
     <row r="18" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -8464,10 +8464,10 @@
       <c r="H18" s="44"/>
     </row>
     <row r="19" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="83" t="s">
+      <c r="D19" s="102" t="s">
         <v>83</v>
       </c>
       <c r="E19" s="33" t="s">
@@ -8481,8 +8481,8 @@
       </c>
     </row>
     <row r="20" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="C20" s="82"/>
-      <c r="D20" s="84"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="104"/>
       <c r="E20" s="52" t="s">
         <v>88</v>
       </c>
@@ -8507,13 +8507,13 @@
       <c r="H21" s="44"/>
     </row>
     <row r="22" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="83" t="s">
+      <c r="D22" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="119" t="s">
+      <c r="E22" s="105" t="s">
         <v>87</v>
       </c>
       <c r="F22" s="33" t="s">
@@ -8522,18 +8522,18 @@
       <c r="H22" s="44"/>
     </row>
     <row r="23" spans="3:8" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="C23" s="117"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="120"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="106"/>
       <c r="F23" s="52" t="s">
         <v>115</v>
       </c>
       <c r="H23" s="44"/>
     </row>
     <row r="24" spans="3:8" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="C24" s="117"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="120"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="106"/>
       <c r="F24" s="33" t="s">
         <v>119</v>
       </c>
@@ -8542,63 +8542,63 @@
       </c>
     </row>
     <row r="25" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C25" s="117"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="120"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="106"/>
       <c r="F25" s="33" t="s">
         <v>97</v>
       </c>
       <c r="H25" s="44"/>
     </row>
     <row r="26" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C26" s="117"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="120"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="106"/>
       <c r="F26" s="52" t="s">
         <v>98</v>
       </c>
       <c r="H26" s="44"/>
     </row>
     <row r="27" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C27" s="82"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="121"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="107"/>
       <c r="F27" s="52" t="s">
         <v>100</v>
       </c>
       <c r="H27" s="44"/>
     </row>
     <row r="28" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C28" s="81" t="s">
+      <c r="C28" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="83" t="s">
+      <c r="D28" s="102" t="s">
         <v>103</v>
       </c>
       <c r="E28" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="F28" s="114" t="s">
+      <c r="F28" s="96" t="s">
         <v>79</v>
       </c>
       <c r="H28" s="44"/>
     </row>
     <row r="29" spans="3:8" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="C29" s="117"/>
-      <c r="D29" s="118"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="103"/>
       <c r="E29" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="F29" s="115"/>
+      <c r="F29" s="97"/>
       <c r="H29" s="44"/>
     </row>
     <row r="30" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C30" s="82"/>
-      <c r="D30" s="84"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="104"/>
       <c r="E30" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="F30" s="115"/>
+      <c r="F30" s="97"/>
       <c r="H30" s="44"/>
     </row>
     <row r="31" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
@@ -8611,77 +8611,77 @@
       <c r="E31" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="F31" s="116"/>
+      <c r="F31" s="98"/>
       <c r="H31" s="44"/>
     </row>
     <row r="32" spans="3:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="C32" s="81" t="s">
+      <c r="C32" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="D32" s="83" t="s">
+      <c r="D32" s="102" t="s">
         <v>108</v>
       </c>
       <c r="E32" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="F32" s="85" t="s">
+      <c r="F32" s="127" t="s">
         <v>117</v>
       </c>
       <c r="H32" s="44"/>
     </row>
     <row r="33" spans="3:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="C33" s="82"/>
-      <c r="D33" s="84"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="104"/>
       <c r="E33" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="F33" s="86"/>
+      <c r="F33" s="128"/>
       <c r="H33" s="44"/>
     </row>
     <row r="34" spans="3:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="C34" s="81" t="s">
+      <c r="C34" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="87" t="s">
+      <c r="D34" s="121" t="s">
         <v>109</v>
       </c>
       <c r="E34" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="F34" s="85" t="s">
+      <c r="F34" s="127" t="s">
         <v>116</v>
       </c>
       <c r="H34" s="44"/>
     </row>
     <row r="35" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C35" s="82"/>
-      <c r="D35" s="88"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="122"/>
       <c r="E35" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="F35" s="86"/>
+      <c r="F35" s="128"/>
       <c r="H35" s="44"/>
     </row>
     <row r="36" spans="3:8" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="C36" s="81" t="s">
+      <c r="C36" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="87" t="s">
+      <c r="D36" s="121" t="s">
         <v>110</v>
       </c>
       <c r="E36" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="F36" s="95"/>
+      <c r="F36" s="123"/>
       <c r="H36" s="44"/>
     </row>
     <row r="37" spans="3:8" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="82"/>
-      <c r="D37" s="88"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="122"/>
       <c r="E37" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="F37" s="96"/>
+      <c r="F37" s="124"/>
       <c r="H37" s="45"/>
     </row>
     <row r="38" spans="3:8" ht="18" x14ac:dyDescent="0.3">
@@ -8693,6 +8693,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="C4:F6"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="H2:H6"/>
@@ -8709,18 +8721,6 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C34:C35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC29E47D-07CD-4EEA-B1B7-1DACE7FEF2BE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860928EC-7812-4AC4-A8BD-344AEB56FFF9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舊世界末日編年史" sheetId="1" r:id="rId1"/>
@@ -980,10 +980,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>因阿薩神族過度採集世界樹魔素，世界樹所產生的靈魂瘟疫精神意識體，特拉希爾內所產生的負面能量（恐懼、傲慢、忌妒、邪淫、憤怒、忌妒、貪婪等）都將是催化惡意的要素，穿梭在世界上任何一處，寄宿於強大的客體內，末日之時寄宿於邪龍尼德霍格的靈魂內，蠶食鯨吞世界術的魔素……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1699,6 +1695,10 @@
 「我們的祖先為了保護族人向神宣戰，拖著殘缺的身軀將神拉下了王座，結束了永無止盡的戰爭。」
 「溫柔的女神對人類伸出了雙手，像母親般帶給人類新生命。」</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因阿薩神族過度採集世界樹魔素，世界樹所產生的靈魂瘟疫精神意識體，特拉希爾內所產生的負面能量（恐懼、傲慢、忌妒、邪淫、憤怒、忌妒、貪婪等）都將是催化惡意的要素，穿梭在世界上任何一處，寄宿於強大的客體內，末日之時寄宿於邪龍尼德霍格的靈魂內，蠶食鯨吞世界樹的魔素……</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2837,6 +2837,54 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2891,24 +2939,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2944,42 +2980,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7895,9 +7895,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8138,7 +8138,7 @@
         <v>59</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="3:9" ht="36" x14ac:dyDescent="0.3">
@@ -8305,9 +8305,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922C88DA-6A99-41E4-9AB6-0246F073DD34}">
   <dimension ref="C1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8329,86 +8329,86 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-      <c r="H2" s="93" t="s">
+      <c r="H2" s="109" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="92"/>
-      <c r="H3" s="94"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="108"/>
+      <c r="H3" s="110"/>
     </row>
     <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="83"/>
-      <c r="H4" s="94"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="99"/>
+      <c r="H4" s="110"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="84"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="86"/>
-      <c r="H5" s="94"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="102"/>
+      <c r="H5" s="110"/>
     </row>
     <row r="6" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="87"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="89"/>
-      <c r="H6" s="95"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="105"/>
+      <c r="H6" s="111"/>
     </row>
     <row r="8" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="3:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="117" t="s">
+      <c r="E9" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="118"/>
+      <c r="F9" s="90"/>
       <c r="H9" s="43"/>
     </row>
     <row r="10" spans="3:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="124" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="115" t="s">
+      <c r="E10" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="116"/>
+      <c r="F10" s="128"/>
       <c r="H10" s="44"/>
     </row>
     <row r="11" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="113"/>
+      <c r="C11" s="125"/>
       <c r="D11" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="119" t="s">
+      <c r="E11" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="120"/>
+      <c r="F11" s="92"/>
       <c r="H11" s="44"/>
     </row>
     <row r="12" spans="3:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="114"/>
+      <c r="C12" s="126"/>
       <c r="D12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="125" t="s">
+      <c r="E12" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="126"/>
+      <c r="F12" s="96"/>
       <c r="H12" s="44"/>
     </row>
     <row r="13" spans="3:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8418,10 +8418,10 @@
       <c r="D13" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="110" t="s">
+      <c r="E13" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="111"/>
+      <c r="F13" s="123"/>
       <c r="H13" s="44"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.3">
@@ -8431,23 +8431,23 @@
       <c r="H15" s="44"/>
     </row>
     <row r="16" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
       <c r="H16" s="44"/>
     </row>
     <row r="17" spans="3:8" ht="18" x14ac:dyDescent="0.3">
       <c r="C17" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="108" t="s">
+      <c r="D17" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
       <c r="H17" s="44"/>
     </row>
     <row r="18" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -8459,35 +8459,35 @@
         <v>44</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H18" s="44"/>
     </row>
     <row r="19" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="C19" s="99" t="s">
+      <c r="C19" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="102" t="s">
+      <c r="D19" s="83" t="s">
         <v>83</v>
       </c>
       <c r="E19" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="33" t="s">
-        <v>123</v>
-      </c>
       <c r="H19" s="53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="C20" s="101"/>
-      <c r="D20" s="104"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="84"/>
       <c r="E20" s="52" t="s">
         <v>88</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H20" s="44"/>
     </row>
@@ -8507,13 +8507,13 @@
       <c r="H21" s="44"/>
     </row>
     <row r="22" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="C22" s="99" t="s">
+      <c r="C22" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="102" t="s">
+      <c r="D22" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="105" t="s">
+      <c r="E22" s="117" t="s">
         <v>87</v>
       </c>
       <c r="F22" s="33" t="s">
@@ -8522,166 +8522,166 @@
       <c r="H22" s="44"/>
     </row>
     <row r="23" spans="3:8" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="C23" s="100"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="106"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="118"/>
       <c r="F23" s="52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H23" s="44"/>
     </row>
     <row r="24" spans="3:8" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="C24" s="100"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="106"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H24" s="46" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C25" s="100"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="106"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="118"/>
       <c r="F25" s="33" t="s">
         <v>97</v>
       </c>
       <c r="H25" s="44"/>
     </row>
     <row r="26" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C26" s="100"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="106"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="118"/>
       <c r="F26" s="52" t="s">
         <v>98</v>
       </c>
       <c r="H26" s="44"/>
     </row>
     <row r="27" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C27" s="101"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="107"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="119"/>
       <c r="F27" s="52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H27" s="44"/>
     </row>
     <row r="28" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C28" s="99" t="s">
+      <c r="C28" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="102" t="s">
-        <v>103</v>
+      <c r="D28" s="83" t="s">
+        <v>102</v>
       </c>
       <c r="E28" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" s="96" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="112" t="s">
         <v>79</v>
       </c>
       <c r="H28" s="44"/>
     </row>
     <row r="29" spans="3:8" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="C29" s="100"/>
-      <c r="D29" s="103"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="116"/>
       <c r="E29" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="F29" s="97"/>
+        <v>125</v>
+      </c>
+      <c r="F29" s="113"/>
       <c r="H29" s="44"/>
     </row>
     <row r="30" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C30" s="101"/>
-      <c r="D30" s="104"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="84"/>
       <c r="E30" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" s="97"/>
+        <v>100</v>
+      </c>
+      <c r="F30" s="113"/>
       <c r="H30" s="44"/>
     </row>
     <row r="31" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="C31" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="32" t="s">
-        <v>105</v>
-      </c>
       <c r="E31" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" s="98"/>
+        <v>101</v>
+      </c>
+      <c r="F31" s="114"/>
       <c r="H31" s="44"/>
     </row>
     <row r="32" spans="3:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="C32" s="99" t="s">
-        <v>114</v>
-      </c>
-      <c r="D32" s="102" t="s">
-        <v>108</v>
+      <c r="C32" s="81" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="83" t="s">
+        <v>107</v>
       </c>
       <c r="E32" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="F32" s="127" t="s">
-        <v>117</v>
+        <v>105</v>
+      </c>
+      <c r="F32" s="85" t="s">
+        <v>116</v>
       </c>
       <c r="H32" s="44"/>
     </row>
     <row r="33" spans="3:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="C33" s="101"/>
-      <c r="D33" s="104"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="84"/>
       <c r="E33" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="F33" s="128"/>
+        <v>112</v>
+      </c>
+      <c r="F33" s="86"/>
       <c r="H33" s="44"/>
     </row>
     <row r="34" spans="3:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="C34" s="99" t="s">
+      <c r="C34" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="121" t="s">
-        <v>109</v>
+      <c r="D34" s="87" t="s">
+        <v>108</v>
       </c>
       <c r="E34" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="F34" s="127" t="s">
-        <v>116</v>
+        <v>106</v>
+      </c>
+      <c r="F34" s="85" t="s">
+        <v>115</v>
       </c>
       <c r="H34" s="44"/>
     </row>
     <row r="35" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C35" s="101"/>
-      <c r="D35" s="122"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="88"/>
       <c r="E35" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="F35" s="128"/>
+        <v>111</v>
+      </c>
+      <c r="F35" s="86"/>
       <c r="H35" s="44"/>
     </row>
     <row r="36" spans="3:8" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="C36" s="99" t="s">
+      <c r="C36" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="121" t="s">
-        <v>110</v>
+      <c r="D36" s="87" t="s">
+        <v>109</v>
       </c>
       <c r="E36" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="F36" s="123"/>
+        <v>123</v>
+      </c>
+      <c r="F36" s="93"/>
       <c r="H36" s="44"/>
     </row>
     <row r="37" spans="3:8" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="101"/>
-      <c r="D37" s="122"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="88"/>
       <c r="E37" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="F37" s="124"/>
+        <v>110</v>
+      </c>
+      <c r="F37" s="94"/>
       <c r="H37" s="45"/>
     </row>
     <row r="38" spans="3:8" ht="18" x14ac:dyDescent="0.3">
@@ -8693,18 +8693,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="C4:F6"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="H2:H6"/>
@@ -8721,6 +8709,18 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C34:C35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860928EC-7812-4AC4-A8BD-344AEB56FFF9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAA4C19-3110-4613-B594-6435B63F5390}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舊世界末日編年史" sheetId="1" r:id="rId1"/>
@@ -811,10 +811,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>倖存人類</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阿薩神族中掌管未來的女神，從福金那得知了情感的概念，在逆神計畫中被福金請託將倖存人類帶往新世界。對於人類能夠引發的無限可能性（奇蹟）這跳脫機率的存在，視為超越眾神帶來希望【Ur】的能力，同時也非常愧疚神族對於人類的所作所為。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1699,6 +1695,10 @@
   </si>
   <si>
     <t>因阿薩神族過度採集世界樹魔素，世界樹所產生的靈魂瘟疫精神意識體，特拉希爾內所產生的負面能量（恐懼、傲慢、忌妒、邪淫、憤怒、忌妒、貪婪等）都將是催化惡意的要素，穿梭在世界上任何一處，寄宿於強大的客體內，末日之時寄宿於邪龍尼德霍格的靈魂內，蠶食鯨吞世界樹的魔素……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倖存的人類</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2837,149 +2837,149 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7517,7 +7517,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9870142" y="1272989"/>
+          <a:off x="10058401" y="1272989"/>
           <a:ext cx="10113982" cy="6546991"/>
           <a:chOff x="10121153" y="1398494"/>
           <a:chExt cx="10113982" cy="6546991"/>
@@ -7895,8 +7895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -8138,7 +8138,7 @@
         <v>59</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="3:9" ht="36" x14ac:dyDescent="0.3">
@@ -8305,9 +8305,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922C88DA-6A99-41E4-9AB6-0246F073DD34}">
   <dimension ref="C1:H38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8315,7 +8315,7 @@
     <col min="1" max="1" width="1.125" style="9" customWidth="1"/>
     <col min="2" max="2" width="5" style="9" customWidth="1"/>
     <col min="3" max="3" width="17.875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="14" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.5" style="9" customWidth="1"/>
     <col min="6" max="6" width="50.125" style="9" customWidth="1"/>
     <col min="7" max="7" width="9" style="9"/>
@@ -8329,86 +8329,86 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-      <c r="H2" s="109" t="s">
-        <v>93</v>
+      <c r="H2" s="93" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="108"/>
-      <c r="H3" s="110"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="92"/>
+      <c r="H3" s="94"/>
     </row>
     <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="97" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="99"/>
-      <c r="H4" s="110"/>
+      <c r="C4" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
+      <c r="H4" s="94"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="100"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="102"/>
-      <c r="H5" s="110"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="86"/>
+      <c r="H5" s="94"/>
     </row>
     <row r="6" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="103"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="105"/>
-      <c r="H6" s="111"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="89"/>
+      <c r="H6" s="95"/>
     </row>
     <row r="8" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="3:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="89" t="s">
+      <c r="E9" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="90"/>
+      <c r="F9" s="118"/>
       <c r="H9" s="43"/>
     </row>
     <row r="10" spans="3:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="112" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="127" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="128"/>
+      <c r="E10" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="116"/>
       <c r="H10" s="44"/>
     </row>
     <row r="11" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="125"/>
+      <c r="C11" s="113"/>
       <c r="D11" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="92"/>
+        <v>126</v>
+      </c>
+      <c r="E11" s="119" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="120"/>
       <c r="H11" s="44"/>
     </row>
     <row r="12" spans="3:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="126"/>
+      <c r="C12" s="114"/>
       <c r="D12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="95" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="96"/>
+      <c r="E12" s="125" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="126"/>
       <c r="H12" s="44"/>
     </row>
     <row r="13" spans="3:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8418,10 +8418,10 @@
       <c r="D13" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="122" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="123"/>
+      <c r="E13" s="110" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="111"/>
       <c r="H13" s="44"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.3">
@@ -8431,257 +8431,257 @@
       <c r="H15" s="44"/>
     </row>
     <row r="16" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="121" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
+      <c r="C16" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
       <c r="H16" s="44"/>
     </row>
     <row r="17" spans="3:8" ht="18" x14ac:dyDescent="0.3">
       <c r="C17" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="120" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
       <c r="H17" s="44"/>
     </row>
     <row r="18" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="40"/>
       <c r="D18" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" s="41" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H18" s="44"/>
     </row>
     <row r="19" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="C19" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="83" t="s">
-        <v>83</v>
+      <c r="C19" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="102" t="s">
+        <v>82</v>
       </c>
       <c r="E19" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="33" t="s">
-        <v>122</v>
-      </c>
       <c r="H19" s="53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="C20" s="82"/>
-      <c r="D20" s="84"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="104"/>
       <c r="E20" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H20" s="44"/>
     </row>
     <row r="21" spans="3:8" ht="78" x14ac:dyDescent="0.3">
       <c r="C21" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H21" s="44"/>
     </row>
     <row r="22" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="C22" s="81" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="83" t="s">
+      <c r="C22" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="117" t="s">
-        <v>87</v>
+      <c r="D22" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="105" t="s">
+        <v>86</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H22" s="44"/>
     </row>
     <row r="23" spans="3:8" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="C23" s="115"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="118"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="106"/>
       <c r="F23" s="52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H23" s="44"/>
     </row>
     <row r="24" spans="3:8" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="C24" s="115"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="118"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="106"/>
       <c r="F24" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H24" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C25" s="115"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="118"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="106"/>
       <c r="F25" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H25" s="44"/>
     </row>
     <row r="26" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C26" s="115"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="118"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="106"/>
       <c r="F26" s="52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H26" s="44"/>
     </row>
     <row r="27" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C27" s="82"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="119"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="107"/>
       <c r="F27" s="52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H27" s="44"/>
     </row>
     <row r="28" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C28" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="83" t="s">
-        <v>102</v>
+      <c r="C28" s="99" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="102" t="s">
+        <v>101</v>
       </c>
       <c r="E28" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="F28" s="112" t="s">
-        <v>79</v>
+        <v>118</v>
+      </c>
+      <c r="F28" s="96" t="s">
+        <v>78</v>
       </c>
       <c r="H28" s="44"/>
     </row>
     <row r="29" spans="3:8" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="C29" s="115"/>
-      <c r="D29" s="116"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="103"/>
       <c r="E29" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="F29" s="113"/>
+        <v>124</v>
+      </c>
+      <c r="F29" s="97"/>
       <c r="H29" s="44"/>
     </row>
     <row r="30" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C30" s="82"/>
-      <c r="D30" s="84"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="104"/>
       <c r="E30" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" s="113"/>
+        <v>99</v>
+      </c>
+      <c r="F30" s="97"/>
       <c r="H30" s="44"/>
     </row>
     <row r="31" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="C31" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="32" t="s">
-        <v>104</v>
-      </c>
       <c r="E31" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="F31" s="114"/>
+        <v>100</v>
+      </c>
+      <c r="F31" s="98"/>
       <c r="H31" s="44"/>
     </row>
     <row r="32" spans="3:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="C32" s="81" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" s="83" t="s">
-        <v>107</v>
+      <c r="C32" s="99" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="102" t="s">
+        <v>106</v>
       </c>
       <c r="E32" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="F32" s="85" t="s">
-        <v>116</v>
+        <v>104</v>
+      </c>
+      <c r="F32" s="127" t="s">
+        <v>115</v>
       </c>
       <c r="H32" s="44"/>
     </row>
     <row r="33" spans="3:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="C33" s="82"/>
-      <c r="D33" s="84"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="104"/>
       <c r="E33" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="F33" s="86"/>
+        <v>111</v>
+      </c>
+      <c r="F33" s="128"/>
       <c r="H33" s="44"/>
     </row>
     <row r="34" spans="3:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="C34" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="87" t="s">
-        <v>108</v>
+      <c r="C34" s="99" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="121" t="s">
+        <v>107</v>
       </c>
       <c r="E34" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="F34" s="85" t="s">
-        <v>115</v>
+        <v>105</v>
+      </c>
+      <c r="F34" s="127" t="s">
+        <v>114</v>
       </c>
       <c r="H34" s="44"/>
     </row>
     <row r="35" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C35" s="82"/>
-      <c r="D35" s="88"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="122"/>
       <c r="E35" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="F35" s="86"/>
+        <v>110</v>
+      </c>
+      <c r="F35" s="128"/>
       <c r="H35" s="44"/>
     </row>
     <row r="36" spans="3:8" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="C36" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="87" t="s">
-        <v>109</v>
+      <c r="C36" s="99" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="121" t="s">
+        <v>108</v>
       </c>
       <c r="E36" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="F36" s="93"/>
+        <v>122</v>
+      </c>
+      <c r="F36" s="123"/>
       <c r="H36" s="44"/>
     </row>
     <row r="37" spans="3:8" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="82"/>
-      <c r="D37" s="88"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="122"/>
       <c r="E37" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="F37" s="94"/>
+        <v>109</v>
+      </c>
+      <c r="F37" s="124"/>
       <c r="H37" s="45"/>
     </row>
     <row r="38" spans="3:8" ht="18" x14ac:dyDescent="0.3">
@@ -8693,6 +8693,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="C4:F6"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="H2:H6"/>
@@ -8709,18 +8721,6 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C34:C35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAA4C19-3110-4613-B594-6435B63F5390}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364E92D5-C5E2-49C5-9F03-C562AC65A481}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -819,9 +819,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新世界年史(依時間)</t>
-  </si>
-  <si>
     <t>事件</t>
   </si>
   <si>
@@ -1699,6 +1696,10 @@
   </si>
   <si>
     <t>倖存的人類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新世界年史</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2837,6 +2838,54 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2891,24 +2940,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2944,42 +2981,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8138,7 +8139,7 @@
         <v>59</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="3:9" ht="36" x14ac:dyDescent="0.3">
@@ -8307,7 +8308,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8329,86 +8330,86 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-      <c r="H2" s="93" t="s">
-        <v>92</v>
+      <c r="H2" s="109" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="92"/>
-      <c r="H3" s="94"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="108"/>
+      <c r="H3" s="110"/>
     </row>
     <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="81" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="83"/>
-      <c r="H4" s="94"/>
+      <c r="C4" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="99"/>
+      <c r="H4" s="110"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="84"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="86"/>
-      <c r="H5" s="94"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="102"/>
+      <c r="H5" s="110"/>
     </row>
     <row r="6" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="87"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="89"/>
-      <c r="H6" s="95"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="105"/>
+      <c r="H6" s="111"/>
     </row>
     <row r="8" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="3:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="117" t="s">
+      <c r="E9" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="118"/>
+      <c r="F9" s="90"/>
       <c r="H9" s="43"/>
     </row>
     <row r="10" spans="3:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="124" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="115" t="s">
+      <c r="E10" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="116"/>
+      <c r="F10" s="128"/>
       <c r="H10" s="44"/>
     </row>
     <row r="11" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="113"/>
+      <c r="C11" s="125"/>
       <c r="D11" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="119" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="120"/>
+        <v>125</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="92"/>
       <c r="H11" s="44"/>
     </row>
     <row r="12" spans="3:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="114"/>
+      <c r="C12" s="126"/>
       <c r="D12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="125" t="s">
+      <c r="E12" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="126"/>
+      <c r="F12" s="96"/>
       <c r="H12" s="44"/>
     </row>
     <row r="13" spans="3:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8418,10 +8419,10 @@
       <c r="D13" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="110" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="111"/>
+      <c r="E13" s="122" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="123"/>
       <c r="H13" s="44"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.3">
@@ -8431,257 +8432,257 @@
       <c r="H15" s="44"/>
     </row>
     <row r="16" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="109" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
+      <c r="C16" s="121" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
       <c r="H16" s="44"/>
     </row>
     <row r="17" spans="3:8" ht="18" x14ac:dyDescent="0.3">
       <c r="C17" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
       <c r="H17" s="44"/>
     </row>
     <row r="18" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="40"/>
       <c r="D18" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E18" s="41" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H18" s="44"/>
     </row>
     <row r="19" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="C19" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="102" t="s">
-        <v>82</v>
+      <c r="C19" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="83" t="s">
+        <v>81</v>
       </c>
       <c r="E19" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="33" t="s">
-        <v>121</v>
-      </c>
       <c r="H19" s="53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="C20" s="101"/>
-      <c r="D20" s="104"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="84"/>
       <c r="E20" s="52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H20" s="44"/>
     </row>
     <row r="21" spans="3:8" ht="78" x14ac:dyDescent="0.3">
       <c r="C21" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H21" s="44"/>
     </row>
     <row r="22" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="C22" s="99" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="102" t="s">
+      <c r="C22" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="105" t="s">
-        <v>86</v>
+      <c r="D22" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="117" t="s">
+        <v>85</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H22" s="44"/>
     </row>
     <row r="23" spans="3:8" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="C23" s="100"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="106"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="118"/>
       <c r="F23" s="52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H23" s="44"/>
     </row>
     <row r="24" spans="3:8" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="C24" s="100"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="106"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H24" s="46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C25" s="100"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="106"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="118"/>
       <c r="F25" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H25" s="44"/>
     </row>
     <row r="26" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C26" s="100"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="106"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="118"/>
       <c r="F26" s="52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H26" s="44"/>
     </row>
     <row r="27" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C27" s="101"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="107"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="119"/>
       <c r="F27" s="52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H27" s="44"/>
     </row>
     <row r="28" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C28" s="99" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="102" t="s">
-        <v>101</v>
+      <c r="C28" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="83" t="s">
+        <v>100</v>
       </c>
       <c r="E28" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="F28" s="96" t="s">
-        <v>78</v>
+        <v>117</v>
+      </c>
+      <c r="F28" s="112" t="s">
+        <v>77</v>
       </c>
       <c r="H28" s="44"/>
     </row>
     <row r="29" spans="3:8" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="C29" s="100"/>
-      <c r="D29" s="103"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="116"/>
       <c r="E29" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="F29" s="97"/>
+        <v>123</v>
+      </c>
+      <c r="F29" s="113"/>
       <c r="H29" s="44"/>
     </row>
     <row r="30" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C30" s="101"/>
-      <c r="D30" s="104"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="84"/>
       <c r="E30" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="97"/>
+        <v>98</v>
+      </c>
+      <c r="F30" s="113"/>
       <c r="H30" s="44"/>
     </row>
     <row r="31" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="C31" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="32" t="s">
-        <v>103</v>
-      </c>
       <c r="E31" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="F31" s="98"/>
+        <v>99</v>
+      </c>
+      <c r="F31" s="114"/>
       <c r="H31" s="44"/>
     </row>
     <row r="32" spans="3:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="C32" s="99" t="s">
-        <v>112</v>
-      </c>
-      <c r="D32" s="102" t="s">
-        <v>106</v>
+      <c r="C32" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="83" t="s">
+        <v>105</v>
       </c>
       <c r="E32" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="F32" s="127" t="s">
-        <v>115</v>
+        <v>103</v>
+      </c>
+      <c r="F32" s="85" t="s">
+        <v>114</v>
       </c>
       <c r="H32" s="44"/>
     </row>
     <row r="33" spans="3:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="C33" s="101"/>
-      <c r="D33" s="104"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="84"/>
       <c r="E33" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="F33" s="128"/>
+        <v>110</v>
+      </c>
+      <c r="F33" s="86"/>
       <c r="H33" s="44"/>
     </row>
     <row r="34" spans="3:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="C34" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="121" t="s">
-        <v>107</v>
+      <c r="C34" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="87" t="s">
+        <v>106</v>
       </c>
       <c r="E34" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="F34" s="127" t="s">
-        <v>114</v>
+        <v>104</v>
+      </c>
+      <c r="F34" s="85" t="s">
+        <v>113</v>
       </c>
       <c r="H34" s="44"/>
     </row>
     <row r="35" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C35" s="101"/>
-      <c r="D35" s="122"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="88"/>
       <c r="E35" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="F35" s="128"/>
+        <v>109</v>
+      </c>
+      <c r="F35" s="86"/>
       <c r="H35" s="44"/>
     </row>
     <row r="36" spans="3:8" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="C36" s="99" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" s="121" t="s">
-        <v>108</v>
+      <c r="C36" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="87" t="s">
+        <v>107</v>
       </c>
       <c r="E36" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="F36" s="123"/>
+        <v>121</v>
+      </c>
+      <c r="F36" s="93"/>
       <c r="H36" s="44"/>
     </row>
     <row r="37" spans="3:8" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="101"/>
-      <c r="D37" s="122"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="88"/>
       <c r="E37" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="F37" s="124"/>
+        <v>108</v>
+      </c>
+      <c r="F37" s="94"/>
       <c r="H37" s="45"/>
     </row>
     <row r="38" spans="3:8" ht="18" x14ac:dyDescent="0.3">
@@ -8693,18 +8694,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="C4:F6"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="H2:H6"/>
@@ -8721,6 +8710,18 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C34:C35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364E92D5-C5E2-49C5-9F03-C562AC65A481}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE350498-5167-4730-A9B6-F20EB4181724}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舊世界末日編年史" sheetId="1" r:id="rId1"/>
@@ -1652,6 +1652,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>因阿薩神族過度採集世界樹魔素，世界樹所產生的靈魂瘟疫精神意識體，特拉希爾內所產生的負面能量（恐懼、傲慢、忌妒、邪淫、憤怒、忌妒、貪婪等）都將是催化惡意的要素，穿梭在世界上任何一處，寄宿於強大的客體內，末日之時寄宿於邪龍尼德霍格的靈魂內，蠶食鯨吞世界樹的魔素……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倖存的人類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新世界年史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">此後人類開始漸漸發展了起來，並且流傳著一段故事 : 
 </t>
@@ -1686,20 +1698,8 @@
       </rPr>
       <t>使神蒙蔽了雙眼，世界為此戰爭及毀滅。」
 「我們的祖先為了保護族人向神宣戰，拖著殘缺的身軀將神拉下了王座，結束了永無止盡的戰爭。」
-「溫柔的女神對人類伸出了雙手，像母親般帶給人類新生命。」</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因阿薩神族過度採集世界樹魔素，世界樹所產生的靈魂瘟疫精神意識體，特拉希爾內所產生的負面能量（恐懼、傲慢、忌妒、邪淫、憤怒、忌妒、貪婪等）都將是催化惡意的要素，穿梭在世界上任何一處，寄宿於強大的客體內，末日之時寄宿於邪龍尼德霍格的靈魂內，蠶食鯨吞世界樹的魔素……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倖存的人類</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新世界年史</t>
+「溫柔的女神對人類伸出了雙手，像母親般帶給人們新生命。」</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2838,149 +2838,149 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7518,8 +7518,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10058401" y="1272989"/>
-          <a:ext cx="10113982" cy="6546991"/>
+          <a:off x="11033313" y="1342465"/>
+          <a:ext cx="11162852" cy="6450621"/>
           <a:chOff x="10121153" y="1398494"/>
           <a:chExt cx="10113982" cy="6546991"/>
         </a:xfrm>
@@ -7901,28 +7901,28 @@
       <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="9" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="14.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="126.75" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="126.7109375" style="9" customWidth="1"/>
     <col min="5" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="10.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="97.375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="97.42578125" style="9" customWidth="1"/>
     <col min="10" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="65" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="66"/>
     </row>
-    <row r="4" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="67" t="s">
         <v>15</v>
       </c>
@@ -7932,12 +7932,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="69"/>
       <c r="D5" s="70"/>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="2:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="71"/>
       <c r="D6" s="72"/>
       <c r="F6" s="12"/>
@@ -7945,18 +7945,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
     </row>
-    <row r="8" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
     </row>
-    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="76" t="s">
         <v>30</v>
       </c>
@@ -7967,7 +7967,7 @@
       <c r="H9" s="55"/>
       <c r="I9" s="56"/>
     </row>
-    <row r="10" spans="2:9" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C10" s="15" t="s">
         <v>3</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="73" t="s">
         <v>9</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="74"/>
       <c r="D14" s="2" t="s">
         <v>13</v>
@@ -8050,7 +8050,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="74"/>
       <c r="D15" s="2" t="s">
         <v>14</v>
@@ -8065,7 +8065,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="74"/>
       <c r="D16" s="2" t="s">
         <v>16</v>
@@ -8074,7 +8074,7 @@
       <c r="H16" s="80"/>
       <c r="I16" s="78"/>
     </row>
-    <row r="17" spans="3:9" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C17" s="74"/>
       <c r="D17" s="2" t="s">
         <v>17</v>
@@ -8083,7 +8083,7 @@
       <c r="H17" s="80"/>
       <c r="I17" s="78"/>
     </row>
-    <row r="18" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="74"/>
       <c r="D18" s="2" t="s">
         <v>18</v>
@@ -8098,7 +8098,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="3:9" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C19" s="74"/>
       <c r="D19" s="2" t="s">
         <v>19</v>
@@ -8107,7 +8107,7 @@
       <c r="H19" s="80"/>
       <c r="I19" s="78"/>
     </row>
-    <row r="20" spans="3:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="C20" s="74"/>
       <c r="D20" s="2" t="s">
         <v>20</v>
@@ -8116,7 +8116,7 @@
       <c r="H20" s="80"/>
       <c r="I20" s="78"/>
     </row>
-    <row r="21" spans="3:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="C21" s="75"/>
       <c r="D21" s="2" t="s">
         <v>21</v>
@@ -8125,7 +8125,7 @@
       <c r="H21" s="80"/>
       <c r="I21" s="78"/>
     </row>
-    <row r="22" spans="3:9" ht="90.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:9" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="6" t="s">
         <v>10</v>
       </c>
@@ -8139,10 +8139,10 @@
         <v>59</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="23" spans="3:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="C23" s="6" t="s">
         <v>22</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="3:9" ht="126.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:9" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="7" t="s">
         <v>11</v>
       </c>
@@ -8158,15 +8158,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="3:9" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C27" s="57" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="58"/>
     </row>
-    <row r="28" spans="3:9" ht="18" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C28" s="17" t="s">
         <v>3</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="3:9" ht="18" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C29" s="59" t="s">
         <v>27</v>
       </c>
@@ -8182,31 +8182,31 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="3:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="C30" s="60"/>
       <c r="D30" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="3:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="C31" s="60"/>
       <c r="D31" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="3:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="C32" s="60"/>
       <c r="D32" s="18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="3:4" ht="36" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="C33" s="61"/>
       <c r="D33" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="3:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:4" ht="75" x14ac:dyDescent="0.25">
       <c r="C34" s="5" t="s">
         <v>28</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="3:4" ht="162" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:4" ht="168.75" x14ac:dyDescent="0.25">
       <c r="C35" s="5" t="s">
         <v>6</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="3:4" ht="162" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:4" ht="168.75" x14ac:dyDescent="0.25">
       <c r="C36" s="6" t="s">
         <v>7</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="3:4" ht="126" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:4" ht="131.25" x14ac:dyDescent="0.25">
       <c r="C37" s="62" t="s">
         <v>8</v>
       </c>
@@ -8238,25 +8238,25 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="3:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:4" ht="75" x14ac:dyDescent="0.25">
       <c r="C38" s="63"/>
       <c r="D38" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="3:4" ht="162" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:4" ht="150" x14ac:dyDescent="0.25">
       <c r="C39" s="63"/>
       <c r="D39" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="3:4" ht="90.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="64"/>
       <c r="D40" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="3:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="3:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="G9:I9"/>
@@ -8289,12 +8289,12 @@
       <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8307,151 +8307,151 @@
   <dimension ref="C1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22:E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="1.140625" style="9" customWidth="1"/>
     <col min="2" max="2" width="5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.5" style="9" customWidth="1"/>
-    <col min="6" max="6" width="50.125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="51.140625" style="9" customWidth="1"/>
     <col min="7" max="7" width="9" style="9"/>
-    <col min="8" max="8" width="16.125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="9" customWidth="1"/>
     <col min="9" max="12" width="9" style="9" customWidth="1"/>
     <col min="13" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:8" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-      <c r="H2" s="109" t="s">
+      <c r="H2" s="93" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="106" t="s">
+    <row r="3" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="108"/>
-      <c r="H3" s="110"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="92"/>
+      <c r="H3" s="94"/>
     </row>
-    <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="97" t="s">
+    <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="99"/>
-      <c r="H4" s="110"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
+      <c r="H4" s="94"/>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="100"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="102"/>
-      <c r="H5" s="110"/>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="86"/>
+      <c r="H5" s="94"/>
     </row>
-    <row r="6" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="103"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="105"/>
-      <c r="H6" s="111"/>
+    <row r="6" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="87"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="89"/>
+      <c r="H6" s="95"/>
     </row>
-    <row r="8" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="3:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="89" t="s">
+      <c r="E9" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="90"/>
+      <c r="F9" s="118"/>
       <c r="H9" s="43"/>
     </row>
-    <row r="10" spans="3:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="124" t="s">
+    <row r="10" spans="3:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="112" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="127" t="s">
+      <c r="E10" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="128"/>
+      <c r="F10" s="116"/>
       <c r="H10" s="44"/>
     </row>
-    <row r="11" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="125"/>
+    <row r="11" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="113"/>
       <c r="D11" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="E11" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="92"/>
+      <c r="F11" s="120"/>
       <c r="H11" s="44"/>
     </row>
-    <row r="12" spans="3:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="126"/>
+    <row r="12" spans="3:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="114"/>
       <c r="D12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="95" t="s">
+      <c r="E12" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="96"/>
+      <c r="F12" s="126"/>
       <c r="H12" s="44"/>
     </row>
-    <row r="13" spans="3:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="31" t="s">
         <v>71</v>
       </c>
       <c r="D13" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="122" t="s">
+      <c r="E13" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="123"/>
+      <c r="F13" s="111"/>
       <c r="H13" s="44"/>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H14" s="44"/>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H15" s="44"/>
     </row>
-    <row r="16" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="121" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
+    <row r="16" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="109" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
       <c r="H16" s="44"/>
     </row>
-    <row r="17" spans="3:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C17" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="120" t="s">
+      <c r="D17" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
       <c r="H17" s="44"/>
     </row>
-    <row r="18" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="40"/>
       <c r="D18" s="41" t="s">
         <v>82</v>
@@ -8464,11 +8464,11 @@
       </c>
       <c r="H18" s="44"/>
     </row>
-    <row r="19" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="C19" s="81" t="s">
+    <row r="19" spans="3:8" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="83" t="s">
+      <c r="D19" s="102" t="s">
         <v>81</v>
       </c>
       <c r="E19" s="33" t="s">
@@ -8481,9 +8481,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="C20" s="82"/>
-      <c r="D20" s="84"/>
+    <row r="20" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="101"/>
+      <c r="D20" s="104"/>
       <c r="E20" s="52" t="s">
         <v>86</v>
       </c>
@@ -8492,7 +8492,7 @@
       </c>
       <c r="H20" s="44"/>
     </row>
-    <row r="21" spans="3:8" ht="78" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
       <c r="C21" s="41" t="s">
         <v>76</v>
       </c>
@@ -8507,14 +8507,14 @@
       </c>
       <c r="H21" s="44"/>
     </row>
-    <row r="22" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="C22" s="81" t="s">
+    <row r="22" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="83" t="s">
+      <c r="D22" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="117" t="s">
+      <c r="E22" s="105" t="s">
         <v>85</v>
       </c>
       <c r="F22" s="33" t="s">
@@ -8522,19 +8522,19 @@
       </c>
       <c r="H22" s="44"/>
     </row>
-    <row r="23" spans="3:8" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="C23" s="115"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="118"/>
+    <row r="23" spans="3:8" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="C23" s="100"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="106"/>
       <c r="F23" s="52" t="s">
         <v>112</v>
       </c>
       <c r="H23" s="44"/>
     </row>
-    <row r="24" spans="3:8" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="C24" s="115"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="118"/>
+    <row r="24" spans="3:8" ht="126.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="100"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="106"/>
       <c r="F24" s="33" t="s">
         <v>116</v>
       </c>
@@ -8542,67 +8542,67 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C25" s="115"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="118"/>
+    <row r="25" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
+      <c r="C25" s="100"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="106"/>
       <c r="F25" s="33" t="s">
         <v>95</v>
       </c>
       <c r="H25" s="44"/>
     </row>
-    <row r="26" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C26" s="115"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="118"/>
+    <row r="26" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="100"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="106"/>
       <c r="F26" s="52" t="s">
         <v>96</v>
       </c>
       <c r="H26" s="44"/>
     </row>
-    <row r="27" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C27" s="82"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="119"/>
+    <row r="27" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
+      <c r="C27" s="101"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="107"/>
       <c r="F27" s="52" t="s">
         <v>97</v>
       </c>
       <c r="H27" s="44"/>
     </row>
-    <row r="28" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C28" s="81" t="s">
+    <row r="28" spans="3:8" ht="80.25" x14ac:dyDescent="0.25">
+      <c r="C28" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="83" t="s">
+      <c r="D28" s="102" t="s">
         <v>100</v>
       </c>
       <c r="E28" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="112" t="s">
+      <c r="F28" s="96" t="s">
         <v>77</v>
       </c>
       <c r="H28" s="44"/>
     </row>
-    <row r="29" spans="3:8" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="C29" s="115"/>
-      <c r="D29" s="116"/>
+    <row r="29" spans="3:8" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="100"/>
+      <c r="D29" s="103"/>
       <c r="E29" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="F29" s="113"/>
+        <v>126</v>
+      </c>
+      <c r="F29" s="97"/>
       <c r="H29" s="44"/>
     </row>
-    <row r="30" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C30" s="82"/>
-      <c r="D30" s="84"/>
+    <row r="30" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="101"/>
+      <c r="D30" s="104"/>
       <c r="E30" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="113"/>
+      <c r="F30" s="97"/>
       <c r="H30" s="44"/>
     </row>
-    <row r="31" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:8" ht="63" x14ac:dyDescent="0.25">
       <c r="C31" s="41" t="s">
         <v>101</v>
       </c>
@@ -8612,80 +8612,80 @@
       <c r="E31" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="114"/>
+      <c r="F31" s="98"/>
       <c r="H31" s="44"/>
     </row>
-    <row r="32" spans="3:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="C32" s="81" t="s">
+    <row r="32" spans="3:8" ht="95.25" x14ac:dyDescent="0.25">
+      <c r="C32" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="83" t="s">
+      <c r="D32" s="102" t="s">
         <v>105</v>
       </c>
       <c r="E32" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="85" t="s">
+      <c r="F32" s="127" t="s">
         <v>114</v>
       </c>
       <c r="H32" s="44"/>
     </row>
-    <row r="33" spans="3:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="C33" s="82"/>
-      <c r="D33" s="84"/>
+    <row r="33" spans="3:8" ht="95.25" x14ac:dyDescent="0.25">
+      <c r="C33" s="101"/>
+      <c r="D33" s="104"/>
       <c r="E33" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="86"/>
+      <c r="F33" s="128"/>
       <c r="H33" s="44"/>
     </row>
-    <row r="34" spans="3:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="C34" s="81" t="s">
+    <row r="34" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
+      <c r="C34" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="87" t="s">
+      <c r="D34" s="121" t="s">
         <v>106</v>
       </c>
       <c r="E34" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="F34" s="85" t="s">
+      <c r="F34" s="127" t="s">
         <v>113</v>
       </c>
       <c r="H34" s="44"/>
     </row>
-    <row r="35" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C35" s="82"/>
-      <c r="D35" s="88"/>
+    <row r="35" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="C35" s="101"/>
+      <c r="D35" s="122"/>
       <c r="E35" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="86"/>
+      <c r="F35" s="128"/>
       <c r="H35" s="44"/>
     </row>
-    <row r="36" spans="3:8" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="C36" s="81" t="s">
+    <row r="36" spans="3:8" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="C36" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="87" t="s">
+      <c r="D36" s="121" t="s">
         <v>107</v>
       </c>
       <c r="E36" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="93"/>
+      <c r="F36" s="123"/>
       <c r="H36" s="44"/>
     </row>
-    <row r="37" spans="3:8" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="82"/>
-      <c r="D37" s="88"/>
+    <row r="37" spans="3:8" ht="80.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="101"/>
+      <c r="D37" s="122"/>
       <c r="E37" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="94"/>
+      <c r="F37" s="124"/>
       <c r="H37" s="45"/>
     </row>
-    <row r="38" spans="3:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C38" s="47"/>
       <c r="D38" s="48"/>
       <c r="E38" s="49"/>
@@ -8694,6 +8694,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="C4:F6"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="H2:H6"/>
@@ -8710,18 +8722,6 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C34:C35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE350498-5167-4730-A9B6-F20EB4181724}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420D6216-543E-4766-B5E3-1E2DB89F31CA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1707,7 +1707,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1843,14 +1843,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微軟正黑體"/>
@@ -2737,13 +2729,10 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2757,9 +2746,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2838,6 +2824,54 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2892,24 +2926,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2946,41 +2968,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7495,15 +7487,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>242048</xdr:colOff>
+      <xdr:colOff>275666</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>53789</xdr:rowOff>
+      <xdr:rowOff>64995</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>512783</xdr:colOff>
+      <xdr:colOff>546401</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>486851</xdr:rowOff>
+      <xdr:rowOff>498057</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -7518,7 +7510,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11033313" y="1342465"/>
+          <a:off x="11066931" y="1353671"/>
           <a:ext cx="11162852" cy="6450621"/>
           <a:chOff x="10121153" y="1398494"/>
           <a:chExt cx="10113982" cy="6546991"/>
@@ -7917,29 +7909,29 @@
     <row r="1" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="64"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="68"/>
+      <c r="D4" s="66"/>
       <c r="F4" s="10"/>
       <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="69"/>
-      <c r="D5" s="70"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="68"/>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="2:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="71"/>
-      <c r="D6" s="72"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="70"/>
       <c r="F6" s="12"/>
       <c r="G6" s="1" t="s">
         <v>1</v>
@@ -7957,15 +7949,15 @@
       <c r="I8" s="30"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="G9" s="54" t="s">
+      <c r="D9" s="75"/>
+      <c r="G9" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54"/>
     </row>
     <row r="10" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C10" s="15" t="s">
@@ -8019,7 +8011,7 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="71" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="22" t="s">
@@ -8036,7 +8028,7 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="74"/>
+      <c r="C14" s="72"/>
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
@@ -8051,79 +8043,79 @@
       </c>
     </row>
     <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="74"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="79" t="s">
+      <c r="G15" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="80" t="s">
+      <c r="H15" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="78" t="s">
+      <c r="I15" s="76" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="74"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="79"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="78"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="76"/>
     </row>
     <row r="17" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="74"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="79"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="78"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="76"/>
     </row>
     <row r="18" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="74"/>
+      <c r="C18" s="72"/>
       <c r="D18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="79" t="s">
+      <c r="G18" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="80" t="s">
+      <c r="H18" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="78" t="s">
+      <c r="I18" s="76" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="74"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="79"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="78"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="76"/>
     </row>
     <row r="20" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C20" s="74"/>
+      <c r="C20" s="72"/>
       <c r="D20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="79"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="78"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="76"/>
     </row>
     <row r="21" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C21" s="75"/>
+      <c r="C21" s="73"/>
       <c r="D21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="79"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="78"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="76"/>
     </row>
     <row r="22" spans="3:9" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="6" t="s">
@@ -8161,10 +8153,10 @@
     <row r="25" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="58"/>
+      <c r="D27" s="56"/>
     </row>
     <row r="28" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C28" s="17" t="s">
@@ -8175,7 +8167,7 @@
       </c>
     </row>
     <row r="29" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="57" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="21" t="s">
@@ -8183,25 +8175,25 @@
       </c>
     </row>
     <row r="30" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C30" s="60"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="31" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C31" s="60"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C32" s="60"/>
+      <c r="C32" s="58"/>
       <c r="D32" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="3:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C33" s="61"/>
+      <c r="C33" s="59"/>
       <c r="D33" s="18" t="s">
         <v>36</v>
       </c>
@@ -8231,7 +8223,7 @@
       </c>
     </row>
     <row r="37" spans="3:4" ht="131.25" x14ac:dyDescent="0.25">
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="60" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="19" t="s">
@@ -8239,19 +8231,19 @@
       </c>
     </row>
     <row r="38" spans="3:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="C38" s="63"/>
+      <c r="C38" s="61"/>
       <c r="D38" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="3:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="C39" s="63"/>
+      <c r="C39" s="61"/>
       <c r="D39" s="19" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="40" spans="3:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="64"/>
+      <c r="C40" s="62"/>
       <c r="D40" s="20" t="s">
         <v>40</v>
       </c>
@@ -8307,8 +8299,8 @@
   <dimension ref="C1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22:E27"/>
+      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8330,86 +8322,86 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-      <c r="H2" s="93" t="s">
+      <c r="H2" s="107" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="92"/>
-      <c r="H3" s="94"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="106"/>
+      <c r="H3" s="108"/>
     </row>
     <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="83"/>
-      <c r="H4" s="94"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="97"/>
+      <c r="H4" s="108"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="84"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="86"/>
-      <c r="H5" s="94"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="100"/>
+      <c r="H5" s="108"/>
     </row>
     <row r="6" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="87"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="89"/>
-      <c r="H6" s="95"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="103"/>
+      <c r="H6" s="109"/>
     </row>
     <row r="8" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="117" t="s">
+      <c r="E9" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="118"/>
+      <c r="F9" s="88"/>
       <c r="H9" s="43"/>
     </row>
     <row r="10" spans="3:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="122" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="115" t="s">
+      <c r="E10" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="116"/>
+      <c r="F10" s="126"/>
       <c r="H10" s="44"/>
     </row>
     <row r="11" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="113"/>
+      <c r="C11" s="123"/>
       <c r="D11" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="119" t="s">
+      <c r="E11" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="120"/>
+      <c r="F11" s="90"/>
       <c r="H11" s="44"/>
     </row>
     <row r="12" spans="3:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="114"/>
+      <c r="C12" s="124"/>
       <c r="D12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="125" t="s">
+      <c r="E12" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="126"/>
+      <c r="F12" s="94"/>
       <c r="H12" s="44"/>
     </row>
     <row r="13" spans="3:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8419,10 +8411,10 @@
       <c r="D13" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="110" t="s">
+      <c r="E13" s="120" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="111"/>
+      <c r="F13" s="121"/>
       <c r="H13" s="44"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
@@ -8432,23 +8424,23 @@
       <c r="H15" s="44"/>
     </row>
     <row r="16" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="119" t="s">
         <v>125</v>
       </c>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
       <c r="H16" s="44"/>
     </row>
     <row r="17" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="108" t="s">
+      <c r="D17" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
       <c r="H17" s="44"/>
     </row>
     <row r="18" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8465,10 +8457,10 @@
       <c r="H18" s="44"/>
     </row>
     <row r="19" spans="3:8" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="99" t="s">
+      <c r="C19" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="102" t="s">
+      <c r="D19" s="81" t="s">
         <v>81</v>
       </c>
       <c r="E19" s="33" t="s">
@@ -8477,14 +8469,14 @@
       <c r="F19" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="H19" s="53" t="s">
+      <c r="H19" s="127" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="101"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="52" t="s">
+      <c r="C20" s="80"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="51" t="s">
         <v>86</v>
       </c>
       <c r="F20" s="33" t="s">
@@ -8508,13 +8500,13 @@
       <c r="H21" s="44"/>
     </row>
     <row r="22" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="99" t="s">
+      <c r="C22" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="102" t="s">
+      <c r="D22" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="105" t="s">
+      <c r="E22" s="115" t="s">
         <v>85</v>
       </c>
       <c r="F22" s="33" t="s">
@@ -8523,83 +8515,83 @@
       <c r="H22" s="44"/>
     </row>
     <row r="23" spans="3:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="C23" s="100"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="52" t="s">
+      <c r="C23" s="113"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="51" t="s">
         <v>112</v>
       </c>
       <c r="H23" s="44"/>
     </row>
     <row r="24" spans="3:8" ht="126.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="100"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="106"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="116"/>
       <c r="F24" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="H24" s="46" t="s">
+      <c r="H24" s="128" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C25" s="100"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="106"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="116"/>
       <c r="F25" s="33" t="s">
         <v>95</v>
       </c>
       <c r="H25" s="44"/>
     </row>
     <row r="26" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="100"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="52" t="s">
+      <c r="C26" s="113"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="51" t="s">
         <v>96</v>
       </c>
       <c r="H26" s="44"/>
     </row>
     <row r="27" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C27" s="101"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="52" t="s">
+      <c r="C27" s="80"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="51" t="s">
         <v>97</v>
       </c>
       <c r="H27" s="44"/>
     </row>
     <row r="28" spans="3:8" ht="80.25" x14ac:dyDescent="0.25">
-      <c r="C28" s="99" t="s">
+      <c r="C28" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="102" t="s">
+      <c r="D28" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="52" t="s">
+      <c r="E28" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="96" t="s">
+      <c r="F28" s="110" t="s">
         <v>77</v>
       </c>
       <c r="H28" s="44"/>
     </row>
     <row r="29" spans="3:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="100"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="52" t="s">
+      <c r="C29" s="113"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="F29" s="97"/>
+      <c r="F29" s="111"/>
       <c r="H29" s="44"/>
     </row>
     <row r="30" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="101"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="52" t="s">
+      <c r="C30" s="80"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="97"/>
+      <c r="F30" s="111"/>
       <c r="H30" s="44"/>
     </row>
     <row r="31" spans="3:8" ht="63" x14ac:dyDescent="0.25">
@@ -8609,103 +8601,91 @@
       <c r="D31" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="52" t="s">
+      <c r="E31" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="98"/>
+      <c r="F31" s="112"/>
       <c r="H31" s="44"/>
     </row>
     <row r="32" spans="3:8" ht="95.25" x14ac:dyDescent="0.25">
-      <c r="C32" s="99" t="s">
+      <c r="C32" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="102" t="s">
+      <c r="D32" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="E32" s="52" t="s">
+      <c r="E32" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="127" t="s">
+      <c r="F32" s="83" t="s">
         <v>114</v>
       </c>
       <c r="H32" s="44"/>
     </row>
     <row r="33" spans="3:8" ht="95.25" x14ac:dyDescent="0.25">
-      <c r="C33" s="101"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="52" t="s">
+      <c r="C33" s="80"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="128"/>
+      <c r="F33" s="84"/>
       <c r="H33" s="44"/>
     </row>
     <row r="34" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C34" s="99" t="s">
+      <c r="C34" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="121" t="s">
+      <c r="D34" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="52" t="s">
+      <c r="E34" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="F34" s="127" t="s">
+      <c r="F34" s="83" t="s">
         <v>113</v>
       </c>
       <c r="H34" s="44"/>
     </row>
     <row r="35" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C35" s="101"/>
-      <c r="D35" s="122"/>
-      <c r="E35" s="52" t="s">
+      <c r="C35" s="80"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="128"/>
+      <c r="F35" s="84"/>
       <c r="H35" s="44"/>
     </row>
     <row r="36" spans="3:8" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="C36" s="99" t="s">
+      <c r="C36" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="121" t="s">
+      <c r="D36" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="E36" s="52" t="s">
+      <c r="E36" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="123"/>
+      <c r="F36" s="91"/>
       <c r="H36" s="44"/>
     </row>
     <row r="37" spans="3:8" ht="80.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="101"/>
-      <c r="D37" s="122"/>
-      <c r="E37" s="52" t="s">
+      <c r="C37" s="80"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="124"/>
+      <c r="F37" s="92"/>
       <c r="H37" s="45"/>
     </row>
     <row r="38" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C38" s="47"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="50"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="49"/>
       <c r="H38" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="C4:F6"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="H2:H6"/>
@@ -8722,6 +8702,18 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C34:C35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420D6216-543E-4766-B5E3-1E2DB89F31CA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5755AD7E-E025-443B-91EC-ABC9A940C011}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舊世界末日編年史" sheetId="1" r:id="rId1"/>
     <sheet name="舊世界基底-特拉希爾示意圖" sheetId="2" r:id="rId2"/>
     <sheet name="新世界編年史" sheetId="3" r:id="rId3"/>
+    <sheet name="劇本流程-序章" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="128">
   <si>
     <t xml:space="preserve">原始要素
 </t>
@@ -1186,72 +1187,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>「悲傷的時代已經逝去了，世界不再複雜，你願意為這個單純的世界帶來希望嗎？」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">「哼，無聊透頂…隨妳吧！老朽現在只想睡一覺而已。」
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">「謝謝你……」
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">「可別忘了惡意的存在。」
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>「…………」</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <b/>
         <sz val="12"/>
         <rFont val="微軟正黑體"/>
@@ -1702,12 +1637,83 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>「悲傷的時代已經逝去了，世界不再複雜，你願意為這個單純的世界帶來希望嗎？」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">「哼，無聊透頂…隨妳吧！老朽現在只想睡一覺而已。」
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">「謝謝你……」
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">「別忘了惡意的存在……」
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>「…………」</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角隸屬的騎士團是尋找瘟疫解藥的特務單位，在來到傳聞有解藥的城鎮時不幸中了瘟疫……
+關卡流程：哨口喝藥昏倒&gt;醒來街區&gt;在廣場遇到三女&gt;去教堂幹瓦格&gt;最後到地下聖壇&gt;地下聖壇一出去到墓園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1877,6 +1883,21 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1940,7 +1961,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -2610,11 +2631,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2747,6 +2823,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2968,11 +3050,47 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3019,8 +3137,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10515922" y="6982546"/>
-          <a:ext cx="11506200" cy="15803176"/>
+          <a:off x="11511965" y="7183932"/>
+          <a:ext cx="12602935" cy="15781405"/>
           <a:chOff x="11335072" y="7183932"/>
           <a:chExt cx="12439650" cy="16026333"/>
         </a:xfrm>
@@ -7375,8 +7493,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="313095" y="245075"/>
-          <a:ext cx="8909685" cy="7380194"/>
+          <a:off x="319818" y="242834"/>
+          <a:ext cx="9842015" cy="7904629"/>
           <a:chOff x="474458" y="325757"/>
           <a:chExt cx="8909685" cy="7380194"/>
         </a:xfrm>
@@ -7618,6 +7736,3786 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>478970</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>139782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>478970</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>191738</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F77E6301-AADC-425B-BC08-1DF5B4C96190}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3663041" y="9433461"/>
+          <a:ext cx="3673929" cy="1276598"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>城鎮哨口</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>456457</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>74220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>543048</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>116649</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90EAFE9B-7391-4A37-8F76-CEA28B9F9EEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2415886" y="3857006"/>
+          <a:ext cx="6209805" cy="5349214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>平民區</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>456457</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>4948</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>421821</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>91538</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13795A5D-7E8B-46BD-8871-3CDECAC8532A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6089814" y="3991841"/>
+          <a:ext cx="2414650" cy="1107126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="2400" b="1">
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>教堂</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>300593</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>39584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>508412</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>174419</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="橢圓 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5E84D62-A3D5-4680-BF0F-9DD6DA43FFB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4096986" y="5659334"/>
+          <a:ext cx="2657105" cy="2584121"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="2400" b="1">
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>城鎮廣場</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419348</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>160810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>502475</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>22513</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="圖形 6" descr="女人">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD8A3DC0-483F-4E09-8FA8-ADADD7B8BDF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5440384" y="5984667"/>
+          <a:ext cx="695448" cy="678131"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219273</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>21351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>363682</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>144731</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="圖形 8" descr="男人">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F45B4B0-4135-4077-80E9-73F84786832F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7689594" y="4008244"/>
+          <a:ext cx="756731" cy="735701"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>146215</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>191572</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D772D7C4-1242-44D8-8E9B-D49292D9CEA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8841179" y="3910444"/>
+          <a:ext cx="5556250" cy="3913664"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>地下聖壇</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>470557</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>156358</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>435921</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>35130</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECE6B49B-5400-4113-91F2-18B047704025}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6103914" y="2714501"/>
+          <a:ext cx="2414650" cy="1103415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="95000"/>
+            <a:lumOff val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="2400" b="1">
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>墓園</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>156432</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>108189</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>300842</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>27462</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="圖形 11" descr="男人">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C4EB9DC-257E-47AD-BFE4-1DCD3FA4F13E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6402111" y="9810082"/>
+          <a:ext cx="756731" cy="735701"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>132608</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7669</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>97972</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矩形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92362613-D863-430B-8D59-7AC6D1E5DE83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11889179" y="3994562"/>
+          <a:ext cx="2414650" cy="1434688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="2400" b="1">
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>酒吧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>298614</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矩形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4831581C-3721-4032-9066-1C367BFC440E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13279828" y="6436179"/>
+          <a:ext cx="1021279" cy="1319893"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="1">
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>三女房間</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>328551</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>2721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>125187</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="矩形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF254AF-3BA8-4DB5-9DD5-A996B5863306}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12085122" y="6438900"/>
+          <a:ext cx="1021279" cy="1319893"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="2400" b="1">
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>市長房間</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>434686</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>23997</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>179614</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="矩形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BAFD3FA-57BB-464C-AF6F-17EC655ED05A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9129650" y="5031426"/>
+          <a:ext cx="2414650" cy="2196688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="2400" b="1">
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>廣場</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>13605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>231323</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>81641</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="箭號: 向右 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F05557EC-0EA6-4324-8C64-F6AB681E51CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8273144" y="4000498"/>
+          <a:ext cx="653143" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>176892</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>326570</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="矩形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E46F7B3-286D-4C2E-BE8A-356BF74F8423}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6422571" y="9470572"/>
+          <a:ext cx="761999" cy="258536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="95000"/>
+            <a:lumOff val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>鷹隼騎士</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>138793</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>166007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="矩形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B74C0168-9F3B-4D4C-A1D3-B07FFF567BE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5159829" y="6398078"/>
+          <a:ext cx="487136" cy="269421"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="95000"/>
+            <a:lumOff val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>三女</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>345622</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>220436</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>70756</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="矩形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36692D2A-5A37-4B97-BC24-7A8B11594307}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7815943" y="4808764"/>
+          <a:ext cx="487136" cy="269421"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="95000"/>
+            <a:lumOff val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>瓦格</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>312964</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2721</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>125186</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="圖形 21" descr="闊葉樹">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC514796-2338-4B82-A74F-0A342682DFEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5946321" y="2381251"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>81644</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>108855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>163283</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="語音泡泡: 矩形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51EF30B9-942C-49D8-9860-51D1E761171A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3265715" y="1646462"/>
+          <a:ext cx="2639785" cy="1279071"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 57853"/>
+            <a:gd name="adj2" fmla="val 28987"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>生命樹</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>在平民間傳聞是女神詩寇蒂從世界數那火得種子所種下的希望之樹。</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>上面會有許多平民掛上去的願望牌。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>402772</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>157842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="矩形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DEE8A17-6BF9-495A-8646-28253A890B51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6036129" y="2103663"/>
+          <a:ext cx="685800" cy="263979"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="95000"/>
+            <a:lumOff val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>生命樹</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>217715</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>519793</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>29936</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="圖形 25" descr="男人">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CA21329-75D2-4B8B-B07A-07EFB7DF4786}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5851072" y="12491358"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>16329</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>138793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>318408</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="圖形 26" descr="男人">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F6519C2-8424-4382-AA10-CE0DB8B7D526}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6262008" y="12494079"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>356506</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>84364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>506184</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>138792</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="矩形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{731E6C42-4C8C-4F99-9A49-FEDF62CA7259}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6602185" y="13460185"/>
+          <a:ext cx="761999" cy="258536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="95000"/>
+            <a:lumOff val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>克弗思</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>168728</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="矩形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE9F44C1-19E9-4E56-97A9-0AC32529669A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5652408" y="13462907"/>
+          <a:ext cx="761999" cy="258536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="95000"/>
+            <a:lumOff val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>小夥伴</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>340176</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>359228</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>87088</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="圖形 29" descr="闊葉樹">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1086ACAC-8C16-4AC9-9CD2-5601C79E572F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3524247" y="11606893"/>
+          <a:ext cx="1243695" cy="1243695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>465366</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>163284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>579668</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>73478</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="圖形 32" descr="男人">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF63B674-4C4B-4E75-9D88-7A38A59E8BA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4261759" y="12314463"/>
+          <a:ext cx="726623" cy="726623"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>416380</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>117021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="矩形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D2EA56-2005-4D75-AE87-8EBB369C2D28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4212773" y="12880521"/>
+          <a:ext cx="889906" cy="236765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="95000"/>
+            <a:lumOff val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>小夥伴</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>死</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>258536</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="語音泡泡: 圓角矩形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F1E02BA-ED54-4EFA-9A2D-B445F56D16A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7728857" y="10246178"/>
+          <a:ext cx="2217965" cy="2544536"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -85864"/>
+            <a:gd name="adj2" fmla="val 46808"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>中瘟疫的主角與他的夥伴，互相攙扶著來到了傳聞有解藥的城鎮哨口前方，但是小夥伴已經無法行動最後死亡，主角就把小夥伴埋在旁邊的大樹之下，喝下夥伴身上剩下的抑制劑繼續往前。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200030</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>200022</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>63959</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>36737</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="箭號: 向右 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89E83223-8A09-42DD-A2F1-5EB12423A723}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="6357262" y="11419112"/>
+          <a:ext cx="653143" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>560614</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>329294</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>138792</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="語音泡泡: 圓角矩形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB7A556B-8E76-46FA-8E30-E8B382B6ED6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="8724899"/>
+          <a:ext cx="2217965" cy="2544536"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 68123"/>
+            <a:gd name="adj2" fmla="val -5598"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>來到了城鎮哨口只見一名鷹隼騎士在這，鷹隼騎士見主角瘟疫發作便給了一瓶酒紅色液體</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>龍血</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>，便說這是瘟疫的解藥，主角想說反正也只生下死路一條，便喝下了，接著便昏倒</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>……</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>而鷹隼騎士也離去此處。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>604157</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>293915</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>117021</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="圖形 37" descr="男人">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58B1D446-978D-4B4A-AE46-541BA5D74D5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6849836" y="7883979"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>46264</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>100692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>195941</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>155121</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="矩形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CAE5B03-0507-4FD2-BBDF-A3385B4D6DEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7516585" y="8577942"/>
+          <a:ext cx="761999" cy="258536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="95000"/>
+            <a:lumOff val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>克弗思</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352430</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>121101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>216359</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>161923</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="箭號: 向右 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA9BBDC5-7EA5-4E6C-9F46-79B66E5C633C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="6509662" y="8686798"/>
+          <a:ext cx="653143" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>389165</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>141513</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>24492</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="圖形 40" descr="男人">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C197511-4EC5-4587-953E-CBC307B5A4C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6022522" y="9843406"/>
+          <a:ext cx="699407" cy="699407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>253093</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>402770</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>185056</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="矩形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0405A995-E105-4BE6-AEB8-67EACD88D8F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5886450" y="10648949"/>
+          <a:ext cx="761999" cy="258536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="95000"/>
+            <a:lumOff val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>克弗思</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>291194</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>59873</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="語音泡泡: 圓角矩形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8144F08-1192-47C6-A490-6167E9567D5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10210801" y="7987393"/>
+          <a:ext cx="2217965" cy="2748643"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -169913"/>
+            <a:gd name="adj2" fmla="val -37900"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>主角醒來便在平民區街道，發現了自身感官都提升了，更加確信這個城鎮有解藥的存在，但城鎮卻有股詭異的氣氛，突然有人（聖女獵人）從背後襲來，主角將他撂倒後，便在城鎮調查，直到發現了一條若隱若現的線</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>……</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>272390</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>163531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>355516</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25234</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="圖形 43" descr="女人">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DD34B53-646C-46CF-970E-91BF1D30A23F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13253604" y="7007924"/>
+          <a:ext cx="695448" cy="678131"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>84364</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="矩形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ABF6962-64F6-49B6-8EA2-A8385D2F0862}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13803085" y="7489371"/>
+          <a:ext cx="487136" cy="269421"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="95000"/>
+            <a:lumOff val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>三女</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>606879</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>117022</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>296636</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="圖形 45" descr="男人">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CDF5BB8-2CDF-40F0-A27D-5FE1CF785CDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5015593" y="7165522"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>606877</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>144233</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="矩形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5126B973-3F15-488E-B86C-2124426E7D3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4403270" y="7383235"/>
+          <a:ext cx="761999" cy="258536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="95000"/>
+            <a:lumOff val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>克弗思</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>484415</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>29937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>253095</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="語音泡泡: 圓角矩形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B734460A-5109-435F-9CEF-D11C660A493C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219201" y="5445580"/>
+          <a:ext cx="2217965" cy="1330778"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 95117"/>
+            <a:gd name="adj2" fmla="val 84771"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>4.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>主角來到了城鎮中心看見了一位空靈的女孩，女孩指著一個方向說回家的路被堵住了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>……</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541565</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>146956</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="圖形 48" descr="男人">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9F308BC-00F3-4264-AC66-72C3B6DB69E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6174922" y="4133849"/>
+          <a:ext cx="710293" cy="710293"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>500742</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>51706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38098</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106134</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="矩形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21DA9644-0BB6-4C27-9E13-42AF698A08DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6134099" y="4855027"/>
+          <a:ext cx="761999" cy="258536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="95000"/>
+            <a:lumOff val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>克弗思</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>287117</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>151045</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>69393</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="箭號: 向右 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC22C71-2A03-42CB-8BB7-558437A73063}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="17778376">
+          <a:off x="5832027" y="5328554"/>
+          <a:ext cx="653143" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>487136</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>32660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>255815</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>138795</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="語音泡泡: 圓角矩形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCE7BFA9-FBF0-476A-B341-1330C553929A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3671207" y="3407231"/>
+          <a:ext cx="2217965" cy="1330778"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 66283"/>
+            <a:gd name="adj2" fmla="val 25466"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>5.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>來到了教堂，看見一位重裝騎士，大吼大叫地說這裡我來守護砍向主角！</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>boss</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>戰瓦格）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>503465</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>157844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>272144</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="語音泡泡: 圓角矩形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{749D3C2B-A00A-4033-834E-5A72FD4223B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14709322" y="2715987"/>
+          <a:ext cx="2217965" cy="1896834"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -72367"/>
+            <a:gd name="adj2" fmla="val 48811"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>6.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>進入了地下聖壇，四處收集關於城鎮的資訊與解藥的情報，從酒吧走出來後看見有個小房間的門開啟，傳來了剛剛在廣場的女孩聲音說：進來吧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>主角便走了進去。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>531866</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>27166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>409066</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>122467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="圖形 53" descr="男人">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D4CAE3-A1F3-4E5A-98E6-118FB479507E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7995190" y="3204627"/>
+          <a:ext cx="503515" cy="489522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>307521</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>198665</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>435428</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="矩形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D251DC0C-B56F-4008-897A-1A90B7879BEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7777842" y="3573236"/>
+          <a:ext cx="740229" cy="236765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="95000"/>
+            <a:lumOff val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>瓦格</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>死</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>404083</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>192105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152648</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="圖形 55" descr="男人">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7A8B13A-724D-4AC7-9AA4-8C27DC078F95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7874404" y="2750248"/>
+          <a:ext cx="589239" cy="572864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>302078</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>43544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>451755</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>97973</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="矩形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92B9E5F0-C69C-420B-96F6-E8EFC2D52E2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7772399" y="2397580"/>
+          <a:ext cx="761999" cy="258536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="95000"/>
+            <a:lumOff val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>鷹隼騎士</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>138795</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>258536</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>136073</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="語音泡泡: 矩形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{612A2523-3E21-483A-9F3C-7391DB4B9EC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8833759" y="1894113"/>
+          <a:ext cx="1344384" cy="1004210"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -84415"/>
+            <a:gd name="adj2" fmla="val 39625"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>到了墓園看到鷹隼騎士站在瓦格的墓前。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>84365</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>92531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>465366</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="語音泡泡: 圓角矩形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E0CC90B-4F81-48D6-80B1-36C4C2AF773B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14902544" y="6324602"/>
+          <a:ext cx="2217965" cy="1349827"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -82797"/>
+            <a:gd name="adj2" fmla="val 17266"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>7.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>女孩說了城鎮的狀況，還有自己的身分，和魔素的祕密，解藥瘟疫及惡意的關係，說了好長一段故事</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>…</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7909,29 +11807,29 @@
     <row r="1" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="64"/>
+      <c r="D3" s="66"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="66"/>
+      <c r="D4" s="68"/>
       <c r="F4" s="10"/>
       <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="67"/>
-      <c r="D5" s="68"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="2:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="69"/>
-      <c r="D6" s="70"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="72"/>
       <c r="F6" s="12"/>
       <c r="G6" s="1" t="s">
         <v>1</v>
@@ -7949,15 +11847,15 @@
       <c r="I8" s="30"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="G9" s="52" t="s">
+      <c r="D9" s="77"/>
+      <c r="G9" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="56"/>
     </row>
     <row r="10" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C10" s="15" t="s">
@@ -8011,7 +11909,7 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="73" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="22" t="s">
@@ -8028,7 +11926,7 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="72"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
@@ -8043,79 +11941,79 @@
       </c>
     </row>
     <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="72"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="77" t="s">
+      <c r="G15" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="78" t="s">
+      <c r="H15" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="76" t="s">
+      <c r="I15" s="78" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="72"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="77"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="76"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="78"/>
     </row>
     <row r="17" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="72"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="77"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="76"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="78"/>
     </row>
     <row r="18" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="72"/>
+      <c r="C18" s="74"/>
       <c r="D18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="77" t="s">
+      <c r="G18" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="78" t="s">
+      <c r="H18" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="76" t="s">
+      <c r="I18" s="78" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="72"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="77"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="76"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="78"/>
     </row>
     <row r="20" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C20" s="72"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="77"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="76"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="78"/>
     </row>
     <row r="21" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C21" s="73"/>
+      <c r="C21" s="75"/>
       <c r="D21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="77"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="76"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="78"/>
     </row>
     <row r="22" spans="3:9" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="6" t="s">
@@ -8131,7 +12029,7 @@
         <v>59</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -8153,10 +12051,10 @@
     <row r="25" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="56"/>
+      <c r="D27" s="58"/>
     </row>
     <row r="28" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C28" s="17" t="s">
@@ -8167,7 +12065,7 @@
       </c>
     </row>
     <row r="29" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="59" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="21" t="s">
@@ -8175,25 +12073,25 @@
       </c>
     </row>
     <row r="30" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C30" s="58"/>
+      <c r="C30" s="60"/>
       <c r="D30" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="31" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C31" s="58"/>
+      <c r="C31" s="60"/>
       <c r="D31" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C32" s="58"/>
+      <c r="C32" s="60"/>
       <c r="D32" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="3:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C33" s="59"/>
+      <c r="C33" s="61"/>
       <c r="D33" s="18" t="s">
         <v>36</v>
       </c>
@@ -8223,7 +12121,7 @@
       </c>
     </row>
     <row r="37" spans="3:4" ht="131.25" x14ac:dyDescent="0.25">
-      <c r="C37" s="60" t="s">
+      <c r="C37" s="62" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="19" t="s">
@@ -8231,19 +12129,19 @@
       </c>
     </row>
     <row r="38" spans="3:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="C38" s="61"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="3:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="C39" s="61"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="19" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="40" spans="3:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="62"/>
+      <c r="C40" s="64"/>
       <c r="D40" s="20" t="s">
         <v>40</v>
       </c>
@@ -8298,9 +12196,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922C88DA-6A99-41E4-9AB6-0246F073DD34}">
   <dimension ref="C1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8322,86 +12220,86 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-      <c r="H2" s="107" t="s">
+      <c r="H2" s="109" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="106"/>
-      <c r="H3" s="108"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="108"/>
+      <c r="H3" s="110"/>
     </row>
     <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="97"/>
-      <c r="H4" s="108"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="99"/>
+      <c r="H4" s="110"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="98"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="100"/>
-      <c r="H5" s="108"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="102"/>
+      <c r="H5" s="110"/>
     </row>
     <row r="6" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="103"/>
-      <c r="H6" s="109"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="105"/>
+      <c r="H6" s="111"/>
     </row>
     <row r="8" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="87" t="s">
+      <c r="E9" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="88"/>
+      <c r="F9" s="90"/>
       <c r="H9" s="43"/>
     </row>
     <row r="10" spans="3:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="122" t="s">
+      <c r="C10" s="124" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="125" t="s">
+      <c r="E10" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="126"/>
+      <c r="F10" s="128"/>
       <c r="H10" s="44"/>
     </row>
     <row r="11" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="123"/>
+      <c r="C11" s="125"/>
       <c r="D11" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="90"/>
+      <c r="F11" s="92"/>
       <c r="H11" s="44"/>
     </row>
     <row r="12" spans="3:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="124"/>
+      <c r="C12" s="126"/>
       <c r="D12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="93" t="s">
+      <c r="E12" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="94"/>
+      <c r="F12" s="96"/>
       <c r="H12" s="44"/>
     </row>
     <row r="13" spans="3:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8411,10 +12309,10 @@
       <c r="D13" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="120" t="s">
+      <c r="E13" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="121"/>
+      <c r="F13" s="123"/>
       <c r="H13" s="44"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
@@ -8424,23 +12322,23 @@
       <c r="H15" s="44"/>
     </row>
     <row r="16" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="119" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
+      <c r="C16" s="121" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
       <c r="H16" s="44"/>
     </row>
     <row r="17" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C17" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="118" t="s">
+      <c r="D17" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="118"/>
-      <c r="F17" s="118"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
       <c r="H17" s="44"/>
     </row>
     <row r="18" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8452,35 +12350,35 @@
         <v>44</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H18" s="44"/>
     </row>
     <row r="19" spans="3:8" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="81" t="s">
+      <c r="D19" s="83" t="s">
         <v>81</v>
       </c>
       <c r="E19" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="F19" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="H19" s="127" t="s">
-        <v>122</v>
+      <c r="H19" s="52" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="80"/>
-      <c r="D20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="84"/>
       <c r="E20" s="51" t="s">
         <v>86</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H20" s="44"/>
     </row>
@@ -8500,13 +12398,13 @@
       <c r="H21" s="44"/>
     </row>
     <row r="22" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="81" t="s">
+      <c r="D22" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="115" t="s">
+      <c r="E22" s="117" t="s">
         <v>85</v>
       </c>
       <c r="F22" s="33" t="s">
@@ -8515,83 +12413,83 @@
       <c r="H22" s="44"/>
     </row>
     <row r="23" spans="3:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="C23" s="113"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="116"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="118"/>
       <c r="F23" s="51" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="H23" s="44"/>
     </row>
     <row r="24" spans="3:8" ht="126.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="113"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="116"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="H24" s="128" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" s="53" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C25" s="113"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="116"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="118"/>
       <c r="F25" s="33" t="s">
         <v>95</v>
       </c>
       <c r="H25" s="44"/>
     </row>
     <row r="26" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="113"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="116"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="118"/>
       <c r="F26" s="51" t="s">
         <v>96</v>
       </c>
       <c r="H26" s="44"/>
     </row>
     <row r="27" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C27" s="80"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="117"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="119"/>
       <c r="F27" s="51" t="s">
         <v>97</v>
       </c>
       <c r="H27" s="44"/>
     </row>
     <row r="28" spans="3:8" ht="80.25" x14ac:dyDescent="0.25">
-      <c r="C28" s="79" t="s">
+      <c r="C28" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="81" t="s">
+      <c r="D28" s="83" t="s">
         <v>100</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="F28" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="112" t="s">
         <v>77</v>
       </c>
       <c r="H28" s="44"/>
     </row>
     <row r="29" spans="3:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="113"/>
-      <c r="D29" s="114"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="116"/>
       <c r="E29" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="F29" s="111"/>
+        <v>125</v>
+      </c>
+      <c r="F29" s="113"/>
       <c r="H29" s="44"/>
     </row>
     <row r="30" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="80"/>
-      <c r="D30" s="82"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="84"/>
       <c r="E30" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="111"/>
+      <c r="F30" s="113"/>
       <c r="H30" s="44"/>
     </row>
     <row r="31" spans="3:8" ht="63" x14ac:dyDescent="0.25">
@@ -8604,77 +12502,77 @@
       <c r="E31" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="112"/>
+      <c r="F31" s="114"/>
       <c r="H31" s="44"/>
     </row>
     <row r="32" spans="3:8" ht="95.25" x14ac:dyDescent="0.25">
-      <c r="C32" s="79" t="s">
+      <c r="C32" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="81" t="s">
+      <c r="D32" s="83" t="s">
         <v>105</v>
       </c>
       <c r="E32" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="83" t="s">
-        <v>114</v>
+      <c r="F32" s="85" t="s">
+        <v>113</v>
       </c>
       <c r="H32" s="44"/>
     </row>
     <row r="33" spans="3:8" ht="95.25" x14ac:dyDescent="0.25">
-      <c r="C33" s="80"/>
-      <c r="D33" s="82"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="84"/>
       <c r="E33" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="84"/>
+      <c r="F33" s="86"/>
       <c r="H33" s="44"/>
     </row>
     <row r="34" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C34" s="79" t="s">
+      <c r="C34" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="85" t="s">
+      <c r="D34" s="87" t="s">
         <v>106</v>
       </c>
       <c r="E34" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="F34" s="83" t="s">
-        <v>113</v>
+      <c r="F34" s="85" t="s">
+        <v>112</v>
       </c>
       <c r="H34" s="44"/>
     </row>
     <row r="35" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C35" s="80"/>
-      <c r="D35" s="86"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="88"/>
       <c r="E35" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="84"/>
+      <c r="F35" s="86"/>
       <c r="H35" s="44"/>
     </row>
     <row r="36" spans="3:8" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="C36" s="79" t="s">
+      <c r="C36" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="85" t="s">
+      <c r="D36" s="87" t="s">
         <v>107</v>
       </c>
       <c r="E36" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="F36" s="91"/>
+        <v>120</v>
+      </c>
+      <c r="F36" s="93"/>
       <c r="H36" s="44"/>
     </row>
     <row r="37" spans="3:8" ht="80.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="80"/>
-      <c r="D37" s="86"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="88"/>
       <c r="E37" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="92"/>
+      <c r="F37" s="94"/>
       <c r="H37" s="45"/>
     </row>
     <row r="38" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
@@ -8720,4 +12618,125 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F49F43-5FC4-4907-BD88-955C516A5EA0}">
+  <dimension ref="A1:V30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W14" sqref="W14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="131" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="133"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B3" s="134" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="135"/>
+      <c r="O3" s="135"/>
+      <c r="P3" s="136"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B4" s="137"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="138"/>
+      <c r="M4" s="138"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="138"/>
+      <c r="P4" s="139"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B5" s="137"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="138"/>
+      <c r="M5" s="138"/>
+      <c r="N5" s="138"/>
+      <c r="O5" s="138"/>
+      <c r="P5" s="139"/>
+    </row>
+    <row r="6" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="140"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="141"/>
+      <c r="P6" s="142"/>
+      <c r="V6" s="130"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="129"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5755AD7E-E025-443B-91EC-ABC9A940C011}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC860EB-C1CE-4790-8231-CD4EFD830A4E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2829,6 +2829,12 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2906,54 +2912,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3008,10 +2966,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3050,11 +3020,41 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8600,15 +8600,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>13605</xdr:rowOff>
+      <xdr:colOff>353787</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>176891</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>231323</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>81641</xdr:rowOff>
+      <xdr:colOff>394609</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>40820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8623,7 +8623,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8273144" y="4000498"/>
+          <a:off x="8436430" y="4435927"/>
           <a:ext cx="653143" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -10269,15 +10269,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>272390</xdr:colOff>
+      <xdr:colOff>313211</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>163531</xdr:rowOff>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>355516</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>25234</xdr:rowOff>
+      <xdr:colOff>284952</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>188520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10309,8 +10309,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13253604" y="7007924"/>
-          <a:ext cx="695448" cy="678131"/>
+          <a:off x="13294425" y="6939643"/>
+          <a:ext cx="584063" cy="569520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10321,16 +10321,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>359229</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
+      <xdr:rowOff>5443</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>84364</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>234043</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>97971</xdr:rowOff>
+      <xdr:rowOff>70757</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10345,7 +10345,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13803085" y="7489371"/>
+          <a:off x="13340443" y="7530193"/>
           <a:ext cx="487136" cy="269421"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11518,6 +11518,191 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>102056</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>6805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>578306</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47627</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="箭號: 向右 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D570D12-468A-4AFF-B597-BF55BD8A2EA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="12994823" y="5783038"/>
+          <a:ext cx="653143" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>146955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="圖形 60" descr="男人">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF116CE5-F290-49F8-8586-2FE0DDC38628}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13590814" y="5630634"/>
+          <a:ext cx="492579" cy="492579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>106134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>146955</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>160562</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="矩形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B31A1DD-1DD9-4C2D-83DE-59C35B2E67BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13590813" y="6202134"/>
+          <a:ext cx="761999" cy="258535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="95000"/>
+            <a:lumOff val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>克弗思</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11807,29 +11992,29 @@
     <row r="1" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="68"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="68"/>
+      <c r="D4" s="70"/>
       <c r="F4" s="10"/>
       <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="69"/>
-      <c r="D5" s="70"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="72"/>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="2:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="71"/>
-      <c r="D6" s="72"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
       <c r="F6" s="12"/>
       <c r="G6" s="1" t="s">
         <v>1</v>
@@ -11847,15 +12032,15 @@
       <c r="I8" s="30"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="G9" s="54" t="s">
+      <c r="D9" s="79"/>
+      <c r="G9" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="58"/>
     </row>
     <row r="10" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C10" s="15" t="s">
@@ -11909,7 +12094,7 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="75" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="22" t="s">
@@ -11926,7 +12111,7 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="74"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
@@ -11941,79 +12126,79 @@
       </c>
     </row>
     <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="74"/>
+      <c r="C15" s="76"/>
       <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="79" t="s">
+      <c r="G15" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="80" t="s">
+      <c r="H15" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="78" t="s">
+      <c r="I15" s="80" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="74"/>
+      <c r="C16" s="76"/>
       <c r="D16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="79"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="78"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="80"/>
     </row>
     <row r="17" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="74"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="79"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="78"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="80"/>
     </row>
     <row r="18" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="74"/>
+      <c r="C18" s="76"/>
       <c r="D18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="79" t="s">
+      <c r="G18" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="80" t="s">
+      <c r="H18" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="78" t="s">
+      <c r="I18" s="80" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="74"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="79"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="78"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="80"/>
     </row>
     <row r="20" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C20" s="74"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="79"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="78"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="80"/>
     </row>
     <row r="21" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C21" s="75"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="79"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="78"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="80"/>
     </row>
     <row r="22" spans="3:9" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="6" t="s">
@@ -12051,10 +12236,10 @@
     <row r="25" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="58"/>
+      <c r="D27" s="60"/>
     </row>
     <row r="28" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C28" s="17" t="s">
@@ -12065,7 +12250,7 @@
       </c>
     </row>
     <row r="29" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="61" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="21" t="s">
@@ -12073,25 +12258,25 @@
       </c>
     </row>
     <row r="30" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C30" s="60"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="31" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C31" s="60"/>
+      <c r="C31" s="62"/>
       <c r="D31" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C32" s="60"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="3:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C33" s="61"/>
+      <c r="C33" s="63"/>
       <c r="D33" s="18" t="s">
         <v>36</v>
       </c>
@@ -12121,7 +12306,7 @@
       </c>
     </row>
     <row r="37" spans="3:4" ht="131.25" x14ac:dyDescent="0.25">
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="64" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="19" t="s">
@@ -12129,19 +12314,19 @@
       </c>
     </row>
     <row r="38" spans="3:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="C38" s="63"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="3:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="C39" s="63"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="19" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="40" spans="3:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="64"/>
+      <c r="C40" s="66"/>
       <c r="D40" s="20" t="s">
         <v>40</v>
       </c>
@@ -12220,86 +12405,86 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-      <c r="H2" s="109" t="s">
+      <c r="H2" s="95" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="108"/>
-      <c r="H3" s="110"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
+      <c r="H3" s="96"/>
     </row>
     <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="99"/>
-      <c r="H4" s="110"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="85"/>
+      <c r="H4" s="96"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="100"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="102"/>
-      <c r="H5" s="110"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="88"/>
+      <c r="H5" s="96"/>
     </row>
     <row r="6" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="103"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="105"/>
-      <c r="H6" s="111"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="91"/>
+      <c r="H6" s="97"/>
     </row>
     <row r="8" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="89" t="s">
+      <c r="E9" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="90"/>
+      <c r="F9" s="120"/>
       <c r="H9" s="43"/>
     </row>
     <row r="10" spans="3:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="114" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="127" t="s">
+      <c r="E10" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="128"/>
+      <c r="F10" s="118"/>
       <c r="H10" s="44"/>
     </row>
     <row r="11" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="125"/>
+      <c r="C11" s="115"/>
       <c r="D11" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="91" t="s">
+      <c r="E11" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="92"/>
+      <c r="F11" s="122"/>
       <c r="H11" s="44"/>
     </row>
     <row r="12" spans="3:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="126"/>
+      <c r="C12" s="116"/>
       <c r="D12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="95" t="s">
+      <c r="E12" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="96"/>
+      <c r="F12" s="128"/>
       <c r="H12" s="44"/>
     </row>
     <row r="13" spans="3:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12309,10 +12494,10 @@
       <c r="D13" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="122" t="s">
+      <c r="E13" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="123"/>
+      <c r="F13" s="113"/>
       <c r="H13" s="44"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
@@ -12322,23 +12507,23 @@
       <c r="H15" s="44"/>
     </row>
     <row r="16" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="121" t="s">
+      <c r="C16" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
       <c r="H16" s="44"/>
     </row>
     <row r="17" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C17" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="120" t="s">
+      <c r="D17" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
       <c r="H17" s="44"/>
     </row>
     <row r="18" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12355,10 +12540,10 @@
       <c r="H18" s="44"/>
     </row>
     <row r="19" spans="3:8" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="83" t="s">
+      <c r="D19" s="104" t="s">
         <v>81</v>
       </c>
       <c r="E19" s="33" t="s">
@@ -12372,8 +12557,8 @@
       </c>
     </row>
     <row r="20" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="82"/>
-      <c r="D20" s="84"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="106"/>
       <c r="E20" s="51" t="s">
         <v>86</v>
       </c>
@@ -12398,13 +12583,13 @@
       <c r="H21" s="44"/>
     </row>
     <row r="22" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="83" t="s">
+      <c r="D22" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="117" t="s">
+      <c r="E22" s="107" t="s">
         <v>85</v>
       </c>
       <c r="F22" s="33" t="s">
@@ -12413,18 +12598,18 @@
       <c r="H22" s="44"/>
     </row>
     <row r="23" spans="3:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="C23" s="115"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="118"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="51" t="s">
         <v>126</v>
       </c>
       <c r="H23" s="44"/>
     </row>
     <row r="24" spans="3:8" ht="126.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="115"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="118"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="33" t="s">
         <v>115</v>
       </c>
@@ -12433,63 +12618,63 @@
       </c>
     </row>
     <row r="25" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C25" s="115"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="118"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="108"/>
       <c r="F25" s="33" t="s">
         <v>95</v>
       </c>
       <c r="H25" s="44"/>
     </row>
     <row r="26" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="115"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="118"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="108"/>
       <c r="F26" s="51" t="s">
         <v>96</v>
       </c>
       <c r="H26" s="44"/>
     </row>
     <row r="27" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C27" s="82"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="119"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="109"/>
       <c r="F27" s="51" t="s">
         <v>97</v>
       </c>
       <c r="H27" s="44"/>
     </row>
     <row r="28" spans="3:8" ht="80.25" x14ac:dyDescent="0.25">
-      <c r="C28" s="81" t="s">
+      <c r="C28" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="83" t="s">
+      <c r="D28" s="104" t="s">
         <v>100</v>
       </c>
       <c r="E28" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="112" t="s">
+      <c r="F28" s="98" t="s">
         <v>77</v>
       </c>
       <c r="H28" s="44"/>
     </row>
     <row r="29" spans="3:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="115"/>
-      <c r="D29" s="116"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="105"/>
       <c r="E29" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="F29" s="113"/>
+      <c r="F29" s="99"/>
       <c r="H29" s="44"/>
     </row>
     <row r="30" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="82"/>
-      <c r="D30" s="84"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="106"/>
       <c r="E30" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="113"/>
+      <c r="F30" s="99"/>
       <c r="H30" s="44"/>
     </row>
     <row r="31" spans="3:8" ht="63" x14ac:dyDescent="0.25">
@@ -12502,77 +12687,77 @@
       <c r="E31" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="114"/>
+      <c r="F31" s="100"/>
       <c r="H31" s="44"/>
     </row>
     <row r="32" spans="3:8" ht="95.25" x14ac:dyDescent="0.25">
-      <c r="C32" s="81" t="s">
+      <c r="C32" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="83" t="s">
+      <c r="D32" s="104" t="s">
         <v>105</v>
       </c>
       <c r="E32" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="85" t="s">
+      <c r="F32" s="129" t="s">
         <v>113</v>
       </c>
       <c r="H32" s="44"/>
     </row>
     <row r="33" spans="3:8" ht="95.25" x14ac:dyDescent="0.25">
-      <c r="C33" s="82"/>
-      <c r="D33" s="84"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="106"/>
       <c r="E33" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="86"/>
+      <c r="F33" s="130"/>
       <c r="H33" s="44"/>
     </row>
     <row r="34" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C34" s="81" t="s">
+      <c r="C34" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="87" t="s">
+      <c r="D34" s="123" t="s">
         <v>106</v>
       </c>
       <c r="E34" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="F34" s="85" t="s">
+      <c r="F34" s="129" t="s">
         <v>112</v>
       </c>
       <c r="H34" s="44"/>
     </row>
     <row r="35" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C35" s="82"/>
-      <c r="D35" s="88"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="124"/>
       <c r="E35" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="86"/>
+      <c r="F35" s="130"/>
       <c r="H35" s="44"/>
     </row>
     <row r="36" spans="3:8" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="C36" s="81" t="s">
+      <c r="C36" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="87" t="s">
+      <c r="D36" s="123" t="s">
         <v>107</v>
       </c>
       <c r="E36" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="93"/>
+      <c r="F36" s="125"/>
       <c r="H36" s="44"/>
     </row>
     <row r="37" spans="3:8" ht="80.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="82"/>
-      <c r="D37" s="88"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="124"/>
       <c r="E37" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="94"/>
+      <c r="F37" s="126"/>
       <c r="H37" s="45"/>
     </row>
     <row r="38" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
@@ -12584,6 +12769,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="C4:F6"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="H2:H6"/>
@@ -12600,18 +12797,6 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C34:C35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12626,7 +12811,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W14" sqref="W14"/>
+      <selection pane="bottomLeft" activeCell="AB29" sqref="AB29:AB30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12723,10 +12908,10 @@
       <c r="N6" s="141"/>
       <c r="O6" s="141"/>
       <c r="P6" s="142"/>
-      <c r="V6" s="130"/>
+      <c r="V6" s="55"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="129"/>
+      <c r="A8" s="54"/>
     </row>
     <row r="30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC860EB-C1CE-4790-8231-CD4EFD830A4E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBCB6F5-E242-4F44-A5B7-33F574EBF8DF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2912,6 +2912,54 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2966,22 +3014,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3019,42 +3055,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11703,6 +11703,69 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>604500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>158250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>222997</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22179</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="箭號: 向右 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC438F7-BD31-4413-8E2B-F662B329A4BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="12643022">
+          <a:off x="8687143" y="3396750"/>
+          <a:ext cx="1455461" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12405,86 +12468,86 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-      <c r="H2" s="95" t="s">
+      <c r="H2" s="111" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="94"/>
-      <c r="H3" s="96"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="110"/>
+      <c r="H3" s="112"/>
     </row>
     <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="85"/>
-      <c r="H4" s="96"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="101"/>
+      <c r="H4" s="112"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="86"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="88"/>
-      <c r="H5" s="96"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="104"/>
+      <c r="H5" s="112"/>
     </row>
     <row r="6" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="89"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="91"/>
-      <c r="H6" s="97"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="107"/>
+      <c r="H6" s="113"/>
     </row>
     <row r="8" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="119" t="s">
+      <c r="E9" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="120"/>
+      <c r="F9" s="92"/>
       <c r="H9" s="43"/>
     </row>
     <row r="10" spans="3:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="114" t="s">
+      <c r="C10" s="126" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="117" t="s">
+      <c r="E10" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="118"/>
+      <c r="F10" s="130"/>
       <c r="H10" s="44"/>
     </row>
     <row r="11" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="115"/>
+      <c r="C11" s="127"/>
       <c r="D11" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="121" t="s">
+      <c r="E11" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="122"/>
+      <c r="F11" s="94"/>
       <c r="H11" s="44"/>
     </row>
     <row r="12" spans="3:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="116"/>
+      <c r="C12" s="128"/>
       <c r="D12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="127" t="s">
+      <c r="E12" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="128"/>
+      <c r="F12" s="98"/>
       <c r="H12" s="44"/>
     </row>
     <row r="13" spans="3:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12494,10 +12557,10 @@
       <c r="D13" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="112" t="s">
+      <c r="E13" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="113"/>
+      <c r="F13" s="125"/>
       <c r="H13" s="44"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
@@ -12507,23 +12570,23 @@
       <c r="H15" s="44"/>
     </row>
     <row r="16" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="111" t="s">
+      <c r="C16" s="123" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
       <c r="H16" s="44"/>
     </row>
     <row r="17" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C17" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="110" t="s">
+      <c r="D17" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
       <c r="H17" s="44"/>
     </row>
     <row r="18" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12540,10 +12603,10 @@
       <c r="H18" s="44"/>
     </row>
     <row r="19" spans="3:8" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="101" t="s">
+      <c r="C19" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="104" t="s">
+      <c r="D19" s="85" t="s">
         <v>81</v>
       </c>
       <c r="E19" s="33" t="s">
@@ -12557,8 +12620,8 @@
       </c>
     </row>
     <row r="20" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="103"/>
-      <c r="D20" s="106"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="86"/>
       <c r="E20" s="51" t="s">
         <v>86</v>
       </c>
@@ -12583,13 +12646,13 @@
       <c r="H21" s="44"/>
     </row>
     <row r="22" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="101" t="s">
+      <c r="C22" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="104" t="s">
+      <c r="D22" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="107" t="s">
+      <c r="E22" s="119" t="s">
         <v>85</v>
       </c>
       <c r="F22" s="33" t="s">
@@ -12598,18 +12661,18 @@
       <c r="H22" s="44"/>
     </row>
     <row r="23" spans="3:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="C23" s="102"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="108"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="120"/>
       <c r="F23" s="51" t="s">
         <v>126</v>
       </c>
       <c r="H23" s="44"/>
     </row>
     <row r="24" spans="3:8" ht="126.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="102"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="108"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="120"/>
       <c r="F24" s="33" t="s">
         <v>115</v>
       </c>
@@ -12618,63 +12681,63 @@
       </c>
     </row>
     <row r="25" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C25" s="102"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="108"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="120"/>
       <c r="F25" s="33" t="s">
         <v>95</v>
       </c>
       <c r="H25" s="44"/>
     </row>
     <row r="26" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="102"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="108"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="120"/>
       <c r="F26" s="51" t="s">
         <v>96</v>
       </c>
       <c r="H26" s="44"/>
     </row>
     <row r="27" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C27" s="103"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="109"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="121"/>
       <c r="F27" s="51" t="s">
         <v>97</v>
       </c>
       <c r="H27" s="44"/>
     </row>
     <row r="28" spans="3:8" ht="80.25" x14ac:dyDescent="0.25">
-      <c r="C28" s="101" t="s">
+      <c r="C28" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="104" t="s">
+      <c r="D28" s="85" t="s">
         <v>100</v>
       </c>
       <c r="E28" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="98" t="s">
+      <c r="F28" s="114" t="s">
         <v>77</v>
       </c>
       <c r="H28" s="44"/>
     </row>
     <row r="29" spans="3:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="102"/>
-      <c r="D29" s="105"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="118"/>
       <c r="E29" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="F29" s="99"/>
+      <c r="F29" s="115"/>
       <c r="H29" s="44"/>
     </row>
     <row r="30" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="103"/>
-      <c r="D30" s="106"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="86"/>
       <c r="E30" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="99"/>
+      <c r="F30" s="115"/>
       <c r="H30" s="44"/>
     </row>
     <row r="31" spans="3:8" ht="63" x14ac:dyDescent="0.25">
@@ -12687,77 +12750,77 @@
       <c r="E31" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="100"/>
+      <c r="F31" s="116"/>
       <c r="H31" s="44"/>
     </row>
     <row r="32" spans="3:8" ht="95.25" x14ac:dyDescent="0.25">
-      <c r="C32" s="101" t="s">
+      <c r="C32" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="104" t="s">
+      <c r="D32" s="85" t="s">
         <v>105</v>
       </c>
       <c r="E32" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="129" t="s">
+      <c r="F32" s="87" t="s">
         <v>113</v>
       </c>
       <c r="H32" s="44"/>
     </row>
     <row r="33" spans="3:8" ht="95.25" x14ac:dyDescent="0.25">
-      <c r="C33" s="103"/>
-      <c r="D33" s="106"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="86"/>
       <c r="E33" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="130"/>
+      <c r="F33" s="88"/>
       <c r="H33" s="44"/>
     </row>
     <row r="34" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C34" s="101" t="s">
+      <c r="C34" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="123" t="s">
+      <c r="D34" s="89" t="s">
         <v>106</v>
       </c>
       <c r="E34" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="F34" s="129" t="s">
+      <c r="F34" s="87" t="s">
         <v>112</v>
       </c>
       <c r="H34" s="44"/>
     </row>
     <row r="35" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C35" s="103"/>
-      <c r="D35" s="124"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="90"/>
       <c r="E35" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="130"/>
+      <c r="F35" s="88"/>
       <c r="H35" s="44"/>
     </row>
     <row r="36" spans="3:8" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="C36" s="101" t="s">
+      <c r="C36" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="123" t="s">
+      <c r="D36" s="89" t="s">
         <v>107</v>
       </c>
       <c r="E36" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="125"/>
+      <c r="F36" s="95"/>
       <c r="H36" s="44"/>
     </row>
     <row r="37" spans="3:8" ht="80.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="103"/>
-      <c r="D37" s="124"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="90"/>
       <c r="E37" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="126"/>
+      <c r="F37" s="96"/>
       <c r="H37" s="45"/>
     </row>
     <row r="38" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
@@ -12769,18 +12832,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="C4:F6"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="H2:H6"/>
@@ -12797,6 +12848,18 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C34:C35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12811,7 +12874,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB29" sqref="AB29:AB30"/>
+      <selection pane="bottomLeft" activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBCB6F5-E242-4F44-A5B7-33F574EBF8DF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C05E96-5A6E-472F-9DBC-F870F2F833C1}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2912,54 +2912,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3014,10 +2966,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3055,6 +3019,42 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9019,7 +9019,7 @@
               <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             </a:rPr>
-            <a:t>在平民間傳聞是女神詩寇蒂從世界數那火得種子所種下的希望之樹。</a:t>
+            <a:t>在平民間傳聞是女神詩寇蒂從世界數那獲得的種子所種下的希望之樹。</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
@@ -10883,7 +10883,7 @@
               <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             </a:rPr>
-            <a:t>來到了教堂，看見一位重裝騎士，大吼大叫地說這裡我來守護砍向主角！</a:t>
+            <a:t>來到了教堂，看見一位重裝騎士，大吼大叫地說這裡由我來守護便砍向主角！</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1200">
             <a:solidFill>
@@ -12035,7 +12035,7 @@
   <dimension ref="B1:I43"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -12445,7 +12445,7 @@
   <dimension ref="C1:H38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3:F3"/>
     </sheetView>
   </sheetViews>
@@ -12468,86 +12468,86 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-      <c r="H2" s="111" t="s">
+      <c r="H2" s="95" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110"/>
-      <c r="H3" s="112"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
+      <c r="H3" s="96"/>
     </row>
     <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="101"/>
-      <c r="H4" s="112"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="85"/>
+      <c r="H4" s="96"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="102"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="104"/>
-      <c r="H5" s="112"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="88"/>
+      <c r="H5" s="96"/>
     </row>
     <row r="6" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="105"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="107"/>
-      <c r="H6" s="113"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="91"/>
+      <c r="H6" s="97"/>
     </row>
     <row r="8" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="91" t="s">
+      <c r="E9" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="92"/>
+      <c r="F9" s="120"/>
       <c r="H9" s="43"/>
     </row>
     <row r="10" spans="3:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="114" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="129" t="s">
+      <c r="E10" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="130"/>
+      <c r="F10" s="118"/>
       <c r="H10" s="44"/>
     </row>
     <row r="11" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="127"/>
+      <c r="C11" s="115"/>
       <c r="D11" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="93" t="s">
+      <c r="E11" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="94"/>
+      <c r="F11" s="122"/>
       <c r="H11" s="44"/>
     </row>
     <row r="12" spans="3:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="128"/>
+      <c r="C12" s="116"/>
       <c r="D12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="97" t="s">
+      <c r="E12" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="98"/>
+      <c r="F12" s="128"/>
       <c r="H12" s="44"/>
     </row>
     <row r="13" spans="3:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12557,10 +12557,10 @@
       <c r="D13" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="124" t="s">
+      <c r="E13" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="125"/>
+      <c r="F13" s="113"/>
       <c r="H13" s="44"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
@@ -12570,23 +12570,23 @@
       <c r="H15" s="44"/>
     </row>
     <row r="16" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
       <c r="H16" s="44"/>
     </row>
     <row r="17" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C17" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="122" t="s">
+      <c r="D17" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
       <c r="H17" s="44"/>
     </row>
     <row r="18" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12603,10 +12603,10 @@
       <c r="H18" s="44"/>
     </row>
     <row r="19" spans="3:8" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="104" t="s">
         <v>81</v>
       </c>
       <c r="E19" s="33" t="s">
@@ -12620,8 +12620,8 @@
       </c>
     </row>
     <row r="20" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="84"/>
-      <c r="D20" s="86"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="106"/>
       <c r="E20" s="51" t="s">
         <v>86</v>
       </c>
@@ -12646,13 +12646,13 @@
       <c r="H21" s="44"/>
     </row>
     <row r="22" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="85" t="s">
+      <c r="D22" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="119" t="s">
+      <c r="E22" s="107" t="s">
         <v>85</v>
       </c>
       <c r="F22" s="33" t="s">
@@ -12661,18 +12661,18 @@
       <c r="H22" s="44"/>
     </row>
     <row r="23" spans="3:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="C23" s="117"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="120"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="51" t="s">
         <v>126</v>
       </c>
       <c r="H23" s="44"/>
     </row>
     <row r="24" spans="3:8" ht="126.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="117"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="120"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="33" t="s">
         <v>115</v>
       </c>
@@ -12681,63 +12681,63 @@
       </c>
     </row>
     <row r="25" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C25" s="117"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="120"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="108"/>
       <c r="F25" s="33" t="s">
         <v>95</v>
       </c>
       <c r="H25" s="44"/>
     </row>
     <row r="26" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="117"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="120"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="108"/>
       <c r="F26" s="51" t="s">
         <v>96</v>
       </c>
       <c r="H26" s="44"/>
     </row>
     <row r="27" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C27" s="84"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="121"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="109"/>
       <c r="F27" s="51" t="s">
         <v>97</v>
       </c>
       <c r="H27" s="44"/>
     </row>
     <row r="28" spans="3:8" ht="80.25" x14ac:dyDescent="0.25">
-      <c r="C28" s="83" t="s">
+      <c r="C28" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="85" t="s">
+      <c r="D28" s="104" t="s">
         <v>100</v>
       </c>
       <c r="E28" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="114" t="s">
+      <c r="F28" s="98" t="s">
         <v>77</v>
       </c>
       <c r="H28" s="44"/>
     </row>
     <row r="29" spans="3:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="117"/>
-      <c r="D29" s="118"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="105"/>
       <c r="E29" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="F29" s="115"/>
+      <c r="F29" s="99"/>
       <c r="H29" s="44"/>
     </row>
     <row r="30" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="84"/>
-      <c r="D30" s="86"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="106"/>
       <c r="E30" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="115"/>
+      <c r="F30" s="99"/>
       <c r="H30" s="44"/>
     </row>
     <row r="31" spans="3:8" ht="63" x14ac:dyDescent="0.25">
@@ -12750,77 +12750,77 @@
       <c r="E31" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="116"/>
+      <c r="F31" s="100"/>
       <c r="H31" s="44"/>
     </row>
     <row r="32" spans="3:8" ht="95.25" x14ac:dyDescent="0.25">
-      <c r="C32" s="83" t="s">
+      <c r="C32" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="85" t="s">
+      <c r="D32" s="104" t="s">
         <v>105</v>
       </c>
       <c r="E32" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="87" t="s">
+      <c r="F32" s="129" t="s">
         <v>113</v>
       </c>
       <c r="H32" s="44"/>
     </row>
     <row r="33" spans="3:8" ht="95.25" x14ac:dyDescent="0.25">
-      <c r="C33" s="84"/>
-      <c r="D33" s="86"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="106"/>
       <c r="E33" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="88"/>
+      <c r="F33" s="130"/>
       <c r="H33" s="44"/>
     </row>
     <row r="34" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C34" s="83" t="s">
+      <c r="C34" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="89" t="s">
+      <c r="D34" s="123" t="s">
         <v>106</v>
       </c>
       <c r="E34" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="F34" s="87" t="s">
+      <c r="F34" s="129" t="s">
         <v>112</v>
       </c>
       <c r="H34" s="44"/>
     </row>
     <row r="35" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C35" s="84"/>
-      <c r="D35" s="90"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="124"/>
       <c r="E35" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="88"/>
+      <c r="F35" s="130"/>
       <c r="H35" s="44"/>
     </row>
     <row r="36" spans="3:8" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="C36" s="83" t="s">
+      <c r="C36" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="89" t="s">
+      <c r="D36" s="123" t="s">
         <v>107</v>
       </c>
       <c r="E36" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="95"/>
+      <c r="F36" s="125"/>
       <c r="H36" s="44"/>
     </row>
     <row r="37" spans="3:8" ht="80.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="84"/>
-      <c r="D37" s="90"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="124"/>
       <c r="E37" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="96"/>
+      <c r="F37" s="126"/>
       <c r="H37" s="45"/>
     </row>
     <row r="38" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
@@ -12832,6 +12832,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="C4:F6"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="H2:H6"/>
@@ -12848,18 +12860,6 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C34:C35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12874,7 +12874,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U17" sqref="U17"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C05E96-5A6E-472F-9DBC-F870F2F833C1}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D016285A-AB05-41E4-81A6-871026F5DD10}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2912,6 +2912,54 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2966,22 +3014,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3019,42 +3055,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8524,7 +8524,7 @@
               <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             </a:rPr>
-            <a:t>市長房間</a:t>
+            <a:t>鎮長房間</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -12035,7 +12035,7 @@
   <dimension ref="B1:I43"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -12468,86 +12468,86 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-      <c r="H2" s="95" t="s">
+      <c r="H2" s="111" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="94"/>
-      <c r="H3" s="96"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="110"/>
+      <c r="H3" s="112"/>
     </row>
     <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="85"/>
-      <c r="H4" s="96"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="101"/>
+      <c r="H4" s="112"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="86"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="88"/>
-      <c r="H5" s="96"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="104"/>
+      <c r="H5" s="112"/>
     </row>
     <row r="6" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="89"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="91"/>
-      <c r="H6" s="97"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="107"/>
+      <c r="H6" s="113"/>
     </row>
     <row r="8" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="119" t="s">
+      <c r="E9" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="120"/>
+      <c r="F9" s="92"/>
       <c r="H9" s="43"/>
     </row>
     <row r="10" spans="3:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="114" t="s">
+      <c r="C10" s="126" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="117" t="s">
+      <c r="E10" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="118"/>
+      <c r="F10" s="130"/>
       <c r="H10" s="44"/>
     </row>
     <row r="11" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="115"/>
+      <c r="C11" s="127"/>
       <c r="D11" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="121" t="s">
+      <c r="E11" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="122"/>
+      <c r="F11" s="94"/>
       <c r="H11" s="44"/>
     </row>
     <row r="12" spans="3:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="116"/>
+      <c r="C12" s="128"/>
       <c r="D12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="127" t="s">
+      <c r="E12" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="128"/>
+      <c r="F12" s="98"/>
       <c r="H12" s="44"/>
     </row>
     <row r="13" spans="3:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12557,10 +12557,10 @@
       <c r="D13" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="112" t="s">
+      <c r="E13" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="113"/>
+      <c r="F13" s="125"/>
       <c r="H13" s="44"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
@@ -12570,23 +12570,23 @@
       <c r="H15" s="44"/>
     </row>
     <row r="16" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="111" t="s">
+      <c r="C16" s="123" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
       <c r="H16" s="44"/>
     </row>
     <row r="17" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C17" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="110" t="s">
+      <c r="D17" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
       <c r="H17" s="44"/>
     </row>
     <row r="18" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12603,10 +12603,10 @@
       <c r="H18" s="44"/>
     </row>
     <row r="19" spans="3:8" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="101" t="s">
+      <c r="C19" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="104" t="s">
+      <c r="D19" s="85" t="s">
         <v>81</v>
       </c>
       <c r="E19" s="33" t="s">
@@ -12620,8 +12620,8 @@
       </c>
     </row>
     <row r="20" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="103"/>
-      <c r="D20" s="106"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="86"/>
       <c r="E20" s="51" t="s">
         <v>86</v>
       </c>
@@ -12646,13 +12646,13 @@
       <c r="H21" s="44"/>
     </row>
     <row r="22" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="101" t="s">
+      <c r="C22" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="104" t="s">
+      <c r="D22" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="107" t="s">
+      <c r="E22" s="119" t="s">
         <v>85</v>
       </c>
       <c r="F22" s="33" t="s">
@@ -12661,18 +12661,18 @@
       <c r="H22" s="44"/>
     </row>
     <row r="23" spans="3:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="C23" s="102"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="108"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="120"/>
       <c r="F23" s="51" t="s">
         <v>126</v>
       </c>
       <c r="H23" s="44"/>
     </row>
     <row r="24" spans="3:8" ht="126.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="102"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="108"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="120"/>
       <c r="F24" s="33" t="s">
         <v>115</v>
       </c>
@@ -12681,63 +12681,63 @@
       </c>
     </row>
     <row r="25" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C25" s="102"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="108"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="120"/>
       <c r="F25" s="33" t="s">
         <v>95</v>
       </c>
       <c r="H25" s="44"/>
     </row>
     <row r="26" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="102"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="108"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="120"/>
       <c r="F26" s="51" t="s">
         <v>96</v>
       </c>
       <c r="H26" s="44"/>
     </row>
     <row r="27" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C27" s="103"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="109"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="121"/>
       <c r="F27" s="51" t="s">
         <v>97</v>
       </c>
       <c r="H27" s="44"/>
     </row>
     <row r="28" spans="3:8" ht="80.25" x14ac:dyDescent="0.25">
-      <c r="C28" s="101" t="s">
+      <c r="C28" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="104" t="s">
+      <c r="D28" s="85" t="s">
         <v>100</v>
       </c>
       <c r="E28" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="98" t="s">
+      <c r="F28" s="114" t="s">
         <v>77</v>
       </c>
       <c r="H28" s="44"/>
     </row>
     <row r="29" spans="3:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="102"/>
-      <c r="D29" s="105"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="118"/>
       <c r="E29" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="F29" s="99"/>
+      <c r="F29" s="115"/>
       <c r="H29" s="44"/>
     </row>
     <row r="30" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="103"/>
-      <c r="D30" s="106"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="86"/>
       <c r="E30" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="99"/>
+      <c r="F30" s="115"/>
       <c r="H30" s="44"/>
     </row>
     <row r="31" spans="3:8" ht="63" x14ac:dyDescent="0.25">
@@ -12750,77 +12750,77 @@
       <c r="E31" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="100"/>
+      <c r="F31" s="116"/>
       <c r="H31" s="44"/>
     </row>
     <row r="32" spans="3:8" ht="95.25" x14ac:dyDescent="0.25">
-      <c r="C32" s="101" t="s">
+      <c r="C32" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="104" t="s">
+      <c r="D32" s="85" t="s">
         <v>105</v>
       </c>
       <c r="E32" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="129" t="s">
+      <c r="F32" s="87" t="s">
         <v>113</v>
       </c>
       <c r="H32" s="44"/>
     </row>
     <row r="33" spans="3:8" ht="95.25" x14ac:dyDescent="0.25">
-      <c r="C33" s="103"/>
-      <c r="D33" s="106"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="86"/>
       <c r="E33" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="130"/>
+      <c r="F33" s="88"/>
       <c r="H33" s="44"/>
     </row>
     <row r="34" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C34" s="101" t="s">
+      <c r="C34" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="123" t="s">
+      <c r="D34" s="89" t="s">
         <v>106</v>
       </c>
       <c r="E34" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="F34" s="129" t="s">
+      <c r="F34" s="87" t="s">
         <v>112</v>
       </c>
       <c r="H34" s="44"/>
     </row>
     <row r="35" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C35" s="103"/>
-      <c r="D35" s="124"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="90"/>
       <c r="E35" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="130"/>
+      <c r="F35" s="88"/>
       <c r="H35" s="44"/>
     </row>
     <row r="36" spans="3:8" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="C36" s="101" t="s">
+      <c r="C36" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="123" t="s">
+      <c r="D36" s="89" t="s">
         <v>107</v>
       </c>
       <c r="E36" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="125"/>
+      <c r="F36" s="95"/>
       <c r="H36" s="44"/>
     </row>
     <row r="37" spans="3:8" ht="80.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="103"/>
-      <c r="D37" s="124"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="90"/>
       <c r="E37" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="126"/>
+      <c r="F37" s="96"/>
       <c r="H37" s="45"/>
     </row>
     <row r="38" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
@@ -12832,18 +12832,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="C4:F6"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="H2:H6"/>
@@ -12860,6 +12848,18 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C34:C35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12874,7 +12874,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D016285A-AB05-41E4-81A6-871026F5DD10}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34D32B4-04AF-4B55-B065-62D742BCF632}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2912,54 +2912,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3014,10 +2966,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3055,6 +3019,42 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8136,16 +8136,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>146215</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>127658</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>554430</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>168479</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>191572</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>163287</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>599787</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8160,8 +8160,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8841179" y="3910444"/>
-          <a:ext cx="5556250" cy="3913664"/>
+          <a:off x="12923323" y="3611086"/>
+          <a:ext cx="5556250" cy="3913665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8210,16 +8210,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>470557</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>156358</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>293664</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129144</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>435921</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>35130</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>259029</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>7916</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8234,8 +8234,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6103914" y="2714501"/>
-          <a:ext cx="2414650" cy="1103415"/>
+          <a:off x="9600950" y="4184073"/>
+          <a:ext cx="2414650" cy="1103414"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8335,16 +8335,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>132608</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>7669</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>540823</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>48491</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>97972</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>506187</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8359,7 +8359,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11889179" y="3994562"/>
+          <a:off x="15971323" y="3695205"/>
           <a:ext cx="2414650" cy="1434688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8401,16 +8401,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>298614</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>94508</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>503465</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8425,8 +8425,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13279828" y="6436179"/>
-          <a:ext cx="1021279" cy="1319893"/>
+          <a:off x="17361972" y="6136821"/>
+          <a:ext cx="1021279" cy="1319894"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8467,16 +8467,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>328551</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>2721</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>124445</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>125187</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>97972</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>533402</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>138793</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8491,8 +8491,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12085122" y="6438900"/>
-          <a:ext cx="1021279" cy="1319893"/>
+          <a:off x="16167266" y="6139542"/>
+          <a:ext cx="1021279" cy="1319894"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8533,16 +8533,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>434686</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>23997</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>230580</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>64818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>179614</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>195944</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8557,8 +8557,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9129650" y="5031426"/>
-          <a:ext cx="2414650" cy="2196688"/>
+          <a:off x="13211794" y="4732068"/>
+          <a:ext cx="2414650" cy="2196689"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8599,16 +8599,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>353787</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>54430</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176891</xdr:rowOff>
+      <xdr:rowOff>149677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>394609</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>40820</xdr:rowOff>
+      <xdr:rowOff>13606</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8623,7 +8623,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8436430" y="4435927"/>
+          <a:off x="8749394" y="4408713"/>
           <a:ext cx="653143" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -8881,16 +8881,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>312964</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2721</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>125186</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8922,7 +8922,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5946321" y="2381251"/>
+          <a:off x="9443357" y="3850822"/>
           <a:ext cx="914400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8934,16 +8934,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>81644</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>108855</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>435430</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>204105</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>272143</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>163283</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8958,13 +8958,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3265715" y="1646462"/>
-          <a:ext cx="2639785" cy="1279071"/>
+          <a:off x="7293430" y="1605641"/>
+          <a:ext cx="2639785" cy="1524002"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 57853"/>
-            <a:gd name="adj2" fmla="val 28987"/>
+            <a:gd name="adj1" fmla="val 42389"/>
+            <a:gd name="adj2" fmla="val 74579"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -9019,6 +9019,52 @@
               <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             </a:rPr>
+            <a:t>有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>falg2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>開啟</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
             <a:t>在平民間傳聞是女神詩寇蒂從世界數那獲得的種子所種下的希望之樹。</a:t>
           </a:r>
           <a:br>
@@ -9047,16 +9093,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>402772</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>157842</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>225879</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>13606</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>299358</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9071,8 +9117,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6036129" y="2103663"/>
-          <a:ext cx="685800" cy="263979"/>
+          <a:off x="9533165" y="3573235"/>
+          <a:ext cx="685800" cy="263978"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10268,16 +10314,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>313211</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>109105</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>284952</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>188520</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>80846</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>25234</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10309,7 +10355,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13294425" y="6939643"/>
+          <a:off x="17376569" y="6572250"/>
           <a:ext cx="584063" cy="569520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10321,16 +10367,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>359229</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>5443</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>155123</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>46264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>234043</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>70757</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>29937</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>111578</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10345,7 +10391,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13340443" y="7530193"/>
+          <a:off x="17422587" y="7162800"/>
           <a:ext cx="487136" cy="269421"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10932,16 +10978,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>503465</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>157844</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>299359</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>198665</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>272144</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>68038</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10956,8 +11002,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14709322" y="2715987"/>
-          <a:ext cx="2217965" cy="1896834"/>
+          <a:off x="18791466" y="2416629"/>
+          <a:ext cx="2217965" cy="2645228"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -11031,6 +11077,42 @@
             </a:rPr>
             <a:t>主角便走了進去。</a:t>
           </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>在這可獲得</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>flag1 flag2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11038,16 +11120,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>531866</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>27166</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>246117</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>204060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>409066</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>122467</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>123318</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95254</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11079,7 +11161,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="7995190" y="3204627"/>
+          <a:off x="11383370" y="4674200"/>
           <a:ext cx="503515" cy="489522"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11091,16 +11173,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>307521</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>198665</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>130628</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>435428</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>258536</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11115,8 +11197,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7777842" y="3573236"/>
-          <a:ext cx="740229" cy="236765"/>
+          <a:off x="11274878" y="5042808"/>
+          <a:ext cx="740229" cy="236764"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11203,16 +11285,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>404083</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>192105</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>227190</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>164891</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152648</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>204108</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>125434</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11244,7 +11326,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7874404" y="2750248"/>
+          <a:off x="11371440" y="4219820"/>
           <a:ext cx="589239" cy="572864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11256,16 +11338,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>302078</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>43544</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>125185</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>16330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>451755</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>97973</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>274863</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>70759</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11280,8 +11362,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7772399" y="2397580"/>
-          <a:ext cx="761999" cy="258536"/>
+          <a:off x="11269435" y="3867151"/>
+          <a:ext cx="761999" cy="258537"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11325,16 +11407,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>138795</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>111581</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>258536</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>136073</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>231322</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>27216</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11349,13 +11431,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8833759" y="1894113"/>
+          <a:off x="11868152" y="2261506"/>
           <a:ext cx="1344384" cy="1004210"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -84415"/>
-            <a:gd name="adj2" fmla="val 39625"/>
+            <a:gd name="adj1" fmla="val -69233"/>
+            <a:gd name="adj2" fmla="val 104665"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -11391,6 +11473,46 @@
               <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             </a:rPr>
+            <a:t>有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>falg1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>開啟</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
             <a:t>到了墓園看到鷹隼騎士站在瓦格的墓前。</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
@@ -11417,16 +11539,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>84365</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>92531</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>492581</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133352</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>465366</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>13608</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>261260</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11441,7 +11563,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14902544" y="6324602"/>
+          <a:off x="18984688" y="6025245"/>
           <a:ext cx="2217965" cy="1349827"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
@@ -11520,16 +11642,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>102056</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>6805</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>156484</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>20414</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>578306</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47627</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>20413</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>61235</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11544,7 +11666,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="12994823" y="5783038"/>
+          <a:off x="16723180" y="5388432"/>
           <a:ext cx="653143" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -11583,16 +11705,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>146955</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>405494</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>187777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>489857</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>27213</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>68034</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11624,7 +11746,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13590814" y="5630634"/>
+          <a:off x="17672958" y="5263241"/>
           <a:ext cx="492579" cy="492579"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11636,16 +11758,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>106134</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>405493</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>146955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>146955</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>160562</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>555170</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>201383</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11660,7 +11782,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13590813" y="6202134"/>
+          <a:off x="17672957" y="5834741"/>
           <a:ext cx="761999" cy="258535"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11705,16 +11827,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>604500</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>158250</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>400394</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>8572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>222997</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>22179</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>449035</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76608</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11728,9 +11850,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="12643022">
-          <a:off x="8687143" y="3396750"/>
-          <a:ext cx="1455461" cy="476250"/>
+        <a:xfrm>
+          <a:off x="12156965" y="4471715"/>
+          <a:ext cx="660963" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -12468,86 +12590,86 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-      <c r="H2" s="111" t="s">
+      <c r="H2" s="95" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110"/>
-      <c r="H3" s="112"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
+      <c r="H3" s="96"/>
     </row>
     <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="101"/>
-      <c r="H4" s="112"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="85"/>
+      <c r="H4" s="96"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="102"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="104"/>
-      <c r="H5" s="112"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="88"/>
+      <c r="H5" s="96"/>
     </row>
     <row r="6" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="105"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="107"/>
-      <c r="H6" s="113"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="91"/>
+      <c r="H6" s="97"/>
     </row>
     <row r="8" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="91" t="s">
+      <c r="E9" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="92"/>
+      <c r="F9" s="120"/>
       <c r="H9" s="43"/>
     </row>
     <row r="10" spans="3:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="114" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="129" t="s">
+      <c r="E10" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="130"/>
+      <c r="F10" s="118"/>
       <c r="H10" s="44"/>
     </row>
     <row r="11" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="127"/>
+      <c r="C11" s="115"/>
       <c r="D11" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="93" t="s">
+      <c r="E11" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="94"/>
+      <c r="F11" s="122"/>
       <c r="H11" s="44"/>
     </row>
     <row r="12" spans="3:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="128"/>
+      <c r="C12" s="116"/>
       <c r="D12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="97" t="s">
+      <c r="E12" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="98"/>
+      <c r="F12" s="128"/>
       <c r="H12" s="44"/>
     </row>
     <row r="13" spans="3:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12557,10 +12679,10 @@
       <c r="D13" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="124" t="s">
+      <c r="E13" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="125"/>
+      <c r="F13" s="113"/>
       <c r="H13" s="44"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
@@ -12570,23 +12692,23 @@
       <c r="H15" s="44"/>
     </row>
     <row r="16" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
       <c r="H16" s="44"/>
     </row>
     <row r="17" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C17" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="122" t="s">
+      <c r="D17" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
       <c r="H17" s="44"/>
     </row>
     <row r="18" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12603,10 +12725,10 @@
       <c r="H18" s="44"/>
     </row>
     <row r="19" spans="3:8" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="104" t="s">
         <v>81</v>
       </c>
       <c r="E19" s="33" t="s">
@@ -12620,8 +12742,8 @@
       </c>
     </row>
     <row r="20" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="84"/>
-      <c r="D20" s="86"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="106"/>
       <c r="E20" s="51" t="s">
         <v>86</v>
       </c>
@@ -12646,13 +12768,13 @@
       <c r="H21" s="44"/>
     </row>
     <row r="22" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="85" t="s">
+      <c r="D22" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="119" t="s">
+      <c r="E22" s="107" t="s">
         <v>85</v>
       </c>
       <c r="F22" s="33" t="s">
@@ -12661,18 +12783,18 @@
       <c r="H22" s="44"/>
     </row>
     <row r="23" spans="3:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="C23" s="117"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="120"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="51" t="s">
         <v>126</v>
       </c>
       <c r="H23" s="44"/>
     </row>
     <row r="24" spans="3:8" ht="126.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="117"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="120"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="33" t="s">
         <v>115</v>
       </c>
@@ -12681,63 +12803,63 @@
       </c>
     </row>
     <row r="25" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C25" s="117"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="120"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="108"/>
       <c r="F25" s="33" t="s">
         <v>95</v>
       </c>
       <c r="H25" s="44"/>
     </row>
     <row r="26" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="117"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="120"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="108"/>
       <c r="F26" s="51" t="s">
         <v>96</v>
       </c>
       <c r="H26" s="44"/>
     </row>
     <row r="27" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C27" s="84"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="121"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="109"/>
       <c r="F27" s="51" t="s">
         <v>97</v>
       </c>
       <c r="H27" s="44"/>
     </row>
     <row r="28" spans="3:8" ht="80.25" x14ac:dyDescent="0.25">
-      <c r="C28" s="83" t="s">
+      <c r="C28" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="85" t="s">
+      <c r="D28" s="104" t="s">
         <v>100</v>
       </c>
       <c r="E28" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="114" t="s">
+      <c r="F28" s="98" t="s">
         <v>77</v>
       </c>
       <c r="H28" s="44"/>
     </row>
     <row r="29" spans="3:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="117"/>
-      <c r="D29" s="118"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="105"/>
       <c r="E29" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="F29" s="115"/>
+      <c r="F29" s="99"/>
       <c r="H29" s="44"/>
     </row>
     <row r="30" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="84"/>
-      <c r="D30" s="86"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="106"/>
       <c r="E30" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="115"/>
+      <c r="F30" s="99"/>
       <c r="H30" s="44"/>
     </row>
     <row r="31" spans="3:8" ht="63" x14ac:dyDescent="0.25">
@@ -12750,77 +12872,77 @@
       <c r="E31" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="116"/>
+      <c r="F31" s="100"/>
       <c r="H31" s="44"/>
     </row>
     <row r="32" spans="3:8" ht="95.25" x14ac:dyDescent="0.25">
-      <c r="C32" s="83" t="s">
+      <c r="C32" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="85" t="s">
+      <c r="D32" s="104" t="s">
         <v>105</v>
       </c>
       <c r="E32" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="87" t="s">
+      <c r="F32" s="129" t="s">
         <v>113</v>
       </c>
       <c r="H32" s="44"/>
     </row>
     <row r="33" spans="3:8" ht="95.25" x14ac:dyDescent="0.25">
-      <c r="C33" s="84"/>
-      <c r="D33" s="86"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="106"/>
       <c r="E33" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="88"/>
+      <c r="F33" s="130"/>
       <c r="H33" s="44"/>
     </row>
     <row r="34" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C34" s="83" t="s">
+      <c r="C34" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="89" t="s">
+      <c r="D34" s="123" t="s">
         <v>106</v>
       </c>
       <c r="E34" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="F34" s="87" t="s">
+      <c r="F34" s="129" t="s">
         <v>112</v>
       </c>
       <c r="H34" s="44"/>
     </row>
     <row r="35" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C35" s="84"/>
-      <c r="D35" s="90"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="124"/>
       <c r="E35" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="88"/>
+      <c r="F35" s="130"/>
       <c r="H35" s="44"/>
     </row>
     <row r="36" spans="3:8" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="C36" s="83" t="s">
+      <c r="C36" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="89" t="s">
+      <c r="D36" s="123" t="s">
         <v>107</v>
       </c>
       <c r="E36" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="95"/>
+      <c r="F36" s="125"/>
       <c r="H36" s="44"/>
     </row>
     <row r="37" spans="3:8" ht="80.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="84"/>
-      <c r="D37" s="90"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="124"/>
       <c r="E37" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="96"/>
+      <c r="F37" s="126"/>
       <c r="H37" s="45"/>
     </row>
     <row r="38" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
@@ -12832,6 +12954,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="C4:F6"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="H2:H6"/>
@@ -12848,18 +12982,6 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C34:C35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12874,7 +12996,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W11" sqref="W11"/>
+      <selection pane="bottomLeft" activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34D32B4-04AF-4B55-B065-62D742BCF632}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA76293E-4877-470F-AE0A-BF13520DB1DC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1705,7 +1705,7 @@
   </si>
   <si>
     <t>主角隸屬的騎士團是尋找瘟疫解藥的特務單位，在來到傳聞有解藥的城鎮時不幸中了瘟疫……
-關卡流程：哨口喝藥昏倒&gt;醒來街區&gt;在廣場遇到三女&gt;去教堂幹瓦格&gt;最後到地下聖壇&gt;地下聖壇一出去到墓園</t>
+關卡流程：哨口喝藥昏倒&gt;醒來街區&gt;在廣場遇到三女&gt;去教堂幹瓦格&gt;經過墓園&gt;地下聖壇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2912,6 +2912,54 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2966,22 +3014,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3019,42 +3055,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12590,86 +12590,86 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-      <c r="H2" s="95" t="s">
+      <c r="H2" s="111" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="94"/>
-      <c r="H3" s="96"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="110"/>
+      <c r="H3" s="112"/>
     </row>
     <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="85"/>
-      <c r="H4" s="96"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="101"/>
+      <c r="H4" s="112"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="86"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="88"/>
-      <c r="H5" s="96"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="104"/>
+      <c r="H5" s="112"/>
     </row>
     <row r="6" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="89"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="91"/>
-      <c r="H6" s="97"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="107"/>
+      <c r="H6" s="113"/>
     </row>
     <row r="8" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="119" t="s">
+      <c r="E9" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="120"/>
+      <c r="F9" s="92"/>
       <c r="H9" s="43"/>
     </row>
     <row r="10" spans="3:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="114" t="s">
+      <c r="C10" s="126" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="117" t="s">
+      <c r="E10" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="118"/>
+      <c r="F10" s="130"/>
       <c r="H10" s="44"/>
     </row>
     <row r="11" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="115"/>
+      <c r="C11" s="127"/>
       <c r="D11" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="121" t="s">
+      <c r="E11" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="122"/>
+      <c r="F11" s="94"/>
       <c r="H11" s="44"/>
     </row>
     <row r="12" spans="3:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="116"/>
+      <c r="C12" s="128"/>
       <c r="D12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="127" t="s">
+      <c r="E12" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="128"/>
+      <c r="F12" s="98"/>
       <c r="H12" s="44"/>
     </row>
     <row r="13" spans="3:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12679,10 +12679,10 @@
       <c r="D13" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="112" t="s">
+      <c r="E13" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="113"/>
+      <c r="F13" s="125"/>
       <c r="H13" s="44"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
@@ -12692,23 +12692,23 @@
       <c r="H15" s="44"/>
     </row>
     <row r="16" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="111" t="s">
+      <c r="C16" s="123" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
       <c r="H16" s="44"/>
     </row>
     <row r="17" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C17" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="110" t="s">
+      <c r="D17" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
       <c r="H17" s="44"/>
     </row>
     <row r="18" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12725,10 +12725,10 @@
       <c r="H18" s="44"/>
     </row>
     <row r="19" spans="3:8" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="101" t="s">
+      <c r="C19" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="104" t="s">
+      <c r="D19" s="85" t="s">
         <v>81</v>
       </c>
       <c r="E19" s="33" t="s">
@@ -12742,8 +12742,8 @@
       </c>
     </row>
     <row r="20" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="103"/>
-      <c r="D20" s="106"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="86"/>
       <c r="E20" s="51" t="s">
         <v>86</v>
       </c>
@@ -12768,13 +12768,13 @@
       <c r="H21" s="44"/>
     </row>
     <row r="22" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="101" t="s">
+      <c r="C22" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="104" t="s">
+      <c r="D22" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="107" t="s">
+      <c r="E22" s="119" t="s">
         <v>85</v>
       </c>
       <c r="F22" s="33" t="s">
@@ -12783,18 +12783,18 @@
       <c r="H22" s="44"/>
     </row>
     <row r="23" spans="3:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="C23" s="102"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="108"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="120"/>
       <c r="F23" s="51" t="s">
         <v>126</v>
       </c>
       <c r="H23" s="44"/>
     </row>
     <row r="24" spans="3:8" ht="126.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="102"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="108"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="120"/>
       <c r="F24" s="33" t="s">
         <v>115</v>
       </c>
@@ -12803,63 +12803,63 @@
       </c>
     </row>
     <row r="25" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C25" s="102"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="108"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="120"/>
       <c r="F25" s="33" t="s">
         <v>95</v>
       </c>
       <c r="H25" s="44"/>
     </row>
     <row r="26" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="102"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="108"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="120"/>
       <c r="F26" s="51" t="s">
         <v>96</v>
       </c>
       <c r="H26" s="44"/>
     </row>
     <row r="27" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C27" s="103"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="109"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="121"/>
       <c r="F27" s="51" t="s">
         <v>97</v>
       </c>
       <c r="H27" s="44"/>
     </row>
     <row r="28" spans="3:8" ht="80.25" x14ac:dyDescent="0.25">
-      <c r="C28" s="101" t="s">
+      <c r="C28" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="104" t="s">
+      <c r="D28" s="85" t="s">
         <v>100</v>
       </c>
       <c r="E28" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="98" t="s">
+      <c r="F28" s="114" t="s">
         <v>77</v>
       </c>
       <c r="H28" s="44"/>
     </row>
     <row r="29" spans="3:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="102"/>
-      <c r="D29" s="105"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="118"/>
       <c r="E29" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="F29" s="99"/>
+      <c r="F29" s="115"/>
       <c r="H29" s="44"/>
     </row>
     <row r="30" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="103"/>
-      <c r="D30" s="106"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="86"/>
       <c r="E30" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="99"/>
+      <c r="F30" s="115"/>
       <c r="H30" s="44"/>
     </row>
     <row r="31" spans="3:8" ht="63" x14ac:dyDescent="0.25">
@@ -12872,77 +12872,77 @@
       <c r="E31" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="100"/>
+      <c r="F31" s="116"/>
       <c r="H31" s="44"/>
     </row>
     <row r="32" spans="3:8" ht="95.25" x14ac:dyDescent="0.25">
-      <c r="C32" s="101" t="s">
+      <c r="C32" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="104" t="s">
+      <c r="D32" s="85" t="s">
         <v>105</v>
       </c>
       <c r="E32" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="129" t="s">
+      <c r="F32" s="87" t="s">
         <v>113</v>
       </c>
       <c r="H32" s="44"/>
     </row>
     <row r="33" spans="3:8" ht="95.25" x14ac:dyDescent="0.25">
-      <c r="C33" s="103"/>
-      <c r="D33" s="106"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="86"/>
       <c r="E33" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="130"/>
+      <c r="F33" s="88"/>
       <c r="H33" s="44"/>
     </row>
     <row r="34" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C34" s="101" t="s">
+      <c r="C34" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="123" t="s">
+      <c r="D34" s="89" t="s">
         <v>106</v>
       </c>
       <c r="E34" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="F34" s="129" t="s">
+      <c r="F34" s="87" t="s">
         <v>112</v>
       </c>
       <c r="H34" s="44"/>
     </row>
     <row r="35" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C35" s="103"/>
-      <c r="D35" s="124"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="90"/>
       <c r="E35" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="130"/>
+      <c r="F35" s="88"/>
       <c r="H35" s="44"/>
     </row>
     <row r="36" spans="3:8" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="C36" s="101" t="s">
+      <c r="C36" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="123" t="s">
+      <c r="D36" s="89" t="s">
         <v>107</v>
       </c>
       <c r="E36" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="125"/>
+      <c r="F36" s="95"/>
       <c r="H36" s="44"/>
     </row>
     <row r="37" spans="3:8" ht="80.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="103"/>
-      <c r="D37" s="124"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="90"/>
       <c r="E37" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="126"/>
+      <c r="F37" s="96"/>
       <c r="H37" s="45"/>
     </row>
     <row r="38" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
@@ -12954,18 +12954,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="C4:F6"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="H2:H6"/>
@@ -12982,6 +12970,18 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C34:C35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12996,7 +12996,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T32" sqref="T32"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA76293E-4877-470F-AE0A-BF13520DB1DC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D69651A-0776-4B97-BE76-F9267EE430A4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1704,7 +1704,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主角隸屬的騎士團是尋找瘟疫解藥的特務單位，在來到傳聞有解藥的城鎮時不幸中了瘟疫……
+    <t>主角隸屬的騎士團是尋找瘟疫解藥的探查隊，在來到傳聞有解藥的城鎮時不幸中了瘟疫……
 關卡流程：哨口喝藥昏倒&gt;醒來街區&gt;在廣場遇到三女&gt;去教堂幹瓦格&gt;經過墓園&gt;地下聖壇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2912,54 +2912,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3014,10 +2966,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3055,6 +3019,42 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8999,6 +8999,7 @@
               </a:solidFill>
               <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>生命樹</a:t>
           </a:r>
@@ -9009,6 +9010,7 @@
               </a:solidFill>
               <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
           </a:br>
           <a:r>
@@ -9018,41 +9020,39 @@
               </a:solidFill>
               <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>有</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>falg2</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>開啟</a:t>
+            <a:t>開啟可調查</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>:</a:t>
@@ -9064,8 +9064,19 @@
               </a:solidFill>
               <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>在平民間傳聞是女神詩寇蒂從世界數那獲得的種子所種下的希望之樹。</a:t>
+            <a:t>在平民間傳聞是女神詩寇蒂從世界樹那獲得的種子所種下的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>希望之樹。</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
@@ -11409,8 +11420,8 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>111581</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>43542</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
@@ -11431,13 +11442,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11868152" y="2261506"/>
-          <a:ext cx="1344384" cy="1004210"/>
+          <a:off x="11868152" y="2054679"/>
+          <a:ext cx="1344384" cy="1211037"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -69233"/>
-            <a:gd name="adj2" fmla="val 104665"/>
+            <a:gd name="adj1" fmla="val -68221"/>
+            <a:gd name="adj2" fmla="val 92305"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -12158,7 +12169,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12567,8 +12578,8 @@
   <dimension ref="C1:H38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:F3"/>
+      <pane ySplit="7" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12590,86 +12601,86 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-      <c r="H2" s="111" t="s">
+      <c r="H2" s="95" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110"/>
-      <c r="H3" s="112"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
+      <c r="H3" s="96"/>
     </row>
     <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="101"/>
-      <c r="H4" s="112"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="85"/>
+      <c r="H4" s="96"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="102"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="104"/>
-      <c r="H5" s="112"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="88"/>
+      <c r="H5" s="96"/>
     </row>
     <row r="6" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="105"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="107"/>
-      <c r="H6" s="113"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="91"/>
+      <c r="H6" s="97"/>
     </row>
     <row r="8" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="91" t="s">
+      <c r="E9" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="92"/>
+      <c r="F9" s="120"/>
       <c r="H9" s="43"/>
     </row>
     <row r="10" spans="3:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="114" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="129" t="s">
+      <c r="E10" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="130"/>
+      <c r="F10" s="118"/>
       <c r="H10" s="44"/>
     </row>
     <row r="11" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="127"/>
+      <c r="C11" s="115"/>
       <c r="D11" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="93" t="s">
+      <c r="E11" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="94"/>
+      <c r="F11" s="122"/>
       <c r="H11" s="44"/>
     </row>
     <row r="12" spans="3:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="128"/>
+      <c r="C12" s="116"/>
       <c r="D12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="97" t="s">
+      <c r="E12" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="98"/>
+      <c r="F12" s="128"/>
       <c r="H12" s="44"/>
     </row>
     <row r="13" spans="3:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12679,10 +12690,10 @@
       <c r="D13" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="124" t="s">
+      <c r="E13" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="125"/>
+      <c r="F13" s="113"/>
       <c r="H13" s="44"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
@@ -12692,23 +12703,23 @@
       <c r="H15" s="44"/>
     </row>
     <row r="16" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
       <c r="H16" s="44"/>
     </row>
     <row r="17" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C17" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="122" t="s">
+      <c r="D17" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
       <c r="H17" s="44"/>
     </row>
     <row r="18" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12725,10 +12736,10 @@
       <c r="H18" s="44"/>
     </row>
     <row r="19" spans="3:8" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="104" t="s">
         <v>81</v>
       </c>
       <c r="E19" s="33" t="s">
@@ -12742,8 +12753,8 @@
       </c>
     </row>
     <row r="20" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="84"/>
-      <c r="D20" s="86"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="106"/>
       <c r="E20" s="51" t="s">
         <v>86</v>
       </c>
@@ -12768,13 +12779,13 @@
       <c r="H21" s="44"/>
     </row>
     <row r="22" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="85" t="s">
+      <c r="D22" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="119" t="s">
+      <c r="E22" s="107" t="s">
         <v>85</v>
       </c>
       <c r="F22" s="33" t="s">
@@ -12783,18 +12794,18 @@
       <c r="H22" s="44"/>
     </row>
     <row r="23" spans="3:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="C23" s="117"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="120"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="51" t="s">
         <v>126</v>
       </c>
       <c r="H23" s="44"/>
     </row>
     <row r="24" spans="3:8" ht="126.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="117"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="120"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="33" t="s">
         <v>115</v>
       </c>
@@ -12803,63 +12814,63 @@
       </c>
     </row>
     <row r="25" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C25" s="117"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="120"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="108"/>
       <c r="F25" s="33" t="s">
         <v>95</v>
       </c>
       <c r="H25" s="44"/>
     </row>
     <row r="26" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="117"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="120"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="108"/>
       <c r="F26" s="51" t="s">
         <v>96</v>
       </c>
       <c r="H26" s="44"/>
     </row>
     <row r="27" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C27" s="84"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="121"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="109"/>
       <c r="F27" s="51" t="s">
         <v>97</v>
       </c>
       <c r="H27" s="44"/>
     </row>
     <row r="28" spans="3:8" ht="80.25" x14ac:dyDescent="0.25">
-      <c r="C28" s="83" t="s">
+      <c r="C28" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="85" t="s">
+      <c r="D28" s="104" t="s">
         <v>100</v>
       </c>
       <c r="E28" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="114" t="s">
+      <c r="F28" s="98" t="s">
         <v>77</v>
       </c>
       <c r="H28" s="44"/>
     </row>
     <row r="29" spans="3:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="117"/>
-      <c r="D29" s="118"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="105"/>
       <c r="E29" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="F29" s="115"/>
+      <c r="F29" s="99"/>
       <c r="H29" s="44"/>
     </row>
     <row r="30" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="84"/>
-      <c r="D30" s="86"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="106"/>
       <c r="E30" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="115"/>
+      <c r="F30" s="99"/>
       <c r="H30" s="44"/>
     </row>
     <row r="31" spans="3:8" ht="63" x14ac:dyDescent="0.25">
@@ -12872,77 +12883,77 @@
       <c r="E31" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="116"/>
+      <c r="F31" s="100"/>
       <c r="H31" s="44"/>
     </row>
     <row r="32" spans="3:8" ht="95.25" x14ac:dyDescent="0.25">
-      <c r="C32" s="83" t="s">
+      <c r="C32" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="85" t="s">
+      <c r="D32" s="104" t="s">
         <v>105</v>
       </c>
       <c r="E32" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="87" t="s">
+      <c r="F32" s="129" t="s">
         <v>113</v>
       </c>
       <c r="H32" s="44"/>
     </row>
     <row r="33" spans="3:8" ht="95.25" x14ac:dyDescent="0.25">
-      <c r="C33" s="84"/>
-      <c r="D33" s="86"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="106"/>
       <c r="E33" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="88"/>
+      <c r="F33" s="130"/>
       <c r="H33" s="44"/>
     </row>
     <row r="34" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C34" s="83" t="s">
+      <c r="C34" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="89" t="s">
+      <c r="D34" s="123" t="s">
         <v>106</v>
       </c>
       <c r="E34" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="F34" s="87" t="s">
+      <c r="F34" s="129" t="s">
         <v>112</v>
       </c>
       <c r="H34" s="44"/>
     </row>
     <row r="35" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C35" s="84"/>
-      <c r="D35" s="90"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="124"/>
       <c r="E35" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="88"/>
+      <c r="F35" s="130"/>
       <c r="H35" s="44"/>
     </row>
     <row r="36" spans="3:8" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="C36" s="83" t="s">
+      <c r="C36" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="89" t="s">
+      <c r="D36" s="123" t="s">
         <v>107</v>
       </c>
       <c r="E36" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="95"/>
+      <c r="F36" s="125"/>
       <c r="H36" s="44"/>
     </row>
     <row r="37" spans="3:8" ht="80.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="84"/>
-      <c r="D37" s="90"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="124"/>
       <c r="E37" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="96"/>
+      <c r="F37" s="126"/>
       <c r="H37" s="45"/>
     </row>
     <row r="38" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
@@ -12954,6 +12965,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="C4:F6"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="H2:H6"/>
@@ -12970,18 +12993,6 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C34:C35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12996,7 +13007,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="AL20" sqref="AL20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D69651A-0776-4B97-BE76-F9267EE430A4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46838A54-C78D-4975-A769-DF31BEB57543}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2912,6 +2912,54 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2966,22 +3014,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3019,42 +3055,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12169,7 +12169,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12578,8 +12578,8 @@
   <dimension ref="C1:H38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34:F35"/>
+      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12601,86 +12601,86 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-      <c r="H2" s="95" t="s">
+      <c r="H2" s="111" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="94"/>
-      <c r="H3" s="96"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="110"/>
+      <c r="H3" s="112"/>
     </row>
     <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="85"/>
-      <c r="H4" s="96"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="101"/>
+      <c r="H4" s="112"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="86"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="88"/>
-      <c r="H5" s="96"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="104"/>
+      <c r="H5" s="112"/>
     </row>
     <row r="6" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="89"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="91"/>
-      <c r="H6" s="97"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="107"/>
+      <c r="H6" s="113"/>
     </row>
     <row r="8" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="119" t="s">
+      <c r="E9" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="120"/>
+      <c r="F9" s="92"/>
       <c r="H9" s="43"/>
     </row>
     <row r="10" spans="3:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="114" t="s">
+      <c r="C10" s="126" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="117" t="s">
+      <c r="E10" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="118"/>
+      <c r="F10" s="130"/>
       <c r="H10" s="44"/>
     </row>
     <row r="11" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="115"/>
+      <c r="C11" s="127"/>
       <c r="D11" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="121" t="s">
+      <c r="E11" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="122"/>
+      <c r="F11" s="94"/>
       <c r="H11" s="44"/>
     </row>
     <row r="12" spans="3:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="116"/>
+      <c r="C12" s="128"/>
       <c r="D12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="127" t="s">
+      <c r="E12" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="128"/>
+      <c r="F12" s="98"/>
       <c r="H12" s="44"/>
     </row>
     <row r="13" spans="3:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12690,10 +12690,10 @@
       <c r="D13" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="112" t="s">
+      <c r="E13" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="113"/>
+      <c r="F13" s="125"/>
       <c r="H13" s="44"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
@@ -12703,23 +12703,23 @@
       <c r="H15" s="44"/>
     </row>
     <row r="16" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="111" t="s">
+      <c r="C16" s="123" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
       <c r="H16" s="44"/>
     </row>
     <row r="17" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C17" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="110" t="s">
+      <c r="D17" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
       <c r="H17" s="44"/>
     </row>
     <row r="18" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12736,10 +12736,10 @@
       <c r="H18" s="44"/>
     </row>
     <row r="19" spans="3:8" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="101" t="s">
+      <c r="C19" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="104" t="s">
+      <c r="D19" s="85" t="s">
         <v>81</v>
       </c>
       <c r="E19" s="33" t="s">
@@ -12753,8 +12753,8 @@
       </c>
     </row>
     <row r="20" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="103"/>
-      <c r="D20" s="106"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="86"/>
       <c r="E20" s="51" t="s">
         <v>86</v>
       </c>
@@ -12779,13 +12779,13 @@
       <c r="H21" s="44"/>
     </row>
     <row r="22" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="101" t="s">
+      <c r="C22" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="104" t="s">
+      <c r="D22" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="107" t="s">
+      <c r="E22" s="119" t="s">
         <v>85</v>
       </c>
       <c r="F22" s="33" t="s">
@@ -12794,18 +12794,18 @@
       <c r="H22" s="44"/>
     </row>
     <row r="23" spans="3:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="C23" s="102"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="108"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="120"/>
       <c r="F23" s="51" t="s">
         <v>126</v>
       </c>
       <c r="H23" s="44"/>
     </row>
     <row r="24" spans="3:8" ht="126.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="102"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="108"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="120"/>
       <c r="F24" s="33" t="s">
         <v>115</v>
       </c>
@@ -12814,63 +12814,63 @@
       </c>
     </row>
     <row r="25" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C25" s="102"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="108"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="120"/>
       <c r="F25" s="33" t="s">
         <v>95</v>
       </c>
       <c r="H25" s="44"/>
     </row>
     <row r="26" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="102"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="108"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="120"/>
       <c r="F26" s="51" t="s">
         <v>96</v>
       </c>
       <c r="H26" s="44"/>
     </row>
     <row r="27" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C27" s="103"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="109"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="121"/>
       <c r="F27" s="51" t="s">
         <v>97</v>
       </c>
       <c r="H27" s="44"/>
     </row>
     <row r="28" spans="3:8" ht="80.25" x14ac:dyDescent="0.25">
-      <c r="C28" s="101" t="s">
+      <c r="C28" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="104" t="s">
+      <c r="D28" s="85" t="s">
         <v>100</v>
       </c>
       <c r="E28" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="98" t="s">
+      <c r="F28" s="114" t="s">
         <v>77</v>
       </c>
       <c r="H28" s="44"/>
     </row>
     <row r="29" spans="3:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="102"/>
-      <c r="D29" s="105"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="118"/>
       <c r="E29" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="F29" s="99"/>
+      <c r="F29" s="115"/>
       <c r="H29" s="44"/>
     </row>
     <row r="30" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="103"/>
-      <c r="D30" s="106"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="86"/>
       <c r="E30" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="99"/>
+      <c r="F30" s="115"/>
       <c r="H30" s="44"/>
     </row>
     <row r="31" spans="3:8" ht="63" x14ac:dyDescent="0.25">
@@ -12883,77 +12883,77 @@
       <c r="E31" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="100"/>
+      <c r="F31" s="116"/>
       <c r="H31" s="44"/>
     </row>
     <row r="32" spans="3:8" ht="95.25" x14ac:dyDescent="0.25">
-      <c r="C32" s="101" t="s">
+      <c r="C32" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="104" t="s">
+      <c r="D32" s="85" t="s">
         <v>105</v>
       </c>
       <c r="E32" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="129" t="s">
+      <c r="F32" s="87" t="s">
         <v>113</v>
       </c>
       <c r="H32" s="44"/>
     </row>
     <row r="33" spans="3:8" ht="95.25" x14ac:dyDescent="0.25">
-      <c r="C33" s="103"/>
-      <c r="D33" s="106"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="86"/>
       <c r="E33" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="130"/>
+      <c r="F33" s="88"/>
       <c r="H33" s="44"/>
     </row>
     <row r="34" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C34" s="101" t="s">
+      <c r="C34" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="123" t="s">
+      <c r="D34" s="89" t="s">
         <v>106</v>
       </c>
       <c r="E34" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="F34" s="129" t="s">
+      <c r="F34" s="87" t="s">
         <v>112</v>
       </c>
       <c r="H34" s="44"/>
     </row>
     <row r="35" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C35" s="103"/>
-      <c r="D35" s="124"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="90"/>
       <c r="E35" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="130"/>
+      <c r="F35" s="88"/>
       <c r="H35" s="44"/>
     </row>
     <row r="36" spans="3:8" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="C36" s="101" t="s">
+      <c r="C36" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="123" t="s">
+      <c r="D36" s="89" t="s">
         <v>107</v>
       </c>
       <c r="E36" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="125"/>
+      <c r="F36" s="95"/>
       <c r="H36" s="44"/>
     </row>
     <row r="37" spans="3:8" ht="80.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="103"/>
-      <c r="D37" s="124"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="90"/>
       <c r="E37" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="126"/>
+      <c r="F37" s="96"/>
       <c r="H37" s="45"/>
     </row>
     <row r="38" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
@@ -12965,18 +12965,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="C4:F6"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="H2:H6"/>
@@ -12993,6 +12981,18 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C34:C35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13007,7 +13007,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL20" sqref="AL20"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46838A54-C78D-4975-A769-DF31BEB57543}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803D9EB2-310D-43F8-AB08-3CC8036AB764}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舊世界末日編年史" sheetId="1" r:id="rId1"/>
@@ -3137,8 +3137,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11511965" y="7183932"/>
-          <a:ext cx="12602935" cy="15781405"/>
+          <a:off x="10515922" y="6982546"/>
+          <a:ext cx="11506200" cy="15803176"/>
           <a:chOff x="11335072" y="7183932"/>
           <a:chExt cx="12439650" cy="16026333"/>
         </a:xfrm>
@@ -7493,8 +7493,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="319818" y="242834"/>
-          <a:ext cx="9842015" cy="7904629"/>
+          <a:off x="313095" y="245075"/>
+          <a:ext cx="8909685" cy="7380194"/>
           <a:chOff x="474458" y="325757"/>
           <a:chExt cx="8909685" cy="7380194"/>
         </a:xfrm>
@@ -7628,8 +7628,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11066931" y="1353671"/>
-          <a:ext cx="11162852" cy="6450621"/>
+          <a:off x="10145807" y="1284195"/>
+          <a:ext cx="10113982" cy="6546991"/>
           <a:chOff x="10121153" y="1398494"/>
           <a:chExt cx="10113982" cy="6546991"/>
         </a:xfrm>
@@ -8283,15 +8283,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>156432</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>108189</xdr:rowOff>
+      <xdr:colOff>348589</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>187702</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>300842</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>27462</xdr:rowOff>
+      <xdr:colOff>492999</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>106975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8323,8 +8323,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6402111" y="9810082"/>
-          <a:ext cx="756731" cy="735701"/>
+          <a:off x="5960885" y="9026902"/>
+          <a:ext cx="694375" cy="687899"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8535,14 +8535,14 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>230580</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>64818</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>195944</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>16328</xdr:rowOff>
+      <xdr:colOff>293914</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8557,8 +8557,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13211794" y="4732068"/>
-          <a:ext cx="2414650" cy="2196689"/>
+          <a:off x="11780323" y="4310743"/>
+          <a:ext cx="2240477" cy="2645227"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8663,15 +8663,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>176892</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
+      <xdr:colOff>388927</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>130511</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>326570</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
+      <xdr:colOff>538605</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>172989</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8686,8 +8686,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6422571" y="9470572"/>
-          <a:ext cx="761999" cy="258536"/>
+          <a:off x="6001223" y="9738337"/>
+          <a:ext cx="699643" cy="234635"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8721,7 +8721,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
             <a:t>鷹隼騎士</a:t>
           </a:r>
         </a:p>
@@ -8731,16 +8734,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>138793</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>166007</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>423714</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>355</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>13608</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>510208</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>27213</xdr:rowOff>
+      <xdr:rowOff>53718</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8755,8 +8758,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5159829" y="6398078"/>
-          <a:ext cx="487136" cy="269421"/>
+          <a:off x="4386114" y="6149364"/>
+          <a:ext cx="636459" cy="245519"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8797,7 +8800,7 @@
               <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             </a:rPr>
-            <a:t>三女</a:t>
+            <a:t>艾娃</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8813,7 +8816,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>220436</xdr:colOff>
+      <xdr:colOff>331305</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>70756</xdr:rowOff>
     </xdr:to>
@@ -8830,8 +8833,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7815943" y="4808764"/>
-          <a:ext cx="487136" cy="269421"/>
+          <a:off x="7057848" y="4603947"/>
+          <a:ext cx="535648" cy="257470"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9344,7 +9347,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
             <a:t>克弗思</a:t>
           </a:r>
         </a:p>
@@ -9411,9 +9417,16 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>小夥伴</a:t>
           </a:r>
         </a:p>
@@ -9532,13 +9545,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>416380</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>117021</xdr:rowOff>
+      <xdr:rowOff>117020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>81643</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>45719</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9553,8 +9566,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4212773" y="12880521"/>
-          <a:ext cx="889906" cy="236765"/>
+          <a:off x="3822520" y="12126140"/>
+          <a:ext cx="886640" cy="309699"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9588,22 +9601,48 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>小夥伴</a:t>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>小</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>夥伴</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
             <a:t>(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
             <a:t>死</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
             <a:t>)</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10027,7 +10066,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
             <a:t>克弗思</a:t>
           </a:r>
         </a:p>
@@ -10212,7 +10254,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
             <a:t>克弗思</a:t>
           </a:r>
         </a:p>
@@ -10223,15 +10268,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>291194</xdr:colOff>
+      <xdr:colOff>443050</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:rowOff>12518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>59873</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:colOff>211729</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10246,8 +10291,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10210801" y="7987393"/>
-          <a:ext cx="2217965" cy="2748643"/>
+          <a:off x="9335590" y="7449638"/>
+          <a:ext cx="1963239" cy="3241222"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -10257,7 +10302,7 @@
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:schemeClr val="accent2"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -10311,7 +10356,37 @@
             </a:rPr>
             <a:t>……</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>輪迴起始點</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -10385,7 +10460,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>29937</xdr:colOff>
+      <xdr:colOff>106017</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>111578</xdr:rowOff>
     </xdr:to>
@@ -10402,8 +10477,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17422587" y="7162800"/>
-          <a:ext cx="487136" cy="269421"/>
+          <a:off x="15666793" y="6771742"/>
+          <a:ext cx="500859" cy="257471"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10435,17 +10510,21 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100" b="1">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>三女</a:t>
+            <a:t>艾娃</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="zh-TW">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10563,9 +10642,16 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>克弗思</a:t>
           </a:r>
         </a:p>
@@ -10576,15 +10662,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>484415</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>29937</xdr:rowOff>
+      <xdr:colOff>514895</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>60961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>253095</xdr:colOff>
+      <xdr:colOff>283575</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
+      <xdr:rowOff>59873</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10599,8 +10685,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219201" y="5445580"/>
-          <a:ext cx="2217965" cy="1330778"/>
+          <a:off x="1177835" y="4815841"/>
+          <a:ext cx="1963240" cy="1538152"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -10790,7 +10876,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
             <a:t>克弗思</a:t>
           </a:r>
         </a:p>
@@ -10898,7 +10987,7 @@
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:srgbClr val="FF0000"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -11408,7 +11497,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
             <a:t>鷹隼騎士</a:t>
           </a:r>
         </a:p>
@@ -11828,7 +11920,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1"/>
             <a:t>克弗思</a:t>
           </a:r>
         </a:p>
@@ -12169,31 +12261,31 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="2.375" style="9" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="126.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="126.75" style="9" customWidth="1"/>
     <col min="5" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="97.42578125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="97.375" style="9" customWidth="1"/>
     <col min="10" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="68"/>
     </row>
-    <row r="4" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="69" t="s">
         <v>15</v>
       </c>
@@ -12203,12 +12295,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="71"/>
       <c r="D5" s="72"/>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="2:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="73"/>
       <c r="D6" s="74"/>
       <c r="F6" s="12"/>
@@ -12216,18 +12308,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
     </row>
-    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
     </row>
-    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="78" t="s">
         <v>30</v>
       </c>
@@ -12238,7 +12330,7 @@
       <c r="H9" s="57"/>
       <c r="I9" s="58"/>
     </row>
-    <row r="10" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="18" x14ac:dyDescent="0.3">
       <c r="C10" s="15" t="s">
         <v>3</v>
       </c>
@@ -12255,7 +12347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
@@ -12272,7 +12364,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
@@ -12289,7 +12381,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="75" t="s">
         <v>9</v>
       </c>
@@ -12306,7 +12398,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="76"/>
       <c r="D14" s="2" t="s">
         <v>13</v>
@@ -12321,7 +12413,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="76"/>
       <c r="D15" s="2" t="s">
         <v>14</v>
@@ -12336,7 +12428,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="76"/>
       <c r="D16" s="2" t="s">
         <v>16</v>
@@ -12345,7 +12437,7 @@
       <c r="H16" s="82"/>
       <c r="I16" s="80"/>
     </row>
-    <row r="17" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:9" ht="18" x14ac:dyDescent="0.3">
       <c r="C17" s="76"/>
       <c r="D17" s="2" t="s">
         <v>17</v>
@@ -12354,7 +12446,7 @@
       <c r="H17" s="82"/>
       <c r="I17" s="80"/>
     </row>
-    <row r="18" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="76"/>
       <c r="D18" s="2" t="s">
         <v>18</v>
@@ -12369,7 +12461,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:9" ht="18" x14ac:dyDescent="0.3">
       <c r="C19" s="76"/>
       <c r="D19" s="2" t="s">
         <v>19</v>
@@ -12378,7 +12470,7 @@
       <c r="H19" s="82"/>
       <c r="I19" s="80"/>
     </row>
-    <row r="20" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:9" ht="36" x14ac:dyDescent="0.3">
       <c r="C20" s="76"/>
       <c r="D20" s="2" t="s">
         <v>20</v>
@@ -12387,7 +12479,7 @@
       <c r="H20" s="82"/>
       <c r="I20" s="80"/>
     </row>
-    <row r="21" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:9" ht="36" x14ac:dyDescent="0.3">
       <c r="C21" s="77"/>
       <c r="D21" s="2" t="s">
         <v>21</v>
@@ -12396,7 +12488,7 @@
       <c r="H21" s="82"/>
       <c r="I21" s="80"/>
     </row>
-    <row r="22" spans="3:9" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:9" ht="90.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" s="6" t="s">
         <v>10</v>
       </c>
@@ -12413,7 +12505,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:9" ht="36" x14ac:dyDescent="0.3">
       <c r="C23" s="6" t="s">
         <v>22</v>
       </c>
@@ -12421,7 +12513,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="3:9" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:9" ht="126.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C24" s="7" t="s">
         <v>11</v>
       </c>
@@ -12429,15 +12521,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="3:9" ht="18" x14ac:dyDescent="0.3">
       <c r="C27" s="59" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="60"/>
     </row>
-    <row r="28" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:9" ht="18" x14ac:dyDescent="0.3">
       <c r="C28" s="17" t="s">
         <v>3</v>
       </c>
@@ -12445,7 +12537,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:9" ht="18" x14ac:dyDescent="0.3">
       <c r="C29" s="61" t="s">
         <v>27</v>
       </c>
@@ -12453,31 +12545,31 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:9" ht="36" x14ac:dyDescent="0.3">
       <c r="C30" s="62"/>
       <c r="D30" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:9" ht="36" x14ac:dyDescent="0.3">
       <c r="C31" s="62"/>
       <c r="D31" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:9" ht="36" x14ac:dyDescent="0.3">
       <c r="C32" s="62"/>
       <c r="D32" s="18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="3:4" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" ht="36" x14ac:dyDescent="0.3">
       <c r="C33" s="63"/>
       <c r="D33" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="3:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" ht="72" x14ac:dyDescent="0.3">
       <c r="C34" s="5" t="s">
         <v>28</v>
       </c>
@@ -12485,7 +12577,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="3:4" ht="168.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" ht="162" x14ac:dyDescent="0.3">
       <c r="C35" s="5" t="s">
         <v>6</v>
       </c>
@@ -12493,7 +12585,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="3:4" ht="168.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4" ht="162" x14ac:dyDescent="0.3">
       <c r="C36" s="6" t="s">
         <v>7</v>
       </c>
@@ -12501,7 +12593,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="3:4" ht="131.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:4" ht="126" x14ac:dyDescent="0.3">
       <c r="C37" s="64" t="s">
         <v>8</v>
       </c>
@@ -12509,25 +12601,25 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="3:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4" ht="72" x14ac:dyDescent="0.3">
       <c r="C38" s="65"/>
       <c r="D38" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="3:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:4" ht="162" x14ac:dyDescent="0.3">
       <c r="C39" s="65"/>
       <c r="D39" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="3:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:4" ht="90.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C40" s="66"/>
       <c r="D40" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="3:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="3:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="G9:I9"/>
@@ -12560,12 +12652,12 @@
       <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12578,26 +12670,26 @@
   <dimension ref="C1:H38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="1.125" style="9" customWidth="1"/>
     <col min="2" max="2" width="5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.42578125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="51.140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="51.125" style="9" customWidth="1"/>
     <col min="7" max="7" width="9" style="9"/>
-    <col min="8" max="8" width="16.140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="9" customWidth="1"/>
     <col min="9" max="12" width="9" style="9" customWidth="1"/>
     <col min="13" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:8" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
@@ -12605,7 +12697,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="108" t="s">
         <v>2</v>
       </c>
@@ -12614,7 +12706,7 @@
       <c r="F3" s="110"/>
       <c r="H3" s="112"/>
     </row>
-    <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="99" t="s">
         <v>87</v>
       </c>
@@ -12623,22 +12715,22 @@
       <c r="F4" s="101"/>
       <c r="H4" s="112"/>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="102"/>
       <c r="D5" s="103"/>
       <c r="E5" s="103"/>
       <c r="F5" s="104"/>
       <c r="H5" s="112"/>
     </row>
-    <row r="6" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="105"/>
       <c r="D6" s="106"/>
       <c r="E6" s="106"/>
       <c r="F6" s="107"/>
       <c r="H6" s="113"/>
     </row>
-    <row r="8" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="3:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="35" t="s">
         <v>3</v>
       </c>
@@ -12648,7 +12740,7 @@
       <c r="F9" s="92"/>
       <c r="H9" s="43"/>
     </row>
-    <row r="10" spans="3:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="126" t="s">
         <v>70</v>
       </c>
@@ -12661,7 +12753,7 @@
       <c r="F10" s="130"/>
       <c r="H10" s="44"/>
     </row>
-    <row r="11" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="127"/>
       <c r="D11" s="37" t="s">
         <v>123</v>
@@ -12672,7 +12764,7 @@
       <c r="F11" s="94"/>
       <c r="H11" s="44"/>
     </row>
-    <row r="12" spans="3:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="128"/>
       <c r="D12" s="38" t="s">
         <v>69</v>
@@ -12683,7 +12775,7 @@
       <c r="F12" s="98"/>
       <c r="H12" s="44"/>
     </row>
-    <row r="13" spans="3:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="31" t="s">
         <v>71</v>
       </c>
@@ -12696,13 +12788,13 @@
       <c r="F13" s="125"/>
       <c r="H13" s="44"/>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
       <c r="H14" s="44"/>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
       <c r="H15" s="44"/>
     </row>
-    <row r="16" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="123" t="s">
         <v>124</v>
       </c>
@@ -12711,7 +12803,7 @@
       <c r="F16" s="123"/>
       <c r="H16" s="44"/>
     </row>
-    <row r="17" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:8" ht="18" x14ac:dyDescent="0.3">
       <c r="C17" s="50" t="s">
         <v>74</v>
       </c>
@@ -12722,7 +12814,7 @@
       <c r="F17" s="122"/>
       <c r="H17" s="44"/>
     </row>
-    <row r="18" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="40"/>
       <c r="D18" s="41" t="s">
         <v>82</v>
@@ -12735,7 +12827,7 @@
       </c>
       <c r="H18" s="44"/>
     </row>
-    <row r="19" spans="3:8" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="C19" s="83" t="s">
         <v>75</v>
       </c>
@@ -12752,7 +12844,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="C20" s="84"/>
       <c r="D20" s="86"/>
       <c r="E20" s="51" t="s">
@@ -12763,7 +12855,7 @@
       </c>
       <c r="H20" s="44"/>
     </row>
-    <row r="21" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:8" ht="78" x14ac:dyDescent="0.3">
       <c r="C21" s="41" t="s">
         <v>76</v>
       </c>
@@ -12778,7 +12870,7 @@
       </c>
       <c r="H21" s="44"/>
     </row>
-    <row r="22" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="C22" s="83" t="s">
         <v>90</v>
       </c>
@@ -12793,7 +12885,7 @@
       </c>
       <c r="H22" s="44"/>
     </row>
-    <row r="23" spans="3:8" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:8" ht="109.2" x14ac:dyDescent="0.3">
       <c r="C23" s="117"/>
       <c r="D23" s="118"/>
       <c r="E23" s="120"/>
@@ -12802,7 +12894,7 @@
       </c>
       <c r="H23" s="44"/>
     </row>
-    <row r="24" spans="3:8" ht="126.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:8" ht="140.4" x14ac:dyDescent="0.3">
       <c r="C24" s="117"/>
       <c r="D24" s="118"/>
       <c r="E24" s="120"/>
@@ -12813,7 +12905,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:8" ht="78" x14ac:dyDescent="0.3">
       <c r="C25" s="117"/>
       <c r="D25" s="118"/>
       <c r="E25" s="120"/>
@@ -12822,7 +12914,7 @@
       </c>
       <c r="H25" s="44"/>
     </row>
-    <row r="26" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C26" s="117"/>
       <c r="D26" s="118"/>
       <c r="E26" s="120"/>
@@ -12831,7 +12923,7 @@
       </c>
       <c r="H26" s="44"/>
     </row>
-    <row r="27" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:8" ht="78" x14ac:dyDescent="0.3">
       <c r="C27" s="84"/>
       <c r="D27" s="86"/>
       <c r="E27" s="121"/>
@@ -12840,7 +12932,7 @@
       </c>
       <c r="H27" s="44"/>
     </row>
-    <row r="28" spans="3:8" ht="80.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:8" ht="78" x14ac:dyDescent="0.3">
       <c r="C28" s="83" t="s">
         <v>78</v>
       </c>
@@ -12855,7 +12947,7 @@
       </c>
       <c r="H28" s="44"/>
     </row>
-    <row r="29" spans="3:8" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:8" ht="140.4" x14ac:dyDescent="0.3">
       <c r="C29" s="117"/>
       <c r="D29" s="118"/>
       <c r="E29" s="51" t="s">
@@ -12864,7 +12956,7 @@
       <c r="F29" s="115"/>
       <c r="H29" s="44"/>
     </row>
-    <row r="30" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:8" ht="78" x14ac:dyDescent="0.3">
       <c r="C30" s="84"/>
       <c r="D30" s="86"/>
       <c r="E30" s="51" t="s">
@@ -12873,7 +12965,7 @@
       <c r="F30" s="115"/>
       <c r="H30" s="44"/>
     </row>
-    <row r="31" spans="3:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="C31" s="41" t="s">
         <v>101</v>
       </c>
@@ -12886,7 +12978,7 @@
       <c r="F31" s="116"/>
       <c r="H31" s="44"/>
     </row>
-    <row r="32" spans="3:8" ht="95.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:8" ht="93.6" x14ac:dyDescent="0.3">
       <c r="C32" s="83" t="s">
         <v>111</v>
       </c>
@@ -12901,7 +12993,7 @@
       </c>
       <c r="H32" s="44"/>
     </row>
-    <row r="33" spans="3:8" ht="95.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:8" ht="93.6" x14ac:dyDescent="0.3">
       <c r="C33" s="84"/>
       <c r="D33" s="86"/>
       <c r="E33" s="51" t="s">
@@ -12910,7 +13002,7 @@
       <c r="F33" s="88"/>
       <c r="H33" s="44"/>
     </row>
-    <row r="34" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:8" ht="93.6" x14ac:dyDescent="0.3">
       <c r="C34" s="83" t="s">
         <v>79</v>
       </c>
@@ -12925,7 +13017,7 @@
       </c>
       <c r="H34" s="44"/>
     </row>
-    <row r="35" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:8" ht="78" x14ac:dyDescent="0.3">
       <c r="C35" s="84"/>
       <c r="D35" s="90"/>
       <c r="E35" s="51" t="s">
@@ -12934,7 +13026,7 @@
       <c r="F35" s="88"/>
       <c r="H35" s="44"/>
     </row>
-    <row r="36" spans="3:8" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:8" ht="124.8" x14ac:dyDescent="0.3">
       <c r="C36" s="83" t="s">
         <v>80</v>
       </c>
@@ -12947,7 +13039,7 @@
       <c r="F36" s="95"/>
       <c r="H36" s="44"/>
     </row>
-    <row r="37" spans="3:8" ht="80.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:8" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C37" s="84"/>
       <c r="D37" s="90"/>
       <c r="E37" s="51" t="s">
@@ -12956,7 +13048,7 @@
       <c r="F37" s="96"/>
       <c r="H37" s="45"/>
     </row>
-    <row r="38" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:8" ht="18" x14ac:dyDescent="0.3">
       <c r="C38" s="46"/>
       <c r="D38" s="47"/>
       <c r="E38" s="48"/>
@@ -13007,16 +13099,16 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="1" max="1" width="1.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="131" t="s">
         <v>2</v>
       </c>
@@ -13035,7 +13127,7 @@
       <c r="O2" s="132"/>
       <c r="P2" s="133"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B3" s="134" t="s">
         <v>127</v>
       </c>
@@ -13054,7 +13146,7 @@
       <c r="O3" s="135"/>
       <c r="P3" s="136"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B4" s="137"/>
       <c r="C4" s="138"/>
       <c r="D4" s="138"/>
@@ -13071,7 +13163,7 @@
       <c r="O4" s="138"/>
       <c r="P4" s="139"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B5" s="137"/>
       <c r="C5" s="138"/>
       <c r="D5" s="138"/>
@@ -13088,7 +13180,7 @@
       <c r="O5" s="138"/>
       <c r="P5" s="139"/>
     </row>
-    <row r="6" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="140"/>
       <c r="C6" s="141"/>
       <c r="D6" s="141"/>
@@ -13106,10 +13198,10 @@
       <c r="P6" s="142"/>
       <c r="V6" s="55"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="54"/>
     </row>
-    <row r="30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:P2"/>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803D9EB2-310D-43F8-AB08-3CC8036AB764}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C1CBEE-241B-4EA0-9C93-71F75E88FE7D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="舊世界末日編年史" sheetId="1" r:id="rId1"/>
@@ -2912,54 +2912,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3014,10 +2966,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3055,6 +3019,42 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8031,15 +8031,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>419348</xdr:colOff>
+      <xdr:colOff>514597</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>160810</xdr:rowOff>
+      <xdr:rowOff>188025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>502475</xdr:colOff>
+      <xdr:colOff>597724</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>22513</xdr:rowOff>
+      <xdr:rowOff>49728</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8071,7 +8071,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5440384" y="5984667"/>
+          <a:off x="5535633" y="6079918"/>
           <a:ext cx="695448" cy="678131"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8885,15 +8885,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>136071</xdr:colOff>
+      <xdr:colOff>149679</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>54430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:colOff>451758</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>97972</xdr:rowOff>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8925,7 +8925,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9443357" y="3850822"/>
+          <a:off x="9456965" y="3905251"/>
           <a:ext cx="914400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10302,7 +10302,7 @@
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -10355,36 +10355,6 @@
               <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             </a:rPr>
             <a:t>……</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-            <a:t>輪迴起始點</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-            <a:t>)</a:t>
           </a:r>
           <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
             <a:solidFill>
@@ -10661,16 +10631,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>514895</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>60961</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>65859</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>183426</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>283575</xdr:colOff>
+      <xdr:colOff>446860</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>59873</xdr:rowOff>
+      <xdr:rowOff>68036</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10685,18 +10655,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1177835" y="4815841"/>
-          <a:ext cx="1963240" cy="1538152"/>
+          <a:off x="1412966" y="4850676"/>
+          <a:ext cx="2217965" cy="1925681"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 95117"/>
-            <a:gd name="adj2" fmla="val 84771"/>
+            <a:gd name="adj1" fmla="val 96344"/>
+            <a:gd name="adj2" fmla="val 55585"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:srgbClr val="FFC000"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -10748,7 +10718,88 @@
               <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             </a:rPr>
-            <a:t>……</a:t>
+            <a:t>……(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>輪迴起始點</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>註</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>三女與主角互動不同代表著不同周目</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…</a:t>
           </a:r>
           <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
@@ -12264,28 +12315,28 @@
       <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="9" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="14.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="126.75" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="126.7109375" style="9" customWidth="1"/>
     <col min="5" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="10.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="97.375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="97.42578125" style="9" customWidth="1"/>
     <col min="10" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="68"/>
     </row>
-    <row r="4" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="69" t="s">
         <v>15</v>
       </c>
@@ -12295,12 +12346,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="71"/>
       <c r="D5" s="72"/>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="2:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="73"/>
       <c r="D6" s="74"/>
       <c r="F6" s="12"/>
@@ -12308,18 +12359,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
     </row>
-    <row r="8" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
     </row>
-    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="78" t="s">
         <v>30</v>
       </c>
@@ -12330,7 +12381,7 @@
       <c r="H9" s="57"/>
       <c r="I9" s="58"/>
     </row>
-    <row r="10" spans="2:9" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C10" s="15" t="s">
         <v>3</v>
       </c>
@@ -12347,7 +12398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
@@ -12364,7 +12415,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
@@ -12381,7 +12432,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="75" t="s">
         <v>9</v>
       </c>
@@ -12398,7 +12449,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="76"/>
       <c r="D14" s="2" t="s">
         <v>13</v>
@@ -12413,7 +12464,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="76"/>
       <c r="D15" s="2" t="s">
         <v>14</v>
@@ -12428,7 +12479,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="76"/>
       <c r="D16" s="2" t="s">
         <v>16</v>
@@ -12437,7 +12488,7 @@
       <c r="H16" s="82"/>
       <c r="I16" s="80"/>
     </row>
-    <row r="17" spans="3:9" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C17" s="76"/>
       <c r="D17" s="2" t="s">
         <v>17</v>
@@ -12446,7 +12497,7 @@
       <c r="H17" s="82"/>
       <c r="I17" s="80"/>
     </row>
-    <row r="18" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="76"/>
       <c r="D18" s="2" t="s">
         <v>18</v>
@@ -12461,7 +12512,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="3:9" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C19" s="76"/>
       <c r="D19" s="2" t="s">
         <v>19</v>
@@ -12470,7 +12521,7 @@
       <c r="H19" s="82"/>
       <c r="I19" s="80"/>
     </row>
-    <row r="20" spans="3:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="C20" s="76"/>
       <c r="D20" s="2" t="s">
         <v>20</v>
@@ -12479,7 +12530,7 @@
       <c r="H20" s="82"/>
       <c r="I20" s="80"/>
     </row>
-    <row r="21" spans="3:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="C21" s="77"/>
       <c r="D21" s="2" t="s">
         <v>21</v>
@@ -12488,7 +12539,7 @@
       <c r="H21" s="82"/>
       <c r="I21" s="80"/>
     </row>
-    <row r="22" spans="3:9" ht="90.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:9" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="6" t="s">
         <v>10</v>
       </c>
@@ -12505,7 +12556,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="3:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="C23" s="6" t="s">
         <v>22</v>
       </c>
@@ -12513,7 +12564,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="3:9" ht="126.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:9" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="7" t="s">
         <v>11</v>
       </c>
@@ -12521,15 +12572,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="3:9" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C27" s="59" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="60"/>
     </row>
-    <row r="28" spans="3:9" ht="18" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C28" s="17" t="s">
         <v>3</v>
       </c>
@@ -12537,7 +12588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="3:9" ht="18" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C29" s="61" t="s">
         <v>27</v>
       </c>
@@ -12545,31 +12596,31 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="3:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="C30" s="62"/>
       <c r="D30" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="3:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="C31" s="62"/>
       <c r="D31" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="3:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="C32" s="62"/>
       <c r="D32" s="18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="3:4" ht="36" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="C33" s="63"/>
       <c r="D33" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="3:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:4" ht="75" x14ac:dyDescent="0.25">
       <c r="C34" s="5" t="s">
         <v>28</v>
       </c>
@@ -12577,7 +12628,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="3:4" ht="162" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:4" ht="168.75" x14ac:dyDescent="0.25">
       <c r="C35" s="5" t="s">
         <v>6</v>
       </c>
@@ -12585,7 +12636,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="3:4" ht="162" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:4" ht="168.75" x14ac:dyDescent="0.25">
       <c r="C36" s="6" t="s">
         <v>7</v>
       </c>
@@ -12593,7 +12644,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="3:4" ht="126" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:4" ht="131.25" x14ac:dyDescent="0.25">
       <c r="C37" s="64" t="s">
         <v>8</v>
       </c>
@@ -12601,25 +12652,25 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="3:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:4" ht="75" x14ac:dyDescent="0.25">
       <c r="C38" s="65"/>
       <c r="D38" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="3:4" ht="162" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:4" ht="150" x14ac:dyDescent="0.25">
       <c r="C39" s="65"/>
       <c r="D39" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="3:4" ht="90.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="66"/>
       <c r="D40" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="3:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="3:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="G9:I9"/>
@@ -12652,12 +12703,12 @@
       <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12674,147 +12725,147 @@
       <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="1.140625" style="9" customWidth="1"/>
     <col min="2" max="2" width="5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="51.125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="51.140625" style="9" customWidth="1"/>
     <col min="7" max="7" width="9" style="9"/>
-    <col min="8" max="8" width="16.125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="9" customWidth="1"/>
     <col min="9" max="12" width="9" style="9" customWidth="1"/>
     <col min="13" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:8" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-      <c r="H2" s="111" t="s">
+      <c r="H2" s="95" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="108" t="s">
+    <row r="3" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110"/>
-      <c r="H3" s="112"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
+      <c r="H3" s="96"/>
     </row>
-    <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="99" t="s">
+    <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="101"/>
-      <c r="H4" s="112"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="85"/>
+      <c r="H4" s="96"/>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="102"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="104"/>
-      <c r="H5" s="112"/>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="86"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="88"/>
+      <c r="H5" s="96"/>
     </row>
-    <row r="6" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="105"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="107"/>
-      <c r="H6" s="113"/>
+    <row r="6" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="91"/>
+      <c r="H6" s="97"/>
     </row>
-    <row r="8" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="3:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="91" t="s">
+      <c r="E9" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="92"/>
+      <c r="F9" s="120"/>
       <c r="H9" s="43"/>
     </row>
-    <row r="10" spans="3:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="126" t="s">
+    <row r="10" spans="3:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="114" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="129" t="s">
+      <c r="E10" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="130"/>
+      <c r="F10" s="118"/>
       <c r="H10" s="44"/>
     </row>
-    <row r="11" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="127"/>
+    <row r="11" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="115"/>
       <c r="D11" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="93" t="s">
+      <c r="E11" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="94"/>
+      <c r="F11" s="122"/>
       <c r="H11" s="44"/>
     </row>
-    <row r="12" spans="3:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="128"/>
+    <row r="12" spans="3:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="116"/>
       <c r="D12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="97" t="s">
+      <c r="E12" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="98"/>
+      <c r="F12" s="128"/>
       <c r="H12" s="44"/>
     </row>
-    <row r="13" spans="3:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="31" t="s">
         <v>71</v>
       </c>
       <c r="D13" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="124" t="s">
+      <c r="E13" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="125"/>
+      <c r="F13" s="113"/>
       <c r="H13" s="44"/>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H14" s="44"/>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H15" s="44"/>
     </row>
-    <row r="16" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="123" t="s">
+    <row r="16" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
       <c r="H16" s="44"/>
     </row>
-    <row r="17" spans="3:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C17" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="122" t="s">
+      <c r="D17" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
       <c r="H17" s="44"/>
     </row>
-    <row r="18" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="40"/>
       <c r="D18" s="41" t="s">
         <v>82</v>
@@ -12827,11 +12878,11 @@
       </c>
       <c r="H18" s="44"/>
     </row>
-    <row r="19" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="C19" s="83" t="s">
+    <row r="19" spans="3:8" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="104" t="s">
         <v>81</v>
       </c>
       <c r="E19" s="33" t="s">
@@ -12844,9 +12895,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="C20" s="84"/>
-      <c r="D20" s="86"/>
+    <row r="20" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="103"/>
+      <c r="D20" s="106"/>
       <c r="E20" s="51" t="s">
         <v>86</v>
       </c>
@@ -12855,7 +12906,7 @@
       </c>
       <c r="H20" s="44"/>
     </row>
-    <row r="21" spans="3:8" ht="78" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
       <c r="C21" s="41" t="s">
         <v>76</v>
       </c>
@@ -12870,14 +12921,14 @@
       </c>
       <c r="H21" s="44"/>
     </row>
-    <row r="22" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="C22" s="83" t="s">
+    <row r="22" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="85" t="s">
+      <c r="D22" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="119" t="s">
+      <c r="E22" s="107" t="s">
         <v>85</v>
       </c>
       <c r="F22" s="33" t="s">
@@ -12885,19 +12936,19 @@
       </c>
       <c r="H22" s="44"/>
     </row>
-    <row r="23" spans="3:8" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="C23" s="117"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="120"/>
+    <row r="23" spans="3:8" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="C23" s="102"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="51" t="s">
         <v>126</v>
       </c>
       <c r="H23" s="44"/>
     </row>
-    <row r="24" spans="3:8" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="C24" s="117"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="120"/>
+    <row r="24" spans="3:8" ht="126.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="102"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="33" t="s">
         <v>115</v>
       </c>
@@ -12905,67 +12956,67 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C25" s="117"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="120"/>
+    <row r="25" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
+      <c r="C25" s="102"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="108"/>
       <c r="F25" s="33" t="s">
         <v>95</v>
       </c>
       <c r="H25" s="44"/>
     </row>
-    <row r="26" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C26" s="117"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="120"/>
+    <row r="26" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="102"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="108"/>
       <c r="F26" s="51" t="s">
         <v>96</v>
       </c>
       <c r="H26" s="44"/>
     </row>
-    <row r="27" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C27" s="84"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="121"/>
+    <row r="27" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
+      <c r="C27" s="103"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="109"/>
       <c r="F27" s="51" t="s">
         <v>97</v>
       </c>
       <c r="H27" s="44"/>
     </row>
-    <row r="28" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C28" s="83" t="s">
+    <row r="28" spans="3:8" ht="80.25" x14ac:dyDescent="0.25">
+      <c r="C28" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="85" t="s">
+      <c r="D28" s="104" t="s">
         <v>100</v>
       </c>
       <c r="E28" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="114" t="s">
+      <c r="F28" s="98" t="s">
         <v>77</v>
       </c>
       <c r="H28" s="44"/>
     </row>
-    <row r="29" spans="3:8" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="C29" s="117"/>
-      <c r="D29" s="118"/>
+    <row r="29" spans="3:8" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="102"/>
+      <c r="D29" s="105"/>
       <c r="E29" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="F29" s="115"/>
+      <c r="F29" s="99"/>
       <c r="H29" s="44"/>
     </row>
-    <row r="30" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C30" s="84"/>
-      <c r="D30" s="86"/>
+    <row r="30" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="103"/>
+      <c r="D30" s="106"/>
       <c r="E30" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="115"/>
+      <c r="F30" s="99"/>
       <c r="H30" s="44"/>
     </row>
-    <row r="31" spans="3:8" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:8" ht="63" x14ac:dyDescent="0.25">
       <c r="C31" s="41" t="s">
         <v>101</v>
       </c>
@@ -12975,80 +13026,80 @@
       <c r="E31" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="116"/>
+      <c r="F31" s="100"/>
       <c r="H31" s="44"/>
     </row>
-    <row r="32" spans="3:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="C32" s="83" t="s">
+    <row r="32" spans="3:8" ht="95.25" x14ac:dyDescent="0.25">
+      <c r="C32" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="85" t="s">
+      <c r="D32" s="104" t="s">
         <v>105</v>
       </c>
       <c r="E32" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="87" t="s">
+      <c r="F32" s="129" t="s">
         <v>113</v>
       </c>
       <c r="H32" s="44"/>
     </row>
-    <row r="33" spans="3:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="C33" s="84"/>
-      <c r="D33" s="86"/>
+    <row r="33" spans="3:8" ht="95.25" x14ac:dyDescent="0.25">
+      <c r="C33" s="103"/>
+      <c r="D33" s="106"/>
       <c r="E33" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="88"/>
+      <c r="F33" s="130"/>
       <c r="H33" s="44"/>
     </row>
-    <row r="34" spans="3:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="C34" s="83" t="s">
+    <row r="34" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
+      <c r="C34" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="89" t="s">
+      <c r="D34" s="123" t="s">
         <v>106</v>
       </c>
       <c r="E34" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="F34" s="87" t="s">
+      <c r="F34" s="129" t="s">
         <v>112</v>
       </c>
       <c r="H34" s="44"/>
     </row>
-    <row r="35" spans="3:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="C35" s="84"/>
-      <c r="D35" s="90"/>
+    <row r="35" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="C35" s="103"/>
+      <c r="D35" s="124"/>
       <c r="E35" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="88"/>
+      <c r="F35" s="130"/>
       <c r="H35" s="44"/>
     </row>
-    <row r="36" spans="3:8" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="C36" s="83" t="s">
+    <row r="36" spans="3:8" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="C36" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="89" t="s">
+      <c r="D36" s="123" t="s">
         <v>107</v>
       </c>
       <c r="E36" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="95"/>
+      <c r="F36" s="125"/>
       <c r="H36" s="44"/>
     </row>
-    <row r="37" spans="3:8" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="84"/>
-      <c r="D37" s="90"/>
+    <row r="37" spans="3:8" ht="80.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="103"/>
+      <c r="D37" s="124"/>
       <c r="E37" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="96"/>
+      <c r="F37" s="126"/>
       <c r="H37" s="45"/>
     </row>
-    <row r="38" spans="3:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C38" s="46"/>
       <c r="D38" s="47"/>
       <c r="E38" s="48"/>
@@ -13057,6 +13108,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="C4:F6"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="H2:H6"/>
@@ -13073,18 +13136,6 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C34:C35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13097,18 +13148,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F49F43-5FC4-4907-BD88-955C516A5EA0}">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V31" sqref="V31"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.875" customWidth="1"/>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="131" t="s">
         <v>2</v>
       </c>
@@ -13127,7 +13178,7 @@
       <c r="O2" s="132"/>
       <c r="P2" s="133"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B3" s="134" t="s">
         <v>127</v>
       </c>
@@ -13146,7 +13197,7 @@
       <c r="O3" s="135"/>
       <c r="P3" s="136"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" s="137"/>
       <c r="C4" s="138"/>
       <c r="D4" s="138"/>
@@ -13163,7 +13214,7 @@
       <c r="O4" s="138"/>
       <c r="P4" s="139"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5" s="137"/>
       <c r="C5" s="138"/>
       <c r="D5" s="138"/>
@@ -13180,7 +13231,7 @@
       <c r="O5" s="138"/>
       <c r="P5" s="139"/>
     </row>
-    <row r="6" spans="1:22" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="140"/>
       <c r="C6" s="141"/>
       <c r="D6" s="141"/>
@@ -13198,10 +13249,10 @@
       <c r="P6" s="142"/>
       <c r="V6" s="55"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="54"/>
     </row>
-    <row r="30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:P2"/>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C1CBEE-241B-4EA0-9C93-71F75E88FE7D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA2F25C-62D3-45DC-804A-5D1A55D28CDC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2912,6 +2912,54 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2966,22 +3014,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3019,42 +3055,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11080,27 +11080,7 @@
               <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             </a:rPr>
-            <a:t>來到了教堂，看見一位重裝騎士，大吼大叫地說這裡由我來守護便砍向主角！</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-            <a:t>（</a:t>
+            <a:t>來到了教堂，敲響鐘聲，突然在旁的重裝騎士，大吼大叫地說這裡由我來守護便砍向主角！（</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
@@ -12744,86 +12724,86 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-      <c r="H2" s="95" t="s">
+      <c r="H2" s="111" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="94"/>
-      <c r="H3" s="96"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="110"/>
+      <c r="H3" s="112"/>
     </row>
     <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="85"/>
-      <c r="H4" s="96"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="101"/>
+      <c r="H4" s="112"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="86"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="88"/>
-      <c r="H5" s="96"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="104"/>
+      <c r="H5" s="112"/>
     </row>
     <row r="6" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="89"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="91"/>
-      <c r="H6" s="97"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="107"/>
+      <c r="H6" s="113"/>
     </row>
     <row r="8" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="119" t="s">
+      <c r="E9" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="120"/>
+      <c r="F9" s="92"/>
       <c r="H9" s="43"/>
     </row>
     <row r="10" spans="3:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="114" t="s">
+      <c r="C10" s="126" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="117" t="s">
+      <c r="E10" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="118"/>
+      <c r="F10" s="130"/>
       <c r="H10" s="44"/>
     </row>
     <row r="11" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="115"/>
+      <c r="C11" s="127"/>
       <c r="D11" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="121" t="s">
+      <c r="E11" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="122"/>
+      <c r="F11" s="94"/>
       <c r="H11" s="44"/>
     </row>
     <row r="12" spans="3:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="116"/>
+      <c r="C12" s="128"/>
       <c r="D12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="127" t="s">
+      <c r="E12" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="128"/>
+      <c r="F12" s="98"/>
       <c r="H12" s="44"/>
     </row>
     <row r="13" spans="3:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12833,10 +12813,10 @@
       <c r="D13" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="112" t="s">
+      <c r="E13" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="113"/>
+      <c r="F13" s="125"/>
       <c r="H13" s="44"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
@@ -12846,23 +12826,23 @@
       <c r="H15" s="44"/>
     </row>
     <row r="16" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="111" t="s">
+      <c r="C16" s="123" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
       <c r="H16" s="44"/>
     </row>
     <row r="17" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C17" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="110" t="s">
+      <c r="D17" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
       <c r="H17" s="44"/>
     </row>
     <row r="18" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12879,10 +12859,10 @@
       <c r="H18" s="44"/>
     </row>
     <row r="19" spans="3:8" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="101" t="s">
+      <c r="C19" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="104" t="s">
+      <c r="D19" s="85" t="s">
         <v>81</v>
       </c>
       <c r="E19" s="33" t="s">
@@ -12896,8 +12876,8 @@
       </c>
     </row>
     <row r="20" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="103"/>
-      <c r="D20" s="106"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="86"/>
       <c r="E20" s="51" t="s">
         <v>86</v>
       </c>
@@ -12922,13 +12902,13 @@
       <c r="H21" s="44"/>
     </row>
     <row r="22" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="101" t="s">
+      <c r="C22" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="104" t="s">
+      <c r="D22" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="107" t="s">
+      <c r="E22" s="119" t="s">
         <v>85</v>
       </c>
       <c r="F22" s="33" t="s">
@@ -12937,18 +12917,18 @@
       <c r="H22" s="44"/>
     </row>
     <row r="23" spans="3:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="C23" s="102"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="108"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="120"/>
       <c r="F23" s="51" t="s">
         <v>126</v>
       </c>
       <c r="H23" s="44"/>
     </row>
     <row r="24" spans="3:8" ht="126.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="102"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="108"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="120"/>
       <c r="F24" s="33" t="s">
         <v>115</v>
       </c>
@@ -12957,63 +12937,63 @@
       </c>
     </row>
     <row r="25" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C25" s="102"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="108"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="120"/>
       <c r="F25" s="33" t="s">
         <v>95</v>
       </c>
       <c r="H25" s="44"/>
     </row>
     <row r="26" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="102"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="108"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="120"/>
       <c r="F26" s="51" t="s">
         <v>96</v>
       </c>
       <c r="H26" s="44"/>
     </row>
     <row r="27" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C27" s="103"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="109"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="121"/>
       <c r="F27" s="51" t="s">
         <v>97</v>
       </c>
       <c r="H27" s="44"/>
     </row>
     <row r="28" spans="3:8" ht="80.25" x14ac:dyDescent="0.25">
-      <c r="C28" s="101" t="s">
+      <c r="C28" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="104" t="s">
+      <c r="D28" s="85" t="s">
         <v>100</v>
       </c>
       <c r="E28" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="98" t="s">
+      <c r="F28" s="114" t="s">
         <v>77</v>
       </c>
       <c r="H28" s="44"/>
     </row>
     <row r="29" spans="3:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="102"/>
-      <c r="D29" s="105"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="118"/>
       <c r="E29" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="F29" s="99"/>
+      <c r="F29" s="115"/>
       <c r="H29" s="44"/>
     </row>
     <row r="30" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="103"/>
-      <c r="D30" s="106"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="86"/>
       <c r="E30" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="99"/>
+      <c r="F30" s="115"/>
       <c r="H30" s="44"/>
     </row>
     <row r="31" spans="3:8" ht="63" x14ac:dyDescent="0.25">
@@ -13026,77 +13006,77 @@
       <c r="E31" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="100"/>
+      <c r="F31" s="116"/>
       <c r="H31" s="44"/>
     </row>
     <row r="32" spans="3:8" ht="95.25" x14ac:dyDescent="0.25">
-      <c r="C32" s="101" t="s">
+      <c r="C32" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="104" t="s">
+      <c r="D32" s="85" t="s">
         <v>105</v>
       </c>
       <c r="E32" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="129" t="s">
+      <c r="F32" s="87" t="s">
         <v>113</v>
       </c>
       <c r="H32" s="44"/>
     </row>
     <row r="33" spans="3:8" ht="95.25" x14ac:dyDescent="0.25">
-      <c r="C33" s="103"/>
-      <c r="D33" s="106"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="86"/>
       <c r="E33" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="130"/>
+      <c r="F33" s="88"/>
       <c r="H33" s="44"/>
     </row>
     <row r="34" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C34" s="101" t="s">
+      <c r="C34" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="123" t="s">
+      <c r="D34" s="89" t="s">
         <v>106</v>
       </c>
       <c r="E34" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="F34" s="129" t="s">
+      <c r="F34" s="87" t="s">
         <v>112</v>
       </c>
       <c r="H34" s="44"/>
     </row>
     <row r="35" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C35" s="103"/>
-      <c r="D35" s="124"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="90"/>
       <c r="E35" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="130"/>
+      <c r="F35" s="88"/>
       <c r="H35" s="44"/>
     </row>
     <row r="36" spans="3:8" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="C36" s="101" t="s">
+      <c r="C36" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="123" t="s">
+      <c r="D36" s="89" t="s">
         <v>107</v>
       </c>
       <c r="E36" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="125"/>
+      <c r="F36" s="95"/>
       <c r="H36" s="44"/>
     </row>
     <row r="37" spans="3:8" ht="80.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="103"/>
-      <c r="D37" s="124"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="90"/>
       <c r="E37" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="126"/>
+      <c r="F37" s="96"/>
       <c r="H37" s="45"/>
     </row>
     <row r="38" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
@@ -13108,18 +13088,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="C4:F6"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="H2:H6"/>
@@ -13136,6 +13104,18 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C34:C35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13150,7 +13130,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA2F25C-62D3-45DC-804A-5D1A55D28CDC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D1317E-08DA-44BD-9436-2269D56993D8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2912,54 +2912,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3014,10 +2966,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3055,6 +3019,42 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8800,7 +8800,7 @@
               <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             </a:rPr>
-            <a:t>艾娃</a:t>
+            <a:t>艾絲彌</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10430,7 +10430,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>106017</xdr:colOff>
+      <xdr:colOff>241788</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>111578</xdr:rowOff>
     </xdr:to>
@@ -10447,8 +10447,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15666793" y="6771742"/>
-          <a:ext cx="500859" cy="257471"/>
+          <a:off x="17307450" y="6970206"/>
+          <a:ext cx="694800" cy="263141"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10480,6 +10480,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100" b="1">
               <a:solidFill>
@@ -10490,7 +10491,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>艾娃</a:t>
+            <a:t>艾</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>絲彌</a:t>
           </a:r>
           <a:endParaRPr lang="zh-TW" altLang="zh-TW">
             <a:effectLst/>
@@ -12724,86 +12737,86 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-      <c r="H2" s="111" t="s">
+      <c r="H2" s="95" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110"/>
-      <c r="H3" s="112"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
+      <c r="H3" s="96"/>
     </row>
     <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="101"/>
-      <c r="H4" s="112"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="85"/>
+      <c r="H4" s="96"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="102"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="104"/>
-      <c r="H5" s="112"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="88"/>
+      <c r="H5" s="96"/>
     </row>
     <row r="6" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="105"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="107"/>
-      <c r="H6" s="113"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="91"/>
+      <c r="H6" s="97"/>
     </row>
     <row r="8" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="91" t="s">
+      <c r="E9" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="92"/>
+      <c r="F9" s="120"/>
       <c r="H9" s="43"/>
     </row>
     <row r="10" spans="3:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="114" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="129" t="s">
+      <c r="E10" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="130"/>
+      <c r="F10" s="118"/>
       <c r="H10" s="44"/>
     </row>
     <row r="11" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="127"/>
+      <c r="C11" s="115"/>
       <c r="D11" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="93" t="s">
+      <c r="E11" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="94"/>
+      <c r="F11" s="122"/>
       <c r="H11" s="44"/>
     </row>
     <row r="12" spans="3:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="128"/>
+      <c r="C12" s="116"/>
       <c r="D12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="97" t="s">
+      <c r="E12" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="98"/>
+      <c r="F12" s="128"/>
       <c r="H12" s="44"/>
     </row>
     <row r="13" spans="3:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12813,10 +12826,10 @@
       <c r="D13" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="124" t="s">
+      <c r="E13" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="125"/>
+      <c r="F13" s="113"/>
       <c r="H13" s="44"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
@@ -12826,23 +12839,23 @@
       <c r="H15" s="44"/>
     </row>
     <row r="16" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
       <c r="H16" s="44"/>
     </row>
     <row r="17" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C17" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="122" t="s">
+      <c r="D17" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
       <c r="H17" s="44"/>
     </row>
     <row r="18" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12859,10 +12872,10 @@
       <c r="H18" s="44"/>
     </row>
     <row r="19" spans="3:8" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="104" t="s">
         <v>81</v>
       </c>
       <c r="E19" s="33" t="s">
@@ -12876,8 +12889,8 @@
       </c>
     </row>
     <row r="20" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="84"/>
-      <c r="D20" s="86"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="106"/>
       <c r="E20" s="51" t="s">
         <v>86</v>
       </c>
@@ -12902,13 +12915,13 @@
       <c r="H21" s="44"/>
     </row>
     <row r="22" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="85" t="s">
+      <c r="D22" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="119" t="s">
+      <c r="E22" s="107" t="s">
         <v>85</v>
       </c>
       <c r="F22" s="33" t="s">
@@ -12917,18 +12930,18 @@
       <c r="H22" s="44"/>
     </row>
     <row r="23" spans="3:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="C23" s="117"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="120"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="51" t="s">
         <v>126</v>
       </c>
       <c r="H23" s="44"/>
     </row>
     <row r="24" spans="3:8" ht="126.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="117"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="120"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="33" t="s">
         <v>115</v>
       </c>
@@ -12937,63 +12950,63 @@
       </c>
     </row>
     <row r="25" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C25" s="117"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="120"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="108"/>
       <c r="F25" s="33" t="s">
         <v>95</v>
       </c>
       <c r="H25" s="44"/>
     </row>
     <row r="26" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="117"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="120"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="108"/>
       <c r="F26" s="51" t="s">
         <v>96</v>
       </c>
       <c r="H26" s="44"/>
     </row>
     <row r="27" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C27" s="84"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="121"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="109"/>
       <c r="F27" s="51" t="s">
         <v>97</v>
       </c>
       <c r="H27" s="44"/>
     </row>
     <row r="28" spans="3:8" ht="80.25" x14ac:dyDescent="0.25">
-      <c r="C28" s="83" t="s">
+      <c r="C28" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="85" t="s">
+      <c r="D28" s="104" t="s">
         <v>100</v>
       </c>
       <c r="E28" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="114" t="s">
+      <c r="F28" s="98" t="s">
         <v>77</v>
       </c>
       <c r="H28" s="44"/>
     </row>
     <row r="29" spans="3:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="117"/>
-      <c r="D29" s="118"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="105"/>
       <c r="E29" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="F29" s="115"/>
+      <c r="F29" s="99"/>
       <c r="H29" s="44"/>
     </row>
     <row r="30" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="84"/>
-      <c r="D30" s="86"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="106"/>
       <c r="E30" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="115"/>
+      <c r="F30" s="99"/>
       <c r="H30" s="44"/>
     </row>
     <row r="31" spans="3:8" ht="63" x14ac:dyDescent="0.25">
@@ -13006,77 +13019,77 @@
       <c r="E31" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="116"/>
+      <c r="F31" s="100"/>
       <c r="H31" s="44"/>
     </row>
     <row r="32" spans="3:8" ht="95.25" x14ac:dyDescent="0.25">
-      <c r="C32" s="83" t="s">
+      <c r="C32" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="85" t="s">
+      <c r="D32" s="104" t="s">
         <v>105</v>
       </c>
       <c r="E32" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="87" t="s">
+      <c r="F32" s="129" t="s">
         <v>113</v>
       </c>
       <c r="H32" s="44"/>
     </row>
     <row r="33" spans="3:8" ht="95.25" x14ac:dyDescent="0.25">
-      <c r="C33" s="84"/>
-      <c r="D33" s="86"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="106"/>
       <c r="E33" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="88"/>
+      <c r="F33" s="130"/>
       <c r="H33" s="44"/>
     </row>
     <row r="34" spans="3:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="C34" s="83" t="s">
+      <c r="C34" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="89" t="s">
+      <c r="D34" s="123" t="s">
         <v>106</v>
       </c>
       <c r="E34" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="F34" s="87" t="s">
+      <c r="F34" s="129" t="s">
         <v>112</v>
       </c>
       <c r="H34" s="44"/>
     </row>
     <row r="35" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="C35" s="84"/>
-      <c r="D35" s="90"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="124"/>
       <c r="E35" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="88"/>
+      <c r="F35" s="130"/>
       <c r="H35" s="44"/>
     </row>
     <row r="36" spans="3:8" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="C36" s="83" t="s">
+      <c r="C36" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="89" t="s">
+      <c r="D36" s="123" t="s">
         <v>107</v>
       </c>
       <c r="E36" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="95"/>
+      <c r="F36" s="125"/>
       <c r="H36" s="44"/>
     </row>
     <row r="37" spans="3:8" ht="80.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="84"/>
-      <c r="D37" s="90"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="124"/>
       <c r="E37" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="96"/>
+      <c r="F37" s="126"/>
       <c r="H37" s="45"/>
     </row>
     <row r="38" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
@@ -13088,6 +13101,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="C4:F6"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="H2:H6"/>
@@ -13104,18 +13129,6 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C34:C35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13128,9 +13141,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F49F43-5FC4-4907-BD88-955C516A5EA0}">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/文案/瘟疫Project_WorldView.xlsx
+++ b/文案/瘟疫Project_WorldView.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D1317E-08DA-44BD-9436-2269D56993D8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D095B8-4E91-4A76-81FE-7152F0ECA60D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3137,8 +3137,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10515922" y="6982546"/>
-          <a:ext cx="11506200" cy="15803176"/>
+          <a:off x="11511965" y="7183932"/>
+          <a:ext cx="12602935" cy="15781405"/>
           <a:chOff x="11335072" y="7183932"/>
           <a:chExt cx="12439650" cy="16026333"/>
         </a:xfrm>
@@ -7493,8 +7493,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="313095" y="245075"/>
-          <a:ext cx="8909685" cy="7380194"/>
+          <a:off x="319818" y="242834"/>
+          <a:ext cx="9842015" cy="7904629"/>
           <a:chOff x="474458" y="325757"/>
           <a:chExt cx="8909685" cy="7380194"/>
         </a:xfrm>
@@ -7628,8 +7628,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10145807" y="1284195"/>
-          <a:ext cx="10113982" cy="6546991"/>
+          <a:off x="11066931" y="1353671"/>
+          <a:ext cx="11162852" cy="6450621"/>
           <a:chOff x="10121153" y="1398494"/>
           <a:chExt cx="10113982" cy="6546991"/>
         </a:xfrm>
@@ -8467,16 +8467,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>124445</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>595092</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>43542</xdr:rowOff>
+      <xdr:rowOff>32336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>533402</xdr:colOff>
+      <xdr:colOff>549088</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>138793</xdr:rowOff>
+      <xdr:rowOff>127587</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8491,8 +8491,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16167266" y="6139542"/>
-          <a:ext cx="1021279" cy="1319894"/>
+          <a:off x="15846298" y="6072307"/>
+          <a:ext cx="1164231" cy="1305486"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8524,7 +8524,7 @@
               <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             </a:rPr>
-            <a:t>鎮長房間</a:t>
+            <a:t>會議室</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9098,7 +9098,7 @@
               <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             </a:rPr>
-            <a:t>上面會有許多平民掛上去的願望牌。</a:t>
+            <a:t>上面會有許多平民掛上去的遺物。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11813,8 +11813,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="16723180" y="5388432"/>
-          <a:ext cx="653143" cy="476250"/>
+          <a:off x="16529479" y="5330801"/>
+          <a:ext cx="645939" cy="469047"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -12304,7 +12304,7 @@
   <dimension ref="B1:I43"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -12714,7 +12714,7 @@
   <dimension ref="C1:H38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -13142,8 +13142,8 @@
   <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:P6"/>
+      <pane ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
